--- a/config_1.19/shoping_config.xlsx
+++ b/config_1.19/shoping_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4257" uniqueCount="1921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4344" uniqueCount="1963">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8248,6 +8248,171 @@
   </si>
   <si>
     <t>604800,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭字礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜字礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>发字礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>财字礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新玩家、免费、小额</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1-v7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v8-v12</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","2万小游戏币","恭字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","5万小游戏币","恭字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万金币","3.8万小游戏币","喜字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","5万小游戏币","发字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","10万小游戏币","财字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","10万小游戏币","喜字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","20万小游戏币","发字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","40万小游戏币","财字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","10万小游戏币","恭字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","20万小游戏币","喜字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","40万小游戏币","发字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","80万小游戏币","财字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_csbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_gong",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_xi",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_fa",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_cai",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000,20000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,38000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,50000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,100000,1,</t>
+  </si>
+  <si>
+    <t>4800000,100000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,400000,1,</t>
+  </si>
+  <si>
+    <t>19800000,400000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,800000,1,</t>
+  </si>
+  <si>
+    <t>9800000,200000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,50000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,100000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,200000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,3,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>99999999</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_free_001" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_v1v7_001" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_v8v12_001" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8413,12 +8578,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -8432,6 +8591,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8478,7 +8643,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8692,31 +8857,34 @@
     <xf numFmtId="49" fontId="3" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="15" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="15" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -8725,10 +8893,10 @@
     <xf numFmtId="49" fontId="3" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -8737,16 +8905,10 @@
     <xf numFmtId="49" fontId="3" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9212,8 +9374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG24"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -11155,13 +11317,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN520"/>
+  <dimension ref="A1:AN532"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H500" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H499" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A520" sqref="A520:XFD520"/>
+      <selection pane="bottomRight" activeCell="B525" sqref="B525"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -11205,7 +11367,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="1" customFormat="1" ht="94.5">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -15004,298 +15166,298 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:35" s="71" customFormat="1">
+    <row r="67" spans="1:35" s="69" customFormat="1">
       <c r="A67" s="5">
         <v>66</v>
       </c>
-      <c r="B67" s="71">
+      <c r="B67" s="69">
         <v>85</v>
       </c>
-      <c r="D67" s="71">
+      <c r="D67" s="69">
         <v>2</v>
       </c>
-      <c r="F67" s="71">
-        <v>0</v>
-      </c>
-      <c r="G67" s="71" t="s">
+      <c r="F67" s="69">
+        <v>0</v>
+      </c>
+      <c r="G67" s="69" t="s">
         <v>1757</v>
       </c>
-      <c r="H67" s="71" t="s">
+      <c r="H67" s="69" t="s">
         <v>1753</v>
       </c>
-      <c r="L67" s="71">
+      <c r="L67" s="69">
         <v>-4</v>
       </c>
-      <c r="M67" s="71">
-        <v>0</v>
-      </c>
-      <c r="N67" s="71">
-        <v>0</v>
-      </c>
-      <c r="O67" s="71" t="s">
+      <c r="M67" s="69">
+        <v>0</v>
+      </c>
+      <c r="N67" s="69">
+        <v>0</v>
+      </c>
+      <c r="O67" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="P67" s="71">
+      <c r="P67" s="69">
         <v>1500</v>
       </c>
-      <c r="Q67" s="71" t="s">
+      <c r="Q67" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="R67" s="72" t="s">
+      <c r="R67" s="70" t="s">
         <v>1800</v>
       </c>
-      <c r="W67" s="71" t="s">
+      <c r="W67" s="69" t="s">
         <v>545</v>
       </c>
-      <c r="X67" s="73" t="s">
+      <c r="X67" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="Y67" s="74">
-        <v>0</v>
-      </c>
-      <c r="Z67" s="71">
+      <c r="Y67" s="72">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AH67" s="71">
-        <v>1</v>
-      </c>
-      <c r="AI67" s="71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:35" s="71" customFormat="1">
+      <c r="AH67" s="69">
+        <v>1</v>
+      </c>
+      <c r="AI67" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:35" s="69" customFormat="1">
       <c r="A68" s="5">
         <v>67</v>
       </c>
-      <c r="B68" s="71">
+      <c r="B68" s="69">
         <v>86</v>
       </c>
-      <c r="D68" s="71">
+      <c r="D68" s="69">
         <v>3</v>
       </c>
-      <c r="F68" s="71">
-        <v>0</v>
-      </c>
-      <c r="G68" s="71" t="s">
+      <c r="F68" s="69">
+        <v>0</v>
+      </c>
+      <c r="G68" s="69" t="s">
         <v>232</v>
       </c>
-      <c r="H68" s="71" t="s">
+      <c r="H68" s="69" t="s">
         <v>1754</v>
       </c>
-      <c r="L68" s="71">
+      <c r="L68" s="69">
         <v>-4</v>
       </c>
-      <c r="M68" s="71">
-        <v>0</v>
-      </c>
-      <c r="N68" s="71">
-        <v>0</v>
-      </c>
-      <c r="O68" s="71" t="s">
+      <c r="M68" s="69">
+        <v>0</v>
+      </c>
+      <c r="N68" s="69">
+        <v>0</v>
+      </c>
+      <c r="O68" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="P68" s="71">
+      <c r="P68" s="69">
         <v>3000</v>
       </c>
-      <c r="Q68" s="71" t="s">
+      <c r="Q68" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="R68" s="72" t="s">
+      <c r="R68" s="70" t="s">
         <v>1801</v>
       </c>
-      <c r="W68" s="71" t="s">
+      <c r="W68" s="69" t="s">
         <v>545</v>
       </c>
-      <c r="X68" s="73" t="s">
+      <c r="X68" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="Y68" s="74">
-        <v>0</v>
-      </c>
-      <c r="Z68" s="71">
+      <c r="Y68" s="72">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AH68" s="71">
-        <v>1</v>
-      </c>
-      <c r="AI68" s="71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:35" s="71" customFormat="1">
+      <c r="AH68" s="69">
+        <v>1</v>
+      </c>
+      <c r="AI68" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35" s="69" customFormat="1">
       <c r="A69" s="5">
         <v>68</v>
       </c>
-      <c r="B69" s="71">
+      <c r="B69" s="69">
         <v>87</v>
       </c>
-      <c r="D69" s="71">
+      <c r="D69" s="69">
         <v>4</v>
       </c>
-      <c r="F69" s="71">
-        <v>0</v>
-      </c>
-      <c r="G69" s="71" t="s">
+      <c r="F69" s="69">
+        <v>0</v>
+      </c>
+      <c r="G69" s="69" t="s">
         <v>234</v>
       </c>
-      <c r="H69" s="71" t="s">
+      <c r="H69" s="69" t="s">
         <v>1755</v>
       </c>
-      <c r="L69" s="71">
+      <c r="L69" s="69">
         <v>-4</v>
       </c>
-      <c r="M69" s="71">
-        <v>0</v>
-      </c>
-      <c r="N69" s="71">
-        <v>0</v>
-      </c>
-      <c r="O69" s="71" t="s">
+      <c r="M69" s="69">
+        <v>0</v>
+      </c>
+      <c r="N69" s="69">
+        <v>0</v>
+      </c>
+      <c r="O69" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="P69" s="71">
+      <c r="P69" s="69">
         <v>5000</v>
       </c>
-      <c r="Q69" s="71" t="s">
+      <c r="Q69" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="R69" s="72" t="s">
+      <c r="R69" s="70" t="s">
         <v>1802</v>
       </c>
-      <c r="W69" s="71" t="s">
+      <c r="W69" s="69" t="s">
         <v>545</v>
       </c>
-      <c r="X69" s="73" t="s">
+      <c r="X69" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="Y69" s="74">
-        <v>0</v>
-      </c>
-      <c r="Z69" s="71">
+      <c r="Y69" s="72">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AH69" s="71">
-        <v>1</v>
-      </c>
-      <c r="AI69" s="71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:35" s="71" customFormat="1">
+      <c r="AH69" s="69">
+        <v>1</v>
+      </c>
+      <c r="AI69" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:35" s="69" customFormat="1">
       <c r="A70" s="5">
         <v>69</v>
       </c>
-      <c r="B70" s="71">
+      <c r="B70" s="69">
         <v>88</v>
       </c>
-      <c r="D70" s="71">
+      <c r="D70" s="69">
         <v>5</v>
       </c>
-      <c r="F70" s="71">
-        <v>0</v>
-      </c>
-      <c r="G70" s="71" t="s">
+      <c r="F70" s="69">
+        <v>0</v>
+      </c>
+      <c r="G70" s="69" t="s">
         <v>236</v>
       </c>
-      <c r="H70" s="71" t="s">
+      <c r="H70" s="69" t="s">
         <v>1756</v>
       </c>
-      <c r="L70" s="71">
+      <c r="L70" s="69">
         <v>-4</v>
       </c>
-      <c r="M70" s="71">
-        <v>0</v>
-      </c>
-      <c r="N70" s="71">
-        <v>0</v>
-      </c>
-      <c r="O70" s="71" t="s">
+      <c r="M70" s="69">
+        <v>0</v>
+      </c>
+      <c r="N70" s="69">
+        <v>0</v>
+      </c>
+      <c r="O70" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="P70" s="71">
+      <c r="P70" s="69">
         <v>9800</v>
       </c>
-      <c r="Q70" s="71" t="s">
+      <c r="Q70" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="R70" s="72" t="s">
+      <c r="R70" s="70" t="s">
         <v>709</v>
       </c>
-      <c r="W70" s="71" t="s">
+      <c r="W70" s="69" t="s">
         <v>545</v>
       </c>
-      <c r="X70" s="73" t="s">
+      <c r="X70" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="Y70" s="74">
-        <v>0</v>
-      </c>
-      <c r="Z70" s="71">
+      <c r="Y70" s="72">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AH70" s="71">
-        <v>1</v>
-      </c>
-      <c r="AI70" s="71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:35" s="71" customFormat="1">
+      <c r="AH70" s="69">
+        <v>1</v>
+      </c>
+      <c r="AI70" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35" s="69" customFormat="1">
       <c r="A71" s="5">
         <v>70</v>
       </c>
-      <c r="B71" s="71">
+      <c r="B71" s="69">
         <v>89</v>
       </c>
-      <c r="D71" s="71">
+      <c r="D71" s="69">
         <v>6</v>
       </c>
-      <c r="F71" s="71">
-        <v>0</v>
-      </c>
-      <c r="G71" s="71" t="s">
+      <c r="F71" s="69">
+        <v>0</v>
+      </c>
+      <c r="G71" s="69" t="s">
         <v>237</v>
       </c>
-      <c r="H71" s="71" t="s">
+      <c r="H71" s="69" t="s">
         <v>1807</v>
       </c>
-      <c r="L71" s="71">
+      <c r="L71" s="69">
         <v>-4</v>
       </c>
-      <c r="M71" s="71">
-        <v>0</v>
-      </c>
-      <c r="N71" s="71">
-        <v>0</v>
-      </c>
-      <c r="O71" s="71" t="s">
+      <c r="M71" s="69">
+        <v>0</v>
+      </c>
+      <c r="N71" s="69">
+        <v>0</v>
+      </c>
+      <c r="O71" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="P71" s="71">
+      <c r="P71" s="69">
         <v>49800</v>
       </c>
-      <c r="Q71" s="71" t="s">
+      <c r="Q71" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="R71" s="72" t="s">
+      <c r="R71" s="70" t="s">
         <v>1803</v>
       </c>
-      <c r="W71" s="71" t="s">
+      <c r="W71" s="69" t="s">
         <v>545</v>
       </c>
-      <c r="X71" s="73" t="s">
+      <c r="X71" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="Y71" s="74">
-        <v>0</v>
-      </c>
-      <c r="Z71" s="71">
+      <c r="Y71" s="72">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AH71" s="71">
-        <v>1</v>
-      </c>
-      <c r="AI71" s="71">
+      <c r="AH71" s="69">
+        <v>1</v>
+      </c>
+      <c r="AI71" s="69">
         <v>1</v>
       </c>
     </row>
@@ -16593,56 +16755,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:35" s="71" customFormat="1">
+    <row r="94" spans="1:35" s="69" customFormat="1">
       <c r="A94" s="5">
         <v>93</v>
       </c>
-      <c r="B94" s="71">
+      <c r="B94" s="69">
         <v>109</v>
       </c>
-      <c r="F94" s="71">
-        <v>0</v>
-      </c>
-      <c r="G94" s="71" t="s">
+      <c r="F94" s="69">
+        <v>0</v>
+      </c>
+      <c r="G94" s="69" t="s">
         <v>261</v>
       </c>
-      <c r="L94" s="71">
+      <c r="L94" s="69">
         <v>-4</v>
       </c>
-      <c r="M94" s="71">
-        <v>0</v>
-      </c>
-      <c r="N94" s="71">
-        <v>0</v>
-      </c>
-      <c r="O94" s="71" t="s">
+      <c r="M94" s="69">
+        <v>0</v>
+      </c>
+      <c r="N94" s="69">
+        <v>0</v>
+      </c>
+      <c r="O94" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="P94" s="71">
+      <c r="P94" s="69">
         <v>100000</v>
       </c>
-      <c r="Q94" s="71" t="s">
+      <c r="Q94" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="R94" s="72" t="s">
+      <c r="R94" s="70" t="s">
         <v>729</v>
       </c>
-      <c r="W94" s="71" t="s">
+      <c r="W94" s="69" t="s">
         <v>545</v>
       </c>
-      <c r="X94" s="73" t="s">
+      <c r="X94" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="Y94" s="71">
-        <v>0</v>
-      </c>
-      <c r="Z94" s="71">
+      <c r="Y94" s="69">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AH94" s="71">
-        <v>1</v>
-      </c>
-      <c r="AI94" s="71">
+      <c r="AH94" s="69">
+        <v>1</v>
+      </c>
+      <c r="AI94" s="69">
         <v>1</v>
       </c>
     </row>
@@ -18624,121 +18786,121 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:35" s="71" customFormat="1">
+    <row r="128" spans="1:35" s="69" customFormat="1">
       <c r="A128" s="5">
         <v>127</v>
       </c>
-      <c r="B128" s="71">
+      <c r="B128" s="69">
         <v>10044</v>
       </c>
-      <c r="D128" s="71">
+      <c r="D128" s="69">
         <v>108</v>
       </c>
-      <c r="F128" s="71">
-        <v>0</v>
-      </c>
-      <c r="G128" s="71" t="s">
+      <c r="F128" s="69">
+        <v>0</v>
+      </c>
+      <c r="G128" s="69" t="s">
         <v>327</v>
       </c>
-      <c r="H128" s="71" t="s">
+      <c r="H128" s="69" t="s">
         <v>1758</v>
       </c>
-      <c r="L128" s="71">
+      <c r="L128" s="69">
         <v>-10</v>
       </c>
-      <c r="M128" s="71">
-        <v>0</v>
-      </c>
-      <c r="N128" s="71">
-        <v>0</v>
-      </c>
-      <c r="O128" s="71" t="s">
+      <c r="M128" s="69">
+        <v>0</v>
+      </c>
+      <c r="N128" s="69">
+        <v>0</v>
+      </c>
+      <c r="O128" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="P128" s="71">
+      <c r="P128" s="69">
         <v>99800</v>
       </c>
-      <c r="Q128" s="71" t="s">
+      <c r="Q128" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="R128" s="72" t="s">
+      <c r="R128" s="70" t="s">
         <v>1804</v>
       </c>
-      <c r="W128" s="71" t="s">
+      <c r="W128" s="69" t="s">
         <v>545</v>
       </c>
-      <c r="X128" s="73" t="s">
+      <c r="X128" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="Y128" s="74">
-        <v>0</v>
-      </c>
-      <c r="Z128" s="71">
+      <c r="Y128" s="72">
+        <v>0</v>
+      </c>
+      <c r="Z128" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AH128" s="71">
-        <v>1</v>
-      </c>
-      <c r="AI128" s="71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:39" s="71" customFormat="1">
+      <c r="AH128" s="69">
+        <v>1</v>
+      </c>
+      <c r="AI128" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:39" s="69" customFormat="1">
       <c r="A129" s="5">
         <v>128</v>
       </c>
-      <c r="B129" s="71">
+      <c r="B129" s="69">
         <v>10045</v>
       </c>
-      <c r="D129" s="71">
+      <c r="D129" s="69">
         <v>110</v>
       </c>
-      <c r="F129" s="71">
-        <v>0</v>
-      </c>
-      <c r="G129" s="71" t="s">
+      <c r="F129" s="69">
+        <v>0</v>
+      </c>
+      <c r="G129" s="69" t="s">
         <v>535</v>
       </c>
-      <c r="H129" s="71" t="s">
+      <c r="H129" s="69" t="s">
         <v>1759</v>
       </c>
-      <c r="L129" s="71">
+      <c r="L129" s="69">
         <v>-11</v>
       </c>
-      <c r="M129" s="71">
-        <v>0</v>
-      </c>
-      <c r="N129" s="71">
-        <v>0</v>
-      </c>
-      <c r="O129" s="71" t="s">
+      <c r="M129" s="69">
+        <v>0</v>
+      </c>
+      <c r="N129" s="69">
+        <v>0</v>
+      </c>
+      <c r="O129" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="P129" s="71">
+      <c r="P129" s="69">
         <v>249800</v>
       </c>
-      <c r="Q129" s="71" t="s">
+      <c r="Q129" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="R129" s="72" t="s">
+      <c r="R129" s="70" t="s">
         <v>1805</v>
       </c>
-      <c r="W129" s="71" t="s">
+      <c r="W129" s="69" t="s">
         <v>545</v>
       </c>
-      <c r="X129" s="73" t="s">
+      <c r="X129" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="Y129" s="74">
-        <v>0</v>
-      </c>
-      <c r="Z129" s="71">
+      <c r="Y129" s="72">
+        <v>0</v>
+      </c>
+      <c r="Z129" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AH129" s="71">
-        <v>1</v>
-      </c>
-      <c r="AI129" s="71">
+      <c r="AH129" s="69">
+        <v>1</v>
+      </c>
+      <c r="AI129" s="69">
         <v>1</v>
       </c>
     </row>
@@ -27986,62 +28148,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:40" s="75" customFormat="1" ht="14.25">
-      <c r="A273" s="87">
+    <row r="273" spans="1:40" s="73" customFormat="1" ht="14.25">
+      <c r="A273" s="84">
         <v>272</v>
       </c>
-      <c r="B273" s="75">
+      <c r="B273" s="73">
         <v>10189</v>
       </c>
-      <c r="D273" s="76">
+      <c r="D273" s="74">
         <v>111</v>
       </c>
-      <c r="F273" s="75">
-        <v>0</v>
-      </c>
-      <c r="G273" s="75" t="s">
+      <c r="F273" s="73">
+        <v>0</v>
+      </c>
+      <c r="G273" s="73" t="s">
         <v>538</v>
       </c>
-      <c r="H273" s="75" t="s">
+      <c r="H273" s="73" t="s">
         <v>1760</v>
       </c>
-      <c r="L273" s="75">
+      <c r="L273" s="73">
         <v>-10</v>
       </c>
-      <c r="M273" s="75">
-        <v>0</v>
-      </c>
-      <c r="N273" s="75">
-        <v>0</v>
-      </c>
-      <c r="O273" s="75" t="s">
+      <c r="M273" s="73">
+        <v>0</v>
+      </c>
+      <c r="N273" s="73">
+        <v>0</v>
+      </c>
+      <c r="O273" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="P273" s="75">
+      <c r="P273" s="73">
         <v>19800</v>
       </c>
-      <c r="Q273" s="75" t="s">
+      <c r="Q273" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="R273" s="77" t="s">
+      <c r="R273" s="75" t="s">
         <v>1806</v>
       </c>
-      <c r="W273" s="75" t="s">
+      <c r="W273" s="73" t="s">
         <v>545</v>
       </c>
-      <c r="X273" s="78" t="s">
+      <c r="X273" s="76" t="s">
         <v>117</v>
       </c>
-      <c r="Y273" s="79">
-        <v>0</v>
-      </c>
-      <c r="Z273" s="75">
+      <c r="Y273" s="77">
+        <v>0</v>
+      </c>
+      <c r="Z273" s="73">
         <v>2552233600</v>
       </c>
-      <c r="AH273" s="75">
-        <v>1</v>
-      </c>
-      <c r="AI273" s="75">
+      <c r="AH273" s="73">
+        <v>1</v>
+      </c>
+      <c r="AI273" s="73">
         <v>1</v>
       </c>
     </row>
@@ -37407,68 +37569,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:39" s="71" customFormat="1">
+    <row r="414" spans="1:39" s="69" customFormat="1">
       <c r="A414" s="5">
         <v>413</v>
       </c>
-      <c r="B414" s="71">
+      <c r="B414" s="69">
         <v>10330</v>
       </c>
-      <c r="D414" s="71">
-        <v>1</v>
-      </c>
-      <c r="F414" s="71">
-        <v>1</v>
-      </c>
-      <c r="G414" s="71" t="s">
+      <c r="D414" s="69">
+        <v>1</v>
+      </c>
+      <c r="F414" s="69">
+        <v>1</v>
+      </c>
+      <c r="G414" s="69" t="s">
         <v>1414</v>
       </c>
-      <c r="H414" s="71" t="s">
+      <c r="H414" s="69" t="s">
         <v>1761</v>
       </c>
-      <c r="L414" s="71">
+      <c r="L414" s="69">
         <v>-4</v>
       </c>
-      <c r="M414" s="71">
-        <v>0</v>
-      </c>
-      <c r="N414" s="71">
-        <v>0</v>
-      </c>
-      <c r="O414" s="71" t="s">
+      <c r="M414" s="69">
+        <v>0</v>
+      </c>
+      <c r="N414" s="69">
+        <v>0</v>
+      </c>
+      <c r="O414" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="P414" s="71">
+      <c r="P414" s="69">
         <v>600</v>
       </c>
-      <c r="Q414" s="71" t="s">
+      <c r="Q414" s="69" t="s">
         <v>456</v>
       </c>
-      <c r="R414" s="72" t="s">
+      <c r="R414" s="70" t="s">
         <v>1415</v>
       </c>
-      <c r="W414" s="71" t="s">
+      <c r="W414" s="69" t="s">
         <v>1427</v>
       </c>
-      <c r="X414" s="73" t="s">
+      <c r="X414" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="Y414" s="74">
-        <v>0</v>
-      </c>
-      <c r="Z414" s="71">
+      <c r="Y414" s="72">
+        <v>0</v>
+      </c>
+      <c r="Z414" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AH414" s="71">
-        <v>1</v>
-      </c>
-      <c r="AI414" s="71">
-        <v>1</v>
-      </c>
-      <c r="AL414" s="71">
-        <v>1</v>
-      </c>
-      <c r="AM414" s="71">
+      <c r="AH414" s="69">
+        <v>1</v>
+      </c>
+      <c r="AI414" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL414" s="69">
+        <v>1</v>
+      </c>
+      <c r="AM414" s="69">
         <v>1</v>
       </c>
     </row>
@@ -37515,7 +37677,7 @@
       <c r="W415" s="40" t="s">
         <v>1420</v>
       </c>
-      <c r="X415" s="83" t="s">
+      <c r="X415" s="80" t="s">
         <v>117</v>
       </c>
       <c r="Y415" s="40">
@@ -37583,7 +37745,7 @@
       <c r="W416" s="40" t="s">
         <v>1420</v>
       </c>
-      <c r="X416" s="83" t="s">
+      <c r="X416" s="80" t="s">
         <v>117</v>
       </c>
       <c r="Y416" s="40">
@@ -37651,7 +37813,7 @@
       <c r="W417" s="40" t="s">
         <v>1200</v>
       </c>
-      <c r="X417" s="83" t="s">
+      <c r="X417" s="80" t="s">
         <v>117</v>
       </c>
       <c r="Y417" s="40">
@@ -37719,7 +37881,7 @@
       <c r="W418" s="40" t="s">
         <v>1200</v>
       </c>
-      <c r="X418" s="83" t="s">
+      <c r="X418" s="80" t="s">
         <v>117</v>
       </c>
       <c r="Y418" s="40">
@@ -37787,7 +37949,7 @@
       <c r="W419" s="40" t="s">
         <v>1200</v>
       </c>
-      <c r="X419" s="83" t="s">
+      <c r="X419" s="80" t="s">
         <v>117</v>
       </c>
       <c r="Y419" s="40">
@@ -37855,7 +38017,7 @@
       <c r="W420" s="40" t="s">
         <v>1200</v>
       </c>
-      <c r="X420" s="83" t="s">
+      <c r="X420" s="80" t="s">
         <v>117</v>
       </c>
       <c r="Y420" s="40">
@@ -41458,1090 +41620,1090 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:39" s="69" customFormat="1">
+    <row r="476" spans="1:39" s="5" customFormat="1">
       <c r="A476" s="5">
         <v>475</v>
       </c>
-      <c r="B476" s="69">
+      <c r="B476" s="5">
         <v>10392</v>
       </c>
-      <c r="F476" s="69">
-        <v>1</v>
-      </c>
-      <c r="G476" s="69" t="s">
+      <c r="F476" s="5">
+        <v>1</v>
+      </c>
+      <c r="G476" s="5" t="s">
         <v>1660</v>
       </c>
-      <c r="I476" s="69" t="s">
+      <c r="I476" s="5" t="s">
         <v>1661</v>
       </c>
-      <c r="J476" s="69" t="s">
+      <c r="J476" s="5" t="s">
         <v>1665</v>
       </c>
-      <c r="L476" s="69">
+      <c r="L476" s="5">
         <v>-31</v>
       </c>
-      <c r="M476" s="69">
-        <v>0</v>
-      </c>
-      <c r="N476" s="69">
-        <v>0</v>
-      </c>
-      <c r="O476" s="69" t="s">
+      <c r="M476" s="5">
+        <v>0</v>
+      </c>
+      <c r="N476" s="5">
+        <v>0</v>
+      </c>
+      <c r="O476" s="5" t="s">
         <v>1667</v>
       </c>
-      <c r="P476" s="69">
+      <c r="P476" s="5">
         <v>49800</v>
       </c>
-      <c r="Q476" s="69" t="s">
+      <c r="Q476" s="5" t="s">
         <v>1670</v>
       </c>
-      <c r="R476" s="70" t="s">
+      <c r="R476" s="10" t="s">
         <v>1674</v>
       </c>
-      <c r="W476" s="69" t="s">
+      <c r="W476" s="5" t="s">
         <v>1678</v>
       </c>
-      <c r="X476" s="69">
+      <c r="X476" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y476" s="69">
+      <c r="Y476" s="5">
         <v>1606176000</v>
       </c>
-      <c r="Z476" s="69">
+      <c r="Z476" s="5">
         <v>1606751999</v>
       </c>
-      <c r="AH476" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI476" s="69">
-        <v>1</v>
-      </c>
-      <c r="AL476" s="69">
-        <v>1</v>
-      </c>
-      <c r="AM476" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="477" spans="1:39" s="69" customFormat="1">
+      <c r="AH476" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI476" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL476" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM476" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:39" s="5" customFormat="1">
       <c r="A477" s="5">
         <v>476</v>
       </c>
-      <c r="B477" s="69">
+      <c r="B477" s="5">
         <v>10393</v>
       </c>
-      <c r="F477" s="69">
-        <v>1</v>
-      </c>
-      <c r="G477" s="69" t="s">
+      <c r="F477" s="5">
+        <v>1</v>
+      </c>
+      <c r="G477" s="5" t="s">
         <v>1660</v>
       </c>
-      <c r="I477" s="69" t="s">
+      <c r="I477" s="5" t="s">
         <v>1662</v>
       </c>
-      <c r="J477" s="69" t="s">
+      <c r="J477" s="5" t="s">
         <v>1666</v>
       </c>
-      <c r="L477" s="69">
+      <c r="L477" s="5">
         <v>-31</v>
       </c>
-      <c r="M477" s="69">
-        <v>0</v>
-      </c>
-      <c r="N477" s="69">
-        <v>0</v>
-      </c>
-      <c r="O477" s="69" t="s">
+      <c r="M477" s="5">
+        <v>0</v>
+      </c>
+      <c r="N477" s="5">
+        <v>0</v>
+      </c>
+      <c r="O477" s="5" t="s">
         <v>1667</v>
       </c>
-      <c r="P477" s="69">
+      <c r="P477" s="5">
         <v>19800</v>
       </c>
-      <c r="Q477" s="69" t="s">
+      <c r="Q477" s="5" t="s">
         <v>1670</v>
       </c>
-      <c r="R477" s="70" t="s">
+      <c r="R477" s="10" t="s">
         <v>1675</v>
       </c>
-      <c r="W477" s="69" t="s">
+      <c r="W477" s="5" t="s">
         <v>1678</v>
       </c>
-      <c r="X477" s="69">
+      <c r="X477" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y477" s="69">
+      <c r="Y477" s="5">
         <v>1606176000</v>
       </c>
-      <c r="Z477" s="69">
+      <c r="Z477" s="5">
         <v>1606751999</v>
       </c>
-      <c r="AH477" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI477" s="69">
-        <v>1</v>
-      </c>
-      <c r="AL477" s="69">
-        <v>1</v>
-      </c>
-      <c r="AM477" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="478" spans="1:39" s="69" customFormat="1">
+      <c r="AH477" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI477" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL477" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM477" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:39" s="5" customFormat="1">
       <c r="A478" s="5">
         <v>477</v>
       </c>
-      <c r="B478" s="69">
+      <c r="B478" s="5">
         <v>10394</v>
       </c>
-      <c r="F478" s="69">
-        <v>1</v>
-      </c>
-      <c r="G478" s="69" t="s">
+      <c r="F478" s="5">
+        <v>1</v>
+      </c>
+      <c r="G478" s="5" t="s">
         <v>1660</v>
       </c>
-      <c r="I478" s="69" t="s">
+      <c r="I478" s="5" t="s">
         <v>1663</v>
       </c>
-      <c r="J478" s="69" t="s">
+      <c r="J478" s="5" t="s">
         <v>1672</v>
       </c>
-      <c r="L478" s="69">
+      <c r="L478" s="5">
         <v>-31</v>
       </c>
-      <c r="M478" s="69">
-        <v>0</v>
-      </c>
-      <c r="N478" s="69">
-        <v>0</v>
-      </c>
-      <c r="O478" s="69" t="s">
+      <c r="M478" s="5">
+        <v>0</v>
+      </c>
+      <c r="N478" s="5">
+        <v>0</v>
+      </c>
+      <c r="O478" s="5" t="s">
         <v>1667</v>
       </c>
-      <c r="P478" s="69">
+      <c r="P478" s="5">
         <v>9800</v>
       </c>
-      <c r="Q478" s="69" t="s">
+      <c r="Q478" s="5" t="s">
         <v>1671</v>
       </c>
-      <c r="R478" s="70" t="s">
+      <c r="R478" s="10" t="s">
         <v>1676</v>
       </c>
-      <c r="W478" s="69" t="s">
+      <c r="W478" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="X478" s="69">
+      <c r="X478" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y478" s="69">
+      <c r="Y478" s="5">
         <v>1606176000</v>
       </c>
-      <c r="Z478" s="69">
+      <c r="Z478" s="5">
         <v>1606751999</v>
       </c>
-      <c r="AH478" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI478" s="69">
-        <v>1</v>
-      </c>
-      <c r="AL478" s="69">
-        <v>1</v>
-      </c>
-      <c r="AM478" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="479" spans="1:39" s="69" customFormat="1">
+      <c r="AH478" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI478" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL478" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM478" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:39" s="5" customFormat="1">
       <c r="A479" s="5">
         <v>478</v>
       </c>
-      <c r="B479" s="69">
+      <c r="B479" s="5">
         <v>10395</v>
       </c>
-      <c r="F479" s="69">
-        <v>1</v>
-      </c>
-      <c r="G479" s="69" t="s">
+      <c r="F479" s="5">
+        <v>1</v>
+      </c>
+      <c r="G479" s="5" t="s">
         <v>1660</v>
       </c>
-      <c r="I479" s="69" t="s">
+      <c r="I479" s="5" t="s">
         <v>1664</v>
       </c>
-      <c r="J479" s="69" t="s">
+      <c r="J479" s="5" t="s">
         <v>1673</v>
       </c>
-      <c r="L479" s="69">
+      <c r="L479" s="5">
         <v>-31</v>
       </c>
-      <c r="M479" s="69">
-        <v>0</v>
-      </c>
-      <c r="N479" s="69">
-        <v>0</v>
-      </c>
-      <c r="O479" s="69" t="s">
+      <c r="M479" s="5">
+        <v>0</v>
+      </c>
+      <c r="N479" s="5">
+        <v>0</v>
+      </c>
+      <c r="O479" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="P479" s="69">
+      <c r="P479" s="5">
         <v>4800</v>
       </c>
-      <c r="Q479" s="69" t="s">
+      <c r="Q479" s="5" t="s">
         <v>1680</v>
       </c>
-      <c r="R479" s="70" t="s">
+      <c r="R479" s="10" t="s">
         <v>1677</v>
       </c>
-      <c r="W479" s="69" t="s">
+      <c r="W479" s="5" t="s">
         <v>1681</v>
       </c>
-      <c r="X479" s="69">
+      <c r="X479" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y479" s="69">
+      <c r="Y479" s="5">
         <v>1606176000</v>
       </c>
-      <c r="Z479" s="69">
+      <c r="Z479" s="5">
         <v>1606751999</v>
       </c>
-      <c r="AH479" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI479" s="69">
-        <v>1</v>
-      </c>
-      <c r="AL479" s="69">
-        <v>1</v>
-      </c>
-      <c r="AM479" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="480" spans="1:39" s="80" customFormat="1" ht="14.25">
+      <c r="AH479" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI479" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL479" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM479" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:39" s="5" customFormat="1" ht="14.25">
       <c r="A480" s="5">
         <v>479</v>
       </c>
-      <c r="B480" s="80">
+      <c r="B480" s="5">
         <v>10396</v>
       </c>
-      <c r="F480" s="80">
-        <v>1</v>
-      </c>
-      <c r="G480" s="80" t="s">
+      <c r="F480" s="5">
+        <v>1</v>
+      </c>
+      <c r="G480" s="5" t="s">
         <v>1709</v>
       </c>
-      <c r="J480" s="80" t="s">
+      <c r="J480" s="5" t="s">
         <v>1508</v>
       </c>
-      <c r="L480" s="80">
+      <c r="L480" s="5">
         <v>-31</v>
       </c>
-      <c r="M480" s="80">
-        <v>0</v>
-      </c>
-      <c r="N480" s="80">
-        <v>0</v>
-      </c>
-      <c r="O480" s="80" t="s">
+      <c r="M480" s="5">
+        <v>0</v>
+      </c>
+      <c r="N480" s="5">
+        <v>0</v>
+      </c>
+      <c r="O480" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P480" s="80">
+      <c r="P480" s="5">
         <v>49800</v>
       </c>
-      <c r="Q480" s="80" t="s">
+      <c r="Q480" s="5" t="s">
         <v>1712</v>
       </c>
-      <c r="R480" s="81" t="s">
+      <c r="R480" s="10" t="s">
         <v>1516</v>
       </c>
-      <c r="W480" s="80" t="s">
+      <c r="W480" s="5" t="s">
         <v>1529</v>
       </c>
-      <c r="X480" s="80">
+      <c r="X480" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y480" s="82">
+      <c r="Y480" s="11">
         <v>1607385600</v>
       </c>
-      <c r="Z480" s="82">
+      <c r="Z480" s="11">
         <v>1607961599</v>
       </c>
-      <c r="AH480" s="80">
-        <v>1</v>
-      </c>
-      <c r="AI480" s="80">
-        <v>1</v>
-      </c>
-      <c r="AL480" s="80">
-        <v>1</v>
-      </c>
-      <c r="AM480" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="481" spans="1:39" s="80" customFormat="1" ht="14.25">
+      <c r="AH480" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI480" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL480" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM480" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:39" s="5" customFormat="1" ht="14.25">
       <c r="A481" s="5">
         <v>480</v>
       </c>
-      <c r="B481" s="80">
+      <c r="B481" s="5">
         <v>10397</v>
       </c>
-      <c r="F481" s="80">
-        <v>1</v>
-      </c>
-      <c r="G481" s="80" t="s">
+      <c r="F481" s="5">
+        <v>1</v>
+      </c>
+      <c r="G481" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="J481" s="80" t="s">
+      <c r="J481" s="5" t="s">
         <v>1509</v>
       </c>
-      <c r="L481" s="80">
+      <c r="L481" s="5">
         <v>-31</v>
       </c>
-      <c r="M481" s="80">
-        <v>0</v>
-      </c>
-      <c r="N481" s="80">
-        <v>0</v>
-      </c>
-      <c r="O481" s="80" t="s">
+      <c r="M481" s="5">
+        <v>0</v>
+      </c>
+      <c r="N481" s="5">
+        <v>0</v>
+      </c>
+      <c r="O481" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P481" s="80">
+      <c r="P481" s="5">
         <v>19800</v>
       </c>
-      <c r="Q481" s="80" t="s">
+      <c r="Q481" s="5" t="s">
         <v>1712</v>
       </c>
-      <c r="R481" s="81" t="s">
+      <c r="R481" s="10" t="s">
         <v>1518</v>
       </c>
-      <c r="W481" s="80" t="s">
+      <c r="W481" s="5" t="s">
         <v>1529</v>
       </c>
-      <c r="X481" s="80">
+      <c r="X481" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y481" s="82">
+      <c r="Y481" s="11">
         <v>1607385600</v>
       </c>
-      <c r="Z481" s="82">
+      <c r="Z481" s="11">
         <v>1607961599</v>
       </c>
-      <c r="AH481" s="80">
-        <v>1</v>
-      </c>
-      <c r="AI481" s="80">
-        <v>1</v>
-      </c>
-      <c r="AL481" s="80">
-        <v>1</v>
-      </c>
-      <c r="AM481" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="482" spans="1:39" s="80" customFormat="1" ht="14.25">
+      <c r="AH481" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI481" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL481" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM481" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:39" s="5" customFormat="1" ht="14.25">
       <c r="A482" s="5">
         <v>481</v>
       </c>
-      <c r="B482" s="80">
+      <c r="B482" s="5">
         <v>10398</v>
       </c>
-      <c r="F482" s="80">
-        <v>1</v>
-      </c>
-      <c r="G482" s="80" t="s">
+      <c r="F482" s="5">
+        <v>1</v>
+      </c>
+      <c r="G482" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="J482" s="80" t="s">
+      <c r="J482" s="5" t="s">
         <v>1510</v>
       </c>
-      <c r="L482" s="80">
+      <c r="L482" s="5">
         <v>-31</v>
       </c>
-      <c r="M482" s="80">
-        <v>0</v>
-      </c>
-      <c r="N482" s="80">
-        <v>0</v>
-      </c>
-      <c r="O482" s="80" t="s">
+      <c r="M482" s="5">
+        <v>0</v>
+      </c>
+      <c r="N482" s="5">
+        <v>0</v>
+      </c>
+      <c r="O482" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P482" s="80">
+      <c r="P482" s="5">
         <v>9800</v>
       </c>
-      <c r="Q482" s="80" t="s">
+      <c r="Q482" s="5" t="s">
         <v>1712</v>
       </c>
-      <c r="R482" s="81" t="s">
+      <c r="R482" s="10" t="s">
         <v>1357</v>
       </c>
-      <c r="W482" s="80" t="s">
+      <c r="W482" s="5" t="s">
         <v>1529</v>
       </c>
-      <c r="X482" s="80">
+      <c r="X482" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y482" s="82">
+      <c r="Y482" s="11">
         <v>1607385600</v>
       </c>
-      <c r="Z482" s="82">
+      <c r="Z482" s="11">
         <v>1607961599</v>
       </c>
-      <c r="AH482" s="80">
-        <v>1</v>
-      </c>
-      <c r="AI482" s="80">
-        <v>1</v>
-      </c>
-      <c r="AL482" s="80">
-        <v>1</v>
-      </c>
-      <c r="AM482" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="483" spans="1:39" s="80" customFormat="1" ht="14.25">
+      <c r="AH482" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI482" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL482" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM482" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:39" s="5" customFormat="1" ht="14.25">
       <c r="A483" s="5">
         <v>482</v>
       </c>
-      <c r="B483" s="80">
+      <c r="B483" s="5">
         <v>10399</v>
       </c>
-      <c r="F483" s="80">
-        <v>1</v>
-      </c>
-      <c r="G483" s="80" t="s">
+      <c r="F483" s="5">
+        <v>1</v>
+      </c>
+      <c r="G483" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="J483" s="80" t="s">
+      <c r="J483" s="5" t="s">
         <v>1511</v>
       </c>
-      <c r="L483" s="80">
+      <c r="L483" s="5">
         <v>-31</v>
       </c>
-      <c r="M483" s="80">
-        <v>0</v>
-      </c>
-      <c r="N483" s="80">
-        <v>0</v>
-      </c>
-      <c r="O483" s="80" t="s">
+      <c r="M483" s="5">
+        <v>0</v>
+      </c>
+      <c r="N483" s="5">
+        <v>0</v>
+      </c>
+      <c r="O483" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P483" s="80">
+      <c r="P483" s="5">
         <v>4800</v>
       </c>
-      <c r="Q483" s="80" t="s">
+      <c r="Q483" s="5" t="s">
         <v>1712</v>
       </c>
-      <c r="R483" s="81" t="s">
+      <c r="R483" s="10" t="s">
         <v>1522</v>
       </c>
-      <c r="W483" s="80" t="s">
+      <c r="W483" s="5" t="s">
         <v>1529</v>
       </c>
-      <c r="X483" s="80">
+      <c r="X483" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y483" s="82">
+      <c r="Y483" s="11">
         <v>1607385600</v>
       </c>
-      <c r="Z483" s="82">
+      <c r="Z483" s="11">
         <v>1607961599</v>
       </c>
-      <c r="AH483" s="80">
-        <v>1</v>
-      </c>
-      <c r="AI483" s="80">
-        <v>1</v>
-      </c>
-      <c r="AL483" s="80">
-        <v>1</v>
-      </c>
-      <c r="AM483" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="484" spans="1:39" s="80" customFormat="1" ht="14.25">
+      <c r="AH483" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI483" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL483" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM483" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:39" s="5" customFormat="1" ht="14.25">
       <c r="A484" s="5">
         <v>483</v>
       </c>
-      <c r="B484" s="80">
+      <c r="B484" s="5">
         <v>10400</v>
       </c>
-      <c r="F484" s="80">
-        <v>1</v>
-      </c>
-      <c r="G484" s="80" t="s">
+      <c r="F484" s="5">
+        <v>1</v>
+      </c>
+      <c r="G484" s="5" t="s">
         <v>1710</v>
       </c>
-      <c r="J484" s="80" t="s">
+      <c r="J484" s="5" t="s">
         <v>1512</v>
       </c>
-      <c r="L484" s="80">
+      <c r="L484" s="5">
         <v>-31</v>
       </c>
-      <c r="M484" s="80">
-        <v>0</v>
-      </c>
-      <c r="N484" s="80">
-        <v>0</v>
-      </c>
-      <c r="O484" s="80" t="s">
+      <c r="M484" s="5">
+        <v>0</v>
+      </c>
+      <c r="N484" s="5">
+        <v>0</v>
+      </c>
+      <c r="O484" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P484" s="80">
+      <c r="P484" s="5">
         <v>2000</v>
       </c>
-      <c r="Q484" s="80" t="s">
+      <c r="Q484" s="5" t="s">
         <v>1712</v>
       </c>
-      <c r="R484" s="81" t="s">
+      <c r="R484" s="10" t="s">
         <v>1523</v>
       </c>
-      <c r="W484" s="80" t="s">
+      <c r="W484" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="X484" s="80">
+      <c r="X484" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y484" s="82">
+      <c r="Y484" s="11">
         <v>1607385600</v>
       </c>
-      <c r="Z484" s="82">
+      <c r="Z484" s="11">
         <v>1607961599</v>
       </c>
-      <c r="AH484" s="80">
-        <v>1</v>
-      </c>
-      <c r="AI484" s="80">
-        <v>1</v>
-      </c>
-      <c r="AL484" s="80">
-        <v>1</v>
-      </c>
-      <c r="AM484" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="485" spans="1:39" s="80" customFormat="1" ht="14.25">
+      <c r="AH484" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI484" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL484" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM484" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:39" s="5" customFormat="1" ht="14.25">
       <c r="A485" s="5">
         <v>484</v>
       </c>
-      <c r="B485" s="80">
+      <c r="B485" s="5">
         <v>10401</v>
       </c>
-      <c r="F485" s="80">
-        <v>1</v>
-      </c>
-      <c r="G485" s="80" t="s">
+      <c r="F485" s="5">
+        <v>1</v>
+      </c>
+      <c r="G485" s="5" t="s">
         <v>1711</v>
       </c>
-      <c r="J485" s="80" t="s">
+      <c r="J485" s="5" t="s">
         <v>1513</v>
       </c>
-      <c r="L485" s="80">
+      <c r="L485" s="5">
         <v>-31</v>
       </c>
-      <c r="M485" s="80">
-        <v>0</v>
-      </c>
-      <c r="N485" s="80">
-        <v>0</v>
-      </c>
-      <c r="O485" s="80" t="s">
+      <c r="M485" s="5">
+        <v>0</v>
+      </c>
+      <c r="N485" s="5">
+        <v>0</v>
+      </c>
+      <c r="O485" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P485" s="80">
+      <c r="P485" s="5">
         <v>600</v>
       </c>
-      <c r="Q485" s="80" t="s">
+      <c r="Q485" s="5" t="s">
         <v>1712</v>
       </c>
-      <c r="R485" s="81" t="s">
+      <c r="R485" s="10" t="s">
         <v>1525</v>
       </c>
-      <c r="W485" s="80" t="s">
+      <c r="W485" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="X485" s="80">
+      <c r="X485" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y485" s="82">
+      <c r="Y485" s="11">
         <v>1607385600</v>
       </c>
-      <c r="Z485" s="82">
+      <c r="Z485" s="11">
         <v>1607961599</v>
       </c>
-      <c r="AH485" s="80">
-        <v>1</v>
-      </c>
-      <c r="AI485" s="80">
-        <v>1</v>
-      </c>
-      <c r="AL485" s="80">
-        <v>1</v>
-      </c>
-      <c r="AM485" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="486" spans="1:39" s="19" customFormat="1" ht="14.25">
+      <c r="AH485" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI485" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL485" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM485" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:39" s="5" customFormat="1" ht="14.25">
       <c r="A486" s="5">
         <v>485</v>
       </c>
-      <c r="B486" s="19">
+      <c r="B486" s="5">
         <v>10402</v>
       </c>
-      <c r="F486" s="19">
-        <v>1</v>
-      </c>
-      <c r="G486" s="19" t="s">
+      <c r="F486" s="5">
+        <v>1</v>
+      </c>
+      <c r="G486" s="5" t="s">
         <v>1375</v>
       </c>
-      <c r="I486" s="19" t="s">
+      <c r="I486" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="J486" s="19" t="s">
+      <c r="J486" s="5" t="s">
         <v>1471</v>
       </c>
-      <c r="L486" s="19">
+      <c r="L486" s="5">
         <v>-31</v>
       </c>
-      <c r="M486" s="19">
-        <v>0</v>
-      </c>
-      <c r="N486" s="19">
-        <v>0</v>
-      </c>
-      <c r="O486" s="19" t="s">
+      <c r="M486" s="5">
+        <v>0</v>
+      </c>
+      <c r="N486" s="5">
+        <v>0</v>
+      </c>
+      <c r="O486" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P486" s="19">
+      <c r="P486" s="5">
         <v>1800</v>
       </c>
-      <c r="Q486" s="19" t="s">
+      <c r="Q486" s="5" t="s">
         <v>1705</v>
       </c>
-      <c r="R486" s="39" t="s">
+      <c r="R486" s="10" t="s">
         <v>1389</v>
       </c>
-      <c r="W486" s="19" t="s">
+      <c r="W486" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="X486" s="19">
+      <c r="X486" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y486" s="34">
+      <c r="Y486" s="11">
         <v>1607990400</v>
       </c>
-      <c r="Z486" s="34">
+      <c r="Z486" s="11">
         <v>1608566399</v>
       </c>
-      <c r="AH486" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI486" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL486" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM486" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="487" spans="1:39" s="19" customFormat="1" ht="14.25">
+      <c r="AH486" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI486" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL486" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM486" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:39" s="5" customFormat="1" ht="14.25">
       <c r="A487" s="5">
         <v>486</v>
       </c>
-      <c r="B487" s="19">
+      <c r="B487" s="5">
         <v>10403</v>
       </c>
-      <c r="F487" s="19">
-        <v>1</v>
-      </c>
-      <c r="G487" s="19" t="s">
+      <c r="F487" s="5">
+        <v>1</v>
+      </c>
+      <c r="G487" s="5" t="s">
         <v>1373</v>
       </c>
-      <c r="I487" s="19" t="s">
+      <c r="I487" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="J487" s="19" t="s">
+      <c r="J487" s="5" t="s">
         <v>1472</v>
       </c>
-      <c r="L487" s="19">
+      <c r="L487" s="5">
         <v>-31</v>
       </c>
-      <c r="M487" s="19">
-        <v>0</v>
-      </c>
-      <c r="N487" s="19">
-        <v>0</v>
-      </c>
-      <c r="O487" s="19" t="s">
+      <c r="M487" s="5">
+        <v>0</v>
+      </c>
+      <c r="N487" s="5">
+        <v>0</v>
+      </c>
+      <c r="O487" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P487" s="19">
+      <c r="P487" s="5">
         <v>4800</v>
       </c>
-      <c r="Q487" s="19" t="s">
-        <v>1705</v>
-      </c>
-      <c r="R487" s="39" t="s">
+      <c r="Q487" s="5" t="s">
+        <v>1941</v>
+      </c>
+      <c r="R487" s="10" t="s">
         <v>1385</v>
       </c>
-      <c r="W487" s="19" t="s">
+      <c r="W487" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="X487" s="19">
+      <c r="X487" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y487" s="34">
+      <c r="Y487" s="11">
         <v>1607990400</v>
       </c>
-      <c r="Z487" s="34">
+      <c r="Z487" s="11">
         <v>1608566399</v>
       </c>
-      <c r="AH487" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI487" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL487" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM487" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="488" spans="1:39" s="19" customFormat="1" ht="14.25">
+      <c r="AH487" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI487" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL487" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM487" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:39" s="5" customFormat="1" ht="14.25">
       <c r="A488" s="5">
         <v>487</v>
       </c>
-      <c r="B488" s="19">
+      <c r="B488" s="5">
         <v>10404</v>
       </c>
-      <c r="F488" s="19">
-        <v>1</v>
-      </c>
-      <c r="G488" s="19" t="s">
+      <c r="F488" s="5">
+        <v>1</v>
+      </c>
+      <c r="G488" s="5" t="s">
         <v>1372</v>
       </c>
-      <c r="I488" s="19" t="s">
+      <c r="I488" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="J488" s="19" t="s">
+      <c r="J488" s="5" t="s">
         <v>1473</v>
       </c>
-      <c r="L488" s="19">
+      <c r="L488" s="5">
         <v>-31</v>
       </c>
-      <c r="M488" s="19">
-        <v>0</v>
-      </c>
-      <c r="N488" s="19">
-        <v>0</v>
-      </c>
-      <c r="O488" s="19" t="s">
+      <c r="M488" s="5">
+        <v>0</v>
+      </c>
+      <c r="N488" s="5">
+        <v>0</v>
+      </c>
+      <c r="O488" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P488" s="19">
+      <c r="P488" s="5">
         <v>9800</v>
       </c>
-      <c r="Q488" s="19" t="s">
+      <c r="Q488" s="5" t="s">
         <v>1499</v>
       </c>
-      <c r="R488" s="39" t="s">
+      <c r="R488" s="10" t="s">
         <v>1390</v>
       </c>
-      <c r="W488" s="19" t="s">
+      <c r="W488" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="X488" s="19">
+      <c r="X488" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y488" s="34">
+      <c r="Y488" s="11">
         <v>1607990400</v>
       </c>
-      <c r="Z488" s="34">
+      <c r="Z488" s="11">
         <v>1608566399</v>
       </c>
-      <c r="AH488" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI488" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL488" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM488" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="489" spans="1:39" s="19" customFormat="1" ht="14.25">
+      <c r="AH488" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI488" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL488" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM488" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:39" s="5" customFormat="1" ht="14.25">
       <c r="A489" s="5">
         <v>488</v>
       </c>
-      <c r="B489" s="19">
+      <c r="B489" s="5">
         <v>10405</v>
       </c>
-      <c r="F489" s="19">
-        <v>1</v>
-      </c>
-      <c r="G489" s="19" t="s">
+      <c r="F489" s="5">
+        <v>1</v>
+      </c>
+      <c r="G489" s="5" t="s">
         <v>1370</v>
       </c>
-      <c r="I489" s="19" t="s">
+      <c r="I489" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="J489" s="19" t="s">
+      <c r="J489" s="5" t="s">
         <v>1474</v>
       </c>
-      <c r="L489" s="19">
+      <c r="L489" s="5">
         <v>-31</v>
       </c>
-      <c r="M489" s="19">
-        <v>0</v>
-      </c>
-      <c r="N489" s="19">
-        <v>0</v>
-      </c>
-      <c r="O489" s="19" t="s">
+      <c r="M489" s="5">
+        <v>0</v>
+      </c>
+      <c r="N489" s="5">
+        <v>0</v>
+      </c>
+      <c r="O489" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P489" s="19">
+      <c r="P489" s="5">
         <v>19800</v>
       </c>
-      <c r="Q489" s="19" t="s">
+      <c r="Q489" s="5" t="s">
         <v>1499</v>
       </c>
-      <c r="R489" s="39" t="s">
+      <c r="R489" s="10" t="s">
         <v>1384</v>
       </c>
-      <c r="W489" s="19" t="s">
+      <c r="W489" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="X489" s="19">
+      <c r="X489" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y489" s="34">
+      <c r="Y489" s="11">
         <v>1607990400</v>
       </c>
-      <c r="Z489" s="34">
+      <c r="Z489" s="11">
         <v>1608566399</v>
       </c>
-      <c r="AH489" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI489" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL489" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM489" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="490" spans="1:39" s="19" customFormat="1" ht="14.25">
+      <c r="AH489" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI489" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL489" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM489" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:39" s="5" customFormat="1" ht="14.25">
       <c r="A490" s="5">
         <v>489</v>
       </c>
-      <c r="B490" s="19">
+      <c r="B490" s="5">
         <v>10406</v>
       </c>
-      <c r="F490" s="19">
-        <v>1</v>
-      </c>
-      <c r="G490" s="19" t="s">
+      <c r="F490" s="5">
+        <v>1</v>
+      </c>
+      <c r="G490" s="5" t="s">
         <v>1367</v>
       </c>
-      <c r="I490" s="19" t="s">
+      <c r="I490" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="J490" s="19" t="s">
+      <c r="J490" s="5" t="s">
         <v>1475</v>
       </c>
-      <c r="L490" s="19">
+      <c r="L490" s="5">
         <v>-31</v>
       </c>
-      <c r="M490" s="19">
-        <v>0</v>
-      </c>
-      <c r="N490" s="19">
-        <v>0</v>
-      </c>
-      <c r="O490" s="19" t="s">
+      <c r="M490" s="5">
+        <v>0</v>
+      </c>
+      <c r="N490" s="5">
+        <v>0</v>
+      </c>
+      <c r="O490" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P490" s="19">
+      <c r="P490" s="5">
         <v>29800</v>
       </c>
-      <c r="Q490" s="19" t="s">
+      <c r="Q490" s="5" t="s">
         <v>1499</v>
       </c>
-      <c r="R490" s="39" t="s">
+      <c r="R490" s="10" t="s">
         <v>1391</v>
       </c>
-      <c r="W490" s="19" t="s">
+      <c r="W490" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="X490" s="19">
+      <c r="X490" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y490" s="34">
+      <c r="Y490" s="11">
         <v>1607990400</v>
       </c>
-      <c r="Z490" s="34">
+      <c r="Z490" s="11">
         <v>1608566399</v>
       </c>
-      <c r="AH490" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI490" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL490" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM490" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="491" spans="1:39" s="19" customFormat="1" ht="14.25">
+      <c r="AH490" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI490" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL490" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM490" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:39" s="5" customFormat="1" ht="14.25">
       <c r="A491" s="5">
         <v>490</v>
       </c>
-      <c r="B491" s="19">
+      <c r="B491" s="5">
         <v>10407</v>
       </c>
-      <c r="F491" s="19">
-        <v>1</v>
-      </c>
-      <c r="G491" s="19" t="s">
+      <c r="F491" s="5">
+        <v>1</v>
+      </c>
+      <c r="G491" s="5" t="s">
         <v>1465</v>
       </c>
-      <c r="I491" s="19" t="s">
+      <c r="I491" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="J491" s="19" t="s">
+      <c r="J491" s="5" t="s">
         <v>1476</v>
       </c>
-      <c r="L491" s="19">
+      <c r="L491" s="5">
         <v>-31</v>
       </c>
-      <c r="M491" s="19">
-        <v>0</v>
-      </c>
-      <c r="N491" s="19">
-        <v>0</v>
-      </c>
-      <c r="O491" s="19" t="s">
+      <c r="M491" s="5">
+        <v>0</v>
+      </c>
+      <c r="N491" s="5">
+        <v>0</v>
+      </c>
+      <c r="O491" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P491" s="19">
+      <c r="P491" s="5">
         <v>49800</v>
       </c>
-      <c r="Q491" s="19" t="s">
+      <c r="Q491" s="5" t="s">
         <v>1707</v>
       </c>
-      <c r="R491" s="39" t="s">
+      <c r="R491" s="10" t="s">
         <v>1386</v>
       </c>
-      <c r="W491" s="19" t="s">
+      <c r="W491" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="X491" s="19">
+      <c r="X491" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y491" s="34">
+      <c r="Y491" s="11">
         <v>1607990400</v>
       </c>
-      <c r="Z491" s="34">
+      <c r="Z491" s="11">
         <v>1608566399</v>
       </c>
-      <c r="AH491" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI491" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL491" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM491" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="492" spans="1:39" s="19" customFormat="1" ht="14.25">
+      <c r="AH491" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI491" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL491" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM491" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:39" s="5" customFormat="1" ht="14.25">
       <c r="A492" s="5">
         <v>491</v>
       </c>
-      <c r="B492" s="19">
+      <c r="B492" s="5">
         <v>10408</v>
       </c>
-      <c r="F492" s="19">
-        <v>1</v>
-      </c>
-      <c r="G492" s="19" t="s">
+      <c r="F492" s="5">
+        <v>1</v>
+      </c>
+      <c r="G492" s="5" t="s">
         <v>1362</v>
       </c>
-      <c r="I492" s="19" t="s">
+      <c r="I492" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="J492" s="19" t="s">
+      <c r="J492" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="L492" s="19">
+      <c r="L492" s="5">
         <v>-31</v>
       </c>
-      <c r="M492" s="19">
-        <v>0</v>
-      </c>
-      <c r="N492" s="19">
-        <v>0</v>
-      </c>
-      <c r="O492" s="19" t="s">
+      <c r="M492" s="5">
+        <v>0</v>
+      </c>
+      <c r="N492" s="5">
+        <v>0</v>
+      </c>
+      <c r="O492" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="P492" s="19">
+      <c r="P492" s="5">
         <v>99800</v>
       </c>
-      <c r="Q492" s="19" t="s">
+      <c r="Q492" s="5" t="s">
         <v>1707</v>
       </c>
-      <c r="R492" s="39" t="s">
+      <c r="R492" s="10" t="s">
         <v>1387</v>
       </c>
-      <c r="W492" s="19" t="s">
+      <c r="W492" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="X492" s="19">
+      <c r="X492" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y492" s="34">
+      <c r="Y492" s="11">
         <v>1607990400</v>
       </c>
-      <c r="Z492" s="34">
+      <c r="Z492" s="11">
         <v>1608566399</v>
       </c>
-      <c r="AH492" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI492" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL492" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM492" s="19">
+      <c r="AH492" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI492" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL492" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM492" s="5">
         <v>1</v>
       </c>
     </row>
@@ -42549,74 +42711,74 @@
       <c r="A493" s="5">
         <v>492</v>
       </c>
-      <c r="B493" s="84">
+      <c r="B493" s="81">
         <v>10409</v>
       </c>
-      <c r="C493" s="84"/>
-      <c r="D493" s="84"/>
-      <c r="E493" s="84"/>
-      <c r="F493" s="84">
-        <v>1</v>
-      </c>
-      <c r="G493" s="84" t="s">
+      <c r="C493" s="81"/>
+      <c r="D493" s="81"/>
+      <c r="E493" s="81"/>
+      <c r="F493" s="81">
+        <v>1</v>
+      </c>
+      <c r="G493" s="81" t="s">
         <v>1811</v>
       </c>
-      <c r="H493" s="84"/>
-      <c r="I493" s="84" t="s">
+      <c r="H493" s="81"/>
+      <c r="I493" s="81" t="s">
         <v>1813</v>
       </c>
-      <c r="J493" s="84" t="s">
+      <c r="J493" s="81" t="s">
         <v>1815</v>
       </c>
-      <c r="K493" s="84"/>
-      <c r="L493" s="84">
+      <c r="K493" s="81"/>
+      <c r="L493" s="81">
         <v>-31</v>
       </c>
-      <c r="M493" s="84">
-        <v>0</v>
-      </c>
-      <c r="N493" s="84">
-        <v>0</v>
-      </c>
-      <c r="O493" s="84" t="s">
+      <c r="M493" s="81">
+        <v>0</v>
+      </c>
+      <c r="N493" s="81">
+        <v>0</v>
+      </c>
+      <c r="O493" s="81" t="s">
         <v>494</v>
       </c>
-      <c r="P493" s="84">
+      <c r="P493" s="81">
         <v>49800</v>
       </c>
-      <c r="Q493" s="84" t="s">
+      <c r="Q493" s="81" t="s">
         <v>1816</v>
       </c>
-      <c r="R493" s="85" t="s">
+      <c r="R493" s="82" t="s">
         <v>1817</v>
       </c>
-      <c r="S493" s="84"/>
-      <c r="T493" s="84"/>
-      <c r="U493" s="84"/>
-      <c r="V493" s="84"/>
-      <c r="W493" s="84" t="s">
+      <c r="S493" s="81"/>
+      <c r="T493" s="81"/>
+      <c r="U493" s="81"/>
+      <c r="V493" s="81"/>
+      <c r="W493" s="81" t="s">
         <v>545</v>
       </c>
-      <c r="X493" s="84">
+      <c r="X493" s="81">
         <v>200</v>
       </c>
-      <c r="Y493" s="84">
+      <c r="Y493" s="81">
         <v>1609200000</v>
       </c>
-      <c r="Z493" s="84">
+      <c r="Z493" s="81">
         <v>1609775999</v>
       </c>
-      <c r="AA493" s="84"/>
-      <c r="AB493" s="84"/>
-      <c r="AC493" s="84"/>
-      <c r="AD493" s="84"/>
-      <c r="AE493" s="84"/>
-      <c r="AF493" s="84"/>
-      <c r="AG493" s="84"/>
-      <c r="AH493" s="84">
-        <v>1</v>
-      </c>
-      <c r="AI493" s="84">
+      <c r="AA493" s="81"/>
+      <c r="AB493" s="81"/>
+      <c r="AC493" s="81"/>
+      <c r="AD493" s="81"/>
+      <c r="AE493" s="81"/>
+      <c r="AF493" s="81"/>
+      <c r="AG493" s="81"/>
+      <c r="AH493" s="81">
+        <v>1</v>
+      </c>
+      <c r="AI493" s="81">
         <v>1</v>
       </c>
       <c r="AL493" s="6">
@@ -42630,74 +42792,74 @@
       <c r="A494" s="5">
         <v>493</v>
       </c>
-      <c r="B494" s="84">
+      <c r="B494" s="81">
         <v>10410</v>
       </c>
-      <c r="C494" s="84"/>
-      <c r="D494" s="84"/>
-      <c r="E494" s="84"/>
-      <c r="F494" s="84">
-        <v>1</v>
-      </c>
-      <c r="G494" s="84" t="s">
+      <c r="C494" s="81"/>
+      <c r="D494" s="81"/>
+      <c r="E494" s="81"/>
+      <c r="F494" s="81">
+        <v>1</v>
+      </c>
+      <c r="G494" s="81" t="s">
         <v>1812</v>
       </c>
-      <c r="H494" s="84"/>
-      <c r="I494" s="84" t="s">
+      <c r="H494" s="81"/>
+      <c r="I494" s="81" t="s">
         <v>1814</v>
       </c>
-      <c r="J494" s="84" t="s">
+      <c r="J494" s="81" t="s">
         <v>1815</v>
       </c>
-      <c r="K494" s="84"/>
-      <c r="L494" s="84">
+      <c r="K494" s="81"/>
+      <c r="L494" s="81">
         <v>-31</v>
       </c>
-      <c r="M494" s="84">
-        <v>0</v>
-      </c>
-      <c r="N494" s="84">
-        <v>0</v>
-      </c>
-      <c r="O494" s="84" t="s">
+      <c r="M494" s="81">
+        <v>0</v>
+      </c>
+      <c r="N494" s="81">
+        <v>0</v>
+      </c>
+      <c r="O494" s="81" t="s">
         <v>494</v>
       </c>
-      <c r="P494" s="84">
+      <c r="P494" s="81">
         <v>99800</v>
       </c>
-      <c r="Q494" s="84" t="s">
+      <c r="Q494" s="81" t="s">
         <v>1816</v>
       </c>
-      <c r="R494" s="85" t="s">
+      <c r="R494" s="82" t="s">
         <v>1818</v>
       </c>
-      <c r="S494" s="84"/>
-      <c r="T494" s="84"/>
-      <c r="U494" s="84"/>
-      <c r="V494" s="84"/>
-      <c r="W494" s="84" t="s">
+      <c r="S494" s="81"/>
+      <c r="T494" s="81"/>
+      <c r="U494" s="81"/>
+      <c r="V494" s="81"/>
+      <c r="W494" s="81" t="s">
         <v>545</v>
       </c>
-      <c r="X494" s="84">
+      <c r="X494" s="81">
         <v>9999999</v>
       </c>
-      <c r="Y494" s="84">
+      <c r="Y494" s="81">
         <v>1609200000</v>
       </c>
-      <c r="Z494" s="84">
+      <c r="Z494" s="81">
         <v>1609775999</v>
       </c>
-      <c r="AA494" s="84"/>
-      <c r="AB494" s="84"/>
-      <c r="AC494" s="84"/>
-      <c r="AD494" s="84"/>
-      <c r="AE494" s="84"/>
-      <c r="AF494" s="84"/>
-      <c r="AG494" s="84"/>
-      <c r="AH494" s="84">
-        <v>1</v>
-      </c>
-      <c r="AI494" s="84">
+      <c r="AA494" s="81"/>
+      <c r="AB494" s="81"/>
+      <c r="AC494" s="81"/>
+      <c r="AD494" s="81"/>
+      <c r="AE494" s="81"/>
+      <c r="AF494" s="81"/>
+      <c r="AG494" s="81"/>
+      <c r="AH494" s="81">
+        <v>1</v>
+      </c>
+      <c r="AI494" s="81">
         <v>1</v>
       </c>
       <c r="AL494" s="6">
@@ -42873,927 +43035,819 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:39">
+    <row r="497" spans="1:39" s="5" customFormat="1">
       <c r="A497" s="5">
         <v>496</v>
       </c>
-      <c r="B497" s="61">
+      <c r="B497" s="5">
         <v>10413</v>
       </c>
-      <c r="C497" s="61"/>
-      <c r="D497" s="61"/>
-      <c r="E497" s="61"/>
-      <c r="F497" s="61">
-        <v>1</v>
-      </c>
-      <c r="G497" s="61" t="s">
+      <c r="F497" s="5">
+        <v>1</v>
+      </c>
+      <c r="G497" s="5" t="s">
         <v>1833</v>
       </c>
-      <c r="H497" s="61"/>
-      <c r="I497" s="61" t="s">
+      <c r="I497" s="5" t="s">
         <v>1834</v>
       </c>
-      <c r="J497" s="61" t="s">
+      <c r="J497" s="5" t="s">
         <v>1835</v>
       </c>
-      <c r="K497" s="61"/>
-      <c r="L497" s="61">
+      <c r="L497" s="5">
         <v>-31</v>
       </c>
-      <c r="M497" s="61">
-        <v>0</v>
-      </c>
-      <c r="N497" s="61">
-        <v>0</v>
-      </c>
-      <c r="O497" s="61" t="s">
+      <c r="M497" s="5">
+        <v>0</v>
+      </c>
+      <c r="N497" s="5">
+        <v>0</v>
+      </c>
+      <c r="O497" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="P497" s="61">
+      <c r="P497" s="5">
         <v>49800</v>
       </c>
-      <c r="Q497" s="61" t="s">
+      <c r="Q497" s="5" t="s">
         <v>1856</v>
       </c>
-      <c r="R497" s="62" t="s">
+      <c r="R497" s="10" t="s">
         <v>1841</v>
       </c>
-      <c r="S497" s="61"/>
-      <c r="T497" s="61"/>
-      <c r="U497" s="61"/>
-      <c r="V497" s="61"/>
-      <c r="W497" s="61" t="s">
+      <c r="W497" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="X497" s="61">
+      <c r="X497" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y497" s="61">
+      <c r="Y497" s="5">
         <v>1609804800</v>
       </c>
-      <c r="Z497" s="61">
+      <c r="Z497" s="5">
         <v>1610380799</v>
       </c>
-      <c r="AA497" s="61">
+      <c r="AA497" s="5">
         <v>66</v>
       </c>
-      <c r="AH497" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI497" s="6">
-        <v>1</v>
-      </c>
-      <c r="AL497" s="6">
-        <v>1</v>
-      </c>
-      <c r="AM497" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="498" spans="1:39">
+      <c r="AH497" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI497" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL497" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM497" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:39" s="5" customFormat="1">
       <c r="A498" s="5">
         <v>497</v>
       </c>
-      <c r="B498" s="61">
+      <c r="B498" s="5">
         <v>10414</v>
       </c>
-      <c r="C498" s="61"/>
-      <c r="D498" s="61"/>
-      <c r="E498" s="61"/>
-      <c r="F498" s="61">
-        <v>1</v>
-      </c>
-      <c r="G498" s="61" t="s">
+      <c r="F498" s="5">
+        <v>1</v>
+      </c>
+      <c r="G498" s="5" t="s">
         <v>1833</v>
       </c>
-      <c r="H498" s="61"/>
-      <c r="I498" s="61" t="s">
+      <c r="I498" s="5" t="s">
         <v>1834</v>
       </c>
-      <c r="J498" s="61" t="s">
+      <c r="J498" s="5" t="s">
         <v>1836</v>
       </c>
-      <c r="K498" s="61"/>
-      <c r="L498" s="61">
+      <c r="L498" s="5">
         <v>-31</v>
       </c>
-      <c r="M498" s="61">
-        <v>0</v>
-      </c>
-      <c r="N498" s="61">
-        <v>0</v>
-      </c>
-      <c r="O498" s="61" t="s">
+      <c r="M498" s="5">
+        <v>0</v>
+      </c>
+      <c r="N498" s="5">
+        <v>0</v>
+      </c>
+      <c r="O498" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="P498" s="61">
+      <c r="P498" s="5">
         <v>19800</v>
       </c>
-      <c r="Q498" s="61" t="s">
+      <c r="Q498" s="5" t="s">
         <v>1856</v>
       </c>
-      <c r="R498" s="62" t="s">
+      <c r="R498" s="10" t="s">
         <v>1842</v>
       </c>
-      <c r="S498" s="61"/>
-      <c r="T498" s="61"/>
-      <c r="U498" s="61"/>
-      <c r="V498" s="61"/>
-      <c r="W498" s="61" t="s">
+      <c r="W498" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="X498" s="61">
+      <c r="X498" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y498" s="61">
+      <c r="Y498" s="5">
         <v>1609804800</v>
       </c>
-      <c r="Z498" s="61">
+      <c r="Z498" s="5">
         <v>1610380799</v>
       </c>
-      <c r="AA498" s="61">
+      <c r="AA498" s="5">
         <v>66</v>
       </c>
-      <c r="AH498" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI498" s="6">
-        <v>1</v>
-      </c>
-      <c r="AL498" s="6">
-        <v>1</v>
-      </c>
-      <c r="AM498" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="499" spans="1:39">
+      <c r="AH498" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI498" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL498" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM498" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:39" s="5" customFormat="1">
       <c r="A499" s="5">
         <v>498</v>
       </c>
-      <c r="B499" s="61">
+      <c r="B499" s="5">
         <v>10415</v>
       </c>
-      <c r="C499" s="61"/>
-      <c r="D499" s="61"/>
-      <c r="E499" s="61"/>
-      <c r="F499" s="61">
-        <v>1</v>
-      </c>
-      <c r="G499" s="61" t="s">
+      <c r="F499" s="5">
+        <v>1</v>
+      </c>
+      <c r="G499" s="5" t="s">
         <v>1833</v>
       </c>
-      <c r="H499" s="61"/>
-      <c r="I499" s="61" t="s">
+      <c r="I499" s="5" t="s">
         <v>1834</v>
       </c>
-      <c r="J499" s="61" t="s">
+      <c r="J499" s="5" t="s">
         <v>1837</v>
       </c>
-      <c r="K499" s="61"/>
-      <c r="L499" s="61">
+      <c r="L499" s="5">
         <v>-31</v>
       </c>
-      <c r="M499" s="61">
-        <v>0</v>
-      </c>
-      <c r="N499" s="61">
-        <v>0</v>
-      </c>
-      <c r="O499" s="61" t="s">
+      <c r="M499" s="5">
+        <v>0</v>
+      </c>
+      <c r="N499" s="5">
+        <v>0</v>
+      </c>
+      <c r="O499" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="P499" s="61">
+      <c r="P499" s="5">
         <v>9800</v>
       </c>
-      <c r="Q499" s="61" t="s">
+      <c r="Q499" s="5" t="s">
         <v>1881</v>
       </c>
-      <c r="R499" s="62" t="s">
+      <c r="R499" s="10" t="s">
         <v>1843</v>
       </c>
-      <c r="S499" s="61"/>
-      <c r="T499" s="61"/>
-      <c r="U499" s="61"/>
-      <c r="V499" s="61"/>
-      <c r="W499" s="61" t="s">
+      <c r="W499" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="X499" s="61">
+      <c r="X499" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y499" s="61">
+      <c r="Y499" s="5">
         <v>1609804800</v>
       </c>
-      <c r="Z499" s="61">
+      <c r="Z499" s="5">
         <v>1610380799</v>
       </c>
-      <c r="AA499" s="61">
+      <c r="AA499" s="5">
         <v>66</v>
       </c>
-      <c r="AH499" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI499" s="6">
-        <v>1</v>
-      </c>
-      <c r="AL499" s="6">
-        <v>1</v>
-      </c>
-      <c r="AM499" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="500" spans="1:39">
+      <c r="AH499" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI499" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL499" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM499" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:39" s="5" customFormat="1">
       <c r="A500" s="5">
         <v>499</v>
       </c>
-      <c r="B500" s="61">
+      <c r="B500" s="5">
         <v>10416</v>
       </c>
-      <c r="C500" s="61"/>
-      <c r="D500" s="61"/>
-      <c r="E500" s="61"/>
-      <c r="F500" s="61">
-        <v>1</v>
-      </c>
-      <c r="G500" s="61" t="s">
+      <c r="F500" s="5">
+        <v>1</v>
+      </c>
+      <c r="G500" s="5" t="s">
         <v>1833</v>
       </c>
-      <c r="H500" s="61"/>
-      <c r="I500" s="61" t="s">
+      <c r="I500" s="5" t="s">
         <v>1834</v>
       </c>
-      <c r="J500" s="61" t="s">
+      <c r="J500" s="5" t="s">
         <v>1838</v>
       </c>
-      <c r="K500" s="61"/>
-      <c r="L500" s="61">
+      <c r="L500" s="5">
         <v>-31</v>
       </c>
-      <c r="M500" s="61">
-        <v>0</v>
-      </c>
-      <c r="N500" s="61">
-        <v>0</v>
-      </c>
-      <c r="O500" s="61" t="s">
+      <c r="M500" s="5">
+        <v>0</v>
+      </c>
+      <c r="N500" s="5">
+        <v>0</v>
+      </c>
+      <c r="O500" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="P500" s="61">
+      <c r="P500" s="5">
         <v>4800</v>
       </c>
-      <c r="Q500" s="61" t="s">
+      <c r="Q500" s="5" t="s">
         <v>1856</v>
       </c>
-      <c r="R500" s="62" t="s">
+      <c r="R500" s="10" t="s">
         <v>1844</v>
       </c>
-      <c r="S500" s="61"/>
-      <c r="T500" s="61"/>
-      <c r="U500" s="61"/>
-      <c r="V500" s="61"/>
-      <c r="W500" s="61" t="s">
+      <c r="W500" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="X500" s="61">
+      <c r="X500" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y500" s="61">
+      <c r="Y500" s="5">
         <v>1609804800</v>
       </c>
-      <c r="Z500" s="61">
+      <c r="Z500" s="5">
         <v>1610380799</v>
       </c>
-      <c r="AA500" s="61">
+      <c r="AA500" s="5">
         <v>66</v>
       </c>
-      <c r="AH500" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI500" s="6">
-        <v>1</v>
-      </c>
-      <c r="AL500" s="6">
-        <v>1</v>
-      </c>
-      <c r="AM500" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="501" spans="1:39">
+      <c r="AH500" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI500" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL500" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM500" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:39" s="5" customFormat="1">
       <c r="A501" s="5">
         <v>500</v>
       </c>
-      <c r="B501" s="61">
+      <c r="B501" s="5">
         <v>10417</v>
       </c>
-      <c r="C501" s="61"/>
-      <c r="D501" s="61"/>
-      <c r="E501" s="61"/>
-      <c r="F501" s="61">
-        <v>1</v>
-      </c>
-      <c r="G501" s="61" t="s">
+      <c r="F501" s="5">
+        <v>1</v>
+      </c>
+      <c r="G501" s="5" t="s">
         <v>1833</v>
       </c>
-      <c r="H501" s="61"/>
-      <c r="I501" s="61" t="s">
+      <c r="I501" s="5" t="s">
         <v>1834</v>
       </c>
-      <c r="J501" s="61" t="s">
+      <c r="J501" s="5" t="s">
         <v>1839</v>
       </c>
-      <c r="K501" s="61"/>
-      <c r="L501" s="61">
+      <c r="L501" s="5">
         <v>-31</v>
       </c>
-      <c r="M501" s="61">
-        <v>0</v>
-      </c>
-      <c r="N501" s="61">
-        <v>0</v>
-      </c>
-      <c r="O501" s="61" t="s">
+      <c r="M501" s="5">
+        <v>0</v>
+      </c>
+      <c r="N501" s="5">
+        <v>0</v>
+      </c>
+      <c r="O501" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="P501" s="61">
+      <c r="P501" s="5">
         <v>2000</v>
       </c>
-      <c r="Q501" s="61" t="s">
+      <c r="Q501" s="5" t="s">
         <v>1856</v>
       </c>
-      <c r="R501" s="62" t="s">
+      <c r="R501" s="10" t="s">
         <v>1845</v>
       </c>
-      <c r="S501" s="61"/>
-      <c r="T501" s="61"/>
-      <c r="U501" s="61"/>
-      <c r="V501" s="61"/>
-      <c r="W501" s="61" t="s">
+      <c r="W501" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="X501" s="61">
+      <c r="X501" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y501" s="61">
+      <c r="Y501" s="5">
         <v>1609804800</v>
       </c>
-      <c r="Z501" s="61">
+      <c r="Z501" s="5">
         <v>1610380799</v>
       </c>
-      <c r="AA501" s="61">
+      <c r="AA501" s="5">
         <v>66</v>
       </c>
-      <c r="AH501" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI501" s="6">
-        <v>1</v>
-      </c>
-      <c r="AL501" s="6">
-        <v>1</v>
-      </c>
-      <c r="AM501" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="502" spans="1:39">
+      <c r="AH501" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI501" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL501" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM501" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:39" s="5" customFormat="1">
       <c r="A502" s="5">
         <v>501</v>
       </c>
-      <c r="B502" s="61">
+      <c r="B502" s="5">
         <v>10418</v>
       </c>
-      <c r="C502" s="61"/>
-      <c r="D502" s="61"/>
-      <c r="E502" s="61"/>
-      <c r="F502" s="61">
-        <v>1</v>
-      </c>
-      <c r="G502" s="61" t="s">
+      <c r="F502" s="5">
+        <v>1</v>
+      </c>
+      <c r="G502" s="5" t="s">
         <v>1833</v>
       </c>
-      <c r="H502" s="61"/>
-      <c r="I502" s="61" t="s">
+      <c r="I502" s="5" t="s">
         <v>1834</v>
       </c>
-      <c r="J502" s="61" t="s">
+      <c r="J502" s="5" t="s">
         <v>1840</v>
       </c>
-      <c r="K502" s="61"/>
-      <c r="L502" s="61">
+      <c r="L502" s="5">
         <v>-31</v>
       </c>
-      <c r="M502" s="61">
-        <v>0</v>
-      </c>
-      <c r="N502" s="61">
-        <v>0</v>
-      </c>
-      <c r="O502" s="61" t="s">
+      <c r="M502" s="5">
+        <v>0</v>
+      </c>
+      <c r="N502" s="5">
+        <v>0</v>
+      </c>
+      <c r="O502" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="P502" s="61">
+      <c r="P502" s="5">
         <v>600</v>
       </c>
-      <c r="Q502" s="61" t="s">
+      <c r="Q502" s="5" t="s">
         <v>1856</v>
       </c>
-      <c r="R502" s="62" t="s">
+      <c r="R502" s="10" t="s">
         <v>1846</v>
       </c>
-      <c r="S502" s="61"/>
-      <c r="T502" s="61"/>
-      <c r="U502" s="61"/>
-      <c r="V502" s="61"/>
-      <c r="W502" s="61" t="s">
+      <c r="W502" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="X502" s="61">
+      <c r="X502" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y502" s="61">
+      <c r="Y502" s="5">
         <v>1609804800</v>
       </c>
-      <c r="Z502" s="61">
+      <c r="Z502" s="5">
         <v>1610380799</v>
       </c>
-      <c r="AA502" s="61">
+      <c r="AA502" s="5">
         <v>66</v>
       </c>
-      <c r="AH502" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI502" s="6">
-        <v>1</v>
-      </c>
-      <c r="AL502" s="6">
-        <v>1</v>
-      </c>
-      <c r="AM502" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="503" spans="1:39">
+      <c r="AH502" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI502" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL502" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM502" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:39" s="5" customFormat="1">
       <c r="A503" s="5">
         <v>502</v>
       </c>
-      <c r="B503" s="59">
+      <c r="B503" s="5">
         <v>10419</v>
       </c>
-      <c r="C503" s="59"/>
-      <c r="D503" s="59"/>
-      <c r="E503" s="59"/>
-      <c r="F503" s="59">
-        <v>1</v>
-      </c>
-      <c r="G503" s="59" t="s">
+      <c r="F503" s="5">
+        <v>1</v>
+      </c>
+      <c r="G503" s="5" t="s">
         <v>1833</v>
       </c>
-      <c r="H503" s="59"/>
-      <c r="I503" s="59" t="s">
+      <c r="I503" s="5" t="s">
         <v>1849</v>
       </c>
-      <c r="J503" s="59" t="s">
+      <c r="J503" s="5" t="s">
         <v>1859</v>
       </c>
-      <c r="K503" s="59"/>
-      <c r="L503" s="59">
+      <c r="L503" s="5">
         <v>-31</v>
       </c>
-      <c r="M503" s="59">
-        <v>0</v>
-      </c>
-      <c r="N503" s="59">
-        <v>0</v>
-      </c>
-      <c r="O503" s="59" t="s">
+      <c r="M503" s="5">
+        <v>0</v>
+      </c>
+      <c r="N503" s="5">
+        <v>0</v>
+      </c>
+      <c r="O503" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="P503" s="59">
+      <c r="P503" s="5">
         <v>49800</v>
       </c>
-      <c r="Q503" s="59" t="s">
+      <c r="Q503" s="5" t="s">
         <v>1857</v>
       </c>
-      <c r="R503" s="60" t="s">
+      <c r="R503" s="10" t="s">
         <v>1853</v>
       </c>
-      <c r="S503" s="59"/>
-      <c r="T503" s="59"/>
-      <c r="U503" s="59"/>
-      <c r="V503" s="59"/>
-      <c r="W503" s="59" t="s">
+      <c r="W503" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="X503" s="59">
+      <c r="X503" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y503" s="59">
+      <c r="Y503" s="5">
         <v>1609804800</v>
       </c>
-      <c r="Z503" s="59">
+      <c r="Z503" s="5">
         <v>1610380799</v>
       </c>
-      <c r="AA503" s="59">
+      <c r="AA503" s="5">
         <v>67</v>
       </c>
-      <c r="AH503" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI503" s="6">
-        <v>1</v>
-      </c>
-      <c r="AL503" s="6">
-        <v>1</v>
-      </c>
-      <c r="AM503" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="504" spans="1:39">
+      <c r="AH503" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI503" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL503" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM503" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:39" s="5" customFormat="1">
       <c r="A504" s="5">
         <v>503</v>
       </c>
-      <c r="B504" s="59">
+      <c r="B504" s="5">
         <v>10420</v>
       </c>
-      <c r="C504" s="59"/>
-      <c r="D504" s="59"/>
-      <c r="E504" s="59"/>
-      <c r="F504" s="59">
-        <v>1</v>
-      </c>
-      <c r="G504" s="59" t="s">
+      <c r="F504" s="5">
+        <v>1</v>
+      </c>
+      <c r="G504" s="5" t="s">
         <v>1833</v>
       </c>
-      <c r="H504" s="59"/>
-      <c r="I504" s="59" t="s">
+      <c r="I504" s="5" t="s">
         <v>1849</v>
       </c>
-      <c r="J504" s="59" t="s">
+      <c r="J504" s="5" t="s">
         <v>1850</v>
       </c>
-      <c r="K504" s="59"/>
-      <c r="L504" s="59">
+      <c r="L504" s="5">
         <v>-31</v>
       </c>
-      <c r="M504" s="59">
-        <v>0</v>
-      </c>
-      <c r="N504" s="59">
-        <v>0</v>
-      </c>
-      <c r="O504" s="59" t="s">
+      <c r="M504" s="5">
+        <v>0</v>
+      </c>
+      <c r="N504" s="5">
+        <v>0</v>
+      </c>
+      <c r="O504" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="P504" s="59">
+      <c r="P504" s="5">
         <v>19800</v>
       </c>
-      <c r="Q504" s="59" t="s">
+      <c r="Q504" s="5" t="s">
         <v>1857</v>
       </c>
-      <c r="R504" s="60" t="s">
+      <c r="R504" s="10" t="s">
         <v>1842</v>
       </c>
-      <c r="S504" s="59"/>
-      <c r="T504" s="59"/>
-      <c r="U504" s="59"/>
-      <c r="V504" s="59"/>
-      <c r="W504" s="59" t="s">
+      <c r="W504" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="X504" s="59">
+      <c r="X504" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y504" s="59">
+      <c r="Y504" s="5">
         <v>1609804800</v>
       </c>
-      <c r="Z504" s="59">
+      <c r="Z504" s="5">
         <v>1610380799</v>
       </c>
-      <c r="AA504" s="59">
+      <c r="AA504" s="5">
         <v>67</v>
       </c>
-      <c r="AH504" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI504" s="6">
-        <v>1</v>
-      </c>
-      <c r="AL504" s="6">
-        <v>1</v>
-      </c>
-      <c r="AM504" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="505" spans="1:39">
+      <c r="AH504" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI504" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL504" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM504" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:39" s="5" customFormat="1">
       <c r="A505" s="5">
         <v>504</v>
       </c>
-      <c r="B505" s="59">
+      <c r="B505" s="5">
         <v>10421</v>
       </c>
-      <c r="C505" s="59"/>
-      <c r="D505" s="59"/>
-      <c r="E505" s="59"/>
-      <c r="F505" s="59">
-        <v>1</v>
-      </c>
-      <c r="G505" s="59" t="s">
+      <c r="F505" s="5">
+        <v>1</v>
+      </c>
+      <c r="G505" s="5" t="s">
         <v>1833</v>
       </c>
-      <c r="H505" s="59"/>
-      <c r="I505" s="59" t="s">
+      <c r="I505" s="5" t="s">
         <v>1849</v>
       </c>
-      <c r="J505" s="59" t="s">
+      <c r="J505" s="5" t="s">
         <v>1860</v>
       </c>
-      <c r="K505" s="59"/>
-      <c r="L505" s="59">
+      <c r="L505" s="5">
         <v>-31</v>
       </c>
-      <c r="M505" s="59">
-        <v>0</v>
-      </c>
-      <c r="N505" s="59">
-        <v>0</v>
-      </c>
-      <c r="O505" s="59" t="s">
+      <c r="M505" s="5">
+        <v>0</v>
+      </c>
+      <c r="N505" s="5">
+        <v>0</v>
+      </c>
+      <c r="O505" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="P505" s="59">
+      <c r="P505" s="5">
         <v>9800</v>
       </c>
-      <c r="Q505" s="59" t="s">
+      <c r="Q505" s="5" t="s">
         <v>1889</v>
       </c>
-      <c r="R505" s="60" t="s">
+      <c r="R505" s="10" t="s">
         <v>1854</v>
       </c>
-      <c r="S505" s="59"/>
-      <c r="T505" s="59"/>
-      <c r="U505" s="59"/>
-      <c r="V505" s="59"/>
-      <c r="W505" s="59" t="s">
+      <c r="W505" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="X505" s="59">
+      <c r="X505" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y505" s="59">
+      <c r="Y505" s="5">
         <v>1609804800</v>
       </c>
-      <c r="Z505" s="59">
+      <c r="Z505" s="5">
         <v>1610380799</v>
       </c>
-      <c r="AA505" s="59">
+      <c r="AA505" s="5">
         <v>67</v>
       </c>
-      <c r="AH505" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI505" s="6">
-        <v>1</v>
-      </c>
-      <c r="AL505" s="6">
-        <v>1</v>
-      </c>
-      <c r="AM505" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="506" spans="1:39">
+      <c r="AH505" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI505" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL505" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM505" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:39" s="5" customFormat="1">
       <c r="A506" s="5">
         <v>505</v>
       </c>
-      <c r="B506" s="59">
+      <c r="B506" s="5">
         <v>10422</v>
       </c>
-      <c r="C506" s="59"/>
-      <c r="D506" s="59"/>
-      <c r="E506" s="59"/>
-      <c r="F506" s="59">
-        <v>1</v>
-      </c>
-      <c r="G506" s="59" t="s">
+      <c r="F506" s="5">
+        <v>1</v>
+      </c>
+      <c r="G506" s="5" t="s">
         <v>1833</v>
       </c>
-      <c r="H506" s="59"/>
-      <c r="I506" s="59" t="s">
+      <c r="I506" s="5" t="s">
         <v>1849</v>
       </c>
-      <c r="J506" s="59" t="s">
+      <c r="J506" s="5" t="s">
         <v>1861</v>
       </c>
-      <c r="K506" s="59"/>
-      <c r="L506" s="59">
+      <c r="L506" s="5">
         <v>-31</v>
       </c>
-      <c r="M506" s="59">
-        <v>0</v>
-      </c>
-      <c r="N506" s="59">
-        <v>0</v>
-      </c>
-      <c r="O506" s="59" t="s">
+      <c r="M506" s="5">
+        <v>0</v>
+      </c>
+      <c r="N506" s="5">
+        <v>0</v>
+      </c>
+      <c r="O506" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="P506" s="59">
+      <c r="P506" s="5">
         <v>4800</v>
       </c>
-      <c r="Q506" s="59" t="s">
+      <c r="Q506" s="5" t="s">
         <v>1858</v>
       </c>
-      <c r="R506" s="60" t="s">
+      <c r="R506" s="10" t="s">
         <v>1855</v>
       </c>
-      <c r="S506" s="59"/>
-      <c r="T506" s="59"/>
-      <c r="U506" s="59"/>
-      <c r="V506" s="59"/>
-      <c r="W506" s="59" t="s">
+      <c r="W506" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="X506" s="59">
+      <c r="X506" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y506" s="59">
+      <c r="Y506" s="5">
         <v>1609804800</v>
       </c>
-      <c r="Z506" s="59">
+      <c r="Z506" s="5">
         <v>1610380799</v>
       </c>
-      <c r="AA506" s="59">
+      <c r="AA506" s="5">
         <v>67</v>
       </c>
-      <c r="AH506" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI506" s="6">
-        <v>1</v>
-      </c>
-      <c r="AL506" s="6">
-        <v>1</v>
-      </c>
-      <c r="AM506" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="507" spans="1:39">
+      <c r="AH506" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI506" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL506" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM506" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:39" s="5" customFormat="1">
       <c r="A507" s="5">
         <v>506</v>
       </c>
-      <c r="B507" s="59">
+      <c r="B507" s="5">
         <v>10423</v>
       </c>
-      <c r="C507" s="59"/>
-      <c r="D507" s="59"/>
-      <c r="E507" s="59"/>
-      <c r="F507" s="59">
-        <v>1</v>
-      </c>
-      <c r="G507" s="59" t="s">
+      <c r="F507" s="5">
+        <v>1</v>
+      </c>
+      <c r="G507" s="5" t="s">
         <v>1833</v>
       </c>
-      <c r="H507" s="59"/>
-      <c r="I507" s="59" t="s">
+      <c r="I507" s="5" t="s">
         <v>1849</v>
       </c>
-      <c r="J507" s="59" t="s">
+      <c r="J507" s="5" t="s">
         <v>1851</v>
       </c>
-      <c r="K507" s="59"/>
-      <c r="L507" s="59">
+      <c r="L507" s="5">
         <v>-31</v>
       </c>
-      <c r="M507" s="59">
-        <v>0</v>
-      </c>
-      <c r="N507" s="59">
-        <v>0</v>
-      </c>
-      <c r="O507" s="59" t="s">
+      <c r="M507" s="5">
+        <v>0</v>
+      </c>
+      <c r="N507" s="5">
+        <v>0</v>
+      </c>
+      <c r="O507" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="P507" s="59">
+      <c r="P507" s="5">
         <v>2000</v>
       </c>
-      <c r="Q507" s="59" t="s">
+      <c r="Q507" s="5" t="s">
         <v>1858</v>
       </c>
-      <c r="R507" s="60" t="s">
+      <c r="R507" s="10" t="s">
         <v>1845</v>
       </c>
-      <c r="S507" s="59"/>
-      <c r="T507" s="59"/>
-      <c r="U507" s="59"/>
-      <c r="V507" s="59"/>
-      <c r="W507" s="59" t="s">
+      <c r="W507" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="X507" s="59">
+      <c r="X507" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y507" s="59">
+      <c r="Y507" s="5">
         <v>1609804800</v>
       </c>
-      <c r="Z507" s="59">
+      <c r="Z507" s="5">
         <v>1610380799</v>
       </c>
-      <c r="AA507" s="59">
+      <c r="AA507" s="5">
         <v>67</v>
       </c>
-      <c r="AH507" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI507" s="6">
-        <v>1</v>
-      </c>
-      <c r="AL507" s="6">
-        <v>1</v>
-      </c>
-      <c r="AM507" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="508" spans="1:39">
+      <c r="AH507" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI507" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL507" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM507" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:39" s="5" customFormat="1">
       <c r="A508" s="5">
         <v>507</v>
       </c>
-      <c r="B508" s="59">
+      <c r="B508" s="5">
         <v>10424</v>
       </c>
-      <c r="C508" s="59"/>
-      <c r="D508" s="59"/>
-      <c r="E508" s="59"/>
-      <c r="F508" s="59">
-        <v>1</v>
-      </c>
-      <c r="G508" s="59" t="s">
+      <c r="F508" s="5">
+        <v>1</v>
+      </c>
+      <c r="G508" s="5" t="s">
         <v>1833</v>
       </c>
-      <c r="H508" s="59"/>
-      <c r="I508" s="59" t="s">
+      <c r="I508" s="5" t="s">
         <v>1849</v>
       </c>
-      <c r="J508" s="59" t="s">
+      <c r="J508" s="5" t="s">
         <v>1852</v>
       </c>
-      <c r="K508" s="59"/>
-      <c r="L508" s="59">
+      <c r="L508" s="5">
         <v>-31</v>
       </c>
-      <c r="M508" s="59">
-        <v>0</v>
-      </c>
-      <c r="N508" s="59">
-        <v>0</v>
-      </c>
-      <c r="O508" s="59" t="s">
+      <c r="M508" s="5">
+        <v>0</v>
+      </c>
+      <c r="N508" s="5">
+        <v>0</v>
+      </c>
+      <c r="O508" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="P508" s="59">
+      <c r="P508" s="5">
         <v>600</v>
       </c>
-      <c r="Q508" s="59" t="s">
+      <c r="Q508" s="5" t="s">
         <v>1858</v>
       </c>
-      <c r="R508" s="60" t="s">
+      <c r="R508" s="10" t="s">
         <v>1846</v>
       </c>
-      <c r="S508" s="59"/>
-      <c r="T508" s="59"/>
-      <c r="U508" s="59"/>
-      <c r="V508" s="59"/>
-      <c r="W508" s="59" t="s">
+      <c r="W508" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="X508" s="59">
+      <c r="X508" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y508" s="59">
+      <c r="Y508" s="5">
         <v>1609804800</v>
       </c>
-      <c r="Z508" s="59">
+      <c r="Z508" s="5">
         <v>1610380799</v>
       </c>
-      <c r="AA508" s="59">
+      <c r="AA508" s="5">
         <v>67</v>
       </c>
-      <c r="AH508" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI508" s="6">
-        <v>1</v>
-      </c>
-      <c r="AL508" s="6">
-        <v>1</v>
-      </c>
-      <c r="AM508" s="6">
+      <c r="AH508" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI508" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL508" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM508" s="5">
         <v>1</v>
       </c>
     </row>
@@ -43833,7 +43887,7 @@
         <v>546</v>
       </c>
       <c r="X509" s="14" t="s">
-        <v>117</v>
+        <v>1959</v>
       </c>
       <c r="Y509" s="7">
         <v>0</v>
@@ -43977,609 +44031,1425 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:39" s="84" customFormat="1">
-      <c r="A512" s="84">
+    <row r="512" spans="1:39" s="81" customFormat="1">
+      <c r="A512" s="5">
         <v>511</v>
       </c>
-      <c r="B512" s="84">
+      <c r="B512" s="5">
         <v>10428</v>
       </c>
-      <c r="F512" s="84">
-        <v>1</v>
-      </c>
-      <c r="G512" s="84" t="s">
+      <c r="F512" s="81">
+        <v>1</v>
+      </c>
+      <c r="G512" s="81" t="s">
         <v>1894</v>
       </c>
-      <c r="I512" s="84" t="s">
+      <c r="I512" s="81" t="s">
         <v>1895</v>
       </c>
-      <c r="J512" s="84" t="s">
+      <c r="J512" s="81" t="s">
         <v>1896</v>
       </c>
-      <c r="L512" s="84">
+      <c r="L512" s="81">
         <v>-33</v>
       </c>
-      <c r="M512" s="84">
-        <v>0</v>
-      </c>
-      <c r="N512" s="84">
-        <v>0</v>
-      </c>
-      <c r="O512" s="84" t="s">
+      <c r="M512" s="81">
+        <v>0</v>
+      </c>
+      <c r="N512" s="81">
+        <v>0</v>
+      </c>
+      <c r="O512" s="81" t="s">
         <v>1880</v>
       </c>
-      <c r="P512" s="84">
+      <c r="P512" s="81">
         <v>49800</v>
       </c>
-      <c r="Q512" s="84" t="s">
+      <c r="Q512" s="81" t="s">
+        <v>1940</v>
+      </c>
+      <c r="R512" s="82" t="s">
+        <v>1884</v>
+      </c>
+      <c r="W512" s="81" t="s">
+        <v>1897</v>
+      </c>
+      <c r="X512" s="81">
+        <v>99999999</v>
+      </c>
+      <c r="Y512" s="81">
+        <v>1610409600</v>
+      </c>
+      <c r="Z512" s="81">
+        <v>1610985599</v>
+      </c>
+      <c r="AA512" s="81">
+        <v>68</v>
+      </c>
+      <c r="AH512" s="81">
+        <v>1</v>
+      </c>
+      <c r="AI512" s="81">
+        <v>1</v>
+      </c>
+      <c r="AL512" s="81">
+        <v>1</v>
+      </c>
+      <c r="AM512" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:39" s="81" customFormat="1">
+      <c r="A513" s="5">
+        <v>512</v>
+      </c>
+      <c r="B513" s="5">
+        <v>10429</v>
+      </c>
+      <c r="F513" s="81">
+        <v>1</v>
+      </c>
+      <c r="G513" s="81" t="s">
+        <v>1894</v>
+      </c>
+      <c r="I513" s="81" t="s">
+        <v>1895</v>
+      </c>
+      <c r="J513" s="81" t="s">
+        <v>1898</v>
+      </c>
+      <c r="L513" s="81">
+        <v>-33</v>
+      </c>
+      <c r="M513" s="81">
+        <v>0</v>
+      </c>
+      <c r="N513" s="81">
+        <v>0</v>
+      </c>
+      <c r="O513" s="81" t="s">
+        <v>1880</v>
+      </c>
+      <c r="P513" s="81">
+        <v>19800</v>
+      </c>
+      <c r="Q513" s="81" t="s">
         <v>1882</v>
       </c>
-      <c r="R512" s="85" t="s">
-        <v>1884</v>
-      </c>
-      <c r="W512" s="84" t="s">
+      <c r="R513" s="82" t="s">
+        <v>1885</v>
+      </c>
+      <c r="W513" s="81" t="s">
+        <v>1899</v>
+      </c>
+      <c r="X513" s="81">
+        <v>99999999</v>
+      </c>
+      <c r="Y513" s="81">
+        <v>1610409600</v>
+      </c>
+      <c r="Z513" s="81">
+        <v>1610985599</v>
+      </c>
+      <c r="AA513" s="81">
+        <v>68</v>
+      </c>
+      <c r="AH513" s="81">
+        <v>1</v>
+      </c>
+      <c r="AI513" s="81">
+        <v>1</v>
+      </c>
+      <c r="AL513" s="81">
+        <v>1</v>
+      </c>
+      <c r="AM513" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:39" s="81" customFormat="1">
+      <c r="A514" s="5">
+        <v>513</v>
+      </c>
+      <c r="B514" s="5">
+        <v>10430</v>
+      </c>
+      <c r="F514" s="81">
+        <v>1</v>
+      </c>
+      <c r="G514" s="81" t="s">
+        <v>1876</v>
+      </c>
+      <c r="I514" s="81" t="s">
+        <v>1877</v>
+      </c>
+      <c r="J514" s="81" t="s">
+        <v>1879</v>
+      </c>
+      <c r="L514" s="81">
+        <v>-33</v>
+      </c>
+      <c r="M514" s="81">
+        <v>0</v>
+      </c>
+      <c r="N514" s="81">
+        <v>0</v>
+      </c>
+      <c r="O514" s="81" t="s">
+        <v>1880</v>
+      </c>
+      <c r="P514" s="81">
+        <v>9800</v>
+      </c>
+      <c r="Q514" s="81" t="s">
+        <v>1883</v>
+      </c>
+      <c r="R514" s="82" t="s">
+        <v>1886</v>
+      </c>
+      <c r="W514" s="81" t="s">
         <v>1897</v>
       </c>
-      <c r="X512" s="84">
+      <c r="X514" s="81">
         <v>99999999</v>
       </c>
-      <c r="Y512" s="84">
+      <c r="Y514" s="81">
         <v>1610409600</v>
       </c>
-      <c r="Z512" s="84">
+      <c r="Z514" s="81">
         <v>1610985599</v>
       </c>
-      <c r="AA512" s="84">
+      <c r="AA514" s="81">
         <v>68</v>
       </c>
-      <c r="AH512" s="84">
-        <v>1</v>
-      </c>
-      <c r="AI512" s="84">
-        <v>1</v>
-      </c>
-      <c r="AL512" s="84">
-        <v>1</v>
-      </c>
-      <c r="AM512" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="513" spans="1:39" s="84" customFormat="1">
-      <c r="A513" s="84">
-        <v>512</v>
-      </c>
-      <c r="B513" s="84">
-        <v>10429</v>
-      </c>
-      <c r="F513" s="84">
-        <v>1</v>
-      </c>
-      <c r="G513" s="84" t="s">
+      <c r="AH514" s="81">
+        <v>1</v>
+      </c>
+      <c r="AI514" s="81">
+        <v>1</v>
+      </c>
+      <c r="AL514" s="81">
+        <v>1</v>
+      </c>
+      <c r="AM514" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:39" s="81" customFormat="1">
+      <c r="A515" s="5">
+        <v>514</v>
+      </c>
+      <c r="B515" s="5">
+        <v>10431</v>
+      </c>
+      <c r="F515" s="81">
+        <v>1</v>
+      </c>
+      <c r="G515" s="81" t="s">
+        <v>1876</v>
+      </c>
+      <c r="I515" s="81" t="s">
+        <v>1877</v>
+      </c>
+      <c r="J515" s="81" t="s">
+        <v>1878</v>
+      </c>
+      <c r="L515" s="81">
+        <v>-33</v>
+      </c>
+      <c r="M515" s="81">
+        <v>0</v>
+      </c>
+      <c r="N515" s="81">
+        <v>0</v>
+      </c>
+      <c r="O515" s="81" t="s">
+        <v>1880</v>
+      </c>
+      <c r="P515" s="81">
+        <v>4800</v>
+      </c>
+      <c r="Q515" s="81" t="s">
+        <v>1900</v>
+      </c>
+      <c r="R515" s="82" t="s">
+        <v>1887</v>
+      </c>
+      <c r="W515" s="81" t="s">
+        <v>1897</v>
+      </c>
+      <c r="X515" s="81">
+        <v>99999999</v>
+      </c>
+      <c r="Y515" s="81">
+        <v>1610409600</v>
+      </c>
+      <c r="Z515" s="81">
+        <v>1610985599</v>
+      </c>
+      <c r="AA515" s="81">
+        <v>68</v>
+      </c>
+      <c r="AH515" s="81">
+        <v>1</v>
+      </c>
+      <c r="AI515" s="81">
+        <v>1</v>
+      </c>
+      <c r="AL515" s="81">
+        <v>1</v>
+      </c>
+      <c r="AM515" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:39" s="81" customFormat="1">
+      <c r="A516" s="5">
+        <v>515</v>
+      </c>
+      <c r="B516" s="5">
+        <v>10432</v>
+      </c>
+      <c r="F516" s="81">
+        <v>1</v>
+      </c>
+      <c r="G516" s="81" t="s">
         <v>1894</v>
       </c>
-      <c r="I513" s="84" t="s">
-        <v>1895</v>
-      </c>
-      <c r="J513" s="84" t="s">
-        <v>1898</v>
-      </c>
-      <c r="L513" s="84">
+      <c r="I516" s="81" t="s">
+        <v>1901</v>
+      </c>
+      <c r="J516" s="81" t="s">
+        <v>1902</v>
+      </c>
+      <c r="L516" s="81">
         <v>-33</v>
       </c>
-      <c r="M513" s="84">
-        <v>0</v>
-      </c>
-      <c r="N513" s="84">
-        <v>0</v>
-      </c>
-      <c r="O513" s="84" t="s">
+      <c r="M516" s="81">
+        <v>0</v>
+      </c>
+      <c r="N516" s="81">
+        <v>0</v>
+      </c>
+      <c r="O516" s="81" t="s">
+        <v>1903</v>
+      </c>
+      <c r="P516" s="81">
+        <v>49800</v>
+      </c>
+      <c r="Q516" s="81" t="s">
+        <v>1904</v>
+      </c>
+      <c r="R516" s="82" t="s">
+        <v>1905</v>
+      </c>
+      <c r="W516" s="81" t="s">
+        <v>1897</v>
+      </c>
+      <c r="X516" s="81">
+        <v>99999999</v>
+      </c>
+      <c r="Y516" s="81">
+        <v>1610409600</v>
+      </c>
+      <c r="Z516" s="81">
+        <v>1610985599</v>
+      </c>
+      <c r="AA516" s="81">
+        <v>69</v>
+      </c>
+      <c r="AH516" s="81">
+        <v>1</v>
+      </c>
+      <c r="AI516" s="81">
+        <v>1</v>
+      </c>
+      <c r="AL516" s="81">
+        <v>1</v>
+      </c>
+      <c r="AM516" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:39" s="81" customFormat="1">
+      <c r="A517" s="5">
+        <v>516</v>
+      </c>
+      <c r="B517" s="5">
+        <v>10433</v>
+      </c>
+      <c r="F517" s="81">
+        <v>1</v>
+      </c>
+      <c r="G517" s="81" t="s">
+        <v>1876</v>
+      </c>
+      <c r="I517" s="81" t="s">
+        <v>1901</v>
+      </c>
+      <c r="J517" s="81" t="s">
+        <v>1906</v>
+      </c>
+      <c r="L517" s="81">
+        <v>-33</v>
+      </c>
+      <c r="M517" s="81">
+        <v>0</v>
+      </c>
+      <c r="N517" s="81">
+        <v>0</v>
+      </c>
+      <c r="O517" s="81" t="s">
+        <v>1903</v>
+      </c>
+      <c r="P517" s="81">
+        <v>19800</v>
+      </c>
+      <c r="Q517" s="81" t="s">
+        <v>1904</v>
+      </c>
+      <c r="R517" s="82" t="s">
+        <v>1907</v>
+      </c>
+      <c r="W517" s="81" t="s">
+        <v>1897</v>
+      </c>
+      <c r="X517" s="81">
+        <v>99999999</v>
+      </c>
+      <c r="Y517" s="81">
+        <v>1610409600</v>
+      </c>
+      <c r="Z517" s="81">
+        <v>1610985599</v>
+      </c>
+      <c r="AA517" s="81">
+        <v>69</v>
+      </c>
+      <c r="AH517" s="81">
+        <v>1</v>
+      </c>
+      <c r="AI517" s="81">
+        <v>1</v>
+      </c>
+      <c r="AL517" s="81">
+        <v>1</v>
+      </c>
+      <c r="AM517" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:39" s="81" customFormat="1">
+      <c r="A518" s="5">
+        <v>517</v>
+      </c>
+      <c r="B518" s="5">
+        <v>10434</v>
+      </c>
+      <c r="F518" s="81">
+        <v>1</v>
+      </c>
+      <c r="G518" s="81" t="s">
+        <v>1894</v>
+      </c>
+      <c r="I518" s="81" t="s">
+        <v>1901</v>
+      </c>
+      <c r="J518" s="81" t="s">
+        <v>1908</v>
+      </c>
+      <c r="L518" s="81">
+        <v>-33</v>
+      </c>
+      <c r="M518" s="81">
+        <v>0</v>
+      </c>
+      <c r="N518" s="81">
+        <v>0</v>
+      </c>
+      <c r="O518" s="81" t="s">
         <v>1880</v>
       </c>
-      <c r="P513" s="84">
-        <v>19800</v>
-      </c>
-      <c r="Q513" s="84" t="s">
-        <v>1882</v>
-      </c>
-      <c r="R513" s="85" t="s">
-        <v>1885</v>
-      </c>
-      <c r="W513" s="84" t="s">
-        <v>1899</v>
-      </c>
-      <c r="X513" s="84">
+      <c r="P518" s="81">
+        <v>9800</v>
+      </c>
+      <c r="Q518" s="81" t="s">
+        <v>1890</v>
+      </c>
+      <c r="R518" s="82" t="s">
+        <v>1891</v>
+      </c>
+      <c r="W518" s="81" t="s">
+        <v>1897</v>
+      </c>
+      <c r="X518" s="81">
         <v>99999999</v>
       </c>
-      <c r="Y513" s="84">
+      <c r="Y518" s="81">
         <v>1610409600</v>
       </c>
-      <c r="Z513" s="84">
+      <c r="Z518" s="81">
         <v>1610985599</v>
       </c>
-      <c r="AA513" s="84">
-        <v>68</v>
-      </c>
-      <c r="AH513" s="84">
-        <v>1</v>
-      </c>
-      <c r="AI513" s="84">
-        <v>1</v>
-      </c>
-      <c r="AL513" s="84">
-        <v>1</v>
-      </c>
-      <c r="AM513" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="514" spans="1:39" s="84" customFormat="1">
-      <c r="A514" s="84">
-        <v>513</v>
-      </c>
-      <c r="B514" s="84">
-        <v>10430</v>
-      </c>
-      <c r="F514" s="84">
-        <v>1</v>
-      </c>
-      <c r="G514" s="84" t="s">
+      <c r="AA518" s="81">
+        <v>69</v>
+      </c>
+      <c r="AH518" s="81">
+        <v>1</v>
+      </c>
+      <c r="AI518" s="81">
+        <v>1</v>
+      </c>
+      <c r="AL518" s="81">
+        <v>1</v>
+      </c>
+      <c r="AM518" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:39" s="81" customFormat="1">
+      <c r="A519" s="5">
+        <v>518</v>
+      </c>
+      <c r="B519" s="5">
+        <v>10435</v>
+      </c>
+      <c r="F519" s="81">
+        <v>1</v>
+      </c>
+      <c r="G519" s="81" t="s">
         <v>1876</v>
       </c>
-      <c r="I514" s="84" t="s">
-        <v>1877</v>
-      </c>
-      <c r="J514" s="84" t="s">
-        <v>1879</v>
-      </c>
-      <c r="L514" s="84">
+      <c r="I519" s="81" t="s">
+        <v>1913</v>
+      </c>
+      <c r="J519" s="81" t="s">
+        <v>1909</v>
+      </c>
+      <c r="L519" s="81">
         <v>-33</v>
       </c>
-      <c r="M514" s="84">
-        <v>0</v>
-      </c>
-      <c r="N514" s="84">
-        <v>0</v>
-      </c>
-      <c r="O514" s="84" t="s">
+      <c r="M519" s="81">
+        <v>0</v>
+      </c>
+      <c r="N519" s="81">
+        <v>0</v>
+      </c>
+      <c r="O519" s="81" t="s">
         <v>1880</v>
       </c>
-      <c r="P514" s="84">
-        <v>9800</v>
-      </c>
-      <c r="Q514" s="84" t="s">
-        <v>1883</v>
-      </c>
-      <c r="R514" s="85" t="s">
-        <v>1886</v>
-      </c>
-      <c r="W514" s="84" t="s">
-        <v>1897</v>
-      </c>
-      <c r="X514" s="84">
+      <c r="P519" s="81">
+        <v>4800</v>
+      </c>
+      <c r="Q519" s="81" t="s">
+        <v>1910</v>
+      </c>
+      <c r="R519" s="82" t="s">
+        <v>1911</v>
+      </c>
+      <c r="W519" s="81" t="s">
+        <v>1179</v>
+      </c>
+      <c r="X519" s="81">
         <v>99999999</v>
       </c>
-      <c r="Y514" s="84">
+      <c r="Y519" s="81">
         <v>1610409600</v>
       </c>
-      <c r="Z514" s="84">
+      <c r="Z519" s="81">
         <v>1610985599</v>
       </c>
-      <c r="AA514" s="84">
-        <v>68</v>
-      </c>
-      <c r="AH514" s="84">
-        <v>1</v>
-      </c>
-      <c r="AI514" s="84">
-        <v>1</v>
-      </c>
-      <c r="AL514" s="84">
-        <v>1</v>
-      </c>
-      <c r="AM514" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="515" spans="1:39" s="84" customFormat="1">
-      <c r="A515" s="84">
-        <v>514</v>
-      </c>
-      <c r="B515" s="84">
-        <v>10431</v>
-      </c>
-      <c r="F515" s="84">
-        <v>1</v>
-      </c>
-      <c r="G515" s="84" t="s">
-        <v>1876</v>
-      </c>
-      <c r="I515" s="84" t="s">
-        <v>1877</v>
-      </c>
-      <c r="J515" s="84" t="s">
-        <v>1878</v>
-      </c>
-      <c r="L515" s="84">
-        <v>-33</v>
-      </c>
-      <c r="M515" s="84">
-        <v>0</v>
-      </c>
-      <c r="N515" s="84">
-        <v>0</v>
-      </c>
-      <c r="O515" s="84" t="s">
-        <v>1880</v>
-      </c>
-      <c r="P515" s="84">
-        <v>4800</v>
-      </c>
-      <c r="Q515" s="84" t="s">
-        <v>1900</v>
-      </c>
-      <c r="R515" s="85" t="s">
-        <v>1887</v>
-      </c>
-      <c r="W515" s="84" t="s">
-        <v>1897</v>
-      </c>
-      <c r="X515" s="84">
-        <v>99999999</v>
-      </c>
-      <c r="Y515" s="84">
-        <v>1610409600</v>
-      </c>
-      <c r="Z515" s="84">
-        <v>1610985599</v>
-      </c>
-      <c r="AA515" s="84">
-        <v>68</v>
-      </c>
-      <c r="AH515" s="84">
-        <v>1</v>
-      </c>
-      <c r="AI515" s="84">
-        <v>1</v>
-      </c>
-      <c r="AL515" s="84">
-        <v>1</v>
-      </c>
-      <c r="AM515" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="516" spans="1:39" s="84" customFormat="1">
-      <c r="A516" s="84">
-        <v>515</v>
-      </c>
-      <c r="B516" s="84">
-        <v>10432</v>
-      </c>
-      <c r="F516" s="84">
-        <v>1</v>
-      </c>
-      <c r="G516" s="84" t="s">
-        <v>1894</v>
-      </c>
-      <c r="I516" s="84" t="s">
-        <v>1901</v>
-      </c>
-      <c r="J516" s="84" t="s">
-        <v>1902</v>
-      </c>
-      <c r="L516" s="84">
-        <v>-33</v>
-      </c>
-      <c r="M516" s="84">
-        <v>0</v>
-      </c>
-      <c r="N516" s="84">
-        <v>0</v>
-      </c>
-      <c r="O516" s="84" t="s">
-        <v>1903</v>
-      </c>
-      <c r="P516" s="84">
-        <v>49800</v>
-      </c>
-      <c r="Q516" s="84" t="s">
-        <v>1904</v>
-      </c>
-      <c r="R516" s="85" t="s">
-        <v>1905</v>
-      </c>
-      <c r="W516" s="84" t="s">
-        <v>1897</v>
-      </c>
-      <c r="X516" s="84">
-        <v>99999999</v>
-      </c>
-      <c r="Y516" s="84">
-        <v>1610409600</v>
-      </c>
-      <c r="Z516" s="84">
-        <v>1610985599</v>
-      </c>
-      <c r="AA516" s="84">
+      <c r="AA519" s="81">
         <v>69</v>
       </c>
-      <c r="AH516" s="84">
-        <v>1</v>
-      </c>
-      <c r="AI516" s="84">
-        <v>1</v>
-      </c>
-      <c r="AL516" s="84">
-        <v>1</v>
-      </c>
-      <c r="AM516" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="517" spans="1:39" s="84" customFormat="1">
-      <c r="A517" s="84">
-        <v>516</v>
-      </c>
-      <c r="B517" s="84">
-        <v>10433</v>
-      </c>
-      <c r="F517" s="84">
-        <v>1</v>
-      </c>
-      <c r="G517" s="84" t="s">
-        <v>1876</v>
-      </c>
-      <c r="I517" s="84" t="s">
-        <v>1901</v>
-      </c>
-      <c r="J517" s="84" t="s">
-        <v>1906</v>
-      </c>
-      <c r="L517" s="84">
-        <v>-33</v>
-      </c>
-      <c r="M517" s="84">
-        <v>0</v>
-      </c>
-      <c r="N517" s="84">
-        <v>0</v>
-      </c>
-      <c r="O517" s="84" t="s">
-        <v>1903</v>
-      </c>
-      <c r="P517" s="84">
-        <v>19800</v>
-      </c>
-      <c r="Q517" s="84" t="s">
-        <v>1904</v>
-      </c>
-      <c r="R517" s="85" t="s">
-        <v>1907</v>
-      </c>
-      <c r="W517" s="84" t="s">
-        <v>1897</v>
-      </c>
-      <c r="X517" s="84">
-        <v>99999999</v>
-      </c>
-      <c r="Y517" s="84">
-        <v>1610409600</v>
-      </c>
-      <c r="Z517" s="84">
-        <v>1610985599</v>
-      </c>
-      <c r="AA517" s="84">
-        <v>69</v>
-      </c>
-      <c r="AH517" s="84">
-        <v>1</v>
-      </c>
-      <c r="AI517" s="84">
-        <v>1</v>
-      </c>
-      <c r="AL517" s="84">
-        <v>1</v>
-      </c>
-      <c r="AM517" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="518" spans="1:39" s="84" customFormat="1">
-      <c r="A518" s="84">
-        <v>517</v>
-      </c>
-      <c r="B518" s="84">
-        <v>10434</v>
-      </c>
-      <c r="F518" s="84">
-        <v>1</v>
-      </c>
-      <c r="G518" s="84" t="s">
-        <v>1894</v>
-      </c>
-      <c r="I518" s="84" t="s">
-        <v>1901</v>
-      </c>
-      <c r="J518" s="84" t="s">
-        <v>1908</v>
-      </c>
-      <c r="L518" s="84">
-        <v>-33</v>
-      </c>
-      <c r="M518" s="84">
-        <v>0</v>
-      </c>
-      <c r="N518" s="84">
-        <v>0</v>
-      </c>
-      <c r="O518" s="84" t="s">
-        <v>1880</v>
-      </c>
-      <c r="P518" s="84">
-        <v>9800</v>
-      </c>
-      <c r="Q518" s="84" t="s">
-        <v>1890</v>
-      </c>
-      <c r="R518" s="85" t="s">
-        <v>1891</v>
-      </c>
-      <c r="W518" s="84" t="s">
-        <v>1897</v>
-      </c>
-      <c r="X518" s="84">
-        <v>99999999</v>
-      </c>
-      <c r="Y518" s="84">
-        <v>1610409600</v>
-      </c>
-      <c r="Z518" s="84">
-        <v>1610985599</v>
-      </c>
-      <c r="AA518" s="84">
-        <v>69</v>
-      </c>
-      <c r="AH518" s="84">
-        <v>1</v>
-      </c>
-      <c r="AI518" s="84">
-        <v>1</v>
-      </c>
-      <c r="AL518" s="84">
-        <v>1</v>
-      </c>
-      <c r="AM518" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="519" spans="1:39" s="84" customFormat="1">
-      <c r="A519" s="84">
-        <v>518</v>
-      </c>
-      <c r="B519" s="84">
-        <v>10435</v>
-      </c>
-      <c r="F519" s="84">
-        <v>1</v>
-      </c>
-      <c r="G519" s="84" t="s">
-        <v>1876</v>
-      </c>
-      <c r="I519" s="84" t="s">
-        <v>1913</v>
-      </c>
-      <c r="J519" s="84" t="s">
-        <v>1909</v>
-      </c>
-      <c r="L519" s="84">
-        <v>-33</v>
-      </c>
-      <c r="M519" s="84">
-        <v>0</v>
-      </c>
-      <c r="N519" s="84">
-        <v>0</v>
-      </c>
-      <c r="O519" s="84" t="s">
-        <v>1880</v>
-      </c>
-      <c r="P519" s="84">
-        <v>4800</v>
-      </c>
-      <c r="Q519" s="84" t="s">
-        <v>1910</v>
-      </c>
-      <c r="R519" s="85" t="s">
-        <v>1911</v>
-      </c>
-      <c r="W519" s="84" t="s">
-        <v>1179</v>
-      </c>
-      <c r="X519" s="84">
-        <v>99999999</v>
-      </c>
-      <c r="Y519" s="84">
-        <v>1610409600</v>
-      </c>
-      <c r="Z519" s="84">
-        <v>1610985599</v>
-      </c>
-      <c r="AA519" s="84">
-        <v>69</v>
-      </c>
-      <c r="AH519" s="84">
-        <v>1</v>
-      </c>
-      <c r="AI519" s="84">
-        <v>1</v>
-      </c>
-      <c r="AL519" s="84">
-        <v>1</v>
-      </c>
-      <c r="AM519" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="520" spans="1:39" s="5" customFormat="1">
+      <c r="AH519" s="81">
+        <v>1</v>
+      </c>
+      <c r="AI519" s="81">
+        <v>1</v>
+      </c>
+      <c r="AL519" s="81">
+        <v>1</v>
+      </c>
+      <c r="AM519" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:39" s="59" customFormat="1">
       <c r="A520" s="5">
         <v>519</v>
       </c>
       <c r="B520" s="5">
         <v>10436</v>
       </c>
-      <c r="F520" s="5">
-        <v>1</v>
-      </c>
-      <c r="G520" s="5" t="s">
+      <c r="F520" s="59">
+        <v>1</v>
+      </c>
+      <c r="G520" s="59" t="s">
         <v>1912</v>
       </c>
-      <c r="I520" s="5" t="s">
+      <c r="I520" s="59" t="s">
         <v>1914</v>
       </c>
-      <c r="J520" s="5" t="s">
+      <c r="J520" s="59" t="s">
         <v>1915</v>
       </c>
-      <c r="L520" s="5">
+      <c r="L520" s="59">
         <v>-23</v>
       </c>
-      <c r="M520" s="5">
-        <v>1</v>
-      </c>
-      <c r="N520" s="5">
-        <v>0</v>
-      </c>
-      <c r="O520" s="5" t="s">
+      <c r="M520" s="59">
+        <v>1</v>
+      </c>
+      <c r="N520" s="59">
+        <v>0</v>
+      </c>
+      <c r="O520" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="P520" s="5">
+      <c r="P520" s="59">
         <v>1000</v>
       </c>
-      <c r="Q520" s="5" t="s">
+      <c r="Q520" s="59" t="s">
         <v>1916</v>
       </c>
-      <c r="R520" s="10" t="s">
+      <c r="R520" s="60" t="s">
         <v>1917</v>
       </c>
-      <c r="S520" s="5" t="s">
+      <c r="S520" s="59" t="s">
         <v>1919</v>
       </c>
-      <c r="W520" s="5" t="s">
+      <c r="W520" s="59" t="s">
         <v>1920</v>
       </c>
-      <c r="X520" s="5">
+      <c r="X520" s="59">
         <v>99999999</v>
       </c>
-      <c r="Y520" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z520" s="5">
+      <c r="Y520" s="59">
+        <v>0</v>
+      </c>
+      <c r="Z520" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH520" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI520" s="5">
+      <c r="AH520" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI520" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:39" s="85" customFormat="1">
+      <c r="A521" s="5">
+        <v>520</v>
+      </c>
+      <c r="B521" s="5">
+        <v>10437</v>
+      </c>
+      <c r="F521" s="85">
+        <v>1</v>
+      </c>
+      <c r="G521" s="85" t="s">
+        <v>1921</v>
+      </c>
+      <c r="I521" s="85" t="s">
+        <v>1925</v>
+      </c>
+      <c r="J521" s="85" t="s">
+        <v>1928</v>
+      </c>
+      <c r="L521" s="85">
+        <v>-33</v>
+      </c>
+      <c r="M521" s="85">
+        <v>0</v>
+      </c>
+      <c r="N521" s="85">
+        <v>0</v>
+      </c>
+      <c r="O521" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="P521" s="85">
+        <v>600</v>
+      </c>
+      <c r="Q521" s="85" t="s">
+        <v>1942</v>
+      </c>
+      <c r="R521" s="86" t="s">
+        <v>1946</v>
+      </c>
+      <c r="W521" s="85" t="s">
+        <v>1958</v>
+      </c>
+      <c r="X521" s="85">
+        <v>99999999</v>
+      </c>
+      <c r="Y521" s="85">
+        <v>1611014400</v>
+      </c>
+      <c r="Z521" s="85">
+        <v>1611590399</v>
+      </c>
+      <c r="AA521" s="85">
+        <v>70</v>
+      </c>
+      <c r="AH521" s="85">
+        <v>1</v>
+      </c>
+      <c r="AI521" s="85">
+        <v>1</v>
+      </c>
+      <c r="AL521" s="85">
+        <v>1</v>
+      </c>
+      <c r="AM521" s="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:39" s="85" customFormat="1">
+      <c r="A522" s="5">
+        <v>521</v>
+      </c>
+      <c r="B522" s="5">
+        <v>10438</v>
+      </c>
+      <c r="F522" s="85">
+        <v>1</v>
+      </c>
+      <c r="G522" s="85" t="s">
+        <v>1922</v>
+      </c>
+      <c r="I522" s="85" t="s">
+        <v>1925</v>
+      </c>
+      <c r="J522" s="85" t="s">
+        <v>1930</v>
+      </c>
+      <c r="L522" s="85">
+        <v>-33</v>
+      </c>
+      <c r="M522" s="85">
+        <v>0</v>
+      </c>
+      <c r="N522" s="85">
+        <v>0</v>
+      </c>
+      <c r="O522" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="P522" s="85">
+        <v>1000</v>
+      </c>
+      <c r="Q522" s="85" t="s">
+        <v>1943</v>
+      </c>
+      <c r="R522" s="86" t="s">
+        <v>1947</v>
+      </c>
+      <c r="W522" s="85" t="s">
+        <v>1200</v>
+      </c>
+      <c r="X522" s="85">
+        <v>99999999</v>
+      </c>
+      <c r="Y522" s="85">
+        <v>1611014400</v>
+      </c>
+      <c r="Z522" s="85">
+        <v>1611590399</v>
+      </c>
+      <c r="AA522" s="85">
+        <v>70</v>
+      </c>
+      <c r="AH522" s="85">
+        <v>1</v>
+      </c>
+      <c r="AI522" s="85">
+        <v>1</v>
+      </c>
+      <c r="AL522" s="85">
+        <v>1</v>
+      </c>
+      <c r="AM522" s="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:39" s="85" customFormat="1">
+      <c r="A523" s="5">
+        <v>522</v>
+      </c>
+      <c r="B523" s="5">
+        <v>10439</v>
+      </c>
+      <c r="F523" s="85">
+        <v>1</v>
+      </c>
+      <c r="G523" s="85" t="s">
+        <v>1923</v>
+      </c>
+      <c r="I523" s="85" t="s">
+        <v>1925</v>
+      </c>
+      <c r="J523" s="85" t="s">
+        <v>1931</v>
+      </c>
+      <c r="L523" s="85">
+        <v>-33</v>
+      </c>
+      <c r="M523" s="85">
+        <v>0</v>
+      </c>
+      <c r="N523" s="85">
+        <v>0</v>
+      </c>
+      <c r="O523" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="P523" s="85">
+        <v>1800</v>
+      </c>
+      <c r="Q523" s="85" t="s">
+        <v>1944</v>
+      </c>
+      <c r="R523" s="86" t="s">
+        <v>1948</v>
+      </c>
+      <c r="W523" s="85" t="s">
+        <v>1200</v>
+      </c>
+      <c r="X523" s="85">
+        <v>99999999</v>
+      </c>
+      <c r="Y523" s="85">
+        <v>1611014400</v>
+      </c>
+      <c r="Z523" s="85">
+        <v>1611590399</v>
+      </c>
+      <c r="AA523" s="85">
+        <v>70</v>
+      </c>
+      <c r="AH523" s="85">
+        <v>1</v>
+      </c>
+      <c r="AI523" s="85">
+        <v>1</v>
+      </c>
+      <c r="AL523" s="85">
+        <v>1</v>
+      </c>
+      <c r="AM523" s="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:39" s="85" customFormat="1">
+      <c r="A524" s="5">
+        <v>523</v>
+      </c>
+      <c r="B524" s="5">
+        <v>10440</v>
+      </c>
+      <c r="F524" s="85">
+        <v>1</v>
+      </c>
+      <c r="G524" s="85" t="s">
+        <v>1924</v>
+      </c>
+      <c r="I524" s="85" t="s">
+        <v>1925</v>
+      </c>
+      <c r="J524" s="85" t="s">
+        <v>1932</v>
+      </c>
+      <c r="L524" s="85">
+        <v>-33</v>
+      </c>
+      <c r="M524" s="85">
+        <v>0</v>
+      </c>
+      <c r="N524" s="85">
+        <v>0</v>
+      </c>
+      <c r="O524" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="P524" s="85">
+        <v>4800</v>
+      </c>
+      <c r="Q524" s="85" t="s">
+        <v>1945</v>
+      </c>
+      <c r="R524" s="86" t="s">
+        <v>1949</v>
+      </c>
+      <c r="W524" s="85" t="s">
+        <v>1200</v>
+      </c>
+      <c r="X524" s="85">
+        <v>99999999</v>
+      </c>
+      <c r="Y524" s="85">
+        <v>1611014400</v>
+      </c>
+      <c r="Z524" s="85">
+        <v>1611590399</v>
+      </c>
+      <c r="AA524" s="85">
+        <v>70</v>
+      </c>
+      <c r="AH524" s="85">
+        <v>1</v>
+      </c>
+      <c r="AI524" s="85">
+        <v>1</v>
+      </c>
+      <c r="AL524" s="85">
+        <v>1</v>
+      </c>
+      <c r="AM524" s="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:39" s="78" customFormat="1">
+      <c r="A525" s="5">
+        <v>524</v>
+      </c>
+      <c r="B525" s="5">
+        <v>10441</v>
+      </c>
+      <c r="F525" s="78">
+        <v>1</v>
+      </c>
+      <c r="G525" s="78" t="s">
+        <v>1921</v>
+      </c>
+      <c r="I525" s="78" t="s">
+        <v>1926</v>
+      </c>
+      <c r="J525" s="78" t="s">
+        <v>1929</v>
+      </c>
+      <c r="L525" s="78">
+        <v>-33</v>
+      </c>
+      <c r="M525" s="78">
+        <v>0</v>
+      </c>
+      <c r="N525" s="78">
+        <v>0</v>
+      </c>
+      <c r="O525" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="P525" s="78">
+        <v>1800</v>
+      </c>
+      <c r="Q525" s="78" t="s">
+        <v>1942</v>
+      </c>
+      <c r="R525" s="79" t="s">
+        <v>1955</v>
+      </c>
+      <c r="W525" s="78" t="s">
+        <v>1200</v>
+      </c>
+      <c r="X525" s="78">
+        <v>99999999</v>
+      </c>
+      <c r="Y525" s="78">
+        <v>1611014400</v>
+      </c>
+      <c r="Z525" s="78">
+        <v>1611590399</v>
+      </c>
+      <c r="AA525" s="78">
+        <v>71</v>
+      </c>
+      <c r="AH525" s="78">
+        <v>1</v>
+      </c>
+      <c r="AI525" s="78">
+        <v>1</v>
+      </c>
+      <c r="AL525" s="78">
+        <v>1</v>
+      </c>
+      <c r="AM525" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:39" s="78" customFormat="1">
+      <c r="A526" s="5">
+        <v>525</v>
+      </c>
+      <c r="B526" s="5">
+        <v>10442</v>
+      </c>
+      <c r="F526" s="78">
+        <v>1</v>
+      </c>
+      <c r="G526" s="78" t="s">
+        <v>1922</v>
+      </c>
+      <c r="I526" s="78" t="s">
+        <v>1926</v>
+      </c>
+      <c r="J526" s="78" t="s">
+        <v>1933</v>
+      </c>
+      <c r="L526" s="78">
+        <v>-33</v>
+      </c>
+      <c r="M526" s="78">
+        <v>0</v>
+      </c>
+      <c r="N526" s="78">
+        <v>0</v>
+      </c>
+      <c r="O526" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="P526" s="78">
+        <v>4800</v>
+      </c>
+      <c r="Q526" s="78" t="s">
+        <v>1943</v>
+      </c>
+      <c r="R526" s="79" t="s">
+        <v>1956</v>
+      </c>
+      <c r="W526" s="78" t="s">
+        <v>1200</v>
+      </c>
+      <c r="X526" s="78">
+        <v>99999999</v>
+      </c>
+      <c r="Y526" s="78">
+        <v>1611014400</v>
+      </c>
+      <c r="Z526" s="78">
+        <v>1611590399</v>
+      </c>
+      <c r="AA526" s="78">
+        <v>71</v>
+      </c>
+      <c r="AH526" s="78">
+        <v>1</v>
+      </c>
+      <c r="AI526" s="78">
+        <v>1</v>
+      </c>
+      <c r="AL526" s="78">
+        <v>1</v>
+      </c>
+      <c r="AM526" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:39" s="78" customFormat="1">
+      <c r="A527" s="5">
+        <v>526</v>
+      </c>
+      <c r="B527" s="5">
+        <v>10443</v>
+      </c>
+      <c r="F527" s="78">
+        <v>1</v>
+      </c>
+      <c r="G527" s="78" t="s">
+        <v>1923</v>
+      </c>
+      <c r="I527" s="78" t="s">
+        <v>1926</v>
+      </c>
+      <c r="J527" s="78" t="s">
+        <v>1934</v>
+      </c>
+      <c r="L527" s="78">
+        <v>-33</v>
+      </c>
+      <c r="M527" s="78">
+        <v>0</v>
+      </c>
+      <c r="N527" s="78">
+        <v>0</v>
+      </c>
+      <c r="O527" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="P527" s="78">
+        <v>9800</v>
+      </c>
+      <c r="Q527" s="78" t="s">
+        <v>1944</v>
+      </c>
+      <c r="R527" s="79" t="s">
+        <v>1957</v>
+      </c>
+      <c r="W527" s="78" t="s">
+        <v>1200</v>
+      </c>
+      <c r="X527" s="78">
+        <v>99999999</v>
+      </c>
+      <c r="Y527" s="78">
+        <v>1611014400</v>
+      </c>
+      <c r="Z527" s="78">
+        <v>1611590399</v>
+      </c>
+      <c r="AA527" s="78">
+        <v>71</v>
+      </c>
+      <c r="AH527" s="78">
+        <v>1</v>
+      </c>
+      <c r="AI527" s="78">
+        <v>1</v>
+      </c>
+      <c r="AL527" s="78">
+        <v>1</v>
+      </c>
+      <c r="AM527" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:39" s="78" customFormat="1">
+      <c r="A528" s="5">
+        <v>527</v>
+      </c>
+      <c r="B528" s="5">
+        <v>10444</v>
+      </c>
+      <c r="F528" s="78">
+        <v>1</v>
+      </c>
+      <c r="G528" s="78" t="s">
+        <v>1924</v>
+      </c>
+      <c r="I528" s="78" t="s">
+        <v>1926</v>
+      </c>
+      <c r="J528" s="78" t="s">
+        <v>1935</v>
+      </c>
+      <c r="L528" s="78">
+        <v>-33</v>
+      </c>
+      <c r="M528" s="78">
+        <v>0</v>
+      </c>
+      <c r="N528" s="78">
+        <v>0</v>
+      </c>
+      <c r="O528" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="P528" s="78">
+        <v>19800</v>
+      </c>
+      <c r="Q528" s="78" t="s">
+        <v>1945</v>
+      </c>
+      <c r="R528" s="79" t="s">
+        <v>1952</v>
+      </c>
+      <c r="W528" s="78" t="s">
+        <v>1200</v>
+      </c>
+      <c r="X528" s="78">
+        <v>99999999</v>
+      </c>
+      <c r="Y528" s="78">
+        <v>1611014400</v>
+      </c>
+      <c r="Z528" s="78">
+        <v>1611590399</v>
+      </c>
+      <c r="AA528" s="78">
+        <v>71</v>
+      </c>
+      <c r="AH528" s="78">
+        <v>1</v>
+      </c>
+      <c r="AI528" s="78">
+        <v>1</v>
+      </c>
+      <c r="AL528" s="78">
+        <v>1</v>
+      </c>
+      <c r="AM528" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:39" s="85" customFormat="1">
+      <c r="A529" s="5">
+        <v>528</v>
+      </c>
+      <c r="B529" s="5">
+        <v>10445</v>
+      </c>
+      <c r="F529" s="85">
+        <v>1</v>
+      </c>
+      <c r="G529" s="85" t="s">
+        <v>1921</v>
+      </c>
+      <c r="I529" s="85" t="s">
+        <v>1927</v>
+      </c>
+      <c r="J529" s="85" t="s">
+        <v>1936</v>
+      </c>
+      <c r="L529" s="85">
+        <v>-33</v>
+      </c>
+      <c r="M529" s="85">
+        <v>0</v>
+      </c>
+      <c r="N529" s="85">
+        <v>0</v>
+      </c>
+      <c r="O529" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="P529" s="85">
+        <v>4800</v>
+      </c>
+      <c r="Q529" s="85" t="s">
+        <v>1942</v>
+      </c>
+      <c r="R529" s="86" t="s">
+        <v>1950</v>
+      </c>
+      <c r="W529" s="85" t="s">
+        <v>1200</v>
+      </c>
+      <c r="X529" s="85">
+        <v>99999999</v>
+      </c>
+      <c r="Y529" s="85">
+        <v>1611014400</v>
+      </c>
+      <c r="Z529" s="85">
+        <v>1611590399</v>
+      </c>
+      <c r="AA529" s="85">
+        <v>72</v>
+      </c>
+      <c r="AH529" s="85">
+        <v>1</v>
+      </c>
+      <c r="AI529" s="85">
+        <v>1</v>
+      </c>
+      <c r="AL529" s="85">
+        <v>1</v>
+      </c>
+      <c r="AM529" s="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:39" s="85" customFormat="1">
+      <c r="A530" s="5">
+        <v>529</v>
+      </c>
+      <c r="B530" s="5">
+        <v>10446</v>
+      </c>
+      <c r="F530" s="85">
+        <v>1</v>
+      </c>
+      <c r="G530" s="85" t="s">
+        <v>1922</v>
+      </c>
+      <c r="I530" s="85" t="s">
+        <v>1927</v>
+      </c>
+      <c r="J530" s="85" t="s">
+        <v>1937</v>
+      </c>
+      <c r="L530" s="85">
+        <v>-33</v>
+      </c>
+      <c r="M530" s="85">
+        <v>0</v>
+      </c>
+      <c r="N530" s="85">
+        <v>0</v>
+      </c>
+      <c r="O530" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="P530" s="85">
+        <v>9800</v>
+      </c>
+      <c r="Q530" s="85" t="s">
+        <v>1943</v>
+      </c>
+      <c r="R530" s="86" t="s">
+        <v>1954</v>
+      </c>
+      <c r="W530" s="85" t="s">
+        <v>1200</v>
+      </c>
+      <c r="X530" s="85">
+        <v>99999999</v>
+      </c>
+      <c r="Y530" s="85">
+        <v>1611014400</v>
+      </c>
+      <c r="Z530" s="85">
+        <v>1611590399</v>
+      </c>
+      <c r="AA530" s="85">
+        <v>72</v>
+      </c>
+      <c r="AH530" s="85">
+        <v>1</v>
+      </c>
+      <c r="AI530" s="85">
+        <v>1</v>
+      </c>
+      <c r="AL530" s="85">
+        <v>1</v>
+      </c>
+      <c r="AM530" s="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:39" s="85" customFormat="1">
+      <c r="A531" s="5">
+        <v>530</v>
+      </c>
+      <c r="B531" s="5">
+        <v>10447</v>
+      </c>
+      <c r="F531" s="85">
+        <v>1</v>
+      </c>
+      <c r="G531" s="85" t="s">
+        <v>1923</v>
+      </c>
+      <c r="I531" s="85" t="s">
+        <v>1927</v>
+      </c>
+      <c r="J531" s="85" t="s">
+        <v>1938</v>
+      </c>
+      <c r="L531" s="85">
+        <v>-33</v>
+      </c>
+      <c r="M531" s="85">
+        <v>0</v>
+      </c>
+      <c r="N531" s="85">
+        <v>0</v>
+      </c>
+      <c r="O531" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="P531" s="85">
+        <v>19800</v>
+      </c>
+      <c r="Q531" s="85" t="s">
+        <v>1944</v>
+      </c>
+      <c r="R531" s="86" t="s">
+        <v>1951</v>
+      </c>
+      <c r="W531" s="85" t="s">
+        <v>1200</v>
+      </c>
+      <c r="X531" s="85">
+        <v>99999999</v>
+      </c>
+      <c r="Y531" s="85">
+        <v>1611014400</v>
+      </c>
+      <c r="Z531" s="85">
+        <v>1611590399</v>
+      </c>
+      <c r="AA531" s="85">
+        <v>72</v>
+      </c>
+      <c r="AH531" s="85">
+        <v>1</v>
+      </c>
+      <c r="AI531" s="85">
+        <v>1</v>
+      </c>
+      <c r="AL531" s="85">
+        <v>1</v>
+      </c>
+      <c r="AM531" s="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:39" s="85" customFormat="1">
+      <c r="A532" s="5">
+        <v>531</v>
+      </c>
+      <c r="B532" s="5">
+        <v>10448</v>
+      </c>
+      <c r="F532" s="85">
+        <v>1</v>
+      </c>
+      <c r="G532" s="85" t="s">
+        <v>1924</v>
+      </c>
+      <c r="I532" s="85" t="s">
+        <v>1927</v>
+      </c>
+      <c r="J532" s="85" t="s">
+        <v>1939</v>
+      </c>
+      <c r="L532" s="85">
+        <v>-33</v>
+      </c>
+      <c r="M532" s="85">
+        <v>0</v>
+      </c>
+      <c r="N532" s="85">
+        <v>0</v>
+      </c>
+      <c r="O532" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="P532" s="85">
+        <v>49800</v>
+      </c>
+      <c r="Q532" s="85" t="s">
+        <v>1945</v>
+      </c>
+      <c r="R532" s="86" t="s">
+        <v>1953</v>
+      </c>
+      <c r="W532" s="85" t="s">
+        <v>1200</v>
+      </c>
+      <c r="X532" s="85">
+        <v>99999999</v>
+      </c>
+      <c r="Y532" s="85">
+        <v>1611014400</v>
+      </c>
+      <c r="Z532" s="85">
+        <v>1611590399</v>
+      </c>
+      <c r="AA532" s="85">
+        <v>72</v>
+      </c>
+      <c r="AH532" s="85">
+        <v>1</v>
+      </c>
+      <c r="AI532" s="85">
+        <v>1</v>
+      </c>
+      <c r="AL532" s="85">
+        <v>1</v>
+      </c>
+      <c r="AM532" s="85">
         <v>1</v>
       </c>
     </row>
@@ -44593,10 +45463,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -45576,31 +46446,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="88">
+    <row r="69" spans="1:4" s="12" customFormat="1">
+      <c r="A69" s="12">
         <v>68</v>
       </c>
-      <c r="B69" s="89" t="s">
+      <c r="B69" s="18" t="s">
         <v>1892</v>
       </c>
-      <c r="C69" s="88">
-        <v>1</v>
-      </c>
-      <c r="D69" s="88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="88">
+      <c r="C69" s="12">
+        <v>1</v>
+      </c>
+      <c r="D69" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="12" customFormat="1">
+      <c r="A70" s="12">
         <v>69</v>
       </c>
-      <c r="B70" s="89" t="s">
+      <c r="B70" s="18" t="s">
         <v>1893</v>
       </c>
-      <c r="C70" s="88">
-        <v>1</v>
-      </c>
-      <c r="D70" s="88">
+      <c r="C70" s="12">
+        <v>1</v>
+      </c>
+      <c r="D70" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="87" customFormat="1">
+      <c r="A71" s="12">
+        <v>70</v>
+      </c>
+      <c r="B71" s="88" t="s">
+        <v>1960</v>
+      </c>
+      <c r="C71" s="87">
+        <v>1</v>
+      </c>
+      <c r="D71" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="87" customFormat="1">
+      <c r="A72" s="12">
+        <v>71</v>
+      </c>
+      <c r="B72" s="88" t="s">
+        <v>1961</v>
+      </c>
+      <c r="C72" s="87">
+        <v>1</v>
+      </c>
+      <c r="D72" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="87" customFormat="1">
+      <c r="A73" s="12">
+        <v>72</v>
+      </c>
+      <c r="B73" s="88" t="s">
+        <v>1962</v>
+      </c>
+      <c r="C73" s="87">
+        <v>1</v>
+      </c>
+      <c r="D73" s="87">
         <v>0</v>
       </c>
     </row>

--- a/config_1.19/shoping_config.xlsx
+++ b/config_1.19/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -9374,8 +9374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -9523,7 +9523,9 @@
       <c r="D2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2">
+        <v>10330</v>
+      </c>
       <c r="G2" s="2">
         <v>10330</v>
       </c>
@@ -9604,7 +9606,9 @@
       <c r="D3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>85</v>
+      </c>
       <c r="G3" s="2">
         <v>85</v>
       </c>
@@ -9685,7 +9689,9 @@
       <c r="D4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>86</v>
+      </c>
       <c r="G4" s="2">
         <v>86</v>
       </c>
@@ -9766,7 +9772,9 @@
       <c r="D5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>87</v>
+      </c>
       <c r="G5" s="2">
         <v>87</v>
       </c>
@@ -9847,7 +9855,9 @@
       <c r="D6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>88</v>
+      </c>
       <c r="G6" s="2">
         <v>88</v>
       </c>
@@ -9928,7 +9938,9 @@
       <c r="D7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>89</v>
+      </c>
       <c r="G7" s="2">
         <v>89</v>
       </c>
@@ -10009,7 +10021,9 @@
       <c r="D8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>109</v>
+      </c>
       <c r="G8" s="2">
         <v>109</v>
       </c>
@@ -10090,7 +10104,9 @@
       <c r="D9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2">
+        <v>10044</v>
+      </c>
       <c r="G9" s="2">
         <v>10044</v>
       </c>
@@ -10172,6 +10188,9 @@
         <v>40</v>
       </c>
       <c r="E10" s="23"/>
+      <c r="F10" s="11">
+        <v>10045</v>
+      </c>
       <c r="G10" s="11">
         <v>10045</v>
       </c>
@@ -10255,6 +10274,9 @@
       <c r="E11" s="23" t="s">
         <v>66</v>
       </c>
+      <c r="F11" s="11">
+        <v>90</v>
+      </c>
       <c r="G11" s="11">
         <v>90</v>
       </c>
@@ -11240,6 +11262,9 @@
         <v>40</v>
       </c>
       <c r="E24" s="23"/>
+      <c r="F24" s="11">
+        <v>10189</v>
+      </c>
       <c r="G24" s="11">
         <v>10189</v>
       </c>
@@ -11320,10 +11345,10 @@
   <dimension ref="A1:AN532"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H499" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B525" sqref="B525"/>
+      <selection pane="bottomRight" activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -15177,7 +15202,7 @@
         <v>2</v>
       </c>
       <c r="F67" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" s="69" t="s">
         <v>1757</v>
@@ -15236,7 +15261,7 @@
         <v>3</v>
       </c>
       <c r="F68" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" s="69" t="s">
         <v>232</v>
@@ -15295,7 +15320,7 @@
         <v>4</v>
       </c>
       <c r="F69" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" s="69" t="s">
         <v>234</v>
@@ -15354,7 +15379,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" s="69" t="s">
         <v>236</v>
@@ -15413,7 +15438,7 @@
         <v>6</v>
       </c>
       <c r="F71" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" s="69" t="s">
         <v>237</v>
@@ -16763,7 +16788,7 @@
         <v>109</v>
       </c>
       <c r="F94" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" s="69" t="s">
         <v>261</v>
@@ -18797,7 +18822,7 @@
         <v>108</v>
       </c>
       <c r="F128" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" s="69" t="s">
         <v>327</v>
@@ -18856,7 +18881,7 @@
         <v>110</v>
       </c>
       <c r="F129" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" s="69" t="s">
         <v>535</v>
@@ -28159,7 +28184,7 @@
         <v>111</v>
       </c>
       <c r="F273" s="73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G273" s="73" t="s">
         <v>538</v>
@@ -45465,8 +45490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_1.19/shoping_config.xlsx
+++ b/config_1.19/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -8491,7 +8491,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8554,25 +8554,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8585,12 +8567,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8643,7 +8619,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8806,20 +8782,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8833,64 +8797,46 @@
     <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="12" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="15" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="12" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="15" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8899,10 +8845,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
@@ -9374,7 +9320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -11345,10 +11291,10 @@
   <dimension ref="A1:AN532"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H503" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G70" sqref="G70"/>
+      <selection pane="bottomRight" activeCell="A521" sqref="A521:XFD532"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -11392,7 +11338,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="1" customFormat="1" ht="94.5">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -15191,298 +15137,298 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:35" s="69" customFormat="1">
+    <row r="67" spans="1:35" s="61" customFormat="1">
       <c r="A67" s="5">
         <v>66</v>
       </c>
-      <c r="B67" s="69">
+      <c r="B67" s="61">
         <v>85</v>
       </c>
-      <c r="D67" s="69">
+      <c r="D67" s="61">
         <v>2</v>
       </c>
-      <c r="F67" s="69">
-        <v>1</v>
-      </c>
-      <c r="G67" s="69" t="s">
+      <c r="F67" s="61">
+        <v>1</v>
+      </c>
+      <c r="G67" s="61" t="s">
         <v>1757</v>
       </c>
-      <c r="H67" s="69" t="s">
+      <c r="H67" s="61" t="s">
         <v>1753</v>
       </c>
-      <c r="L67" s="69">
+      <c r="L67" s="61">
         <v>-4</v>
       </c>
-      <c r="M67" s="69">
-        <v>0</v>
-      </c>
-      <c r="N67" s="69">
-        <v>0</v>
-      </c>
-      <c r="O67" s="69" t="s">
+      <c r="M67" s="61">
+        <v>0</v>
+      </c>
+      <c r="N67" s="61">
+        <v>0</v>
+      </c>
+      <c r="O67" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="P67" s="69">
+      <c r="P67" s="61">
         <v>1500</v>
       </c>
-      <c r="Q67" s="69" t="s">
+      <c r="Q67" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="R67" s="70" t="s">
+      <c r="R67" s="62" t="s">
         <v>1800</v>
       </c>
-      <c r="W67" s="69" t="s">
+      <c r="W67" s="61" t="s">
         <v>545</v>
       </c>
-      <c r="X67" s="71" t="s">
+      <c r="X67" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="Y67" s="72">
-        <v>0</v>
-      </c>
-      <c r="Z67" s="69">
+      <c r="Y67" s="64">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="61">
         <v>2552233600</v>
       </c>
-      <c r="AH67" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI67" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:35" s="69" customFormat="1">
+      <c r="AH67" s="61">
+        <v>1</v>
+      </c>
+      <c r="AI67" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:35" s="61" customFormat="1">
       <c r="A68" s="5">
         <v>67</v>
       </c>
-      <c r="B68" s="69">
+      <c r="B68" s="61">
         <v>86</v>
       </c>
-      <c r="D68" s="69">
+      <c r="D68" s="61">
         <v>3</v>
       </c>
-      <c r="F68" s="69">
-        <v>1</v>
-      </c>
-      <c r="G68" s="69" t="s">
+      <c r="F68" s="61">
+        <v>1</v>
+      </c>
+      <c r="G68" s="61" t="s">
         <v>232</v>
       </c>
-      <c r="H68" s="69" t="s">
+      <c r="H68" s="61" t="s">
         <v>1754</v>
       </c>
-      <c r="L68" s="69">
+      <c r="L68" s="61">
         <v>-4</v>
       </c>
-      <c r="M68" s="69">
-        <v>0</v>
-      </c>
-      <c r="N68" s="69">
-        <v>0</v>
-      </c>
-      <c r="O68" s="69" t="s">
+      <c r="M68" s="61">
+        <v>0</v>
+      </c>
+      <c r="N68" s="61">
+        <v>0</v>
+      </c>
+      <c r="O68" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="P68" s="69">
+      <c r="P68" s="61">
         <v>3000</v>
       </c>
-      <c r="Q68" s="69" t="s">
+      <c r="Q68" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="R68" s="70" t="s">
+      <c r="R68" s="62" t="s">
         <v>1801</v>
       </c>
-      <c r="W68" s="69" t="s">
+      <c r="W68" s="61" t="s">
         <v>545</v>
       </c>
-      <c r="X68" s="71" t="s">
+      <c r="X68" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="Y68" s="72">
-        <v>0</v>
-      </c>
-      <c r="Z68" s="69">
+      <c r="Y68" s="64">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="61">
         <v>2552233600</v>
       </c>
-      <c r="AH68" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI68" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:35" s="69" customFormat="1">
+      <c r="AH68" s="61">
+        <v>1</v>
+      </c>
+      <c r="AI68" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35" s="61" customFormat="1">
       <c r="A69" s="5">
         <v>68</v>
       </c>
-      <c r="B69" s="69">
+      <c r="B69" s="61">
         <v>87</v>
       </c>
-      <c r="D69" s="69">
+      <c r="D69" s="61">
         <v>4</v>
       </c>
-      <c r="F69" s="69">
-        <v>1</v>
-      </c>
-      <c r="G69" s="69" t="s">
+      <c r="F69" s="61">
+        <v>1</v>
+      </c>
+      <c r="G69" s="61" t="s">
         <v>234</v>
       </c>
-      <c r="H69" s="69" t="s">
+      <c r="H69" s="61" t="s">
         <v>1755</v>
       </c>
-      <c r="L69" s="69">
+      <c r="L69" s="61">
         <v>-4</v>
       </c>
-      <c r="M69" s="69">
-        <v>0</v>
-      </c>
-      <c r="N69" s="69">
-        <v>0</v>
-      </c>
-      <c r="O69" s="69" t="s">
+      <c r="M69" s="61">
+        <v>0</v>
+      </c>
+      <c r="N69" s="61">
+        <v>0</v>
+      </c>
+      <c r="O69" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="P69" s="69">
+      <c r="P69" s="61">
         <v>5000</v>
       </c>
-      <c r="Q69" s="69" t="s">
+      <c r="Q69" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="R69" s="70" t="s">
+      <c r="R69" s="62" t="s">
         <v>1802</v>
       </c>
-      <c r="W69" s="69" t="s">
+      <c r="W69" s="61" t="s">
         <v>545</v>
       </c>
-      <c r="X69" s="71" t="s">
+      <c r="X69" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="Y69" s="72">
-        <v>0</v>
-      </c>
-      <c r="Z69" s="69">
+      <c r="Y69" s="64">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="61">
         <v>2552233600</v>
       </c>
-      <c r="AH69" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI69" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:35" s="69" customFormat="1">
+      <c r="AH69" s="61">
+        <v>1</v>
+      </c>
+      <c r="AI69" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:35" s="61" customFormat="1">
       <c r="A70" s="5">
         <v>69</v>
       </c>
-      <c r="B70" s="69">
+      <c r="B70" s="61">
         <v>88</v>
       </c>
-      <c r="D70" s="69">
+      <c r="D70" s="61">
         <v>5</v>
       </c>
-      <c r="F70" s="69">
-        <v>1</v>
-      </c>
-      <c r="G70" s="69" t="s">
+      <c r="F70" s="61">
+        <v>1</v>
+      </c>
+      <c r="G70" s="61" t="s">
         <v>236</v>
       </c>
-      <c r="H70" s="69" t="s">
+      <c r="H70" s="61" t="s">
         <v>1756</v>
       </c>
-      <c r="L70" s="69">
+      <c r="L70" s="61">
         <v>-4</v>
       </c>
-      <c r="M70" s="69">
-        <v>0</v>
-      </c>
-      <c r="N70" s="69">
-        <v>0</v>
-      </c>
-      <c r="O70" s="69" t="s">
+      <c r="M70" s="61">
+        <v>0</v>
+      </c>
+      <c r="N70" s="61">
+        <v>0</v>
+      </c>
+      <c r="O70" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="P70" s="69">
+      <c r="P70" s="61">
         <v>9800</v>
       </c>
-      <c r="Q70" s="69" t="s">
+      <c r="Q70" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="R70" s="70" t="s">
+      <c r="R70" s="62" t="s">
         <v>709</v>
       </c>
-      <c r="W70" s="69" t="s">
+      <c r="W70" s="61" t="s">
         <v>545</v>
       </c>
-      <c r="X70" s="71" t="s">
+      <c r="X70" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="Y70" s="72">
-        <v>0</v>
-      </c>
-      <c r="Z70" s="69">
+      <c r="Y70" s="64">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="61">
         <v>2552233600</v>
       </c>
-      <c r="AH70" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI70" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:35" s="69" customFormat="1">
+      <c r="AH70" s="61">
+        <v>1</v>
+      </c>
+      <c r="AI70" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35" s="61" customFormat="1">
       <c r="A71" s="5">
         <v>70</v>
       </c>
-      <c r="B71" s="69">
+      <c r="B71" s="61">
         <v>89</v>
       </c>
-      <c r="D71" s="69">
+      <c r="D71" s="61">
         <v>6</v>
       </c>
-      <c r="F71" s="69">
-        <v>1</v>
-      </c>
-      <c r="G71" s="69" t="s">
+      <c r="F71" s="61">
+        <v>1</v>
+      </c>
+      <c r="G71" s="61" t="s">
         <v>237</v>
       </c>
-      <c r="H71" s="69" t="s">
+      <c r="H71" s="61" t="s">
         <v>1807</v>
       </c>
-      <c r="L71" s="69">
+      <c r="L71" s="61">
         <v>-4</v>
       </c>
-      <c r="M71" s="69">
-        <v>0</v>
-      </c>
-      <c r="N71" s="69">
-        <v>0</v>
-      </c>
-      <c r="O71" s="69" t="s">
+      <c r="M71" s="61">
+        <v>0</v>
+      </c>
+      <c r="N71" s="61">
+        <v>0</v>
+      </c>
+      <c r="O71" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="P71" s="69">
+      <c r="P71" s="61">
         <v>49800</v>
       </c>
-      <c r="Q71" s="69" t="s">
+      <c r="Q71" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="R71" s="70" t="s">
+      <c r="R71" s="62" t="s">
         <v>1803</v>
       </c>
-      <c r="W71" s="69" t="s">
+      <c r="W71" s="61" t="s">
         <v>545</v>
       </c>
-      <c r="X71" s="71" t="s">
+      <c r="X71" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="Y71" s="72">
-        <v>0</v>
-      </c>
-      <c r="Z71" s="69">
+      <c r="Y71" s="64">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="61">
         <v>2552233600</v>
       </c>
-      <c r="AH71" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI71" s="69">
+      <c r="AH71" s="61">
+        <v>1</v>
+      </c>
+      <c r="AI71" s="61">
         <v>1</v>
       </c>
     </row>
@@ -16780,56 +16726,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:35" s="69" customFormat="1">
+    <row r="94" spans="1:35" s="61" customFormat="1">
       <c r="A94" s="5">
         <v>93</v>
       </c>
-      <c r="B94" s="69">
+      <c r="B94" s="61">
         <v>109</v>
       </c>
-      <c r="F94" s="69">
-        <v>1</v>
-      </c>
-      <c r="G94" s="69" t="s">
+      <c r="F94" s="61">
+        <v>1</v>
+      </c>
+      <c r="G94" s="61" t="s">
         <v>261</v>
       </c>
-      <c r="L94" s="69">
+      <c r="L94" s="61">
         <v>-4</v>
       </c>
-      <c r="M94" s="69">
-        <v>0</v>
-      </c>
-      <c r="N94" s="69">
-        <v>0</v>
-      </c>
-      <c r="O94" s="69" t="s">
+      <c r="M94" s="61">
+        <v>0</v>
+      </c>
+      <c r="N94" s="61">
+        <v>0</v>
+      </c>
+      <c r="O94" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="P94" s="69">
+      <c r="P94" s="61">
         <v>100000</v>
       </c>
-      <c r="Q94" s="69" t="s">
+      <c r="Q94" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="R94" s="70" t="s">
+      <c r="R94" s="62" t="s">
         <v>729</v>
       </c>
-      <c r="W94" s="69" t="s">
+      <c r="W94" s="61" t="s">
         <v>545</v>
       </c>
-      <c r="X94" s="71" t="s">
+      <c r="X94" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="Y94" s="69">
-        <v>0</v>
-      </c>
-      <c r="Z94" s="69">
+      <c r="Y94" s="61">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="61">
         <v>2552233600</v>
       </c>
-      <c r="AH94" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI94" s="69">
+      <c r="AH94" s="61">
+        <v>1</v>
+      </c>
+      <c r="AI94" s="61">
         <v>1</v>
       </c>
     </row>
@@ -18811,121 +18757,121 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:35" s="69" customFormat="1">
+    <row r="128" spans="1:35" s="61" customFormat="1">
       <c r="A128" s="5">
         <v>127</v>
       </c>
-      <c r="B128" s="69">
+      <c r="B128" s="61">
         <v>10044</v>
       </c>
-      <c r="D128" s="69">
+      <c r="D128" s="61">
         <v>108</v>
       </c>
-      <c r="F128" s="69">
-        <v>1</v>
-      </c>
-      <c r="G128" s="69" t="s">
+      <c r="F128" s="61">
+        <v>1</v>
+      </c>
+      <c r="G128" s="61" t="s">
         <v>327</v>
       </c>
-      <c r="H128" s="69" t="s">
+      <c r="H128" s="61" t="s">
         <v>1758</v>
       </c>
-      <c r="L128" s="69">
+      <c r="L128" s="61">
         <v>-10</v>
       </c>
-      <c r="M128" s="69">
-        <v>0</v>
-      </c>
-      <c r="N128" s="69">
-        <v>0</v>
-      </c>
-      <c r="O128" s="69" t="s">
+      <c r="M128" s="61">
+        <v>0</v>
+      </c>
+      <c r="N128" s="61">
+        <v>0</v>
+      </c>
+      <c r="O128" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="P128" s="69">
+      <c r="P128" s="61">
         <v>99800</v>
       </c>
-      <c r="Q128" s="69" t="s">
+      <c r="Q128" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="R128" s="70" t="s">
+      <c r="R128" s="62" t="s">
         <v>1804</v>
       </c>
-      <c r="W128" s="69" t="s">
+      <c r="W128" s="61" t="s">
         <v>545</v>
       </c>
-      <c r="X128" s="71" t="s">
+      <c r="X128" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="Y128" s="72">
-        <v>0</v>
-      </c>
-      <c r="Z128" s="69">
+      <c r="Y128" s="64">
+        <v>0</v>
+      </c>
+      <c r="Z128" s="61">
         <v>2552233600</v>
       </c>
-      <c r="AH128" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI128" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:39" s="69" customFormat="1">
+      <c r="AH128" s="61">
+        <v>1</v>
+      </c>
+      <c r="AI128" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:39" s="61" customFormat="1">
       <c r="A129" s="5">
         <v>128</v>
       </c>
-      <c r="B129" s="69">
+      <c r="B129" s="61">
         <v>10045</v>
       </c>
-      <c r="D129" s="69">
+      <c r="D129" s="61">
         <v>110</v>
       </c>
-      <c r="F129" s="69">
-        <v>1</v>
-      </c>
-      <c r="G129" s="69" t="s">
+      <c r="F129" s="61">
+        <v>1</v>
+      </c>
+      <c r="G129" s="61" t="s">
         <v>535</v>
       </c>
-      <c r="H129" s="69" t="s">
+      <c r="H129" s="61" t="s">
         <v>1759</v>
       </c>
-      <c r="L129" s="69">
+      <c r="L129" s="61">
         <v>-11</v>
       </c>
-      <c r="M129" s="69">
-        <v>0</v>
-      </c>
-      <c r="N129" s="69">
-        <v>0</v>
-      </c>
-      <c r="O129" s="69" t="s">
+      <c r="M129" s="61">
+        <v>0</v>
+      </c>
+      <c r="N129" s="61">
+        <v>0</v>
+      </c>
+      <c r="O129" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="P129" s="69">
+      <c r="P129" s="61">
         <v>249800</v>
       </c>
-      <c r="Q129" s="69" t="s">
+      <c r="Q129" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="R129" s="70" t="s">
+      <c r="R129" s="62" t="s">
         <v>1805</v>
       </c>
-      <c r="W129" s="69" t="s">
+      <c r="W129" s="61" t="s">
         <v>545</v>
       </c>
-      <c r="X129" s="71" t="s">
+      <c r="X129" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="Y129" s="72">
-        <v>0</v>
-      </c>
-      <c r="Z129" s="69">
+      <c r="Y129" s="64">
+        <v>0</v>
+      </c>
+      <c r="Z129" s="61">
         <v>2552233600</v>
       </c>
-      <c r="AH129" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI129" s="69">
+      <c r="AH129" s="61">
+        <v>1</v>
+      </c>
+      <c r="AI129" s="61">
         <v>1</v>
       </c>
     </row>
@@ -28173,62 +28119,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:40" s="73" customFormat="1" ht="14.25">
-      <c r="A273" s="84">
+    <row r="273" spans="1:40" s="65" customFormat="1" ht="14.25">
+      <c r="A273" s="74">
         <v>272</v>
       </c>
-      <c r="B273" s="73">
+      <c r="B273" s="65">
         <v>10189</v>
       </c>
-      <c r="D273" s="74">
+      <c r="D273" s="66">
         <v>111</v>
       </c>
-      <c r="F273" s="73">
-        <v>1</v>
-      </c>
-      <c r="G273" s="73" t="s">
+      <c r="F273" s="65">
+        <v>1</v>
+      </c>
+      <c r="G273" s="65" t="s">
         <v>538</v>
       </c>
-      <c r="H273" s="73" t="s">
+      <c r="H273" s="65" t="s">
         <v>1760</v>
       </c>
-      <c r="L273" s="73">
+      <c r="L273" s="65">
         <v>-10</v>
       </c>
-      <c r="M273" s="73">
-        <v>0</v>
-      </c>
-      <c r="N273" s="73">
-        <v>0</v>
-      </c>
-      <c r="O273" s="73" t="s">
+      <c r="M273" s="65">
+        <v>0</v>
+      </c>
+      <c r="N273" s="65">
+        <v>0</v>
+      </c>
+      <c r="O273" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="P273" s="73">
+      <c r="P273" s="65">
         <v>19800</v>
       </c>
-      <c r="Q273" s="73" t="s">
+      <c r="Q273" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="R273" s="75" t="s">
+      <c r="R273" s="67" t="s">
         <v>1806</v>
       </c>
-      <c r="W273" s="73" t="s">
+      <c r="W273" s="65" t="s">
         <v>545</v>
       </c>
-      <c r="X273" s="76" t="s">
+      <c r="X273" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="Y273" s="77">
-        <v>0</v>
-      </c>
-      <c r="Z273" s="73">
+      <c r="Y273" s="69">
+        <v>0</v>
+      </c>
+      <c r="Z273" s="65">
         <v>2552233600</v>
       </c>
-      <c r="AH273" s="73">
-        <v>1</v>
-      </c>
-      <c r="AI273" s="73">
+      <c r="AH273" s="65">
+        <v>1</v>
+      </c>
+      <c r="AI273" s="65">
         <v>1</v>
       </c>
     </row>
@@ -35765,615 +35711,615 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:39" s="61" customFormat="1">
+    <row r="386" spans="1:39" s="57" customFormat="1">
       <c r="A386" s="5">
         <v>385</v>
       </c>
-      <c r="B386" s="61">
+      <c r="B386" s="57">
         <v>10302</v>
       </c>
-      <c r="F386" s="61">
-        <v>1</v>
-      </c>
-      <c r="G386" s="61" t="s">
+      <c r="F386" s="57">
+        <v>1</v>
+      </c>
+      <c r="G386" s="57" t="s">
         <v>1305</v>
       </c>
-      <c r="I386" s="61" t="s">
+      <c r="I386" s="57" t="s">
         <v>1309</v>
       </c>
-      <c r="J386" s="61" t="s">
+      <c r="J386" s="57" t="s">
         <v>1312</v>
       </c>
-      <c r="L386" s="61">
+      <c r="L386" s="57">
         <v>-31</v>
       </c>
-      <c r="M386" s="61">
-        <v>0</v>
-      </c>
-      <c r="N386" s="61">
-        <v>0</v>
-      </c>
-      <c r="O386" s="61" t="s">
+      <c r="M386" s="57">
+        <v>0</v>
+      </c>
+      <c r="N386" s="57">
+        <v>0</v>
+      </c>
+      <c r="O386" s="57" t="s">
         <v>1321</v>
       </c>
-      <c r="P386" s="61">
+      <c r="P386" s="57">
         <v>1800</v>
       </c>
-      <c r="Q386" s="61" t="s">
+      <c r="Q386" s="57" t="s">
         <v>1322</v>
       </c>
-      <c r="R386" s="62" t="s">
+      <c r="R386" s="58" t="s">
         <v>1331</v>
       </c>
-      <c r="W386" s="61" t="s">
+      <c r="W386" s="57" t="s">
         <v>1341</v>
       </c>
-      <c r="X386" s="61">
+      <c r="X386" s="57">
         <v>9999999</v>
       </c>
-      <c r="Y386" s="61">
+      <c r="Y386" s="57">
         <v>1608595200</v>
       </c>
-      <c r="Z386" s="61">
+      <c r="Z386" s="57">
         <v>1609171199</v>
       </c>
-      <c r="AA386" s="61">
+      <c r="AA386" s="57">
         <v>44</v>
       </c>
-      <c r="AH386" s="61">
-        <v>1</v>
-      </c>
-      <c r="AI386" s="61">
-        <v>1</v>
-      </c>
-      <c r="AL386" s="61">
-        <v>1</v>
-      </c>
-      <c r="AM386" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="387" spans="1:39" s="61" customFormat="1">
+      <c r="AH386" s="57">
+        <v>1</v>
+      </c>
+      <c r="AI386" s="57">
+        <v>1</v>
+      </c>
+      <c r="AL386" s="57">
+        <v>1</v>
+      </c>
+      <c r="AM386" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:39" s="57" customFormat="1">
       <c r="A387" s="5">
         <v>386</v>
       </c>
-      <c r="B387" s="61">
+      <c r="B387" s="57">
         <v>10303</v>
       </c>
-      <c r="F387" s="61">
-        <v>1</v>
-      </c>
-      <c r="G387" s="61" t="s">
+      <c r="F387" s="57">
+        <v>1</v>
+      </c>
+      <c r="G387" s="57" t="s">
         <v>1306</v>
       </c>
-      <c r="I387" s="61" t="s">
+      <c r="I387" s="57" t="s">
         <v>1309</v>
       </c>
-      <c r="J387" s="61" t="s">
+      <c r="J387" s="57" t="s">
         <v>1313</v>
       </c>
-      <c r="L387" s="61">
+      <c r="L387" s="57">
         <v>-31</v>
       </c>
-      <c r="M387" s="61">
-        <v>0</v>
-      </c>
-      <c r="N387" s="61">
-        <v>0</v>
-      </c>
-      <c r="O387" s="61" t="s">
+      <c r="M387" s="57">
+        <v>0</v>
+      </c>
+      <c r="N387" s="57">
+        <v>0</v>
+      </c>
+      <c r="O387" s="57" t="s">
         <v>1321</v>
       </c>
-      <c r="P387" s="61">
+      <c r="P387" s="57">
         <v>3000</v>
       </c>
-      <c r="Q387" s="61" t="s">
+      <c r="Q387" s="57" t="s">
         <v>1324</v>
       </c>
-      <c r="R387" s="62" t="s">
+      <c r="R387" s="58" t="s">
         <v>1332</v>
       </c>
-      <c r="W387" s="61" t="s">
+      <c r="W387" s="57" t="s">
         <v>1341</v>
       </c>
-      <c r="X387" s="61">
+      <c r="X387" s="57">
         <v>9999999</v>
       </c>
-      <c r="Y387" s="61">
+      <c r="Y387" s="57">
         <v>1608595200</v>
       </c>
-      <c r="Z387" s="61">
+      <c r="Z387" s="57">
         <v>1609171199</v>
       </c>
-      <c r="AA387" s="61">
+      <c r="AA387" s="57">
         <v>44</v>
       </c>
-      <c r="AH387" s="61">
-        <v>1</v>
-      </c>
-      <c r="AI387" s="61">
-        <v>1</v>
-      </c>
-      <c r="AL387" s="61">
-        <v>1</v>
-      </c>
-      <c r="AM387" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="388" spans="1:39" s="61" customFormat="1">
+      <c r="AH387" s="57">
+        <v>1</v>
+      </c>
+      <c r="AI387" s="57">
+        <v>1</v>
+      </c>
+      <c r="AL387" s="57">
+        <v>1</v>
+      </c>
+      <c r="AM387" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:39" s="57" customFormat="1">
       <c r="A388" s="5">
         <v>387</v>
       </c>
-      <c r="B388" s="61">
+      <c r="B388" s="57">
         <v>10304</v>
       </c>
-      <c r="F388" s="61">
-        <v>1</v>
-      </c>
-      <c r="G388" s="61" t="s">
+      <c r="F388" s="57">
+        <v>1</v>
+      </c>
+      <c r="G388" s="57" t="s">
         <v>1307</v>
       </c>
-      <c r="I388" s="61" t="s">
+      <c r="I388" s="57" t="s">
         <v>1309</v>
       </c>
-      <c r="J388" s="61" t="s">
+      <c r="J388" s="57" t="s">
         <v>1314</v>
       </c>
-      <c r="L388" s="61">
+      <c r="L388" s="57">
         <v>-31</v>
       </c>
-      <c r="M388" s="61">
-        <v>0</v>
-      </c>
-      <c r="N388" s="61">
-        <v>0</v>
-      </c>
-      <c r="O388" s="61" t="s">
+      <c r="M388" s="57">
+        <v>0</v>
+      </c>
+      <c r="N388" s="57">
+        <v>0</v>
+      </c>
+      <c r="O388" s="57" t="s">
         <v>1321</v>
       </c>
-      <c r="P388" s="61">
+      <c r="P388" s="57">
         <v>4800</v>
       </c>
-      <c r="Q388" s="61" t="s">
+      <c r="Q388" s="57" t="s">
         <v>1325</v>
       </c>
-      <c r="R388" s="62" t="s">
+      <c r="R388" s="58" t="s">
         <v>1333</v>
       </c>
-      <c r="W388" s="61" t="s">
+      <c r="W388" s="57" t="s">
         <v>1341</v>
       </c>
-      <c r="X388" s="61">
+      <c r="X388" s="57">
         <v>9999999</v>
       </c>
-      <c r="Y388" s="61">
+      <c r="Y388" s="57">
         <v>1608595200</v>
       </c>
-      <c r="Z388" s="61">
+      <c r="Z388" s="57">
         <v>1609171199</v>
       </c>
-      <c r="AA388" s="61">
+      <c r="AA388" s="57">
         <v>44</v>
       </c>
-      <c r="AH388" s="61">
-        <v>1</v>
-      </c>
-      <c r="AI388" s="61">
-        <v>1</v>
-      </c>
-      <c r="AL388" s="61">
-        <v>1</v>
-      </c>
-      <c r="AM388" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="389" spans="1:39" s="59" customFormat="1">
+      <c r="AH388" s="57">
+        <v>1</v>
+      </c>
+      <c r="AI388" s="57">
+        <v>1</v>
+      </c>
+      <c r="AL388" s="57">
+        <v>1</v>
+      </c>
+      <c r="AM388" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:39" s="55" customFormat="1">
       <c r="A389" s="5">
         <v>388</v>
       </c>
-      <c r="B389" s="59">
+      <c r="B389" s="55">
         <v>10305</v>
       </c>
-      <c r="F389" s="59">
-        <v>1</v>
-      </c>
-      <c r="G389" s="59" t="s">
+      <c r="F389" s="55">
+        <v>1</v>
+      </c>
+      <c r="G389" s="55" t="s">
         <v>1305</v>
       </c>
-      <c r="I389" s="59" t="s">
+      <c r="I389" s="55" t="s">
         <v>1310</v>
       </c>
-      <c r="J389" s="59" t="s">
+      <c r="J389" s="55" t="s">
         <v>1315</v>
       </c>
-      <c r="L389" s="59">
+      <c r="L389" s="55">
         <v>-31</v>
       </c>
-      <c r="M389" s="59">
-        <v>0</v>
-      </c>
-      <c r="N389" s="59">
-        <v>0</v>
-      </c>
-      <c r="O389" s="59" t="s">
+      <c r="M389" s="55">
+        <v>0</v>
+      </c>
+      <c r="N389" s="55">
+        <v>0</v>
+      </c>
+      <c r="O389" s="55" t="s">
         <v>1321</v>
       </c>
-      <c r="P389" s="59">
+      <c r="P389" s="55">
         <v>4800</v>
       </c>
-      <c r="Q389" s="59" t="s">
+      <c r="Q389" s="55" t="s">
         <v>1326</v>
       </c>
-      <c r="R389" s="60" t="s">
+      <c r="R389" s="56" t="s">
         <v>1334</v>
       </c>
-      <c r="W389" s="59" t="s">
+      <c r="W389" s="55" t="s">
         <v>1341</v>
       </c>
-      <c r="X389" s="59">
+      <c r="X389" s="55">
         <v>9999999</v>
       </c>
-      <c r="Y389" s="61">
+      <c r="Y389" s="57">
         <v>1608595200</v>
       </c>
-      <c r="Z389" s="61">
+      <c r="Z389" s="57">
         <v>1609171199</v>
       </c>
-      <c r="AA389" s="59">
+      <c r="AA389" s="55">
         <v>45</v>
       </c>
-      <c r="AH389" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI389" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL389" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM389" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="390" spans="1:39" s="59" customFormat="1">
+      <c r="AH389" s="55">
+        <v>1</v>
+      </c>
+      <c r="AI389" s="55">
+        <v>1</v>
+      </c>
+      <c r="AL389" s="55">
+        <v>1</v>
+      </c>
+      <c r="AM389" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:39" s="55" customFormat="1">
       <c r="A390" s="5">
         <v>389</v>
       </c>
-      <c r="B390" s="59">
+      <c r="B390" s="55">
         <v>10306</v>
       </c>
-      <c r="F390" s="59">
-        <v>1</v>
-      </c>
-      <c r="G390" s="59" t="s">
+      <c r="F390" s="55">
+        <v>1</v>
+      </c>
+      <c r="G390" s="55" t="s">
         <v>1306</v>
       </c>
-      <c r="I390" s="59" t="s">
+      <c r="I390" s="55" t="s">
         <v>1310</v>
       </c>
-      <c r="J390" s="59" t="s">
+      <c r="J390" s="55" t="s">
         <v>1316</v>
       </c>
-      <c r="L390" s="59">
+      <c r="L390" s="55">
         <v>-31</v>
       </c>
-      <c r="M390" s="59">
-        <v>0</v>
-      </c>
-      <c r="N390" s="59">
-        <v>0</v>
-      </c>
-      <c r="O390" s="59" t="s">
+      <c r="M390" s="55">
+        <v>0</v>
+      </c>
+      <c r="N390" s="55">
+        <v>0</v>
+      </c>
+      <c r="O390" s="55" t="s">
         <v>1321</v>
       </c>
-      <c r="P390" s="59">
+      <c r="P390" s="55">
         <v>9800</v>
       </c>
-      <c r="Q390" s="59" t="s">
+      <c r="Q390" s="55" t="s">
         <v>1327</v>
       </c>
-      <c r="R390" s="60" t="s">
+      <c r="R390" s="56" t="s">
         <v>1335</v>
       </c>
-      <c r="W390" s="59" t="s">
+      <c r="W390" s="55" t="s">
         <v>1341</v>
       </c>
-      <c r="X390" s="59">
+      <c r="X390" s="55">
         <v>9999999</v>
       </c>
-      <c r="Y390" s="61">
+      <c r="Y390" s="57">
         <v>1608595200</v>
       </c>
-      <c r="Z390" s="61">
+      <c r="Z390" s="57">
         <v>1609171199</v>
       </c>
-      <c r="AA390" s="59">
+      <c r="AA390" s="55">
         <v>45</v>
       </c>
-      <c r="AH390" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI390" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL390" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM390" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="391" spans="1:39" s="59" customFormat="1">
+      <c r="AH390" s="55">
+        <v>1</v>
+      </c>
+      <c r="AI390" s="55">
+        <v>1</v>
+      </c>
+      <c r="AL390" s="55">
+        <v>1</v>
+      </c>
+      <c r="AM390" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:39" s="55" customFormat="1">
       <c r="A391" s="5">
         <v>390</v>
       </c>
-      <c r="B391" s="59">
+      <c r="B391" s="55">
         <v>10307</v>
       </c>
-      <c r="F391" s="59">
-        <v>1</v>
-      </c>
-      <c r="G391" s="59" t="s">
+      <c r="F391" s="55">
+        <v>1</v>
+      </c>
+      <c r="G391" s="55" t="s">
         <v>1307</v>
       </c>
-      <c r="I391" s="59" t="s">
+      <c r="I391" s="55" t="s">
         <v>1310</v>
       </c>
-      <c r="J391" s="59" t="s">
+      <c r="J391" s="55" t="s">
         <v>1317</v>
       </c>
-      <c r="L391" s="59">
+      <c r="L391" s="55">
         <v>-31</v>
       </c>
-      <c r="M391" s="59">
-        <v>0</v>
-      </c>
-      <c r="N391" s="59">
-        <v>0</v>
-      </c>
-      <c r="O391" s="59" t="s">
+      <c r="M391" s="55">
+        <v>0</v>
+      </c>
+      <c r="N391" s="55">
+        <v>0</v>
+      </c>
+      <c r="O391" s="55" t="s">
         <v>1321</v>
       </c>
-      <c r="P391" s="59">
+      <c r="P391" s="55">
         <v>19800</v>
       </c>
-      <c r="Q391" s="59" t="s">
+      <c r="Q391" s="55" t="s">
         <v>1328</v>
       </c>
-      <c r="R391" s="60" t="s">
+      <c r="R391" s="56" t="s">
         <v>1336</v>
       </c>
-      <c r="W391" s="59" t="s">
+      <c r="W391" s="55" t="s">
         <v>1341</v>
       </c>
-      <c r="X391" s="59">
+      <c r="X391" s="55">
         <v>9999999</v>
       </c>
-      <c r="Y391" s="61">
+      <c r="Y391" s="57">
         <v>1608595200</v>
       </c>
-      <c r="Z391" s="61">
+      <c r="Z391" s="57">
         <v>1609171199</v>
       </c>
-      <c r="AA391" s="59">
+      <c r="AA391" s="55">
         <v>45</v>
       </c>
-      <c r="AH391" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI391" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL391" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM391" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="392" spans="1:39" s="61" customFormat="1">
+      <c r="AH391" s="55">
+        <v>1</v>
+      </c>
+      <c r="AI391" s="55">
+        <v>1</v>
+      </c>
+      <c r="AL391" s="55">
+        <v>1</v>
+      </c>
+      <c r="AM391" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:39" s="57" customFormat="1">
       <c r="A392" s="5">
         <v>391</v>
       </c>
-      <c r="B392" s="61">
+      <c r="B392" s="57">
         <v>10308</v>
       </c>
-      <c r="F392" s="61">
-        <v>1</v>
-      </c>
-      <c r="G392" s="61" t="s">
+      <c r="F392" s="57">
+        <v>1</v>
+      </c>
+      <c r="G392" s="57" t="s">
         <v>1305</v>
       </c>
-      <c r="I392" s="61" t="s">
+      <c r="I392" s="57" t="s">
         <v>1311</v>
       </c>
-      <c r="J392" s="61" t="s">
+      <c r="J392" s="57" t="s">
         <v>1318</v>
       </c>
-      <c r="L392" s="61">
+      <c r="L392" s="57">
         <v>-31</v>
       </c>
-      <c r="M392" s="61">
-        <v>0</v>
-      </c>
-      <c r="N392" s="61">
-        <v>0</v>
-      </c>
-      <c r="O392" s="61" t="s">
+      <c r="M392" s="57">
+        <v>0</v>
+      </c>
+      <c r="N392" s="57">
+        <v>0</v>
+      </c>
+      <c r="O392" s="57" t="s">
         <v>1321</v>
       </c>
-      <c r="P392" s="61">
+      <c r="P392" s="57">
         <v>9800</v>
       </c>
-      <c r="Q392" s="61" t="s">
+      <c r="Q392" s="57" t="s">
         <v>1323</v>
       </c>
-      <c r="R392" s="62" t="s">
+      <c r="R392" s="58" t="s">
         <v>1337</v>
       </c>
-      <c r="W392" s="61" t="s">
+      <c r="W392" s="57" t="s">
         <v>1341</v>
       </c>
-      <c r="X392" s="61">
+      <c r="X392" s="57">
         <v>9999999</v>
       </c>
-      <c r="Y392" s="61">
+      <c r="Y392" s="57">
         <v>1608595200</v>
       </c>
-      <c r="Z392" s="61">
+      <c r="Z392" s="57">
         <v>1609171199</v>
       </c>
-      <c r="AA392" s="61">
+      <c r="AA392" s="57">
         <v>46</v>
       </c>
-      <c r="AH392" s="61">
-        <v>1</v>
-      </c>
-      <c r="AI392" s="61">
-        <v>1</v>
-      </c>
-      <c r="AL392" s="61">
-        <v>1</v>
-      </c>
-      <c r="AM392" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="393" spans="1:39" s="61" customFormat="1">
+      <c r="AH392" s="57">
+        <v>1</v>
+      </c>
+      <c r="AI392" s="57">
+        <v>1</v>
+      </c>
+      <c r="AL392" s="57">
+        <v>1</v>
+      </c>
+      <c r="AM392" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:39" s="57" customFormat="1">
       <c r="A393" s="5">
         <v>392</v>
       </c>
-      <c r="B393" s="61">
+      <c r="B393" s="57">
         <v>10309</v>
       </c>
-      <c r="F393" s="61">
-        <v>1</v>
-      </c>
-      <c r="G393" s="61" t="s">
+      <c r="F393" s="57">
+        <v>1</v>
+      </c>
+      <c r="G393" s="57" t="s">
         <v>1306</v>
       </c>
-      <c r="I393" s="61" t="s">
+      <c r="I393" s="57" t="s">
         <v>1311</v>
       </c>
-      <c r="J393" s="61" t="s">
+      <c r="J393" s="57" t="s">
         <v>1319</v>
       </c>
-      <c r="L393" s="61">
+      <c r="L393" s="57">
         <v>-31</v>
       </c>
-      <c r="M393" s="61">
-        <v>0</v>
-      </c>
-      <c r="N393" s="61">
-        <v>0</v>
-      </c>
-      <c r="O393" s="61" t="s">
+      <c r="M393" s="57">
+        <v>0</v>
+      </c>
+      <c r="N393" s="57">
+        <v>0</v>
+      </c>
+      <c r="O393" s="57" t="s">
         <v>1321</v>
       </c>
-      <c r="P393" s="61">
+      <c r="P393" s="57">
         <v>19800</v>
       </c>
-      <c r="Q393" s="61" t="s">
+      <c r="Q393" s="57" t="s">
         <v>1329</v>
       </c>
-      <c r="R393" s="62" t="s">
+      <c r="R393" s="58" t="s">
         <v>1339</v>
       </c>
-      <c r="W393" s="61" t="s">
+      <c r="W393" s="57" t="s">
         <v>1341</v>
       </c>
-      <c r="X393" s="61">
+      <c r="X393" s="57">
         <v>9999999</v>
       </c>
-      <c r="Y393" s="61">
+      <c r="Y393" s="57">
         <v>1608595200</v>
       </c>
-      <c r="Z393" s="61">
+      <c r="Z393" s="57">
         <v>1609171199</v>
       </c>
-      <c r="AA393" s="61">
+      <c r="AA393" s="57">
         <v>46</v>
       </c>
-      <c r="AH393" s="61">
-        <v>1</v>
-      </c>
-      <c r="AI393" s="61">
-        <v>1</v>
-      </c>
-      <c r="AL393" s="61">
-        <v>1</v>
-      </c>
-      <c r="AM393" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="394" spans="1:39" s="61" customFormat="1">
+      <c r="AH393" s="57">
+        <v>1</v>
+      </c>
+      <c r="AI393" s="57">
+        <v>1</v>
+      </c>
+      <c r="AL393" s="57">
+        <v>1</v>
+      </c>
+      <c r="AM393" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:39" s="57" customFormat="1">
       <c r="A394" s="5">
         <v>393</v>
       </c>
-      <c r="B394" s="61">
+      <c r="B394" s="57">
         <v>10310</v>
       </c>
-      <c r="F394" s="61">
-        <v>1</v>
-      </c>
-      <c r="G394" s="61" t="s">
+      <c r="F394" s="57">
+        <v>1</v>
+      </c>
+      <c r="G394" s="57" t="s">
         <v>1307</v>
       </c>
-      <c r="I394" s="61" t="s">
+      <c r="I394" s="57" t="s">
         <v>1311</v>
       </c>
-      <c r="J394" s="61" t="s">
+      <c r="J394" s="57" t="s">
         <v>1320</v>
       </c>
-      <c r="L394" s="61">
+      <c r="L394" s="57">
         <v>-31</v>
       </c>
-      <c r="M394" s="61">
-        <v>0</v>
-      </c>
-      <c r="N394" s="61">
-        <v>0</v>
-      </c>
-      <c r="O394" s="61" t="s">
+      <c r="M394" s="57">
+        <v>0</v>
+      </c>
+      <c r="N394" s="57">
+        <v>0</v>
+      </c>
+      <c r="O394" s="57" t="s">
         <v>1321</v>
       </c>
-      <c r="P394" s="61">
+      <c r="P394" s="57">
         <v>49800</v>
       </c>
-      <c r="Q394" s="61" t="s">
+      <c r="Q394" s="57" t="s">
         <v>1330</v>
       </c>
-      <c r="R394" s="62" t="s">
+      <c r="R394" s="58" t="s">
         <v>1338</v>
       </c>
-      <c r="W394" s="61" t="s">
+      <c r="W394" s="57" t="s">
         <v>1341</v>
       </c>
-      <c r="X394" s="61">
+      <c r="X394" s="57">
         <v>9999999</v>
       </c>
-      <c r="Y394" s="61">
+      <c r="Y394" s="57">
         <v>1608595200</v>
       </c>
-      <c r="Z394" s="61">
+      <c r="Z394" s="57">
         <v>1609171199</v>
       </c>
-      <c r="AA394" s="61">
+      <c r="AA394" s="57">
         <v>46</v>
       </c>
-      <c r="AH394" s="61">
-        <v>1</v>
-      </c>
-      <c r="AI394" s="61">
-        <v>1</v>
-      </c>
-      <c r="AL394" s="61">
-        <v>1</v>
-      </c>
-      <c r="AM394" s="61">
+      <c r="AH394" s="57">
+        <v>1</v>
+      </c>
+      <c r="AI394" s="57">
+        <v>1</v>
+      </c>
+      <c r="AL394" s="57">
+        <v>1</v>
+      </c>
+      <c r="AM394" s="57">
         <v>1</v>
       </c>
     </row>
@@ -37594,68 +37540,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:39" s="69" customFormat="1">
+    <row r="414" spans="1:39" s="61" customFormat="1">
       <c r="A414" s="5">
         <v>413</v>
       </c>
-      <c r="B414" s="69">
+      <c r="B414" s="61">
         <v>10330</v>
       </c>
-      <c r="D414" s="69">
-        <v>1</v>
-      </c>
-      <c r="F414" s="69">
-        <v>1</v>
-      </c>
-      <c r="G414" s="69" t="s">
+      <c r="D414" s="61">
+        <v>1</v>
+      </c>
+      <c r="F414" s="61">
+        <v>1</v>
+      </c>
+      <c r="G414" s="61" t="s">
         <v>1414</v>
       </c>
-      <c r="H414" s="69" t="s">
+      <c r="H414" s="61" t="s">
         <v>1761</v>
       </c>
-      <c r="L414" s="69">
+      <c r="L414" s="61">
         <v>-4</v>
       </c>
-      <c r="M414" s="69">
-        <v>0</v>
-      </c>
-      <c r="N414" s="69">
-        <v>0</v>
-      </c>
-      <c r="O414" s="69" t="s">
+      <c r="M414" s="61">
+        <v>0</v>
+      </c>
+      <c r="N414" s="61">
+        <v>0</v>
+      </c>
+      <c r="O414" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="P414" s="69">
+      <c r="P414" s="61">
         <v>600</v>
       </c>
-      <c r="Q414" s="69" t="s">
+      <c r="Q414" s="61" t="s">
         <v>456</v>
       </c>
-      <c r="R414" s="70" t="s">
+      <c r="R414" s="62" t="s">
         <v>1415</v>
       </c>
-      <c r="W414" s="69" t="s">
+      <c r="W414" s="61" t="s">
         <v>1427</v>
       </c>
-      <c r="X414" s="71" t="s">
+      <c r="X414" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="Y414" s="72">
-        <v>0</v>
-      </c>
-      <c r="Z414" s="69">
+      <c r="Y414" s="64">
+        <v>0</v>
+      </c>
+      <c r="Z414" s="61">
         <v>2552233600</v>
       </c>
-      <c r="AH414" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI414" s="69">
-        <v>1</v>
-      </c>
-      <c r="AL414" s="69">
-        <v>1</v>
-      </c>
-      <c r="AM414" s="69">
+      <c r="AH414" s="61">
+        <v>1</v>
+      </c>
+      <c r="AI414" s="61">
+        <v>1</v>
+      </c>
+      <c r="AL414" s="61">
+        <v>1</v>
+      </c>
+      <c r="AM414" s="61">
         <v>1</v>
       </c>
     </row>
@@ -37702,7 +37648,7 @@
       <c r="W415" s="40" t="s">
         <v>1420</v>
       </c>
-      <c r="X415" s="80" t="s">
+      <c r="X415" s="72" t="s">
         <v>117</v>
       </c>
       <c r="Y415" s="40">
@@ -37770,7 +37716,7 @@
       <c r="W416" s="40" t="s">
         <v>1420</v>
       </c>
-      <c r="X416" s="80" t="s">
+      <c r="X416" s="72" t="s">
         <v>117</v>
       </c>
       <c r="Y416" s="40">
@@ -37838,7 +37784,7 @@
       <c r="W417" s="40" t="s">
         <v>1200</v>
       </c>
-      <c r="X417" s="80" t="s">
+      <c r="X417" s="72" t="s">
         <v>117</v>
       </c>
       <c r="Y417" s="40">
@@ -37906,7 +37852,7 @@
       <c r="W418" s="40" t="s">
         <v>1200</v>
       </c>
-      <c r="X418" s="80" t="s">
+      <c r="X418" s="72" t="s">
         <v>117</v>
       </c>
       <c r="Y418" s="40">
@@ -37974,7 +37920,7 @@
       <c r="W419" s="40" t="s">
         <v>1200</v>
       </c>
-      <c r="X419" s="80" t="s">
+      <c r="X419" s="72" t="s">
         <v>117</v>
       </c>
       <c r="Y419" s="40">
@@ -38042,7 +37988,7 @@
       <c r="W420" s="40" t="s">
         <v>1200</v>
       </c>
-      <c r="X420" s="80" t="s">
+      <c r="X420" s="72" t="s">
         <v>117</v>
       </c>
       <c r="Y420" s="40">
@@ -39718,1930 +39664,1930 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:39" s="54" customFormat="1">
+    <row r="447" spans="1:39" s="5" customFormat="1">
       <c r="A447" s="5">
         <v>446</v>
       </c>
-      <c r="B447" s="54">
+      <c r="B447" s="5">
         <v>10363</v>
       </c>
-      <c r="F447" s="54">
-        <v>1</v>
-      </c>
-      <c r="G447" s="54" t="s">
+      <c r="F447" s="5">
+        <v>1</v>
+      </c>
+      <c r="G447" s="5" t="s">
         <v>1537</v>
       </c>
-      <c r="I447" s="54" t="s">
+      <c r="I447" s="5" t="s">
         <v>1570</v>
       </c>
-      <c r="J447" s="54" t="s">
+      <c r="J447" s="5" t="s">
         <v>1615</v>
       </c>
-      <c r="L447" s="54">
+      <c r="L447" s="5">
         <v>-31</v>
       </c>
-      <c r="M447" s="54">
-        <v>0</v>
-      </c>
-      <c r="N447" s="54">
-        <v>0</v>
-      </c>
-      <c r="O447" s="54" t="s">
+      <c r="M447" s="5">
+        <v>0</v>
+      </c>
+      <c r="N447" s="5">
+        <v>0</v>
+      </c>
+      <c r="O447" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P447" s="54">
+      <c r="P447" s="5">
         <v>800</v>
       </c>
-      <c r="Q447" s="54" t="s">
+      <c r="Q447" s="5" t="s">
         <v>1574</v>
       </c>
-      <c r="R447" s="55" t="s">
+      <c r="R447" s="10" t="s">
         <v>1616</v>
       </c>
       <c r="W447" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="X447" s="54">
+      <c r="X447" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y447" s="54">
+      <c r="Y447" s="5">
         <v>1605571200</v>
       </c>
-      <c r="Z447" s="54">
+      <c r="Z447" s="5">
         <v>2552233600</v>
       </c>
-      <c r="AA447" s="54">
+      <c r="AA447" s="5">
         <v>52</v>
       </c>
-      <c r="AH447" s="54">
-        <v>1</v>
-      </c>
-      <c r="AI447" s="54">
-        <v>1</v>
-      </c>
-      <c r="AL447" s="54">
-        <v>1</v>
-      </c>
-      <c r="AM447" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="448" spans="1:39" s="54" customFormat="1">
+      <c r="AH447" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI447" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL447" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM447" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:39" s="5" customFormat="1">
       <c r="A448" s="5">
         <v>447</v>
       </c>
-      <c r="B448" s="54">
+      <c r="B448" s="5">
         <v>10364</v>
       </c>
-      <c r="F448" s="54">
-        <v>1</v>
-      </c>
-      <c r="G448" s="54" t="s">
+      <c r="F448" s="5">
+        <v>1</v>
+      </c>
+      <c r="G448" s="5" t="s">
         <v>1538</v>
       </c>
-      <c r="I448" s="54" t="s">
+      <c r="I448" s="5" t="s">
         <v>1571</v>
       </c>
-      <c r="J448" s="54" t="s">
+      <c r="J448" s="5" t="s">
         <v>1595</v>
       </c>
-      <c r="L448" s="54">
+      <c r="L448" s="5">
         <v>-31</v>
       </c>
-      <c r="M448" s="54">
-        <v>0</v>
-      </c>
-      <c r="N448" s="54">
-        <v>0</v>
-      </c>
-      <c r="O448" s="54" t="s">
+      <c r="M448" s="5">
+        <v>0</v>
+      </c>
+      <c r="N448" s="5">
+        <v>0</v>
+      </c>
+      <c r="O448" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P448" s="54">
+      <c r="P448" s="5">
         <v>800</v>
       </c>
-      <c r="Q448" s="54" t="s">
+      <c r="Q448" s="5" t="s">
         <v>1574</v>
       </c>
-      <c r="R448" s="55" t="s">
+      <c r="R448" s="10" t="s">
         <v>1617</v>
       </c>
       <c r="W448" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="X448" s="54">
+      <c r="X448" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y448" s="54">
+      <c r="Y448" s="5">
         <v>1605571200</v>
       </c>
-      <c r="Z448" s="54">
+      <c r="Z448" s="5">
         <v>2552233600</v>
       </c>
-      <c r="AH448" s="54">
-        <v>1</v>
-      </c>
-      <c r="AI448" s="54">
-        <v>1</v>
-      </c>
-      <c r="AL448" s="54">
-        <v>1</v>
-      </c>
-      <c r="AM448" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="449" spans="1:39" s="54" customFormat="1">
+      <c r="AH448" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI448" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL448" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM448" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:39" s="5" customFormat="1">
       <c r="A449" s="5">
         <v>448</v>
       </c>
-      <c r="B449" s="54">
+      <c r="B449" s="5">
         <v>10365</v>
       </c>
-      <c r="F449" s="54">
-        <v>1</v>
-      </c>
-      <c r="G449" s="54" t="s">
+      <c r="F449" s="5">
+        <v>1</v>
+      </c>
+      <c r="G449" s="5" t="s">
         <v>1539</v>
       </c>
-      <c r="I449" s="54" t="s">
+      <c r="I449" s="5" t="s">
         <v>1572</v>
       </c>
-      <c r="J449" s="54" t="s">
+      <c r="J449" s="5" t="s">
         <v>1596</v>
       </c>
-      <c r="L449" s="54">
+      <c r="L449" s="5">
         <v>-31</v>
       </c>
-      <c r="M449" s="54">
-        <v>0</v>
-      </c>
-      <c r="N449" s="54">
-        <v>0</v>
-      </c>
-      <c r="O449" s="54" t="s">
+      <c r="M449" s="5">
+        <v>0</v>
+      </c>
+      <c r="N449" s="5">
+        <v>0</v>
+      </c>
+      <c r="O449" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P449" s="54">
+      <c r="P449" s="5">
         <v>800</v>
       </c>
-      <c r="Q449" s="54" t="s">
+      <c r="Q449" s="5" t="s">
         <v>1574</v>
       </c>
-      <c r="R449" s="55" t="s">
+      <c r="R449" s="10" t="s">
         <v>1618</v>
       </c>
       <c r="W449" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="X449" s="54">
+      <c r="X449" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y449" s="54">
+      <c r="Y449" s="5">
         <v>1605571200</v>
       </c>
-      <c r="Z449" s="54">
+      <c r="Z449" s="5">
         <v>2552233600</v>
       </c>
-      <c r="AA449" s="54">
+      <c r="AA449" s="5">
         <v>53</v>
       </c>
-      <c r="AH449" s="54">
-        <v>1</v>
-      </c>
-      <c r="AI449" s="54">
-        <v>1</v>
-      </c>
-      <c r="AL449" s="54">
-        <v>1</v>
-      </c>
-      <c r="AM449" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="450" spans="1:39" s="63" customFormat="1">
+      <c r="AH449" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI449" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL449" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM449" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:39" s="5" customFormat="1">
       <c r="A450" s="5">
         <v>449</v>
       </c>
-      <c r="B450" s="63">
+      <c r="B450" s="5">
         <v>10366</v>
       </c>
-      <c r="F450" s="63">
-        <v>1</v>
-      </c>
-      <c r="G450" s="63" t="s">
+      <c r="F450" s="5">
+        <v>1</v>
+      </c>
+      <c r="G450" s="5" t="s">
         <v>1540</v>
       </c>
-      <c r="I450" s="63" t="s">
+      <c r="I450" s="5" t="s">
         <v>1552</v>
       </c>
-      <c r="J450" s="63" t="s">
+      <c r="J450" s="5" t="s">
         <v>1597</v>
       </c>
-      <c r="L450" s="63">
+      <c r="L450" s="5">
         <v>-31</v>
       </c>
-      <c r="M450" s="63">
-        <v>0</v>
-      </c>
-      <c r="N450" s="63">
-        <v>0</v>
-      </c>
-      <c r="O450" s="63" t="s">
+      <c r="M450" s="5">
+        <v>0</v>
+      </c>
+      <c r="N450" s="5">
+        <v>0</v>
+      </c>
+      <c r="O450" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P450" s="63">
+      <c r="P450" s="5">
         <v>3800</v>
       </c>
-      <c r="Q450" s="63" t="s">
+      <c r="Q450" s="5" t="s">
         <v>1574</v>
       </c>
-      <c r="R450" s="64" t="s">
+      <c r="R450" s="10" t="s">
         <v>1619</v>
       </c>
       <c r="W450" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="X450" s="63">
+      <c r="X450" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y450" s="63">
+      <c r="Y450" s="5">
         <v>1605571200</v>
       </c>
-      <c r="Z450" s="63">
+      <c r="Z450" s="5">
         <v>2552233600</v>
       </c>
-      <c r="AA450" s="63">
+      <c r="AA450" s="5">
         <v>54</v>
       </c>
-      <c r="AH450" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI450" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL450" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM450" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="451" spans="1:39" s="63" customFormat="1">
+      <c r="AH450" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI450" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL450" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM450" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:39" s="5" customFormat="1">
       <c r="A451" s="5">
         <v>450</v>
       </c>
-      <c r="B451" s="63">
+      <c r="B451" s="5">
         <v>10367</v>
       </c>
-      <c r="F451" s="63">
-        <v>1</v>
-      </c>
-      <c r="G451" s="63" t="s">
+      <c r="F451" s="5">
+        <v>1</v>
+      </c>
+      <c r="G451" s="5" t="s">
         <v>1541</v>
       </c>
-      <c r="I451" s="63" t="s">
+      <c r="I451" s="5" t="s">
         <v>1553</v>
       </c>
-      <c r="J451" s="63" t="s">
+      <c r="J451" s="5" t="s">
         <v>1598</v>
       </c>
-      <c r="L451" s="63">
+      <c r="L451" s="5">
         <v>-31</v>
       </c>
-      <c r="M451" s="63">
-        <v>0</v>
-      </c>
-      <c r="N451" s="63">
-        <v>0</v>
-      </c>
-      <c r="O451" s="63" t="s">
+      <c r="M451" s="5">
+        <v>0</v>
+      </c>
+      <c r="N451" s="5">
+        <v>0</v>
+      </c>
+      <c r="O451" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P451" s="63">
+      <c r="P451" s="5">
         <v>3800</v>
       </c>
-      <c r="Q451" s="63" t="s">
+      <c r="Q451" s="5" t="s">
         <v>1574</v>
       </c>
-      <c r="R451" s="64" t="s">
+      <c r="R451" s="10" t="s">
         <v>1620</v>
       </c>
       <c r="W451" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="X451" s="63">
+      <c r="X451" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y451" s="63">
+      <c r="Y451" s="5">
         <v>1605571200</v>
       </c>
-      <c r="Z451" s="63">
+      <c r="Z451" s="5">
         <v>2552233600</v>
       </c>
-      <c r="AH451" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI451" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL451" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM451" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="452" spans="1:39" s="63" customFormat="1" ht="14.25" customHeight="1">
+      <c r="AH451" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI451" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL451" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM451" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:39" s="5" customFormat="1" ht="14.25" customHeight="1">
       <c r="A452" s="5">
         <v>451</v>
       </c>
-      <c r="B452" s="63">
+      <c r="B452" s="5">
         <v>10368</v>
       </c>
-      <c r="F452" s="63">
-        <v>1</v>
-      </c>
-      <c r="G452" s="63" t="s">
+      <c r="F452" s="5">
+        <v>1</v>
+      </c>
+      <c r="G452" s="5" t="s">
         <v>1542</v>
       </c>
-      <c r="I452" s="63" t="s">
+      <c r="I452" s="5" t="s">
         <v>1554</v>
       </c>
-      <c r="J452" s="63" t="s">
+      <c r="J452" s="5" t="s">
         <v>1599</v>
       </c>
-      <c r="L452" s="63">
+      <c r="L452" s="5">
         <v>-31</v>
       </c>
-      <c r="M452" s="63">
-        <v>0</v>
-      </c>
-      <c r="N452" s="63">
-        <v>0</v>
-      </c>
-      <c r="O452" s="63" t="s">
+      <c r="M452" s="5">
+        <v>0</v>
+      </c>
+      <c r="N452" s="5">
+        <v>0</v>
+      </c>
+      <c r="O452" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P452" s="63">
+      <c r="P452" s="5">
         <v>3800</v>
       </c>
-      <c r="Q452" s="63" t="s">
+      <c r="Q452" s="5" t="s">
         <v>1574</v>
       </c>
-      <c r="R452" s="64" t="s">
+      <c r="R452" s="10" t="s">
         <v>1621</v>
       </c>
       <c r="W452" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="X452" s="63">
+      <c r="X452" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y452" s="63">
+      <c r="Y452" s="5">
         <v>1605571200</v>
       </c>
-      <c r="Z452" s="63">
+      <c r="Z452" s="5">
         <v>2552233600</v>
       </c>
-      <c r="AA452" s="63">
+      <c r="AA452" s="5">
         <v>55</v>
       </c>
-      <c r="AH452" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI452" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL452" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM452" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="453" spans="1:39" s="54" customFormat="1">
+      <c r="AH452" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI452" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL452" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM452" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:39" s="5" customFormat="1">
       <c r="A453" s="5">
         <v>452</v>
       </c>
-      <c r="B453" s="54">
+      <c r="B453" s="5">
         <v>10369</v>
       </c>
-      <c r="F453" s="54">
-        <v>1</v>
-      </c>
-      <c r="G453" s="54" t="s">
+      <c r="F453" s="5">
+        <v>1</v>
+      </c>
+      <c r="G453" s="5" t="s">
         <v>1530</v>
       </c>
-      <c r="I453" s="54" t="s">
+      <c r="I453" s="5" t="s">
         <v>1555</v>
       </c>
-      <c r="J453" s="54" t="s">
+      <c r="J453" s="5" t="s">
         <v>1600</v>
       </c>
-      <c r="L453" s="54">
+      <c r="L453" s="5">
         <v>-31</v>
       </c>
-      <c r="M453" s="54">
-        <v>0</v>
-      </c>
-      <c r="N453" s="54">
-        <v>0</v>
-      </c>
-      <c r="O453" s="54" t="s">
+      <c r="M453" s="5">
+        <v>0</v>
+      </c>
+      <c r="N453" s="5">
+        <v>0</v>
+      </c>
+      <c r="O453" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P453" s="54">
+      <c r="P453" s="5">
         <v>9800</v>
       </c>
-      <c r="Q453" s="54" t="s">
+      <c r="Q453" s="5" t="s">
         <v>1574</v>
       </c>
-      <c r="R453" s="55" t="s">
+      <c r="R453" s="10" t="s">
         <v>1622</v>
       </c>
       <c r="W453" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="X453" s="54">
+      <c r="X453" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y453" s="54">
+      <c r="Y453" s="5">
         <v>1605571200</v>
       </c>
-      <c r="Z453" s="54">
+      <c r="Z453" s="5">
         <v>2552233600</v>
       </c>
-      <c r="AA453" s="54">
+      <c r="AA453" s="5">
         <v>56</v>
       </c>
-      <c r="AH453" s="54">
-        <v>1</v>
-      </c>
-      <c r="AI453" s="54">
-        <v>1</v>
-      </c>
-      <c r="AL453" s="54">
-        <v>1</v>
-      </c>
-      <c r="AM453" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="454" spans="1:39" s="54" customFormat="1">
+      <c r="AH453" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI453" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL453" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM453" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:39" s="5" customFormat="1">
       <c r="A454" s="5">
         <v>453</v>
       </c>
-      <c r="B454" s="54">
+      <c r="B454" s="5">
         <v>10370</v>
       </c>
-      <c r="F454" s="54">
-        <v>1</v>
-      </c>
-      <c r="G454" s="54" t="s">
+      <c r="F454" s="5">
+        <v>1</v>
+      </c>
+      <c r="G454" s="5" t="s">
         <v>1531</v>
       </c>
-      <c r="I454" s="54" t="s">
+      <c r="I454" s="5" t="s">
         <v>1556</v>
       </c>
-      <c r="J454" s="54" t="s">
+      <c r="J454" s="5" t="s">
         <v>1601</v>
       </c>
-      <c r="L454" s="54">
+      <c r="L454" s="5">
         <v>-31</v>
       </c>
-      <c r="M454" s="54">
-        <v>0</v>
-      </c>
-      <c r="N454" s="54">
-        <v>0</v>
-      </c>
-      <c r="O454" s="54" t="s">
+      <c r="M454" s="5">
+        <v>0</v>
+      </c>
+      <c r="N454" s="5">
+        <v>0</v>
+      </c>
+      <c r="O454" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P454" s="54">
+      <c r="P454" s="5">
         <v>9800</v>
       </c>
-      <c r="Q454" s="54" t="s">
+      <c r="Q454" s="5" t="s">
         <v>1574</v>
       </c>
-      <c r="R454" s="55" t="s">
+      <c r="R454" s="10" t="s">
         <v>1623</v>
       </c>
       <c r="W454" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="X454" s="54">
+      <c r="X454" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y454" s="54">
+      <c r="Y454" s="5">
         <v>1605571200</v>
       </c>
-      <c r="Z454" s="54">
+      <c r="Z454" s="5">
         <v>2552233600</v>
       </c>
-      <c r="AH454" s="54">
-        <v>1</v>
-      </c>
-      <c r="AI454" s="54">
-        <v>1</v>
-      </c>
-      <c r="AL454" s="54">
-        <v>1</v>
-      </c>
-      <c r="AM454" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="455" spans="1:39" s="54" customFormat="1">
+      <c r="AH454" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI454" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL454" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM454" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:39" s="5" customFormat="1">
       <c r="A455" s="5">
         <v>454</v>
       </c>
-      <c r="B455" s="54">
+      <c r="B455" s="5">
         <v>10371</v>
       </c>
-      <c r="F455" s="54">
-        <v>1</v>
-      </c>
-      <c r="G455" s="54" t="s">
+      <c r="F455" s="5">
+        <v>1</v>
+      </c>
+      <c r="G455" s="5" t="s">
         <v>1532</v>
       </c>
-      <c r="I455" s="54" t="s">
+      <c r="I455" s="5" t="s">
         <v>1557</v>
       </c>
-      <c r="J455" s="54" t="s">
+      <c r="J455" s="5" t="s">
         <v>1602</v>
       </c>
-      <c r="L455" s="54">
+      <c r="L455" s="5">
         <v>-31</v>
       </c>
-      <c r="M455" s="54">
-        <v>0</v>
-      </c>
-      <c r="N455" s="54">
-        <v>0</v>
-      </c>
-      <c r="O455" s="54" t="s">
+      <c r="M455" s="5">
+        <v>0</v>
+      </c>
+      <c r="N455" s="5">
+        <v>0</v>
+      </c>
+      <c r="O455" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P455" s="54">
+      <c r="P455" s="5">
         <v>9800</v>
       </c>
-      <c r="Q455" s="54" t="s">
+      <c r="Q455" s="5" t="s">
         <v>1574</v>
       </c>
-      <c r="R455" s="55" t="s">
+      <c r="R455" s="10" t="s">
         <v>1704</v>
       </c>
       <c r="W455" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="X455" s="54">
+      <c r="X455" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y455" s="54">
+      <c r="Y455" s="5">
         <v>1605571200</v>
       </c>
-      <c r="Z455" s="54">
+      <c r="Z455" s="5">
         <v>2552233600</v>
       </c>
-      <c r="AA455" s="54">
+      <c r="AA455" s="5">
         <v>57</v>
       </c>
-      <c r="AH455" s="54">
-        <v>1</v>
-      </c>
-      <c r="AI455" s="54">
-        <v>1</v>
-      </c>
-      <c r="AL455" s="54">
-        <v>1</v>
-      </c>
-      <c r="AM455" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="456" spans="1:39" s="63" customFormat="1">
+      <c r="AH455" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI455" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL455" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM455" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:39" s="5" customFormat="1">
       <c r="A456" s="5">
         <v>455</v>
       </c>
-      <c r="B456" s="63">
+      <c r="B456" s="5">
         <v>10372</v>
       </c>
-      <c r="F456" s="63">
-        <v>1</v>
-      </c>
-      <c r="G456" s="63" t="s">
+      <c r="F456" s="5">
+        <v>1</v>
+      </c>
+      <c r="G456" s="5" t="s">
         <v>1533</v>
       </c>
-      <c r="I456" s="63" t="s">
+      <c r="I456" s="5" t="s">
         <v>1558</v>
       </c>
-      <c r="J456" s="63" t="s">
+      <c r="J456" s="5" t="s">
         <v>1603</v>
       </c>
-      <c r="L456" s="63">
+      <c r="L456" s="5">
         <v>-31</v>
       </c>
-      <c r="M456" s="63">
-        <v>0</v>
-      </c>
-      <c r="N456" s="63">
-        <v>0</v>
-      </c>
-      <c r="O456" s="63" t="s">
+      <c r="M456" s="5">
+        <v>0</v>
+      </c>
+      <c r="N456" s="5">
+        <v>0</v>
+      </c>
+      <c r="O456" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P456" s="63">
+      <c r="P456" s="5">
         <v>19800</v>
       </c>
-      <c r="Q456" s="63" t="s">
+      <c r="Q456" s="5" t="s">
         <v>1574</v>
       </c>
-      <c r="R456" s="64" t="s">
+      <c r="R456" s="10" t="s">
         <v>1624</v>
       </c>
       <c r="W456" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="X456" s="63">
+      <c r="X456" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y456" s="63">
+      <c r="Y456" s="5">
         <v>1605571200</v>
       </c>
-      <c r="Z456" s="63">
+      <c r="Z456" s="5">
         <v>2552233600</v>
       </c>
-      <c r="AA456" s="63">
+      <c r="AA456" s="5">
         <v>58</v>
       </c>
-      <c r="AH456" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI456" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL456" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM456" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="457" spans="1:39" s="63" customFormat="1">
+      <c r="AH456" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI456" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL456" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM456" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:39" s="5" customFormat="1">
       <c r="A457" s="5">
         <v>456</v>
       </c>
-      <c r="B457" s="63">
+      <c r="B457" s="5">
         <v>10373</v>
       </c>
-      <c r="F457" s="63">
-        <v>1</v>
-      </c>
-      <c r="G457" s="63" t="s">
+      <c r="F457" s="5">
+        <v>1</v>
+      </c>
+      <c r="G457" s="5" t="s">
         <v>1534</v>
       </c>
-      <c r="I457" s="63" t="s">
+      <c r="I457" s="5" t="s">
         <v>1559</v>
       </c>
-      <c r="J457" s="63" t="s">
+      <c r="J457" s="5" t="s">
         <v>1604</v>
       </c>
-      <c r="L457" s="63">
+      <c r="L457" s="5">
         <v>-31</v>
       </c>
-      <c r="M457" s="63">
-        <v>0</v>
-      </c>
-      <c r="N457" s="63">
-        <v>0</v>
-      </c>
-      <c r="O457" s="63" t="s">
+      <c r="M457" s="5">
+        <v>0</v>
+      </c>
+      <c r="N457" s="5">
+        <v>0</v>
+      </c>
+      <c r="O457" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P457" s="63">
+      <c r="P457" s="5">
         <v>19800</v>
       </c>
-      <c r="Q457" s="63" t="s">
+      <c r="Q457" s="5" t="s">
         <v>1574</v>
       </c>
-      <c r="R457" s="64" t="s">
+      <c r="R457" s="10" t="s">
         <v>1625</v>
       </c>
       <c r="W457" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="X457" s="63">
+      <c r="X457" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y457" s="63">
+      <c r="Y457" s="5">
         <v>1605571200</v>
       </c>
-      <c r="Z457" s="63">
+      <c r="Z457" s="5">
         <v>2552233600</v>
       </c>
-      <c r="AH457" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI457" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL457" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM457" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="458" spans="1:39" s="63" customFormat="1">
+      <c r="AH457" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI457" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL457" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM457" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:39" s="5" customFormat="1">
       <c r="A458" s="5">
         <v>457</v>
       </c>
-      <c r="B458" s="63">
+      <c r="B458" s="5">
         <v>10374</v>
       </c>
-      <c r="F458" s="63">
-        <v>1</v>
-      </c>
-      <c r="G458" s="63" t="s">
+      <c r="F458" s="5">
+        <v>1</v>
+      </c>
+      <c r="G458" s="5" t="s">
         <v>1535</v>
       </c>
-      <c r="I458" s="63" t="s">
+      <c r="I458" s="5" t="s">
         <v>1560</v>
       </c>
-      <c r="J458" s="63" t="s">
+      <c r="J458" s="5" t="s">
         <v>1605</v>
       </c>
-      <c r="L458" s="63">
+      <c r="L458" s="5">
         <v>-31</v>
       </c>
-      <c r="M458" s="63">
-        <v>0</v>
-      </c>
-      <c r="N458" s="63">
-        <v>0</v>
-      </c>
-      <c r="O458" s="63" t="s">
+      <c r="M458" s="5">
+        <v>0</v>
+      </c>
+      <c r="N458" s="5">
+        <v>0</v>
+      </c>
+      <c r="O458" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P458" s="63">
+      <c r="P458" s="5">
         <v>19800</v>
       </c>
-      <c r="Q458" s="63" t="s">
+      <c r="Q458" s="5" t="s">
         <v>1574</v>
       </c>
-      <c r="R458" s="64" t="s">
+      <c r="R458" s="10" t="s">
         <v>1626</v>
       </c>
       <c r="W458" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="X458" s="63">
+      <c r="X458" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y458" s="63">
+      <c r="Y458" s="5">
         <v>1605571200</v>
       </c>
-      <c r="Z458" s="63">
+      <c r="Z458" s="5">
         <v>2552233600</v>
       </c>
-      <c r="AA458" s="63">
+      <c r="AA458" s="5">
         <v>59</v>
       </c>
-      <c r="AH458" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI458" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL458" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM458" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="459" spans="1:39" s="54" customFormat="1">
+      <c r="AH458" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI458" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL458" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM458" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:39" s="5" customFormat="1">
       <c r="A459" s="5">
         <v>458</v>
       </c>
-      <c r="B459" s="54">
+      <c r="B459" s="5">
         <v>10375</v>
       </c>
-      <c r="F459" s="54">
-        <v>1</v>
-      </c>
-      <c r="G459" s="54" t="s">
+      <c r="F459" s="5">
+        <v>1</v>
+      </c>
+      <c r="G459" s="5" t="s">
         <v>1543</v>
       </c>
-      <c r="I459" s="54" t="s">
+      <c r="I459" s="5" t="s">
         <v>1561</v>
       </c>
-      <c r="J459" s="54" t="s">
+      <c r="J459" s="5" t="s">
         <v>1606</v>
       </c>
-      <c r="L459" s="54">
+      <c r="L459" s="5">
         <v>-31</v>
       </c>
-      <c r="M459" s="54">
-        <v>0</v>
-      </c>
-      <c r="N459" s="54">
-        <v>0</v>
-      </c>
-      <c r="O459" s="54" t="s">
+      <c r="M459" s="5">
+        <v>0</v>
+      </c>
+      <c r="N459" s="5">
+        <v>0</v>
+      </c>
+      <c r="O459" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P459" s="54">
+      <c r="P459" s="5">
         <v>49800</v>
       </c>
-      <c r="Q459" s="54" t="s">
+      <c r="Q459" s="5" t="s">
         <v>1574</v>
       </c>
-      <c r="R459" s="55" t="s">
+      <c r="R459" s="10" t="s">
         <v>1627</v>
       </c>
       <c r="W459" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="X459" s="54">
+      <c r="X459" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y459" s="54">
+      <c r="Y459" s="5">
         <v>1605571200</v>
       </c>
-      <c r="Z459" s="54">
+      <c r="Z459" s="5">
         <v>2552233600</v>
       </c>
-      <c r="AA459" s="54">
+      <c r="AA459" s="5">
         <v>60</v>
       </c>
-      <c r="AH459" s="54">
-        <v>1</v>
-      </c>
-      <c r="AI459" s="54">
-        <v>1</v>
-      </c>
-      <c r="AL459" s="54">
-        <v>1</v>
-      </c>
-      <c r="AM459" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="460" spans="1:39" s="54" customFormat="1">
+      <c r="AH459" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI459" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL459" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM459" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:39" s="5" customFormat="1">
       <c r="A460" s="5">
         <v>459</v>
       </c>
-      <c r="B460" s="54">
+      <c r="B460" s="5">
         <v>10376</v>
       </c>
-      <c r="F460" s="54">
-        <v>1</v>
-      </c>
-      <c r="G460" s="54" t="s">
+      <c r="F460" s="5">
+        <v>1</v>
+      </c>
+      <c r="G460" s="5" t="s">
         <v>1544</v>
       </c>
-      <c r="I460" s="54" t="s">
+      <c r="I460" s="5" t="s">
         <v>1562</v>
       </c>
-      <c r="J460" s="54" t="s">
+      <c r="J460" s="5" t="s">
         <v>1607</v>
       </c>
-      <c r="L460" s="54">
+      <c r="L460" s="5">
         <v>-31</v>
       </c>
-      <c r="M460" s="54">
-        <v>0</v>
-      </c>
-      <c r="N460" s="54">
-        <v>0</v>
-      </c>
-      <c r="O460" s="54" t="s">
+      <c r="M460" s="5">
+        <v>0</v>
+      </c>
+      <c r="N460" s="5">
+        <v>0</v>
+      </c>
+      <c r="O460" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P460" s="54">
+      <c r="P460" s="5">
         <v>49800</v>
       </c>
-      <c r="Q460" s="54" t="s">
+      <c r="Q460" s="5" t="s">
         <v>1574</v>
       </c>
-      <c r="R460" s="55" t="s">
+      <c r="R460" s="10" t="s">
         <v>1628</v>
       </c>
       <c r="W460" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="X460" s="54">
+      <c r="X460" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y460" s="54">
+      <c r="Y460" s="5">
         <v>1605571200</v>
       </c>
-      <c r="Z460" s="54">
+      <c r="Z460" s="5">
         <v>2552233600</v>
       </c>
-      <c r="AH460" s="54">
-        <v>1</v>
-      </c>
-      <c r="AI460" s="54">
-        <v>1</v>
-      </c>
-      <c r="AL460" s="54">
-        <v>1</v>
-      </c>
-      <c r="AM460" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="461" spans="1:39" s="54" customFormat="1">
+      <c r="AH460" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI460" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL460" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM460" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:39" s="5" customFormat="1">
       <c r="A461" s="5">
         <v>460</v>
       </c>
-      <c r="B461" s="54">
+      <c r="B461" s="5">
         <v>10377</v>
       </c>
-      <c r="F461" s="54">
-        <v>1</v>
-      </c>
-      <c r="G461" s="54" t="s">
+      <c r="F461" s="5">
+        <v>1</v>
+      </c>
+      <c r="G461" s="5" t="s">
         <v>1545</v>
       </c>
-      <c r="I461" s="54" t="s">
+      <c r="I461" s="5" t="s">
         <v>1563</v>
       </c>
-      <c r="J461" s="54" t="s">
+      <c r="J461" s="5" t="s">
         <v>1608</v>
       </c>
-      <c r="L461" s="54">
+      <c r="L461" s="5">
         <v>-31</v>
       </c>
-      <c r="M461" s="54">
-        <v>0</v>
-      </c>
-      <c r="N461" s="54">
-        <v>0</v>
-      </c>
-      <c r="O461" s="54" t="s">
+      <c r="M461" s="5">
+        <v>0</v>
+      </c>
+      <c r="N461" s="5">
+        <v>0</v>
+      </c>
+      <c r="O461" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P461" s="54">
+      <c r="P461" s="5">
         <v>49800</v>
       </c>
-      <c r="Q461" s="54" t="s">
+      <c r="Q461" s="5" t="s">
         <v>1574</v>
       </c>
-      <c r="R461" s="55" t="s">
+      <c r="R461" s="10" t="s">
         <v>1629</v>
       </c>
       <c r="W461" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="X461" s="54">
+      <c r="X461" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y461" s="54">
+      <c r="Y461" s="5">
         <v>1605571200</v>
       </c>
-      <c r="Z461" s="54">
+      <c r="Z461" s="5">
         <v>2552233600</v>
       </c>
-      <c r="AA461" s="54">
+      <c r="AA461" s="5">
         <v>61</v>
       </c>
-      <c r="AH461" s="54">
-        <v>1</v>
-      </c>
-      <c r="AI461" s="54">
-        <v>1</v>
-      </c>
-      <c r="AL461" s="54">
-        <v>1</v>
-      </c>
-      <c r="AM461" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="462" spans="1:39" s="63" customFormat="1">
+      <c r="AH461" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI461" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL461" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM461" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:39" s="5" customFormat="1">
       <c r="A462" s="5">
         <v>461</v>
       </c>
-      <c r="B462" s="63">
+      <c r="B462" s="5">
         <v>10378</v>
       </c>
-      <c r="F462" s="63">
-        <v>1</v>
-      </c>
-      <c r="G462" s="63" t="s">
+      <c r="F462" s="5">
+        <v>1</v>
+      </c>
+      <c r="G462" s="5" t="s">
         <v>1546</v>
       </c>
-      <c r="I462" s="63" t="s">
+      <c r="I462" s="5" t="s">
         <v>1564</v>
       </c>
-      <c r="J462" s="63" t="s">
+      <c r="J462" s="5" t="s">
         <v>1609</v>
       </c>
-      <c r="L462" s="63">
+      <c r="L462" s="5">
         <v>-31</v>
       </c>
-      <c r="M462" s="63">
-        <v>0</v>
-      </c>
-      <c r="N462" s="63">
-        <v>0</v>
-      </c>
-      <c r="O462" s="63" t="s">
+      <c r="M462" s="5">
+        <v>0</v>
+      </c>
+      <c r="N462" s="5">
+        <v>0</v>
+      </c>
+      <c r="O462" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P462" s="63">
+      <c r="P462" s="5">
         <v>99800</v>
       </c>
-      <c r="Q462" s="63" t="s">
+      <c r="Q462" s="5" t="s">
         <v>1574</v>
       </c>
-      <c r="R462" s="64" t="s">
+      <c r="R462" s="10" t="s">
         <v>1630</v>
       </c>
       <c r="W462" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="X462" s="63">
+      <c r="X462" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y462" s="63">
+      <c r="Y462" s="5">
         <v>1605571200</v>
       </c>
-      <c r="Z462" s="63">
+      <c r="Z462" s="5">
         <v>2552233600</v>
       </c>
-      <c r="AA462" s="63">
+      <c r="AA462" s="5">
         <v>62</v>
       </c>
-      <c r="AH462" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI462" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL462" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM462" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="463" spans="1:39" s="63" customFormat="1">
+      <c r="AH462" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI462" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL462" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM462" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:39" s="5" customFormat="1">
       <c r="A463" s="5">
         <v>462</v>
       </c>
-      <c r="B463" s="63">
+      <c r="B463" s="5">
         <v>10379</v>
       </c>
-      <c r="F463" s="63">
-        <v>1</v>
-      </c>
-      <c r="G463" s="63" t="s">
+      <c r="F463" s="5">
+        <v>1</v>
+      </c>
+      <c r="G463" s="5" t="s">
         <v>1547</v>
       </c>
-      <c r="I463" s="63" t="s">
+      <c r="I463" s="5" t="s">
         <v>1565</v>
       </c>
-      <c r="J463" s="63" t="s">
+      <c r="J463" s="5" t="s">
         <v>1610</v>
       </c>
-      <c r="L463" s="63">
+      <c r="L463" s="5">
         <v>-31</v>
       </c>
-      <c r="M463" s="63">
-        <v>0</v>
-      </c>
-      <c r="N463" s="63">
-        <v>0</v>
-      </c>
-      <c r="O463" s="63" t="s">
+      <c r="M463" s="5">
+        <v>0</v>
+      </c>
+      <c r="N463" s="5">
+        <v>0</v>
+      </c>
+      <c r="O463" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P463" s="63">
+      <c r="P463" s="5">
         <v>99800</v>
       </c>
-      <c r="Q463" s="63" t="s">
+      <c r="Q463" s="5" t="s">
         <v>1574</v>
       </c>
-      <c r="R463" s="64" t="s">
+      <c r="R463" s="10" t="s">
         <v>1631</v>
       </c>
       <c r="W463" s="5" t="s">
         <v>1679</v>
       </c>
-      <c r="X463" s="63">
+      <c r="X463" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y463" s="63">
+      <c r="Y463" s="5">
         <v>1605571200</v>
       </c>
-      <c r="Z463" s="63">
+      <c r="Z463" s="5">
         <v>2552233600</v>
       </c>
-      <c r="AH463" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI463" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL463" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM463" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="464" spans="1:39" s="63" customFormat="1">
+      <c r="AH463" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI463" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL463" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM463" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:39" s="5" customFormat="1">
       <c r="A464" s="5">
         <v>463</v>
       </c>
-      <c r="B464" s="63">
+      <c r="B464" s="5">
         <v>10380</v>
       </c>
-      <c r="F464" s="63">
-        <v>1</v>
-      </c>
-      <c r="G464" s="63" t="s">
+      <c r="F464" s="5">
+        <v>1</v>
+      </c>
+      <c r="G464" s="5" t="s">
         <v>1548</v>
       </c>
-      <c r="I464" s="63" t="s">
+      <c r="I464" s="5" t="s">
         <v>1566</v>
       </c>
-      <c r="J464" s="63" t="s">
+      <c r="J464" s="5" t="s">
         <v>1611</v>
       </c>
-      <c r="L464" s="63">
+      <c r="L464" s="5">
         <v>-31</v>
       </c>
-      <c r="M464" s="63">
-        <v>0</v>
-      </c>
-      <c r="N464" s="63">
-        <v>0</v>
-      </c>
-      <c r="O464" s="63" t="s">
+      <c r="M464" s="5">
+        <v>0</v>
+      </c>
+      <c r="N464" s="5">
+        <v>0</v>
+      </c>
+      <c r="O464" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P464" s="63">
+      <c r="P464" s="5">
         <v>99800</v>
       </c>
-      <c r="Q464" s="63" t="s">
+      <c r="Q464" s="5" t="s">
         <v>1574</v>
       </c>
-      <c r="R464" s="64" t="s">
+      <c r="R464" s="10" t="s">
         <v>1632</v>
       </c>
       <c r="W464" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="X464" s="63">
+      <c r="X464" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y464" s="63">
+      <c r="Y464" s="5">
         <v>1605571200</v>
       </c>
-      <c r="Z464" s="63">
+      <c r="Z464" s="5">
         <v>2552233600</v>
       </c>
-      <c r="AA464" s="63">
+      <c r="AA464" s="5">
         <v>63</v>
       </c>
-      <c r="AH464" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI464" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL464" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM464" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="465" spans="1:39" s="54" customFormat="1">
+      <c r="AH464" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI464" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL464" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM464" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:39" s="5" customFormat="1">
       <c r="A465" s="5">
         <v>464</v>
       </c>
-      <c r="B465" s="54">
+      <c r="B465" s="5">
         <v>10381</v>
       </c>
-      <c r="F465" s="54">
-        <v>1</v>
-      </c>
-      <c r="G465" s="54" t="s">
+      <c r="F465" s="5">
+        <v>1</v>
+      </c>
+      <c r="G465" s="5" t="s">
         <v>1549</v>
       </c>
-      <c r="I465" s="54" t="s">
+      <c r="I465" s="5" t="s">
         <v>1567</v>
       </c>
-      <c r="J465" s="54" t="s">
+      <c r="J465" s="5" t="s">
         <v>1612</v>
       </c>
-      <c r="L465" s="54">
+      <c r="L465" s="5">
         <v>-31</v>
       </c>
-      <c r="M465" s="54">
-        <v>0</v>
-      </c>
-      <c r="N465" s="54">
-        <v>0</v>
-      </c>
-      <c r="O465" s="54" t="s">
+      <c r="M465" s="5">
+        <v>0</v>
+      </c>
+      <c r="N465" s="5">
+        <v>0</v>
+      </c>
+      <c r="O465" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P465" s="54">
+      <c r="P465" s="5">
         <v>249800</v>
       </c>
-      <c r="Q465" s="54" t="s">
+      <c r="Q465" s="5" t="s">
         <v>1574</v>
       </c>
-      <c r="R465" s="55" t="s">
+      <c r="R465" s="10" t="s">
         <v>1633</v>
       </c>
       <c r="W465" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="X465" s="54">
+      <c r="X465" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y465" s="54">
+      <c r="Y465" s="5">
         <v>1605571200</v>
       </c>
-      <c r="Z465" s="54">
+      <c r="Z465" s="5">
         <v>2552233600</v>
       </c>
-      <c r="AA465" s="54">
+      <c r="AA465" s="5">
         <v>64</v>
       </c>
-      <c r="AH465" s="54">
-        <v>1</v>
-      </c>
-      <c r="AI465" s="54">
-        <v>1</v>
-      </c>
-      <c r="AL465" s="54">
-        <v>1</v>
-      </c>
-      <c r="AM465" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="466" spans="1:39" s="54" customFormat="1">
+      <c r="AH465" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI465" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL465" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM465" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:39" s="5" customFormat="1">
       <c r="A466" s="5">
         <v>465</v>
       </c>
-      <c r="B466" s="54">
+      <c r="B466" s="5">
         <v>10382</v>
       </c>
-      <c r="F466" s="54">
-        <v>1</v>
-      </c>
-      <c r="G466" s="54" t="s">
+      <c r="F466" s="5">
+        <v>1</v>
+      </c>
+      <c r="G466" s="5" t="s">
         <v>1550</v>
       </c>
-      <c r="I466" s="54" t="s">
+      <c r="I466" s="5" t="s">
         <v>1568</v>
       </c>
-      <c r="J466" s="54" t="s">
+      <c r="J466" s="5" t="s">
         <v>1613</v>
       </c>
-      <c r="L466" s="54">
+      <c r="L466" s="5">
         <v>-31</v>
       </c>
-      <c r="M466" s="54">
-        <v>0</v>
-      </c>
-      <c r="N466" s="54">
-        <v>0</v>
-      </c>
-      <c r="O466" s="54" t="s">
+      <c r="M466" s="5">
+        <v>0</v>
+      </c>
+      <c r="N466" s="5">
+        <v>0</v>
+      </c>
+      <c r="O466" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P466" s="54">
+      <c r="P466" s="5">
         <v>249800</v>
       </c>
-      <c r="Q466" s="54" t="s">
+      <c r="Q466" s="5" t="s">
         <v>1574</v>
       </c>
-      <c r="R466" s="55" t="s">
+      <c r="R466" s="10" t="s">
         <v>1634</v>
       </c>
       <c r="W466" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="X466" s="54">
+      <c r="X466" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y466" s="54">
+      <c r="Y466" s="5">
         <v>1605571200</v>
       </c>
-      <c r="Z466" s="54">
+      <c r="Z466" s="5">
         <v>2552233600</v>
       </c>
-      <c r="AH466" s="54">
-        <v>1</v>
-      </c>
-      <c r="AI466" s="54">
-        <v>1</v>
-      </c>
-      <c r="AL466" s="54">
-        <v>1</v>
-      </c>
-      <c r="AM466" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="467" spans="1:39" s="54" customFormat="1">
+      <c r="AH466" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI466" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL466" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM466" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:39" s="5" customFormat="1">
       <c r="A467" s="5">
         <v>466</v>
       </c>
-      <c r="B467" s="54">
+      <c r="B467" s="5">
         <v>10383</v>
       </c>
-      <c r="F467" s="54">
-        <v>1</v>
-      </c>
-      <c r="G467" s="54" t="s">
+      <c r="F467" s="5">
+        <v>1</v>
+      </c>
+      <c r="G467" s="5" t="s">
         <v>1551</v>
       </c>
-      <c r="I467" s="54" t="s">
+      <c r="I467" s="5" t="s">
         <v>1569</v>
       </c>
-      <c r="J467" s="54" t="s">
+      <c r="J467" s="5" t="s">
         <v>1614</v>
       </c>
-      <c r="L467" s="54">
+      <c r="L467" s="5">
         <v>-31</v>
       </c>
-      <c r="M467" s="54">
-        <v>0</v>
-      </c>
-      <c r="N467" s="54">
-        <v>0</v>
-      </c>
-      <c r="O467" s="54" t="s">
+      <c r="M467" s="5">
+        <v>0</v>
+      </c>
+      <c r="N467" s="5">
+        <v>0</v>
+      </c>
+      <c r="O467" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P467" s="54">
+      <c r="P467" s="5">
         <v>249800</v>
       </c>
-      <c r="Q467" s="54" t="s">
+      <c r="Q467" s="5" t="s">
         <v>1592</v>
       </c>
-      <c r="R467" s="55" t="s">
+      <c r="R467" s="10" t="s">
         <v>1635</v>
       </c>
       <c r="W467" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="X467" s="54">
+      <c r="X467" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y467" s="54">
+      <c r="Y467" s="5">
         <v>1605571200</v>
       </c>
-      <c r="Z467" s="54">
+      <c r="Z467" s="5">
         <v>2552233600</v>
       </c>
-      <c r="AA467" s="54">
+      <c r="AA467" s="5">
         <v>65</v>
       </c>
-      <c r="AH467" s="54">
-        <v>1</v>
-      </c>
-      <c r="AI467" s="54">
-        <v>1</v>
-      </c>
-      <c r="AL467" s="54">
-        <v>1</v>
-      </c>
-      <c r="AM467" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="468" spans="1:39" s="57" customFormat="1">
+      <c r="AH467" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI467" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL467" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM467" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:39" s="5" customFormat="1">
       <c r="A468" s="5">
         <v>467</v>
       </c>
-      <c r="B468" s="57">
+      <c r="B468" s="5">
         <v>10384</v>
       </c>
-      <c r="F468" s="57">
-        <v>1</v>
-      </c>
-      <c r="G468" s="57" t="s">
+      <c r="F468" s="5">
+        <v>1</v>
+      </c>
+      <c r="G468" s="5" t="s">
         <v>1575</v>
       </c>
-      <c r="I468" s="57" t="s">
+      <c r="I468" s="5" t="s">
         <v>1583</v>
       </c>
-      <c r="J468" s="57" t="s">
+      <c r="J468" s="5" t="s">
         <v>1585</v>
       </c>
-      <c r="L468" s="57">
+      <c r="L468" s="5">
         <v>-31</v>
       </c>
-      <c r="M468" s="57">
-        <v>0</v>
-      </c>
-      <c r="N468" s="57">
-        <v>0</v>
-      </c>
-      <c r="O468" s="57" t="s">
+      <c r="M468" s="5">
+        <v>0</v>
+      </c>
+      <c r="N468" s="5">
+        <v>0</v>
+      </c>
+      <c r="O468" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P468" s="57">
+      <c r="P468" s="5">
         <v>600</v>
       </c>
-      <c r="Q468" s="57" t="s">
+      <c r="Q468" s="5" t="s">
         <v>1593</v>
       </c>
-      <c r="R468" s="58" t="s">
+      <c r="R468" s="10" t="s">
         <v>1636</v>
       </c>
-      <c r="W468" s="57" t="s">
+      <c r="W468" s="5" t="s">
         <v>1656</v>
       </c>
-      <c r="X468" s="57">
+      <c r="X468" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y468" s="57">
+      <c r="Y468" s="5">
         <v>1605571200</v>
       </c>
-      <c r="Z468" s="57">
+      <c r="Z468" s="5">
         <v>2552233600</v>
       </c>
-      <c r="AH468" s="57">
-        <v>1</v>
-      </c>
-      <c r="AI468" s="57">
-        <v>1</v>
-      </c>
-      <c r="AL468" s="57">
-        <v>1</v>
-      </c>
-      <c r="AM468" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="469" spans="1:39" s="57" customFormat="1">
+      <c r="AH468" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI468" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL468" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM468" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:39" s="5" customFormat="1">
       <c r="A469" s="5">
         <v>468</v>
       </c>
-      <c r="B469" s="57">
+      <c r="B469" s="5">
         <v>10385</v>
       </c>
-      <c r="F469" s="57">
-        <v>1</v>
-      </c>
-      <c r="G469" s="57" t="s">
+      <c r="F469" s="5">
+        <v>1</v>
+      </c>
+      <c r="G469" s="5" t="s">
         <v>1576</v>
       </c>
-      <c r="I469" s="57" t="s">
+      <c r="I469" s="5" t="s">
         <v>1583</v>
       </c>
-      <c r="J469" s="57" t="s">
+      <c r="J469" s="5" t="s">
         <v>1586</v>
       </c>
-      <c r="L469" s="57">
+      <c r="L469" s="5">
         <v>-31</v>
       </c>
-      <c r="M469" s="57">
-        <v>0</v>
-      </c>
-      <c r="N469" s="57">
-        <v>0</v>
-      </c>
-      <c r="O469" s="57" t="s">
+      <c r="M469" s="5">
+        <v>0</v>
+      </c>
+      <c r="N469" s="5">
+        <v>0</v>
+      </c>
+      <c r="O469" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P469" s="57">
+      <c r="P469" s="5">
         <v>3000</v>
       </c>
-      <c r="Q469" s="57" t="s">
+      <c r="Q469" s="5" t="s">
         <v>1593</v>
       </c>
-      <c r="R469" s="58" t="s">
+      <c r="R469" s="10" t="s">
         <v>1637</v>
       </c>
-      <c r="W469" s="57" t="s">
+      <c r="W469" s="5" t="s">
         <v>1656</v>
       </c>
-      <c r="X469" s="57">
+      <c r="X469" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y469" s="57">
+      <c r="Y469" s="5">
         <v>1605571200</v>
       </c>
-      <c r="Z469" s="57">
+      <c r="Z469" s="5">
         <v>2552233600</v>
       </c>
-      <c r="AH469" s="57">
-        <v>1</v>
-      </c>
-      <c r="AI469" s="57">
-        <v>1</v>
-      </c>
-      <c r="AL469" s="57">
-        <v>1</v>
-      </c>
-      <c r="AM469" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="470" spans="1:39" s="57" customFormat="1">
+      <c r="AH469" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI469" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL469" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM469" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:39" s="5" customFormat="1">
       <c r="A470" s="5">
         <v>469</v>
       </c>
-      <c r="B470" s="57">
+      <c r="B470" s="5">
         <v>10386</v>
       </c>
-      <c r="F470" s="57">
-        <v>1</v>
-      </c>
-      <c r="G470" s="57" t="s">
+      <c r="F470" s="5">
+        <v>1</v>
+      </c>
+      <c r="G470" s="5" t="s">
         <v>1577</v>
       </c>
-      <c r="I470" s="57" t="s">
+      <c r="I470" s="5" t="s">
         <v>1583</v>
       </c>
-      <c r="J470" s="57" t="s">
+      <c r="J470" s="5" t="s">
         <v>1587</v>
       </c>
-      <c r="L470" s="57">
+      <c r="L470" s="5">
         <v>-31</v>
       </c>
-      <c r="M470" s="57">
-        <v>0</v>
-      </c>
-      <c r="N470" s="57">
-        <v>0</v>
-      </c>
-      <c r="O470" s="57" t="s">
+      <c r="M470" s="5">
+        <v>0</v>
+      </c>
+      <c r="N470" s="5">
+        <v>0</v>
+      </c>
+      <c r="O470" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P470" s="57">
+      <c r="P470" s="5">
         <v>6800</v>
       </c>
-      <c r="Q470" s="57" t="s">
+      <c r="Q470" s="5" t="s">
         <v>1593</v>
       </c>
-      <c r="R470" s="58" t="s">
+      <c r="R470" s="10" t="s">
         <v>839</v>
       </c>
-      <c r="W470" s="57" t="s">
+      <c r="W470" s="5" t="s">
         <v>1656</v>
       </c>
-      <c r="X470" s="57">
+      <c r="X470" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y470" s="57">
+      <c r="Y470" s="5">
         <v>1605571200</v>
       </c>
-      <c r="Z470" s="57">
+      <c r="Z470" s="5">
         <v>2552233600</v>
       </c>
-      <c r="AH470" s="57">
-        <v>1</v>
-      </c>
-      <c r="AI470" s="57">
-        <v>1</v>
-      </c>
-      <c r="AL470" s="57">
-        <v>1</v>
-      </c>
-      <c r="AM470" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="471" spans="1:39" s="57" customFormat="1">
+      <c r="AH470" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI470" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL470" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM470" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:39" s="5" customFormat="1">
       <c r="A471" s="5">
         <v>470</v>
       </c>
-      <c r="B471" s="57">
+      <c r="B471" s="5">
         <v>10387</v>
       </c>
-      <c r="F471" s="57">
-        <v>1</v>
-      </c>
-      <c r="G471" s="57" t="s">
+      <c r="F471" s="5">
+        <v>1</v>
+      </c>
+      <c r="G471" s="5" t="s">
         <v>1578</v>
       </c>
-      <c r="I471" s="57" t="s">
+      <c r="I471" s="5" t="s">
         <v>1583</v>
       </c>
-      <c r="J471" s="57" t="s">
+      <c r="J471" s="5" t="s">
         <v>1588</v>
       </c>
-      <c r="L471" s="57">
+      <c r="L471" s="5">
         <v>-31</v>
       </c>
-      <c r="M471" s="57">
-        <v>0</v>
-      </c>
-      <c r="N471" s="57">
-        <v>0</v>
-      </c>
-      <c r="O471" s="57" t="s">
+      <c r="M471" s="5">
+        <v>0</v>
+      </c>
+      <c r="N471" s="5">
+        <v>0</v>
+      </c>
+      <c r="O471" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P471" s="57">
+      <c r="P471" s="5">
         <v>9800</v>
       </c>
-      <c r="Q471" s="57" t="s">
+      <c r="Q471" s="5" t="s">
         <v>1593</v>
       </c>
-      <c r="R471" s="58" t="s">
+      <c r="R471" s="10" t="s">
         <v>1638</v>
       </c>
-      <c r="W471" s="57" t="s">
+      <c r="W471" s="5" t="s">
         <v>1655</v>
       </c>
-      <c r="X471" s="57">
+      <c r="X471" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y471" s="57">
+      <c r="Y471" s="5">
         <v>1605571200</v>
       </c>
-      <c r="Z471" s="57">
+      <c r="Z471" s="5">
         <v>2552233600</v>
       </c>
-      <c r="AH471" s="57">
-        <v>1</v>
-      </c>
-      <c r="AI471" s="57">
-        <v>1</v>
-      </c>
-      <c r="AL471" s="57">
-        <v>1</v>
-      </c>
-      <c r="AM471" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="472" spans="1:39" s="57" customFormat="1">
+      <c r="AH471" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI471" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL471" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM471" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:39" s="5" customFormat="1">
       <c r="A472" s="5">
         <v>471</v>
       </c>
-      <c r="B472" s="57">
+      <c r="B472" s="5">
         <v>10388</v>
       </c>
-      <c r="F472" s="57">
-        <v>1</v>
-      </c>
-      <c r="G472" s="57" t="s">
+      <c r="F472" s="5">
+        <v>1</v>
+      </c>
+      <c r="G472" s="5" t="s">
         <v>1579</v>
       </c>
-      <c r="I472" s="57" t="s">
+      <c r="I472" s="5" t="s">
         <v>1583</v>
       </c>
-      <c r="J472" s="57" t="s">
+      <c r="J472" s="5" t="s">
         <v>1589</v>
       </c>
-      <c r="L472" s="57">
+      <c r="L472" s="5">
         <v>-31</v>
       </c>
-      <c r="M472" s="57">
-        <v>0</v>
-      </c>
-      <c r="N472" s="57">
-        <v>0</v>
-      </c>
-      <c r="O472" s="57" t="s">
+      <c r="M472" s="5">
+        <v>0</v>
+      </c>
+      <c r="N472" s="5">
+        <v>0</v>
+      </c>
+      <c r="O472" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P472" s="57">
+      <c r="P472" s="5">
         <v>19800</v>
       </c>
-      <c r="Q472" s="57" t="s">
+      <c r="Q472" s="5" t="s">
         <v>1593</v>
       </c>
-      <c r="R472" s="58" t="s">
+      <c r="R472" s="10" t="s">
         <v>840</v>
       </c>
-      <c r="W472" s="57" t="s">
+      <c r="W472" s="5" t="s">
         <v>1655</v>
       </c>
-      <c r="X472" s="57">
+      <c r="X472" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y472" s="57">
+      <c r="Y472" s="5">
         <v>1605571200</v>
       </c>
-      <c r="Z472" s="57">
+      <c r="Z472" s="5">
         <v>2552233600</v>
       </c>
-      <c r="AH472" s="57">
-        <v>1</v>
-      </c>
-      <c r="AI472" s="57">
-        <v>1</v>
-      </c>
-      <c r="AL472" s="57">
-        <v>1</v>
-      </c>
-      <c r="AM472" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="473" spans="1:39" s="57" customFormat="1">
+      <c r="AH472" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI472" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL472" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM472" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:39" s="5" customFormat="1">
       <c r="A473" s="5">
         <v>472</v>
       </c>
-      <c r="B473" s="57">
+      <c r="B473" s="5">
         <v>10389</v>
       </c>
-      <c r="F473" s="57">
-        <v>1</v>
-      </c>
-      <c r="G473" s="57" t="s">
+      <c r="F473" s="5">
+        <v>1</v>
+      </c>
+      <c r="G473" s="5" t="s">
         <v>1580</v>
       </c>
-      <c r="I473" s="57" t="s">
+      <c r="I473" s="5" t="s">
         <v>1583</v>
       </c>
-      <c r="J473" s="57" t="s">
+      <c r="J473" s="5" t="s">
         <v>1590</v>
       </c>
-      <c r="L473" s="57">
+      <c r="L473" s="5">
         <v>-31</v>
       </c>
-      <c r="M473" s="57">
-        <v>0</v>
-      </c>
-      <c r="N473" s="57">
-        <v>0</v>
-      </c>
-      <c r="O473" s="57" t="s">
+      <c r="M473" s="5">
+        <v>0</v>
+      </c>
+      <c r="N473" s="5">
+        <v>0</v>
+      </c>
+      <c r="O473" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P473" s="57">
+      <c r="P473" s="5">
         <v>49800</v>
       </c>
-      <c r="Q473" s="57" t="s">
+      <c r="Q473" s="5" t="s">
         <v>1593</v>
       </c>
-      <c r="R473" s="58" t="s">
+      <c r="R473" s="10" t="s">
         <v>1639</v>
       </c>
-      <c r="W473" s="57" t="s">
+      <c r="W473" s="5" t="s">
         <v>1655</v>
       </c>
-      <c r="X473" s="57">
+      <c r="X473" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y473" s="57">
+      <c r="Y473" s="5">
         <v>1605571200</v>
       </c>
-      <c r="Z473" s="57">
+      <c r="Z473" s="5">
         <v>2552233600</v>
       </c>
-      <c r="AH473" s="57">
-        <v>1</v>
-      </c>
-      <c r="AI473" s="57">
-        <v>1</v>
-      </c>
-      <c r="AL473" s="57">
-        <v>1</v>
-      </c>
-      <c r="AM473" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="474" spans="1:39" s="67" customFormat="1">
+      <c r="AH473" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI473" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL473" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM473" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:39" s="5" customFormat="1">
       <c r="A474" s="5">
         <v>473</v>
       </c>
-      <c r="B474" s="67">
+      <c r="B474" s="5">
         <v>10390</v>
       </c>
-      <c r="F474" s="67">
-        <v>1</v>
-      </c>
-      <c r="G474" s="67" t="s">
+      <c r="F474" s="5">
+        <v>1</v>
+      </c>
+      <c r="G474" s="5" t="s">
         <v>1581</v>
       </c>
-      <c r="I474" s="67" t="s">
+      <c r="I474" s="5" t="s">
         <v>1584</v>
       </c>
-      <c r="J474" s="67" t="s">
+      <c r="J474" s="5" t="s">
         <v>1591</v>
       </c>
-      <c r="L474" s="67">
+      <c r="L474" s="5">
         <v>-31</v>
       </c>
-      <c r="M474" s="67">
-        <v>0</v>
-      </c>
-      <c r="N474" s="67">
-        <v>0</v>
-      </c>
-      <c r="O474" s="67" t="s">
+      <c r="M474" s="5">
+        <v>0</v>
+      </c>
+      <c r="N474" s="5">
+        <v>0</v>
+      </c>
+      <c r="O474" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P474" s="67">
+      <c r="P474" s="5">
         <v>99800</v>
       </c>
-      <c r="Q474" s="67" t="s">
+      <c r="Q474" s="5" t="s">
         <v>1593</v>
       </c>
-      <c r="R474" s="68" t="s">
+      <c r="R474" s="10" t="s">
         <v>1640</v>
       </c>
-      <c r="W474" s="67" t="s">
+      <c r="W474" s="5" t="s">
         <v>1655</v>
       </c>
-      <c r="X474" s="67">
+      <c r="X474" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y474" s="67">
+      <c r="Y474" s="5">
         <v>1605571200</v>
       </c>
-      <c r="Z474" s="67">
+      <c r="Z474" s="5">
         <v>2552233600</v>
       </c>
-      <c r="AH474" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI474" s="67">
-        <v>1</v>
-      </c>
-      <c r="AL474" s="67">
-        <v>1</v>
-      </c>
-      <c r="AM474" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="475" spans="1:39" s="67" customFormat="1">
+      <c r="AH474" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI474" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL474" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM474" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:39" s="5" customFormat="1">
       <c r="A475" s="5">
         <v>474</v>
       </c>
-      <c r="B475" s="67">
+      <c r="B475" s="5">
         <v>10391</v>
       </c>
-      <c r="F475" s="67">
-        <v>1</v>
-      </c>
-      <c r="G475" s="67" t="s">
+      <c r="F475" s="5">
+        <v>1</v>
+      </c>
+      <c r="G475" s="5" t="s">
         <v>1582</v>
       </c>
-      <c r="I475" s="67" t="s">
+      <c r="I475" s="5" t="s">
         <v>1584</v>
       </c>
-      <c r="J475" s="67" t="s">
+      <c r="J475" s="5" t="s">
         <v>1682</v>
       </c>
-      <c r="L475" s="67">
+      <c r="L475" s="5">
         <v>-31</v>
       </c>
-      <c r="M475" s="67">
-        <v>0</v>
-      </c>
-      <c r="N475" s="67">
-        <v>0</v>
-      </c>
-      <c r="O475" s="67" t="s">
+      <c r="M475" s="5">
+        <v>0</v>
+      </c>
+      <c r="N475" s="5">
+        <v>0</v>
+      </c>
+      <c r="O475" s="5" t="s">
         <v>1667</v>
       </c>
-      <c r="P475" s="67">
+      <c r="P475" s="5">
         <v>249800</v>
       </c>
-      <c r="Q475" s="67" t="s">
+      <c r="Q475" s="5" t="s">
         <v>1668</v>
       </c>
-      <c r="R475" s="68" t="s">
+      <c r="R475" s="10" t="s">
         <v>1683</v>
       </c>
-      <c r="W475" s="67" t="s">
+      <c r="W475" s="5" t="s">
         <v>1655</v>
       </c>
-      <c r="X475" s="67">
+      <c r="X475" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y475" s="67">
+      <c r="Y475" s="5">
         <v>1605571200</v>
       </c>
-      <c r="Z475" s="67">
+      <c r="Z475" s="5">
         <v>2552233600</v>
       </c>
-      <c r="AH475" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI475" s="67">
-        <v>1</v>
-      </c>
-      <c r="AL475" s="67">
-        <v>1</v>
-      </c>
-      <c r="AM475" s="67">
+      <c r="AH475" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI475" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL475" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM475" s="5">
         <v>1</v>
       </c>
     </row>
@@ -42732,331 +42678,263 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:39">
+    <row r="493" spans="1:39" s="5" customFormat="1">
       <c r="A493" s="5">
         <v>492</v>
       </c>
-      <c r="B493" s="81">
+      <c r="B493" s="5">
         <v>10409</v>
       </c>
-      <c r="C493" s="81"/>
-      <c r="D493" s="81"/>
-      <c r="E493" s="81"/>
-      <c r="F493" s="81">
-        <v>1</v>
-      </c>
-      <c r="G493" s="81" t="s">
+      <c r="F493" s="5">
+        <v>1</v>
+      </c>
+      <c r="G493" s="5" t="s">
         <v>1811</v>
       </c>
-      <c r="H493" s="81"/>
-      <c r="I493" s="81" t="s">
+      <c r="I493" s="5" t="s">
         <v>1813</v>
       </c>
-      <c r="J493" s="81" t="s">
+      <c r="J493" s="5" t="s">
         <v>1815</v>
       </c>
-      <c r="K493" s="81"/>
-      <c r="L493" s="81">
+      <c r="L493" s="5">
         <v>-31</v>
       </c>
-      <c r="M493" s="81">
-        <v>0</v>
-      </c>
-      <c r="N493" s="81">
-        <v>0</v>
-      </c>
-      <c r="O493" s="81" t="s">
+      <c r="M493" s="5">
+        <v>0</v>
+      </c>
+      <c r="N493" s="5">
+        <v>0</v>
+      </c>
+      <c r="O493" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="P493" s="81">
+      <c r="P493" s="5">
         <v>49800</v>
       </c>
-      <c r="Q493" s="81" t="s">
+      <c r="Q493" s="5" t="s">
         <v>1816</v>
       </c>
-      <c r="R493" s="82" t="s">
+      <c r="R493" s="10" t="s">
         <v>1817</v>
       </c>
-      <c r="S493" s="81"/>
-      <c r="T493" s="81"/>
-      <c r="U493" s="81"/>
-      <c r="V493" s="81"/>
-      <c r="W493" s="81" t="s">
+      <c r="W493" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="X493" s="81">
+      <c r="X493" s="5">
         <v>200</v>
       </c>
-      <c r="Y493" s="81">
+      <c r="Y493" s="5">
         <v>1609200000</v>
       </c>
-      <c r="Z493" s="81">
+      <c r="Z493" s="5">
         <v>1609775999</v>
       </c>
-      <c r="AA493" s="81"/>
-      <c r="AB493" s="81"/>
-      <c r="AC493" s="81"/>
-      <c r="AD493" s="81"/>
-      <c r="AE493" s="81"/>
-      <c r="AF493" s="81"/>
-      <c r="AG493" s="81"/>
-      <c r="AH493" s="81">
-        <v>1</v>
-      </c>
-      <c r="AI493" s="81">
-        <v>1</v>
-      </c>
-      <c r="AL493" s="6">
-        <v>1</v>
-      </c>
-      <c r="AM493" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="494" spans="1:39">
+      <c r="AH493" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI493" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL493" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM493" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:39" s="5" customFormat="1">
       <c r="A494" s="5">
         <v>493</v>
       </c>
-      <c r="B494" s="81">
+      <c r="B494" s="5">
         <v>10410</v>
       </c>
-      <c r="C494" s="81"/>
-      <c r="D494" s="81"/>
-      <c r="E494" s="81"/>
-      <c r="F494" s="81">
-        <v>1</v>
-      </c>
-      <c r="G494" s="81" t="s">
+      <c r="F494" s="5">
+        <v>1</v>
+      </c>
+      <c r="G494" s="5" t="s">
         <v>1812</v>
       </c>
-      <c r="H494" s="81"/>
-      <c r="I494" s="81" t="s">
+      <c r="I494" s="5" t="s">
         <v>1814</v>
       </c>
-      <c r="J494" s="81" t="s">
+      <c r="J494" s="5" t="s">
         <v>1815</v>
       </c>
-      <c r="K494" s="81"/>
-      <c r="L494" s="81">
+      <c r="L494" s="5">
         <v>-31</v>
       </c>
-      <c r="M494" s="81">
-        <v>0</v>
-      </c>
-      <c r="N494" s="81">
-        <v>0</v>
-      </c>
-      <c r="O494" s="81" t="s">
+      <c r="M494" s="5">
+        <v>0</v>
+      </c>
+      <c r="N494" s="5">
+        <v>0</v>
+      </c>
+      <c r="O494" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="P494" s="81">
+      <c r="P494" s="5">
         <v>99800</v>
       </c>
-      <c r="Q494" s="81" t="s">
+      <c r="Q494" s="5" t="s">
         <v>1816</v>
       </c>
-      <c r="R494" s="82" t="s">
+      <c r="R494" s="10" t="s">
         <v>1818</v>
       </c>
-      <c r="S494" s="81"/>
-      <c r="T494" s="81"/>
-      <c r="U494" s="81"/>
-      <c r="V494" s="81"/>
-      <c r="W494" s="81" t="s">
+      <c r="W494" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="X494" s="81">
+      <c r="X494" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y494" s="81">
+      <c r="Y494" s="5">
         <v>1609200000</v>
       </c>
-      <c r="Z494" s="81">
+      <c r="Z494" s="5">
         <v>1609775999</v>
       </c>
-      <c r="AA494" s="81"/>
-      <c r="AB494" s="81"/>
-      <c r="AC494" s="81"/>
-      <c r="AD494" s="81"/>
-      <c r="AE494" s="81"/>
-      <c r="AF494" s="81"/>
-      <c r="AG494" s="81"/>
-      <c r="AH494" s="81">
-        <v>1</v>
-      </c>
-      <c r="AI494" s="81">
-        <v>1</v>
-      </c>
-      <c r="AL494" s="6">
-        <v>1</v>
-      </c>
-      <c r="AM494" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="495" spans="1:39">
+      <c r="AH494" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI494" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL494" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM494" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:39" s="5" customFormat="1">
       <c r="A495" s="5">
         <v>494</v>
       </c>
-      <c r="B495" s="43">
+      <c r="B495" s="5">
         <v>10411</v>
       </c>
-      <c r="C495" s="43"/>
-      <c r="D495" s="43"/>
-      <c r="E495" s="43"/>
-      <c r="F495" s="43">
-        <v>1</v>
-      </c>
-      <c r="G495" s="43" t="s">
+      <c r="F495" s="5">
+        <v>1</v>
+      </c>
+      <c r="G495" s="5" t="s">
         <v>1826</v>
       </c>
-      <c r="H495" s="43"/>
-      <c r="I495" s="43"/>
-      <c r="J495" s="43" t="s">
+      <c r="J495" s="5" t="s">
         <v>1827</v>
       </c>
-      <c r="K495" s="43"/>
-      <c r="L495" s="43">
+      <c r="L495" s="5">
         <v>-31</v>
       </c>
-      <c r="M495" s="43">
-        <v>0</v>
-      </c>
-      <c r="N495" s="43">
-        <v>0</v>
-      </c>
-      <c r="O495" s="43" t="s">
+      <c r="M495" s="5">
+        <v>0</v>
+      </c>
+      <c r="N495" s="5">
+        <v>0</v>
+      </c>
+      <c r="O495" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="P495" s="43">
+      <c r="P495" s="5">
         <v>79800</v>
       </c>
-      <c r="Q495" s="43" t="s">
+      <c r="Q495" s="5" t="s">
         <v>1684</v>
       </c>
-      <c r="R495" s="47" t="s">
+      <c r="R495" s="10" t="s">
         <v>1828</v>
       </c>
-      <c r="S495" s="43"/>
-      <c r="T495" s="43"/>
-      <c r="U495" s="43"/>
-      <c r="V495" s="43"/>
-      <c r="W495" s="43" t="s">
+      <c r="W495" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="X495" s="43">
+      <c r="X495" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y495" s="43">
+      <c r="Y495" s="5">
         <v>1592263800</v>
       </c>
-      <c r="Z495" s="43">
+      <c r="Z495" s="5">
         <v>2552233600</v>
       </c>
-      <c r="AA495" s="43">
+      <c r="AA495" s="5">
         <v>14</v>
       </c>
-      <c r="AB495" s="43"/>
-      <c r="AC495" s="43"/>
-      <c r="AD495" s="43"/>
-      <c r="AE495" s="43"/>
-      <c r="AF495" s="43"/>
-      <c r="AG495" s="43"/>
-      <c r="AH495" s="43">
-        <v>1</v>
-      </c>
-      <c r="AI495" s="43">
-        <v>1</v>
-      </c>
-      <c r="AJ495" s="43"/>
-      <c r="AK495" s="43"/>
-      <c r="AL495" s="43">
-        <v>1</v>
-      </c>
-      <c r="AM495" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="496" spans="1:39">
+      <c r="AH495" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI495" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL495" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM495" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:39" s="5" customFormat="1">
       <c r="A496" s="5">
         <v>495</v>
       </c>
-      <c r="B496" s="43">
+      <c r="B496" s="5">
         <v>10412</v>
       </c>
-      <c r="C496" s="43"/>
-      <c r="D496" s="43"/>
-      <c r="E496" s="43"/>
-      <c r="F496" s="43">
-        <v>1</v>
-      </c>
-      <c r="G496" s="43" t="s">
+      <c r="F496" s="5">
+        <v>1</v>
+      </c>
+      <c r="G496" s="5" t="s">
         <v>1829</v>
       </c>
-      <c r="H496" s="43"/>
-      <c r="I496" s="43"/>
-      <c r="J496" s="43" t="s">
+      <c r="J496" s="5" t="s">
         <v>1830</v>
       </c>
-      <c r="K496" s="43"/>
-      <c r="L496" s="43">
+      <c r="L496" s="5">
         <v>-31</v>
       </c>
-      <c r="M496" s="43">
-        <v>0</v>
-      </c>
-      <c r="N496" s="43">
-        <v>0</v>
-      </c>
-      <c r="O496" s="43" t="s">
+      <c r="M496" s="5">
+        <v>0</v>
+      </c>
+      <c r="N496" s="5">
+        <v>0</v>
+      </c>
+      <c r="O496" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="P496" s="43">
+      <c r="P496" s="5">
         <v>89800</v>
       </c>
-      <c r="Q496" s="43" t="s">
+      <c r="Q496" s="5" t="s">
         <v>1684</v>
       </c>
-      <c r="R496" s="47" t="s">
+      <c r="R496" s="10" t="s">
         <v>1831</v>
       </c>
-      <c r="S496" s="43"/>
-      <c r="T496" s="43"/>
-      <c r="U496" s="43"/>
-      <c r="V496" s="43"/>
-      <c r="W496" s="43" t="s">
+      <c r="W496" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="X496" s="43">
+      <c r="X496" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y496" s="43">
+      <c r="Y496" s="5">
         <v>1592263800</v>
       </c>
-      <c r="Z496" s="43">
+      <c r="Z496" s="5">
         <v>2552233600</v>
       </c>
-      <c r="AA496" s="43">
+      <c r="AA496" s="5">
         <v>14</v>
       </c>
-      <c r="AB496" s="43"/>
-      <c r="AC496" s="43"/>
-      <c r="AD496" s="43"/>
-      <c r="AE496" s="43"/>
-      <c r="AF496" s="43"/>
-      <c r="AG496" s="43"/>
-      <c r="AH496" s="43">
-        <v>1</v>
-      </c>
-      <c r="AI496" s="43">
-        <v>1</v>
-      </c>
-      <c r="AJ496" s="43"/>
-      <c r="AK496" s="43"/>
-      <c r="AL496" s="43">
-        <v>1</v>
-      </c>
-      <c r="AM496" s="43">
+      <c r="AH496" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI496" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL496" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM496" s="5">
         <v>1</v>
       </c>
     </row>
@@ -44056,1425 +43934,1425 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:39" s="81" customFormat="1">
+    <row r="512" spans="1:39" s="5" customFormat="1">
       <c r="A512" s="5">
         <v>511</v>
       </c>
       <c r="B512" s="5">
         <v>10428</v>
       </c>
-      <c r="F512" s="81">
-        <v>1</v>
-      </c>
-      <c r="G512" s="81" t="s">
+      <c r="F512" s="5">
+        <v>1</v>
+      </c>
+      <c r="G512" s="5" t="s">
         <v>1894</v>
       </c>
-      <c r="I512" s="81" t="s">
+      <c r="I512" s="5" t="s">
         <v>1895</v>
       </c>
-      <c r="J512" s="81" t="s">
+      <c r="J512" s="5" t="s">
         <v>1896</v>
       </c>
-      <c r="L512" s="81">
+      <c r="L512" s="5">
         <v>-33</v>
       </c>
-      <c r="M512" s="81">
-        <v>0</v>
-      </c>
-      <c r="N512" s="81">
-        <v>0</v>
-      </c>
-      <c r="O512" s="81" t="s">
+      <c r="M512" s="5">
+        <v>0</v>
+      </c>
+      <c r="N512" s="5">
+        <v>0</v>
+      </c>
+      <c r="O512" s="5" t="s">
         <v>1880</v>
       </c>
-      <c r="P512" s="81">
+      <c r="P512" s="5">
         <v>49800</v>
       </c>
-      <c r="Q512" s="81" t="s">
+      <c r="Q512" s="5" t="s">
         <v>1940</v>
       </c>
-      <c r="R512" s="82" t="s">
+      <c r="R512" s="10" t="s">
         <v>1884</v>
       </c>
-      <c r="W512" s="81" t="s">
+      <c r="W512" s="5" t="s">
         <v>1897</v>
       </c>
-      <c r="X512" s="81">
+      <c r="X512" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y512" s="81">
+      <c r="Y512" s="5">
         <v>1610409600</v>
       </c>
-      <c r="Z512" s="81">
+      <c r="Z512" s="5">
         <v>1610985599</v>
       </c>
-      <c r="AA512" s="81">
+      <c r="AA512" s="5">
         <v>68</v>
       </c>
-      <c r="AH512" s="81">
-        <v>1</v>
-      </c>
-      <c r="AI512" s="81">
-        <v>1</v>
-      </c>
-      <c r="AL512" s="81">
-        <v>1</v>
-      </c>
-      <c r="AM512" s="81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="513" spans="1:39" s="81" customFormat="1">
+      <c r="AH512" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI512" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL512" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM512" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:39" s="5" customFormat="1">
       <c r="A513" s="5">
         <v>512</v>
       </c>
       <c r="B513" s="5">
         <v>10429</v>
       </c>
-      <c r="F513" s="81">
-        <v>1</v>
-      </c>
-      <c r="G513" s="81" t="s">
+      <c r="F513" s="5">
+        <v>1</v>
+      </c>
+      <c r="G513" s="5" t="s">
         <v>1894</v>
       </c>
-      <c r="I513" s="81" t="s">
+      <c r="I513" s="5" t="s">
         <v>1895</v>
       </c>
-      <c r="J513" s="81" t="s">
+      <c r="J513" s="5" t="s">
         <v>1898</v>
       </c>
-      <c r="L513" s="81">
+      <c r="L513" s="5">
         <v>-33</v>
       </c>
-      <c r="M513" s="81">
-        <v>0</v>
-      </c>
-      <c r="N513" s="81">
-        <v>0</v>
-      </c>
-      <c r="O513" s="81" t="s">
+      <c r="M513" s="5">
+        <v>0</v>
+      </c>
+      <c r="N513" s="5">
+        <v>0</v>
+      </c>
+      <c r="O513" s="5" t="s">
         <v>1880</v>
       </c>
-      <c r="P513" s="81">
+      <c r="P513" s="5">
         <v>19800</v>
       </c>
-      <c r="Q513" s="81" t="s">
+      <c r="Q513" s="5" t="s">
         <v>1882</v>
       </c>
-      <c r="R513" s="82" t="s">
+      <c r="R513" s="10" t="s">
         <v>1885</v>
       </c>
-      <c r="W513" s="81" t="s">
+      <c r="W513" s="5" t="s">
         <v>1899</v>
       </c>
-      <c r="X513" s="81">
+      <c r="X513" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y513" s="81">
+      <c r="Y513" s="5">
         <v>1610409600</v>
       </c>
-      <c r="Z513" s="81">
+      <c r="Z513" s="5">
         <v>1610985599</v>
       </c>
-      <c r="AA513" s="81">
+      <c r="AA513" s="5">
         <v>68</v>
       </c>
-      <c r="AH513" s="81">
-        <v>1</v>
-      </c>
-      <c r="AI513" s="81">
-        <v>1</v>
-      </c>
-      <c r="AL513" s="81">
-        <v>1</v>
-      </c>
-      <c r="AM513" s="81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="514" spans="1:39" s="81" customFormat="1">
+      <c r="AH513" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI513" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL513" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM513" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:39" s="5" customFormat="1">
       <c r="A514" s="5">
         <v>513</v>
       </c>
       <c r="B514" s="5">
         <v>10430</v>
       </c>
-      <c r="F514" s="81">
-        <v>1</v>
-      </c>
-      <c r="G514" s="81" t="s">
+      <c r="F514" s="5">
+        <v>1</v>
+      </c>
+      <c r="G514" s="5" t="s">
         <v>1876</v>
       </c>
-      <c r="I514" s="81" t="s">
+      <c r="I514" s="5" t="s">
         <v>1877</v>
       </c>
-      <c r="J514" s="81" t="s">
+      <c r="J514" s="5" t="s">
         <v>1879</v>
       </c>
-      <c r="L514" s="81">
+      <c r="L514" s="5">
         <v>-33</v>
       </c>
-      <c r="M514" s="81">
-        <v>0</v>
-      </c>
-      <c r="N514" s="81">
-        <v>0</v>
-      </c>
-      <c r="O514" s="81" t="s">
+      <c r="M514" s="5">
+        <v>0</v>
+      </c>
+      <c r="N514" s="5">
+        <v>0</v>
+      </c>
+      <c r="O514" s="5" t="s">
         <v>1880</v>
       </c>
-      <c r="P514" s="81">
+      <c r="P514" s="5">
         <v>9800</v>
       </c>
-      <c r="Q514" s="81" t="s">
+      <c r="Q514" s="5" t="s">
         <v>1883</v>
       </c>
-      <c r="R514" s="82" t="s">
+      <c r="R514" s="10" t="s">
         <v>1886</v>
       </c>
-      <c r="W514" s="81" t="s">
+      <c r="W514" s="5" t="s">
         <v>1897</v>
       </c>
-      <c r="X514" s="81">
+      <c r="X514" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y514" s="81">
+      <c r="Y514" s="5">
         <v>1610409600</v>
       </c>
-      <c r="Z514" s="81">
+      <c r="Z514" s="5">
         <v>1610985599</v>
       </c>
-      <c r="AA514" s="81">
+      <c r="AA514" s="5">
         <v>68</v>
       </c>
-      <c r="AH514" s="81">
-        <v>1</v>
-      </c>
-      <c r="AI514" s="81">
-        <v>1</v>
-      </c>
-      <c r="AL514" s="81">
-        <v>1</v>
-      </c>
-      <c r="AM514" s="81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="515" spans="1:39" s="81" customFormat="1">
+      <c r="AH514" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI514" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL514" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM514" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:39" s="5" customFormat="1">
       <c r="A515" s="5">
         <v>514</v>
       </c>
       <c r="B515" s="5">
         <v>10431</v>
       </c>
-      <c r="F515" s="81">
-        <v>1</v>
-      </c>
-      <c r="G515" s="81" t="s">
+      <c r="F515" s="5">
+        <v>1</v>
+      </c>
+      <c r="G515" s="5" t="s">
         <v>1876</v>
       </c>
-      <c r="I515" s="81" t="s">
+      <c r="I515" s="5" t="s">
         <v>1877</v>
       </c>
-      <c r="J515" s="81" t="s">
+      <c r="J515" s="5" t="s">
         <v>1878</v>
       </c>
-      <c r="L515" s="81">
+      <c r="L515" s="5">
         <v>-33</v>
       </c>
-      <c r="M515" s="81">
-        <v>0</v>
-      </c>
-      <c r="N515" s="81">
-        <v>0</v>
-      </c>
-      <c r="O515" s="81" t="s">
+      <c r="M515" s="5">
+        <v>0</v>
+      </c>
+      <c r="N515" s="5">
+        <v>0</v>
+      </c>
+      <c r="O515" s="5" t="s">
         <v>1880</v>
       </c>
-      <c r="P515" s="81">
+      <c r="P515" s="5">
         <v>4800</v>
       </c>
-      <c r="Q515" s="81" t="s">
+      <c r="Q515" s="5" t="s">
         <v>1900</v>
       </c>
-      <c r="R515" s="82" t="s">
+      <c r="R515" s="10" t="s">
         <v>1887</v>
       </c>
-      <c r="W515" s="81" t="s">
+      <c r="W515" s="5" t="s">
         <v>1897</v>
       </c>
-      <c r="X515" s="81">
+      <c r="X515" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y515" s="81">
+      <c r="Y515" s="5">
         <v>1610409600</v>
       </c>
-      <c r="Z515" s="81">
+      <c r="Z515" s="5">
         <v>1610985599</v>
       </c>
-      <c r="AA515" s="81">
+      <c r="AA515" s="5">
         <v>68</v>
       </c>
-      <c r="AH515" s="81">
-        <v>1</v>
-      </c>
-      <c r="AI515" s="81">
-        <v>1</v>
-      </c>
-      <c r="AL515" s="81">
-        <v>1</v>
-      </c>
-      <c r="AM515" s="81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="516" spans="1:39" s="81" customFormat="1">
+      <c r="AH515" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI515" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL515" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM515" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:39" s="5" customFormat="1">
       <c r="A516" s="5">
         <v>515</v>
       </c>
       <c r="B516" s="5">
         <v>10432</v>
       </c>
-      <c r="F516" s="81">
-        <v>1</v>
-      </c>
-      <c r="G516" s="81" t="s">
+      <c r="F516" s="5">
+        <v>1</v>
+      </c>
+      <c r="G516" s="5" t="s">
         <v>1894</v>
       </c>
-      <c r="I516" s="81" t="s">
+      <c r="I516" s="5" t="s">
         <v>1901</v>
       </c>
-      <c r="J516" s="81" t="s">
+      <c r="J516" s="5" t="s">
         <v>1902</v>
       </c>
-      <c r="L516" s="81">
+      <c r="L516" s="5">
         <v>-33</v>
       </c>
-      <c r="M516" s="81">
-        <v>0</v>
-      </c>
-      <c r="N516" s="81">
-        <v>0</v>
-      </c>
-      <c r="O516" s="81" t="s">
+      <c r="M516" s="5">
+        <v>0</v>
+      </c>
+      <c r="N516" s="5">
+        <v>0</v>
+      </c>
+      <c r="O516" s="5" t="s">
         <v>1903</v>
       </c>
-      <c r="P516" s="81">
+      <c r="P516" s="5">
         <v>49800</v>
       </c>
-      <c r="Q516" s="81" t="s">
+      <c r="Q516" s="5" t="s">
         <v>1904</v>
       </c>
-      <c r="R516" s="82" t="s">
+      <c r="R516" s="10" t="s">
         <v>1905</v>
       </c>
-      <c r="W516" s="81" t="s">
+      <c r="W516" s="5" t="s">
         <v>1897</v>
       </c>
-      <c r="X516" s="81">
+      <c r="X516" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y516" s="81">
+      <c r="Y516" s="5">
         <v>1610409600</v>
       </c>
-      <c r="Z516" s="81">
+      <c r="Z516" s="5">
         <v>1610985599</v>
       </c>
-      <c r="AA516" s="81">
+      <c r="AA516" s="5">
         <v>69</v>
       </c>
-      <c r="AH516" s="81">
-        <v>1</v>
-      </c>
-      <c r="AI516" s="81">
-        <v>1</v>
-      </c>
-      <c r="AL516" s="81">
-        <v>1</v>
-      </c>
-      <c r="AM516" s="81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="517" spans="1:39" s="81" customFormat="1">
+      <c r="AH516" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI516" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL516" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM516" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:39" s="5" customFormat="1">
       <c r="A517" s="5">
         <v>516</v>
       </c>
       <c r="B517" s="5">
         <v>10433</v>
       </c>
-      <c r="F517" s="81">
-        <v>1</v>
-      </c>
-      <c r="G517" s="81" t="s">
+      <c r="F517" s="5">
+        <v>1</v>
+      </c>
+      <c r="G517" s="5" t="s">
         <v>1876</v>
       </c>
-      <c r="I517" s="81" t="s">
+      <c r="I517" s="5" t="s">
         <v>1901</v>
       </c>
-      <c r="J517" s="81" t="s">
+      <c r="J517" s="5" t="s">
         <v>1906</v>
       </c>
-      <c r="L517" s="81">
+      <c r="L517" s="5">
         <v>-33</v>
       </c>
-      <c r="M517" s="81">
-        <v>0</v>
-      </c>
-      <c r="N517" s="81">
-        <v>0</v>
-      </c>
-      <c r="O517" s="81" t="s">
+      <c r="M517" s="5">
+        <v>0</v>
+      </c>
+      <c r="N517" s="5">
+        <v>0</v>
+      </c>
+      <c r="O517" s="5" t="s">
         <v>1903</v>
       </c>
-      <c r="P517" s="81">
+      <c r="P517" s="5">
         <v>19800</v>
       </c>
-      <c r="Q517" s="81" t="s">
+      <c r="Q517" s="5" t="s">
         <v>1904</v>
       </c>
-      <c r="R517" s="82" t="s">
+      <c r="R517" s="10" t="s">
         <v>1907</v>
       </c>
-      <c r="W517" s="81" t="s">
+      <c r="W517" s="5" t="s">
         <v>1897</v>
       </c>
-      <c r="X517" s="81">
+      <c r="X517" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y517" s="81">
+      <c r="Y517" s="5">
         <v>1610409600</v>
       </c>
-      <c r="Z517" s="81">
+      <c r="Z517" s="5">
         <v>1610985599</v>
       </c>
-      <c r="AA517" s="81">
+      <c r="AA517" s="5">
         <v>69</v>
       </c>
-      <c r="AH517" s="81">
-        <v>1</v>
-      </c>
-      <c r="AI517" s="81">
-        <v>1</v>
-      </c>
-      <c r="AL517" s="81">
-        <v>1</v>
-      </c>
-      <c r="AM517" s="81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="518" spans="1:39" s="81" customFormat="1">
+      <c r="AH517" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI517" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL517" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM517" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:39" s="5" customFormat="1">
       <c r="A518" s="5">
         <v>517</v>
       </c>
       <c r="B518" s="5">
         <v>10434</v>
       </c>
-      <c r="F518" s="81">
-        <v>1</v>
-      </c>
-      <c r="G518" s="81" t="s">
+      <c r="F518" s="5">
+        <v>1</v>
+      </c>
+      <c r="G518" s="5" t="s">
         <v>1894</v>
       </c>
-      <c r="I518" s="81" t="s">
+      <c r="I518" s="5" t="s">
         <v>1901</v>
       </c>
-      <c r="J518" s="81" t="s">
+      <c r="J518" s="5" t="s">
         <v>1908</v>
       </c>
-      <c r="L518" s="81">
+      <c r="L518" s="5">
         <v>-33</v>
       </c>
-      <c r="M518" s="81">
-        <v>0</v>
-      </c>
-      <c r="N518" s="81">
-        <v>0</v>
-      </c>
-      <c r="O518" s="81" t="s">
+      <c r="M518" s="5">
+        <v>0</v>
+      </c>
+      <c r="N518" s="5">
+        <v>0</v>
+      </c>
+      <c r="O518" s="5" t="s">
         <v>1880</v>
       </c>
-      <c r="P518" s="81">
+      <c r="P518" s="5">
         <v>9800</v>
       </c>
-      <c r="Q518" s="81" t="s">
+      <c r="Q518" s="5" t="s">
         <v>1890</v>
       </c>
-      <c r="R518" s="82" t="s">
+      <c r="R518" s="10" t="s">
         <v>1891</v>
       </c>
-      <c r="W518" s="81" t="s">
+      <c r="W518" s="5" t="s">
         <v>1897</v>
       </c>
-      <c r="X518" s="81">
+      <c r="X518" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y518" s="81">
+      <c r="Y518" s="5">
         <v>1610409600</v>
       </c>
-      <c r="Z518" s="81">
+      <c r="Z518" s="5">
         <v>1610985599</v>
       </c>
-      <c r="AA518" s="81">
+      <c r="AA518" s="5">
         <v>69</v>
       </c>
-      <c r="AH518" s="81">
-        <v>1</v>
-      </c>
-      <c r="AI518" s="81">
-        <v>1</v>
-      </c>
-      <c r="AL518" s="81">
-        <v>1</v>
-      </c>
-      <c r="AM518" s="81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="519" spans="1:39" s="81" customFormat="1">
+      <c r="AH518" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI518" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL518" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM518" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:39" s="5" customFormat="1">
       <c r="A519" s="5">
         <v>518</v>
       </c>
       <c r="B519" s="5">
         <v>10435</v>
       </c>
-      <c r="F519" s="81">
-        <v>1</v>
-      </c>
-      <c r="G519" s="81" t="s">
+      <c r="F519" s="5">
+        <v>1</v>
+      </c>
+      <c r="G519" s="5" t="s">
         <v>1876</v>
       </c>
-      <c r="I519" s="81" t="s">
+      <c r="I519" s="5" t="s">
         <v>1913</v>
       </c>
-      <c r="J519" s="81" t="s">
+      <c r="J519" s="5" t="s">
         <v>1909</v>
       </c>
-      <c r="L519" s="81">
+      <c r="L519" s="5">
         <v>-33</v>
       </c>
-      <c r="M519" s="81">
-        <v>0</v>
-      </c>
-      <c r="N519" s="81">
-        <v>0</v>
-      </c>
-      <c r="O519" s="81" t="s">
+      <c r="M519" s="5">
+        <v>0</v>
+      </c>
+      <c r="N519" s="5">
+        <v>0</v>
+      </c>
+      <c r="O519" s="5" t="s">
         <v>1880</v>
       </c>
-      <c r="P519" s="81">
+      <c r="P519" s="5">
         <v>4800</v>
       </c>
-      <c r="Q519" s="81" t="s">
+      <c r="Q519" s="5" t="s">
         <v>1910</v>
       </c>
-      <c r="R519" s="82" t="s">
+      <c r="R519" s="10" t="s">
         <v>1911</v>
       </c>
-      <c r="W519" s="81" t="s">
+      <c r="W519" s="5" t="s">
         <v>1179</v>
       </c>
-      <c r="X519" s="81">
+      <c r="X519" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y519" s="81">
+      <c r="Y519" s="5">
         <v>1610409600</v>
       </c>
-      <c r="Z519" s="81">
+      <c r="Z519" s="5">
         <v>1610985599</v>
       </c>
-      <c r="AA519" s="81">
+      <c r="AA519" s="5">
         <v>69</v>
       </c>
-      <c r="AH519" s="81">
-        <v>1</v>
-      </c>
-      <c r="AI519" s="81">
-        <v>1</v>
-      </c>
-      <c r="AL519" s="81">
-        <v>1</v>
-      </c>
-      <c r="AM519" s="81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="520" spans="1:39" s="59" customFormat="1">
+      <c r="AH519" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI519" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL519" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM519" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:39" s="5" customFormat="1">
       <c r="A520" s="5">
         <v>519</v>
       </c>
       <c r="B520" s="5">
         <v>10436</v>
       </c>
-      <c r="F520" s="59">
-        <v>1</v>
-      </c>
-      <c r="G520" s="59" t="s">
+      <c r="F520" s="5">
+        <v>1</v>
+      </c>
+      <c r="G520" s="5" t="s">
         <v>1912</v>
       </c>
-      <c r="I520" s="59" t="s">
+      <c r="I520" s="5" t="s">
         <v>1914</v>
       </c>
-      <c r="J520" s="59" t="s">
+      <c r="J520" s="5" t="s">
         <v>1915</v>
       </c>
-      <c r="L520" s="59">
+      <c r="L520" s="5">
         <v>-23</v>
       </c>
-      <c r="M520" s="59">
-        <v>1</v>
-      </c>
-      <c r="N520" s="59">
-        <v>0</v>
-      </c>
-      <c r="O520" s="59" t="s">
+      <c r="M520" s="5">
+        <v>1</v>
+      </c>
+      <c r="N520" s="5">
+        <v>0</v>
+      </c>
+      <c r="O520" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P520" s="59">
+      <c r="P520" s="5">
         <v>1000</v>
       </c>
-      <c r="Q520" s="59" t="s">
+      <c r="Q520" s="5" t="s">
         <v>1916</v>
       </c>
-      <c r="R520" s="60" t="s">
+      <c r="R520" s="10" t="s">
         <v>1917</v>
       </c>
-      <c r="S520" s="59" t="s">
+      <c r="S520" s="5" t="s">
         <v>1919</v>
       </c>
-      <c r="W520" s="59" t="s">
+      <c r="W520" s="5" t="s">
         <v>1920</v>
       </c>
-      <c r="X520" s="59">
+      <c r="X520" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y520" s="59">
-        <v>0</v>
-      </c>
-      <c r="Z520" s="59">
+      <c r="Y520" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z520" s="5">
         <v>2552233600</v>
       </c>
-      <c r="AH520" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI520" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="521" spans="1:39" s="85" customFormat="1">
+      <c r="AH520" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI520" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:39" s="75" customFormat="1">
       <c r="A521" s="5">
         <v>520</v>
       </c>
       <c r="B521" s="5">
         <v>10437</v>
       </c>
-      <c r="F521" s="85">
-        <v>1</v>
-      </c>
-      <c r="G521" s="85" t="s">
+      <c r="F521" s="75">
+        <v>1</v>
+      </c>
+      <c r="G521" s="75" t="s">
         <v>1921</v>
       </c>
-      <c r="I521" s="85" t="s">
+      <c r="I521" s="75" t="s">
         <v>1925</v>
       </c>
-      <c r="J521" s="85" t="s">
+      <c r="J521" s="75" t="s">
         <v>1928</v>
       </c>
-      <c r="L521" s="85">
+      <c r="L521" s="75">
         <v>-33</v>
       </c>
-      <c r="M521" s="85">
-        <v>0</v>
-      </c>
-      <c r="N521" s="85">
-        <v>0</v>
-      </c>
-      <c r="O521" s="85" t="s">
+      <c r="M521" s="75">
+        <v>0</v>
+      </c>
+      <c r="N521" s="75">
+        <v>0</v>
+      </c>
+      <c r="O521" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P521" s="85">
+      <c r="P521" s="75">
         <v>600</v>
       </c>
-      <c r="Q521" s="85" t="s">
+      <c r="Q521" s="75" t="s">
         <v>1942</v>
       </c>
-      <c r="R521" s="86" t="s">
+      <c r="R521" s="76" t="s">
         <v>1946</v>
       </c>
-      <c r="W521" s="85" t="s">
+      <c r="W521" s="75" t="s">
         <v>1958</v>
       </c>
-      <c r="X521" s="85">
+      <c r="X521" s="75">
         <v>99999999</v>
       </c>
-      <c r="Y521" s="85">
+      <c r="Y521" s="75">
         <v>1611014400</v>
       </c>
-      <c r="Z521" s="85">
+      <c r="Z521" s="75">
         <v>1611590399</v>
       </c>
-      <c r="AA521" s="85">
+      <c r="AA521" s="75">
         <v>70</v>
       </c>
-      <c r="AH521" s="85">
-        <v>1</v>
-      </c>
-      <c r="AI521" s="85">
-        <v>1</v>
-      </c>
-      <c r="AL521" s="85">
-        <v>1</v>
-      </c>
-      <c r="AM521" s="85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="522" spans="1:39" s="85" customFormat="1">
+      <c r="AH521" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI521" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL521" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM521" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:39" s="75" customFormat="1">
       <c r="A522" s="5">
         <v>521</v>
       </c>
       <c r="B522" s="5">
         <v>10438</v>
       </c>
-      <c r="F522" s="85">
-        <v>1</v>
-      </c>
-      <c r="G522" s="85" t="s">
+      <c r="F522" s="75">
+        <v>1</v>
+      </c>
+      <c r="G522" s="75" t="s">
         <v>1922</v>
       </c>
-      <c r="I522" s="85" t="s">
+      <c r="I522" s="75" t="s">
         <v>1925</v>
       </c>
-      <c r="J522" s="85" t="s">
+      <c r="J522" s="75" t="s">
         <v>1930</v>
       </c>
-      <c r="L522" s="85">
+      <c r="L522" s="75">
         <v>-33</v>
       </c>
-      <c r="M522" s="85">
-        <v>0</v>
-      </c>
-      <c r="N522" s="85">
-        <v>0</v>
-      </c>
-      <c r="O522" s="85" t="s">
+      <c r="M522" s="75">
+        <v>0</v>
+      </c>
+      <c r="N522" s="75">
+        <v>0</v>
+      </c>
+      <c r="O522" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P522" s="85">
+      <c r="P522" s="75">
         <v>1000</v>
       </c>
-      <c r="Q522" s="85" t="s">
+      <c r="Q522" s="75" t="s">
         <v>1943</v>
       </c>
-      <c r="R522" s="86" t="s">
+      <c r="R522" s="76" t="s">
         <v>1947</v>
       </c>
-      <c r="W522" s="85" t="s">
+      <c r="W522" s="75" t="s">
         <v>1200</v>
       </c>
-      <c r="X522" s="85">
+      <c r="X522" s="75">
         <v>99999999</v>
       </c>
-      <c r="Y522" s="85">
+      <c r="Y522" s="75">
         <v>1611014400</v>
       </c>
-      <c r="Z522" s="85">
+      <c r="Z522" s="75">
         <v>1611590399</v>
       </c>
-      <c r="AA522" s="85">
+      <c r="AA522" s="75">
         <v>70</v>
       </c>
-      <c r="AH522" s="85">
-        <v>1</v>
-      </c>
-      <c r="AI522" s="85">
-        <v>1</v>
-      </c>
-      <c r="AL522" s="85">
-        <v>1</v>
-      </c>
-      <c r="AM522" s="85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="523" spans="1:39" s="85" customFormat="1">
+      <c r="AH522" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI522" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL522" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM522" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:39" s="75" customFormat="1">
       <c r="A523" s="5">
         <v>522</v>
       </c>
       <c r="B523" s="5">
         <v>10439</v>
       </c>
-      <c r="F523" s="85">
-        <v>1</v>
-      </c>
-      <c r="G523" s="85" t="s">
+      <c r="F523" s="75">
+        <v>1</v>
+      </c>
+      <c r="G523" s="75" t="s">
         <v>1923</v>
       </c>
-      <c r="I523" s="85" t="s">
+      <c r="I523" s="75" t="s">
         <v>1925</v>
       </c>
-      <c r="J523" s="85" t="s">
+      <c r="J523" s="75" t="s">
         <v>1931</v>
       </c>
-      <c r="L523" s="85">
+      <c r="L523" s="75">
         <v>-33</v>
       </c>
-      <c r="M523" s="85">
-        <v>0</v>
-      </c>
-      <c r="N523" s="85">
-        <v>0</v>
-      </c>
-      <c r="O523" s="85" t="s">
+      <c r="M523" s="75">
+        <v>0</v>
+      </c>
+      <c r="N523" s="75">
+        <v>0</v>
+      </c>
+      <c r="O523" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P523" s="85">
+      <c r="P523" s="75">
         <v>1800</v>
       </c>
-      <c r="Q523" s="85" t="s">
+      <c r="Q523" s="75" t="s">
         <v>1944</v>
       </c>
-      <c r="R523" s="86" t="s">
+      <c r="R523" s="76" t="s">
         <v>1948</v>
       </c>
-      <c r="W523" s="85" t="s">
+      <c r="W523" s="75" t="s">
         <v>1200</v>
       </c>
-      <c r="X523" s="85">
+      <c r="X523" s="75">
         <v>99999999</v>
       </c>
-      <c r="Y523" s="85">
+      <c r="Y523" s="75">
         <v>1611014400</v>
       </c>
-      <c r="Z523" s="85">
+      <c r="Z523" s="75">
         <v>1611590399</v>
       </c>
-      <c r="AA523" s="85">
+      <c r="AA523" s="75">
         <v>70</v>
       </c>
-      <c r="AH523" s="85">
-        <v>1</v>
-      </c>
-      <c r="AI523" s="85">
-        <v>1</v>
-      </c>
-      <c r="AL523" s="85">
-        <v>1</v>
-      </c>
-      <c r="AM523" s="85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="524" spans="1:39" s="85" customFormat="1">
+      <c r="AH523" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI523" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL523" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM523" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:39" s="75" customFormat="1">
       <c r="A524" s="5">
         <v>523</v>
       </c>
       <c r="B524" s="5">
         <v>10440</v>
       </c>
-      <c r="F524" s="85">
-        <v>1</v>
-      </c>
-      <c r="G524" s="85" t="s">
+      <c r="F524" s="75">
+        <v>1</v>
+      </c>
+      <c r="G524" s="75" t="s">
         <v>1924</v>
       </c>
-      <c r="I524" s="85" t="s">
+      <c r="I524" s="75" t="s">
         <v>1925</v>
       </c>
-      <c r="J524" s="85" t="s">
+      <c r="J524" s="75" t="s">
         <v>1932</v>
       </c>
-      <c r="L524" s="85">
+      <c r="L524" s="75">
         <v>-33</v>
       </c>
-      <c r="M524" s="85">
-        <v>0</v>
-      </c>
-      <c r="N524" s="85">
-        <v>0</v>
-      </c>
-      <c r="O524" s="85" t="s">
+      <c r="M524" s="75">
+        <v>0</v>
+      </c>
+      <c r="N524" s="75">
+        <v>0</v>
+      </c>
+      <c r="O524" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P524" s="85">
+      <c r="P524" s="75">
         <v>4800</v>
       </c>
-      <c r="Q524" s="85" t="s">
+      <c r="Q524" s="75" t="s">
         <v>1945</v>
       </c>
-      <c r="R524" s="86" t="s">
+      <c r="R524" s="76" t="s">
         <v>1949</v>
       </c>
-      <c r="W524" s="85" t="s">
+      <c r="W524" s="75" t="s">
         <v>1200</v>
       </c>
-      <c r="X524" s="85">
+      <c r="X524" s="75">
         <v>99999999</v>
       </c>
-      <c r="Y524" s="85">
+      <c r="Y524" s="75">
         <v>1611014400</v>
       </c>
-      <c r="Z524" s="85">
+      <c r="Z524" s="75">
         <v>1611590399</v>
       </c>
-      <c r="AA524" s="85">
+      <c r="AA524" s="75">
         <v>70</v>
       </c>
-      <c r="AH524" s="85">
-        <v>1</v>
-      </c>
-      <c r="AI524" s="85">
-        <v>1</v>
-      </c>
-      <c r="AL524" s="85">
-        <v>1</v>
-      </c>
-      <c r="AM524" s="85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="525" spans="1:39" s="78" customFormat="1">
+      <c r="AH524" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI524" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL524" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM524" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:39" s="70" customFormat="1">
       <c r="A525" s="5">
         <v>524</v>
       </c>
       <c r="B525" s="5">
         <v>10441</v>
       </c>
-      <c r="F525" s="78">
-        <v>1</v>
-      </c>
-      <c r="G525" s="78" t="s">
+      <c r="F525" s="70">
+        <v>1</v>
+      </c>
+      <c r="G525" s="70" t="s">
         <v>1921</v>
       </c>
-      <c r="I525" s="78" t="s">
+      <c r="I525" s="70" t="s">
         <v>1926</v>
       </c>
-      <c r="J525" s="78" t="s">
+      <c r="J525" s="70" t="s">
         <v>1929</v>
       </c>
-      <c r="L525" s="78">
+      <c r="L525" s="70">
         <v>-33</v>
       </c>
-      <c r="M525" s="78">
-        <v>0</v>
-      </c>
-      <c r="N525" s="78">
-        <v>0</v>
-      </c>
-      <c r="O525" s="78" t="s">
+      <c r="M525" s="70">
+        <v>0</v>
+      </c>
+      <c r="N525" s="70">
+        <v>0</v>
+      </c>
+      <c r="O525" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="P525" s="78">
+      <c r="P525" s="70">
         <v>1800</v>
       </c>
-      <c r="Q525" s="78" t="s">
+      <c r="Q525" s="70" t="s">
         <v>1942</v>
       </c>
-      <c r="R525" s="79" t="s">
+      <c r="R525" s="71" t="s">
         <v>1955</v>
       </c>
-      <c r="W525" s="78" t="s">
+      <c r="W525" s="70" t="s">
         <v>1200</v>
       </c>
-      <c r="X525" s="78">
+      <c r="X525" s="70">
         <v>99999999</v>
       </c>
-      <c r="Y525" s="78">
+      <c r="Y525" s="70">
         <v>1611014400</v>
       </c>
-      <c r="Z525" s="78">
+      <c r="Z525" s="70">
         <v>1611590399</v>
       </c>
-      <c r="AA525" s="78">
+      <c r="AA525" s="70">
         <v>71</v>
       </c>
-      <c r="AH525" s="78">
-        <v>1</v>
-      </c>
-      <c r="AI525" s="78">
-        <v>1</v>
-      </c>
-      <c r="AL525" s="78">
-        <v>1</v>
-      </c>
-      <c r="AM525" s="78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="526" spans="1:39" s="78" customFormat="1">
+      <c r="AH525" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI525" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL525" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM525" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:39" s="70" customFormat="1">
       <c r="A526" s="5">
         <v>525</v>
       </c>
       <c r="B526" s="5">
         <v>10442</v>
       </c>
-      <c r="F526" s="78">
-        <v>1</v>
-      </c>
-      <c r="G526" s="78" t="s">
+      <c r="F526" s="70">
+        <v>1</v>
+      </c>
+      <c r="G526" s="70" t="s">
         <v>1922</v>
       </c>
-      <c r="I526" s="78" t="s">
+      <c r="I526" s="70" t="s">
         <v>1926</v>
       </c>
-      <c r="J526" s="78" t="s">
+      <c r="J526" s="70" t="s">
         <v>1933</v>
       </c>
-      <c r="L526" s="78">
+      <c r="L526" s="70">
         <v>-33</v>
       </c>
-      <c r="M526" s="78">
-        <v>0</v>
-      </c>
-      <c r="N526" s="78">
-        <v>0</v>
-      </c>
-      <c r="O526" s="78" t="s">
+      <c r="M526" s="70">
+        <v>0</v>
+      </c>
+      <c r="N526" s="70">
+        <v>0</v>
+      </c>
+      <c r="O526" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="P526" s="78">
+      <c r="P526" s="70">
         <v>4800</v>
       </c>
-      <c r="Q526" s="78" t="s">
+      <c r="Q526" s="70" t="s">
         <v>1943</v>
       </c>
-      <c r="R526" s="79" t="s">
+      <c r="R526" s="71" t="s">
         <v>1956</v>
       </c>
-      <c r="W526" s="78" t="s">
+      <c r="W526" s="70" t="s">
         <v>1200</v>
       </c>
-      <c r="X526" s="78">
+      <c r="X526" s="70">
         <v>99999999</v>
       </c>
-      <c r="Y526" s="78">
+      <c r="Y526" s="70">
         <v>1611014400</v>
       </c>
-      <c r="Z526" s="78">
+      <c r="Z526" s="70">
         <v>1611590399</v>
       </c>
-      <c r="AA526" s="78">
+      <c r="AA526" s="70">
         <v>71</v>
       </c>
-      <c r="AH526" s="78">
-        <v>1</v>
-      </c>
-      <c r="AI526" s="78">
-        <v>1</v>
-      </c>
-      <c r="AL526" s="78">
-        <v>1</v>
-      </c>
-      <c r="AM526" s="78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="527" spans="1:39" s="78" customFormat="1">
+      <c r="AH526" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI526" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL526" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM526" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:39" s="70" customFormat="1">
       <c r="A527" s="5">
         <v>526</v>
       </c>
       <c r="B527" s="5">
         <v>10443</v>
       </c>
-      <c r="F527" s="78">
-        <v>1</v>
-      </c>
-      <c r="G527" s="78" t="s">
+      <c r="F527" s="70">
+        <v>1</v>
+      </c>
+      <c r="G527" s="70" t="s">
         <v>1923</v>
       </c>
-      <c r="I527" s="78" t="s">
+      <c r="I527" s="70" t="s">
         <v>1926</v>
       </c>
-      <c r="J527" s="78" t="s">
+      <c r="J527" s="70" t="s">
         <v>1934</v>
       </c>
-      <c r="L527" s="78">
+      <c r="L527" s="70">
         <v>-33</v>
       </c>
-      <c r="M527" s="78">
-        <v>0</v>
-      </c>
-      <c r="N527" s="78">
-        <v>0</v>
-      </c>
-      <c r="O527" s="78" t="s">
+      <c r="M527" s="70">
+        <v>0</v>
+      </c>
+      <c r="N527" s="70">
+        <v>0</v>
+      </c>
+      <c r="O527" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="P527" s="78">
+      <c r="P527" s="70">
         <v>9800</v>
       </c>
-      <c r="Q527" s="78" t="s">
+      <c r="Q527" s="70" t="s">
         <v>1944</v>
       </c>
-      <c r="R527" s="79" t="s">
+      <c r="R527" s="71" t="s">
         <v>1957</v>
       </c>
-      <c r="W527" s="78" t="s">
+      <c r="W527" s="70" t="s">
         <v>1200</v>
       </c>
-      <c r="X527" s="78">
+      <c r="X527" s="70">
         <v>99999999</v>
       </c>
-      <c r="Y527" s="78">
+      <c r="Y527" s="70">
         <v>1611014400</v>
       </c>
-      <c r="Z527" s="78">
+      <c r="Z527" s="70">
         <v>1611590399</v>
       </c>
-      <c r="AA527" s="78">
+      <c r="AA527" s="70">
         <v>71</v>
       </c>
-      <c r="AH527" s="78">
-        <v>1</v>
-      </c>
-      <c r="AI527" s="78">
-        <v>1</v>
-      </c>
-      <c r="AL527" s="78">
-        <v>1</v>
-      </c>
-      <c r="AM527" s="78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="528" spans="1:39" s="78" customFormat="1">
+      <c r="AH527" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI527" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL527" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM527" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:39" s="70" customFormat="1">
       <c r="A528" s="5">
         <v>527</v>
       </c>
       <c r="B528" s="5">
         <v>10444</v>
       </c>
-      <c r="F528" s="78">
-        <v>1</v>
-      </c>
-      <c r="G528" s="78" t="s">
+      <c r="F528" s="70">
+        <v>1</v>
+      </c>
+      <c r="G528" s="70" t="s">
         <v>1924</v>
       </c>
-      <c r="I528" s="78" t="s">
+      <c r="I528" s="70" t="s">
         <v>1926</v>
       </c>
-      <c r="J528" s="78" t="s">
+      <c r="J528" s="70" t="s">
         <v>1935</v>
       </c>
-      <c r="L528" s="78">
+      <c r="L528" s="70">
         <v>-33</v>
       </c>
-      <c r="M528" s="78">
-        <v>0</v>
-      </c>
-      <c r="N528" s="78">
-        <v>0</v>
-      </c>
-      <c r="O528" s="78" t="s">
+      <c r="M528" s="70">
+        <v>0</v>
+      </c>
+      <c r="N528" s="70">
+        <v>0</v>
+      </c>
+      <c r="O528" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="P528" s="78">
+      <c r="P528" s="70">
         <v>19800</v>
       </c>
-      <c r="Q528" s="78" t="s">
+      <c r="Q528" s="70" t="s">
         <v>1945</v>
       </c>
-      <c r="R528" s="79" t="s">
+      <c r="R528" s="71" t="s">
         <v>1952</v>
       </c>
-      <c r="W528" s="78" t="s">
+      <c r="W528" s="70" t="s">
         <v>1200</v>
       </c>
-      <c r="X528" s="78">
+      <c r="X528" s="70">
         <v>99999999</v>
       </c>
-      <c r="Y528" s="78">
+      <c r="Y528" s="70">
         <v>1611014400</v>
       </c>
-      <c r="Z528" s="78">
+      <c r="Z528" s="70">
         <v>1611590399</v>
       </c>
-      <c r="AA528" s="78">
+      <c r="AA528" s="70">
         <v>71</v>
       </c>
-      <c r="AH528" s="78">
-        <v>1</v>
-      </c>
-      <c r="AI528" s="78">
-        <v>1</v>
-      </c>
-      <c r="AL528" s="78">
-        <v>1</v>
-      </c>
-      <c r="AM528" s="78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="529" spans="1:39" s="85" customFormat="1">
+      <c r="AH528" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI528" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL528" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM528" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:39" s="75" customFormat="1">
       <c r="A529" s="5">
         <v>528</v>
       </c>
       <c r="B529" s="5">
         <v>10445</v>
       </c>
-      <c r="F529" s="85">
-        <v>1</v>
-      </c>
-      <c r="G529" s="85" t="s">
+      <c r="F529" s="75">
+        <v>1</v>
+      </c>
+      <c r="G529" s="75" t="s">
         <v>1921</v>
       </c>
-      <c r="I529" s="85" t="s">
+      <c r="I529" s="75" t="s">
         <v>1927</v>
       </c>
-      <c r="J529" s="85" t="s">
+      <c r="J529" s="75" t="s">
         <v>1936</v>
       </c>
-      <c r="L529" s="85">
+      <c r="L529" s="75">
         <v>-33</v>
       </c>
-      <c r="M529" s="85">
-        <v>0</v>
-      </c>
-      <c r="N529" s="85">
-        <v>0</v>
-      </c>
-      <c r="O529" s="85" t="s">
+      <c r="M529" s="75">
+        <v>0</v>
+      </c>
+      <c r="N529" s="75">
+        <v>0</v>
+      </c>
+      <c r="O529" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P529" s="85">
+      <c r="P529" s="75">
         <v>4800</v>
       </c>
-      <c r="Q529" s="85" t="s">
+      <c r="Q529" s="75" t="s">
         <v>1942</v>
       </c>
-      <c r="R529" s="86" t="s">
+      <c r="R529" s="76" t="s">
         <v>1950</v>
       </c>
-      <c r="W529" s="85" t="s">
+      <c r="W529" s="75" t="s">
         <v>1200</v>
       </c>
-      <c r="X529" s="85">
+      <c r="X529" s="75">
         <v>99999999</v>
       </c>
-      <c r="Y529" s="85">
+      <c r="Y529" s="75">
         <v>1611014400</v>
       </c>
-      <c r="Z529" s="85">
+      <c r="Z529" s="75">
         <v>1611590399</v>
       </c>
-      <c r="AA529" s="85">
+      <c r="AA529" s="75">
         <v>72</v>
       </c>
-      <c r="AH529" s="85">
-        <v>1</v>
-      </c>
-      <c r="AI529" s="85">
-        <v>1</v>
-      </c>
-      <c r="AL529" s="85">
-        <v>1</v>
-      </c>
-      <c r="AM529" s="85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="530" spans="1:39" s="85" customFormat="1">
+      <c r="AH529" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI529" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL529" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM529" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:39" s="75" customFormat="1">
       <c r="A530" s="5">
         <v>529</v>
       </c>
       <c r="B530" s="5">
         <v>10446</v>
       </c>
-      <c r="F530" s="85">
-        <v>1</v>
-      </c>
-      <c r="G530" s="85" t="s">
+      <c r="F530" s="75">
+        <v>1</v>
+      </c>
+      <c r="G530" s="75" t="s">
         <v>1922</v>
       </c>
-      <c r="I530" s="85" t="s">
+      <c r="I530" s="75" t="s">
         <v>1927</v>
       </c>
-      <c r="J530" s="85" t="s">
+      <c r="J530" s="75" t="s">
         <v>1937</v>
       </c>
-      <c r="L530" s="85">
+      <c r="L530" s="75">
         <v>-33</v>
       </c>
-      <c r="M530" s="85">
-        <v>0</v>
-      </c>
-      <c r="N530" s="85">
-        <v>0</v>
-      </c>
-      <c r="O530" s="85" t="s">
+      <c r="M530" s="75">
+        <v>0</v>
+      </c>
+      <c r="N530" s="75">
+        <v>0</v>
+      </c>
+      <c r="O530" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P530" s="85">
+      <c r="P530" s="75">
         <v>9800</v>
       </c>
-      <c r="Q530" s="85" t="s">
+      <c r="Q530" s="75" t="s">
         <v>1943</v>
       </c>
-      <c r="R530" s="86" t="s">
+      <c r="R530" s="76" t="s">
         <v>1954</v>
       </c>
-      <c r="W530" s="85" t="s">
+      <c r="W530" s="75" t="s">
         <v>1200</v>
       </c>
-      <c r="X530" s="85">
+      <c r="X530" s="75">
         <v>99999999</v>
       </c>
-      <c r="Y530" s="85">
+      <c r="Y530" s="75">
         <v>1611014400</v>
       </c>
-      <c r="Z530" s="85">
+      <c r="Z530" s="75">
         <v>1611590399</v>
       </c>
-      <c r="AA530" s="85">
+      <c r="AA530" s="75">
         <v>72</v>
       </c>
-      <c r="AH530" s="85">
-        <v>1</v>
-      </c>
-      <c r="AI530" s="85">
-        <v>1</v>
-      </c>
-      <c r="AL530" s="85">
-        <v>1</v>
-      </c>
-      <c r="AM530" s="85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="531" spans="1:39" s="85" customFormat="1">
+      <c r="AH530" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI530" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL530" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM530" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:39" s="75" customFormat="1">
       <c r="A531" s="5">
         <v>530</v>
       </c>
       <c r="B531" s="5">
         <v>10447</v>
       </c>
-      <c r="F531" s="85">
-        <v>1</v>
-      </c>
-      <c r="G531" s="85" t="s">
+      <c r="F531" s="75">
+        <v>1</v>
+      </c>
+      <c r="G531" s="75" t="s">
         <v>1923</v>
       </c>
-      <c r="I531" s="85" t="s">
+      <c r="I531" s="75" t="s">
         <v>1927</v>
       </c>
-      <c r="J531" s="85" t="s">
+      <c r="J531" s="75" t="s">
         <v>1938</v>
       </c>
-      <c r="L531" s="85">
+      <c r="L531" s="75">
         <v>-33</v>
       </c>
-      <c r="M531" s="85">
-        <v>0</v>
-      </c>
-      <c r="N531" s="85">
-        <v>0</v>
-      </c>
-      <c r="O531" s="85" t="s">
+      <c r="M531" s="75">
+        <v>0</v>
+      </c>
+      <c r="N531" s="75">
+        <v>0</v>
+      </c>
+      <c r="O531" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P531" s="85">
+      <c r="P531" s="75">
         <v>19800</v>
       </c>
-      <c r="Q531" s="85" t="s">
+      <c r="Q531" s="75" t="s">
         <v>1944</v>
       </c>
-      <c r="R531" s="86" t="s">
+      <c r="R531" s="76" t="s">
         <v>1951</v>
       </c>
-      <c r="W531" s="85" t="s">
+      <c r="W531" s="75" t="s">
         <v>1200</v>
       </c>
-      <c r="X531" s="85">
+      <c r="X531" s="75">
         <v>99999999</v>
       </c>
-      <c r="Y531" s="85">
+      <c r="Y531" s="75">
         <v>1611014400</v>
       </c>
-      <c r="Z531" s="85">
+      <c r="Z531" s="75">
         <v>1611590399</v>
       </c>
-      <c r="AA531" s="85">
+      <c r="AA531" s="75">
         <v>72</v>
       </c>
-      <c r="AH531" s="85">
-        <v>1</v>
-      </c>
-      <c r="AI531" s="85">
-        <v>1</v>
-      </c>
-      <c r="AL531" s="85">
-        <v>1</v>
-      </c>
-      <c r="AM531" s="85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="532" spans="1:39" s="85" customFormat="1">
+      <c r="AH531" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI531" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL531" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM531" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:39" s="75" customFormat="1">
       <c r="A532" s="5">
         <v>531</v>
       </c>
       <c r="B532" s="5">
         <v>10448</v>
       </c>
-      <c r="F532" s="85">
-        <v>1</v>
-      </c>
-      <c r="G532" s="85" t="s">
+      <c r="F532" s="75">
+        <v>1</v>
+      </c>
+      <c r="G532" s="75" t="s">
         <v>1924</v>
       </c>
-      <c r="I532" s="85" t="s">
+      <c r="I532" s="75" t="s">
         <v>1927</v>
       </c>
-      <c r="J532" s="85" t="s">
+      <c r="J532" s="75" t="s">
         <v>1939</v>
       </c>
-      <c r="L532" s="85">
+      <c r="L532" s="75">
         <v>-33</v>
       </c>
-      <c r="M532" s="85">
-        <v>0</v>
-      </c>
-      <c r="N532" s="85">
-        <v>0</v>
-      </c>
-      <c r="O532" s="85" t="s">
+      <c r="M532" s="75">
+        <v>0</v>
+      </c>
+      <c r="N532" s="75">
+        <v>0</v>
+      </c>
+      <c r="O532" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P532" s="85">
+      <c r="P532" s="75">
         <v>49800</v>
       </c>
-      <c r="Q532" s="85" t="s">
+      <c r="Q532" s="75" t="s">
         <v>1945</v>
       </c>
-      <c r="R532" s="86" t="s">
+      <c r="R532" s="76" t="s">
         <v>1953</v>
       </c>
-      <c r="W532" s="85" t="s">
+      <c r="W532" s="75" t="s">
         <v>1200</v>
       </c>
-      <c r="X532" s="85">
+      <c r="X532" s="75">
         <v>99999999</v>
       </c>
-      <c r="Y532" s="85">
+      <c r="Y532" s="75">
         <v>1611014400</v>
       </c>
-      <c r="Z532" s="85">
+      <c r="Z532" s="75">
         <v>1611590399</v>
       </c>
-      <c r="AA532" s="85">
+      <c r="AA532" s="75">
         <v>72</v>
       </c>
-      <c r="AH532" s="85">
-        <v>1</v>
-      </c>
-      <c r="AI532" s="85">
-        <v>1</v>
-      </c>
-      <c r="AL532" s="85">
-        <v>1</v>
-      </c>
-      <c r="AM532" s="85">
+      <c r="AH532" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI532" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL532" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM532" s="75">
         <v>1</v>
       </c>
     </row>
@@ -45490,8 +45368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -46136,10 +46014,10 @@
       </c>
     </row>
     <row r="45" spans="1:6" s="12" customFormat="1">
-      <c r="A45" s="65">
+      <c r="A45" s="59">
         <v>44</v>
       </c>
-      <c r="B45" s="66" t="s">
+      <c r="B45" s="60" t="s">
         <v>1657</v>
       </c>
       <c r="C45" s="12">
@@ -46150,10 +46028,10 @@
       </c>
     </row>
     <row r="46" spans="1:6" s="12" customFormat="1">
-      <c r="A46" s="65">
+      <c r="A46" s="59">
         <v>45</v>
       </c>
-      <c r="B46" s="66" t="s">
+      <c r="B46" s="60" t="s">
         <v>1658</v>
       </c>
       <c r="C46" s="12">
@@ -46164,10 +46042,10 @@
       </c>
     </row>
     <row r="47" spans="1:6" s="12" customFormat="1">
-      <c r="A47" s="65">
+      <c r="A47" s="59">
         <v>46</v>
       </c>
-      <c r="B47" s="66" t="s">
+      <c r="B47" s="60" t="s">
         <v>1659</v>
       </c>
       <c r="C47" s="12">
@@ -46247,7 +46125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="56" customFormat="1">
+    <row r="53" spans="1:4" s="54" customFormat="1">
       <c r="A53" s="12">
         <v>52</v>
       </c>
@@ -46261,7 +46139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="56" customFormat="1">
+    <row r="54" spans="1:4" s="54" customFormat="1">
       <c r="A54" s="12">
         <v>53</v>
       </c>
@@ -46499,45 +46377,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" s="87" customFormat="1">
+    <row r="71" spans="1:4" s="12" customFormat="1">
       <c r="A71" s="12">
         <v>70</v>
       </c>
-      <c r="B71" s="88" t="s">
+      <c r="B71" s="78" t="s">
         <v>1960</v>
       </c>
-      <c r="C71" s="87">
-        <v>1</v>
-      </c>
-      <c r="D71" s="87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" s="87" customFormat="1">
+      <c r="C71" s="77">
+        <v>1</v>
+      </c>
+      <c r="D71" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="12" customFormat="1">
       <c r="A72" s="12">
         <v>71</v>
       </c>
-      <c r="B72" s="88" t="s">
+      <c r="B72" s="78" t="s">
         <v>1961</v>
       </c>
-      <c r="C72" s="87">
-        <v>1</v>
-      </c>
-      <c r="D72" s="87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" s="87" customFormat="1">
+      <c r="C72" s="77">
+        <v>1</v>
+      </c>
+      <c r="D72" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="12" customFormat="1">
       <c r="A73" s="12">
         <v>72</v>
       </c>
-      <c r="B73" s="88" t="s">
+      <c r="B73" s="78" t="s">
         <v>1962</v>
       </c>
-      <c r="C73" s="87">
-        <v>1</v>
-      </c>
-      <c r="D73" s="87">
+      <c r="C73" s="77">
+        <v>1</v>
+      </c>
+      <c r="D73" s="77">
         <v>0</v>
       </c>
     </row>

--- a/config_1.19/shoping_config.xlsx
+++ b/config_1.19/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -8491,7 +8491,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8576,6 +8576,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -8619,7 +8625,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8856,6 +8862,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -11290,11 +11302,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN532"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H503" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H506" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A521" sqref="A521:XFD532"/>
+      <selection pane="bottomRight" activeCell="G535" sqref="G535"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -35719,7 +35731,7 @@
         <v>10302</v>
       </c>
       <c r="F386" s="57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G386" s="57" t="s">
         <v>1305</v>
@@ -35787,7 +35799,7 @@
         <v>10303</v>
       </c>
       <c r="F387" s="57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G387" s="57" t="s">
         <v>1306</v>
@@ -35855,7 +35867,7 @@
         <v>10304</v>
       </c>
       <c r="F388" s="57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G388" s="57" t="s">
         <v>1307</v>
@@ -35923,7 +35935,7 @@
         <v>10305</v>
       </c>
       <c r="F389" s="55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G389" s="55" t="s">
         <v>1305</v>
@@ -35991,7 +36003,7 @@
         <v>10306</v>
       </c>
       <c r="F390" s="55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G390" s="55" t="s">
         <v>1306</v>
@@ -36059,7 +36071,7 @@
         <v>10307</v>
       </c>
       <c r="F391" s="55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G391" s="55" t="s">
         <v>1307</v>
@@ -36127,7 +36139,7 @@
         <v>10308</v>
       </c>
       <c r="F392" s="57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G392" s="57" t="s">
         <v>1305</v>
@@ -36195,7 +36207,7 @@
         <v>10309</v>
       </c>
       <c r="F393" s="57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G393" s="57" t="s">
         <v>1306</v>
@@ -36263,7 +36275,7 @@
         <v>10310</v>
       </c>
       <c r="F394" s="57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G394" s="57" t="s">
         <v>1307</v>
@@ -36331,7 +36343,7 @@
         <v>10311</v>
       </c>
       <c r="F395" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G395" s="5" t="s">
         <v>1342</v>
@@ -36393,7 +36405,7 @@
         <v>10312</v>
       </c>
       <c r="F396" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G396" s="5" t="s">
         <v>1343</v>
@@ -36455,7 +36467,7 @@
         <v>10313</v>
       </c>
       <c r="F397" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G397" s="5" t="s">
         <v>296</v>
@@ -36517,7 +36529,7 @@
         <v>10314</v>
       </c>
       <c r="F398" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G398" s="5" t="s">
         <v>299</v>
@@ -36579,7 +36591,7 @@
         <v>10315</v>
       </c>
       <c r="F399" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G399" s="5" t="s">
         <v>1344</v>
@@ -36641,7 +36653,7 @@
         <v>10316</v>
       </c>
       <c r="F400" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G400" s="5" t="s">
         <v>1345</v>
@@ -36703,7 +36715,7 @@
         <v>10317</v>
       </c>
       <c r="F401" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G401" s="5" t="s">
         <v>1362</v>
@@ -36768,7 +36780,7 @@
         <v>10318</v>
       </c>
       <c r="F402" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G402" s="5" t="s">
         <v>1366</v>
@@ -36833,7 +36845,7 @@
         <v>10319</v>
       </c>
       <c r="F403" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G403" s="5" t="s">
         <v>1367</v>
@@ -36898,7 +36910,7 @@
         <v>10320</v>
       </c>
       <c r="F404" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G404" s="5" t="s">
         <v>1370</v>
@@ -36963,7 +36975,7 @@
         <v>10321</v>
       </c>
       <c r="F405" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G405" s="5" t="s">
         <v>1372</v>
@@ -37028,7 +37040,7 @@
         <v>10322</v>
       </c>
       <c r="F406" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G406" s="5" t="s">
         <v>1373</v>
@@ -37093,7 +37105,7 @@
         <v>10323</v>
       </c>
       <c r="F407" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G407" s="5" t="s">
         <v>1375</v>
@@ -37158,7 +37170,7 @@
         <v>10324</v>
       </c>
       <c r="F408" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G408" s="5" t="s">
         <v>1398</v>
@@ -37223,7 +37235,7 @@
         <v>10325</v>
       </c>
       <c r="F409" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G409" s="5" t="s">
         <v>1399</v>
@@ -37288,7 +37300,7 @@
         <v>10326</v>
       </c>
       <c r="F410" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G410" s="5" t="s">
         <v>1400</v>
@@ -37353,7 +37365,7 @@
         <v>10327</v>
       </c>
       <c r="F411" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G411" s="5" t="s">
         <v>1401</v>
@@ -37418,7 +37430,7 @@
         <v>10328</v>
       </c>
       <c r="F412" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G412" s="5" t="s">
         <v>1402</v>
@@ -37483,7 +37495,7 @@
         <v>10329</v>
       </c>
       <c r="F413" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G413" s="5" t="s">
         <v>1403</v>
@@ -37613,7 +37625,7 @@
         <v>10331</v>
       </c>
       <c r="F415" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G415" s="40" t="s">
         <v>1416</v>
@@ -37681,7 +37693,7 @@
         <v>10332</v>
       </c>
       <c r="F416" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G416" s="40" t="s">
         <v>1417</v>
@@ -37749,7 +37761,7 @@
         <v>10333</v>
       </c>
       <c r="F417" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G417" s="40" t="s">
         <v>1418</v>
@@ -37817,7 +37829,7 @@
         <v>10334</v>
       </c>
       <c r="F418" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G418" s="40" t="s">
         <v>1416</v>
@@ -37885,7 +37897,7 @@
         <v>10335</v>
       </c>
       <c r="F419" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G419" s="40" t="s">
         <v>1417</v>
@@ -37953,7 +37965,7 @@
         <v>10336</v>
       </c>
       <c r="F420" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G420" s="40" t="s">
         <v>1418</v>
@@ -38081,759 +38093,759 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:39">
-      <c r="A422" s="5">
+    <row r="422" spans="1:39" s="79" customFormat="1">
+      <c r="A422" s="79">
         <v>421</v>
       </c>
-      <c r="B422" s="5">
+      <c r="B422" s="79">
         <v>10338</v>
       </c>
-      <c r="F422" s="6">
-        <v>1</v>
-      </c>
-      <c r="G422" s="6" t="s">
+      <c r="F422" s="79">
+        <v>1</v>
+      </c>
+      <c r="G422" s="79" t="s">
         <v>1486</v>
       </c>
-      <c r="I422" s="6" t="s">
+      <c r="I422" s="79" t="s">
         <v>1487</v>
       </c>
-      <c r="J422" s="6" t="s">
+      <c r="J422" s="79" t="s">
         <v>1493</v>
       </c>
-      <c r="L422" s="6">
+      <c r="L422" s="79">
         <v>-31</v>
       </c>
-      <c r="M422" s="6">
-        <v>0</v>
-      </c>
-      <c r="N422" s="6">
-        <v>0</v>
-      </c>
-      <c r="O422" s="5" t="s">
+      <c r="M422" s="79">
+        <v>0</v>
+      </c>
+      <c r="N422" s="79">
+        <v>0</v>
+      </c>
+      <c r="O422" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="P422" s="6">
+      <c r="P422" s="79">
         <v>2000</v>
       </c>
-      <c r="Q422" s="6" t="s">
+      <c r="Q422" s="79" t="s">
         <v>1496</v>
       </c>
-      <c r="R422" s="48" t="s">
+      <c r="R422" s="80" t="s">
         <v>1488</v>
       </c>
-      <c r="W422" s="6" t="s">
+      <c r="W422" s="79" t="s">
         <v>545</v>
       </c>
-      <c r="X422" s="6">
+      <c r="X422" s="79">
         <v>99999999</v>
       </c>
-      <c r="Y422" s="6">
+      <c r="Y422" s="79">
         <v>1603756800</v>
       </c>
-      <c r="Z422" s="6">
+      <c r="Z422" s="79">
         <v>2552233600</v>
       </c>
-      <c r="AA422" s="6">
+      <c r="AA422" s="79">
         <v>51</v>
       </c>
-      <c r="AH422" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI422" s="6">
-        <v>1</v>
-      </c>
-      <c r="AL422" s="6">
-        <v>1</v>
-      </c>
-      <c r="AM422" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="423" spans="1:39">
-      <c r="A423" s="5">
+      <c r="AH422" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI422" s="79">
+        <v>1</v>
+      </c>
+      <c r="AL422" s="79">
+        <v>1</v>
+      </c>
+      <c r="AM422" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:39" s="79" customFormat="1">
+      <c r="A423" s="79">
         <v>422</v>
       </c>
-      <c r="B423" s="5">
+      <c r="B423" s="79">
         <v>10339</v>
       </c>
-      <c r="F423" s="6">
-        <v>1</v>
-      </c>
-      <c r="G423" s="6" t="s">
+      <c r="F423" s="79">
+        <v>1</v>
+      </c>
+      <c r="G423" s="79" t="s">
         <v>1489</v>
       </c>
-      <c r="I423" s="6" t="s">
+      <c r="I423" s="79" t="s">
         <v>1487</v>
       </c>
-      <c r="J423" s="6" t="s">
+      <c r="J423" s="79" t="s">
         <v>1494</v>
       </c>
-      <c r="L423" s="6">
+      <c r="L423" s="79">
         <v>-31</v>
       </c>
-      <c r="M423" s="6">
-        <v>0</v>
-      </c>
-      <c r="N423" s="6">
-        <v>0</v>
-      </c>
-      <c r="O423" s="5" t="s">
+      <c r="M423" s="79">
+        <v>0</v>
+      </c>
+      <c r="N423" s="79">
+        <v>0</v>
+      </c>
+      <c r="O423" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="P423" s="6">
+      <c r="P423" s="79">
         <v>5800</v>
       </c>
-      <c r="Q423" s="6" t="s">
+      <c r="Q423" s="79" t="s">
         <v>1497</v>
       </c>
-      <c r="R423" s="48" t="s">
+      <c r="R423" s="80" t="s">
         <v>1490</v>
       </c>
-      <c r="W423" s="6" t="s">
+      <c r="W423" s="79" t="s">
         <v>545</v>
       </c>
-      <c r="X423" s="6">
+      <c r="X423" s="79">
         <v>99999999</v>
       </c>
-      <c r="Y423" s="6">
+      <c r="Y423" s="79">
         <v>1603756800</v>
       </c>
-      <c r="Z423" s="6">
+      <c r="Z423" s="79">
         <v>2552233600</v>
       </c>
-      <c r="AA423" s="6">
+      <c r="AA423" s="79">
         <v>51</v>
       </c>
-      <c r="AH423" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI423" s="6">
-        <v>1</v>
-      </c>
-      <c r="AL423" s="6">
-        <v>1</v>
-      </c>
-      <c r="AM423" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="424" spans="1:39">
-      <c r="A424" s="5">
+      <c r="AH423" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI423" s="79">
+        <v>1</v>
+      </c>
+      <c r="AL423" s="79">
+        <v>1</v>
+      </c>
+      <c r="AM423" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:39" s="79" customFormat="1">
+      <c r="A424" s="79">
         <v>423</v>
       </c>
-      <c r="B424" s="5">
+      <c r="B424" s="79">
         <v>10340</v>
       </c>
-      <c r="F424" s="6">
-        <v>1</v>
-      </c>
-      <c r="G424" s="6" t="s">
+      <c r="F424" s="79">
+        <v>1</v>
+      </c>
+      <c r="G424" s="79" t="s">
         <v>1491</v>
       </c>
-      <c r="I424" s="6" t="s">
+      <c r="I424" s="79" t="s">
         <v>1487</v>
       </c>
-      <c r="J424" s="6" t="s">
+      <c r="J424" s="79" t="s">
         <v>1495</v>
       </c>
-      <c r="L424" s="6">
+      <c r="L424" s="79">
         <v>-31</v>
       </c>
-      <c r="M424" s="6">
-        <v>0</v>
-      </c>
-      <c r="N424" s="6">
-        <v>0</v>
-      </c>
-      <c r="O424" s="5" t="s">
+      <c r="M424" s="79">
+        <v>0</v>
+      </c>
+      <c r="N424" s="79">
+        <v>0</v>
+      </c>
+      <c r="O424" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="P424" s="6">
+      <c r="P424" s="79">
         <v>12800</v>
       </c>
-      <c r="Q424" s="6" t="s">
+      <c r="Q424" s="79" t="s">
         <v>1498</v>
       </c>
-      <c r="R424" s="48" t="s">
+      <c r="R424" s="80" t="s">
         <v>1492</v>
       </c>
-      <c r="W424" s="6" t="s">
+      <c r="W424" s="79" t="s">
         <v>545</v>
       </c>
-      <c r="X424" s="6">
+      <c r="X424" s="79">
         <v>99999999</v>
       </c>
-      <c r="Y424" s="6">
+      <c r="Y424" s="79">
         <v>1603756800</v>
       </c>
-      <c r="Z424" s="6">
+      <c r="Z424" s="79">
         <v>2552233600</v>
       </c>
-      <c r="AA424" s="6">
+      <c r="AA424" s="79">
         <v>51</v>
       </c>
-      <c r="AH424" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI424" s="6">
-        <v>1</v>
-      </c>
-      <c r="AL424" s="6">
-        <v>1</v>
-      </c>
-      <c r="AM424" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="425" spans="1:39">
-      <c r="A425" s="5">
+      <c r="AH424" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI424" s="79">
+        <v>1</v>
+      </c>
+      <c r="AL424" s="79">
+        <v>1</v>
+      </c>
+      <c r="AM424" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:39" s="79" customFormat="1">
+      <c r="A425" s="79">
         <v>424</v>
       </c>
-      <c r="B425" s="5">
+      <c r="B425" s="79">
         <v>10341</v>
       </c>
-      <c r="F425" s="6">
-        <v>1</v>
-      </c>
-      <c r="G425" s="6" t="s">
+      <c r="F425" s="79">
+        <v>1</v>
+      </c>
+      <c r="G425" s="79" t="s">
         <v>1432</v>
       </c>
-      <c r="J425" s="6" t="s">
+      <c r="J425" s="79" t="s">
         <v>1433</v>
       </c>
-      <c r="L425" s="6">
+      <c r="L425" s="79">
         <v>-31</v>
       </c>
-      <c r="M425" s="6">
-        <v>0</v>
-      </c>
-      <c r="N425" s="6">
-        <v>0</v>
-      </c>
-      <c r="O425" s="5" t="s">
+      <c r="M425" s="79">
+        <v>0</v>
+      </c>
+      <c r="N425" s="79">
+        <v>0</v>
+      </c>
+      <c r="O425" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="P425" s="6">
+      <c r="P425" s="79">
         <v>49800</v>
       </c>
-      <c r="Q425" s="6" t="s">
+      <c r="Q425" s="79" t="s">
         <v>1442</v>
       </c>
-      <c r="R425" s="48" t="s">
+      <c r="R425" s="80" t="s">
         <v>1451</v>
       </c>
-      <c r="W425" s="6" t="s">
+      <c r="W425" s="79" t="s">
         <v>594</v>
       </c>
-      <c r="X425" s="6">
+      <c r="X425" s="79">
         <v>9999999</v>
       </c>
-      <c r="Y425" s="19">
+      <c r="Y425" s="79">
         <v>1585609200</v>
       </c>
-      <c r="Z425" s="19">
+      <c r="Z425" s="79">
         <v>2552233600</v>
       </c>
-      <c r="AH425" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI425" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="426" spans="1:39">
-      <c r="A426" s="5">
+      <c r="AH425" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI425" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:39" s="79" customFormat="1">
+      <c r="A426" s="79">
         <v>425</v>
       </c>
-      <c r="B426" s="5">
+      <c r="B426" s="79">
         <v>10342</v>
       </c>
-      <c r="F426" s="6">
-        <v>1</v>
-      </c>
-      <c r="G426" s="6" t="s">
+      <c r="F426" s="79">
+        <v>1</v>
+      </c>
+      <c r="G426" s="79" t="s">
         <v>1434</v>
       </c>
-      <c r="J426" s="6" t="s">
+      <c r="J426" s="79" t="s">
         <v>1435</v>
       </c>
-      <c r="L426" s="6">
+      <c r="L426" s="79">
         <v>-31</v>
       </c>
-      <c r="M426" s="6">
-        <v>0</v>
-      </c>
-      <c r="N426" s="6">
-        <v>0</v>
-      </c>
-      <c r="O426" s="5" t="s">
+      <c r="M426" s="79">
+        <v>0</v>
+      </c>
+      <c r="N426" s="79">
+        <v>0</v>
+      </c>
+      <c r="O426" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="P426" s="6">
+      <c r="P426" s="79">
         <v>19800</v>
       </c>
-      <c r="Q426" s="6" t="s">
+      <c r="Q426" s="79" t="s">
         <v>1443</v>
       </c>
-      <c r="R426" s="48" t="s">
+      <c r="R426" s="80" t="s">
         <v>1451</v>
       </c>
-      <c r="W426" s="6" t="s">
+      <c r="W426" s="79" t="s">
         <v>594</v>
       </c>
-      <c r="X426" s="6">
+      <c r="X426" s="79">
         <v>9999999</v>
       </c>
-      <c r="Y426" s="19">
+      <c r="Y426" s="79">
         <v>1585609200</v>
       </c>
-      <c r="Z426" s="19">
+      <c r="Z426" s="79">
         <v>2552233600</v>
       </c>
-      <c r="AH426" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI426" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="427" spans="1:39">
-      <c r="A427" s="5">
+      <c r="AH426" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI426" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:39" s="79" customFormat="1">
+      <c r="A427" s="79">
         <v>426</v>
       </c>
-      <c r="B427" s="5">
+      <c r="B427" s="79">
         <v>10343</v>
       </c>
-      <c r="F427" s="6">
-        <v>1</v>
-      </c>
-      <c r="G427" s="6" t="s">
+      <c r="F427" s="79">
+        <v>1</v>
+      </c>
+      <c r="G427" s="79" t="s">
         <v>1436</v>
       </c>
-      <c r="J427" s="6" t="s">
+      <c r="J427" s="79" t="s">
         <v>1437</v>
       </c>
-      <c r="L427" s="6">
+      <c r="L427" s="79">
         <v>-31</v>
       </c>
-      <c r="M427" s="6">
-        <v>0</v>
-      </c>
-      <c r="N427" s="6">
-        <v>0</v>
-      </c>
-      <c r="O427" s="5" t="s">
+      <c r="M427" s="79">
+        <v>0</v>
+      </c>
+      <c r="N427" s="79">
+        <v>0</v>
+      </c>
+      <c r="O427" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="P427" s="6">
+      <c r="P427" s="79">
         <v>9800</v>
       </c>
-      <c r="Q427" s="6" t="s">
+      <c r="Q427" s="79" t="s">
         <v>1444</v>
       </c>
-      <c r="R427" s="48" t="s">
+      <c r="R427" s="80" t="s">
         <v>1451</v>
       </c>
-      <c r="W427" s="6" t="s">
+      <c r="W427" s="79" t="s">
         <v>594</v>
       </c>
-      <c r="X427" s="6">
+      <c r="X427" s="79">
         <v>9999999</v>
       </c>
-      <c r="Y427" s="19">
+      <c r="Y427" s="79">
         <v>1585609200</v>
       </c>
-      <c r="Z427" s="19">
+      <c r="Z427" s="79">
         <v>2552233600</v>
       </c>
-      <c r="AH427" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI427" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="428" spans="1:39">
-      <c r="A428" s="5">
+      <c r="AH427" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI427" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:39" s="79" customFormat="1">
+      <c r="A428" s="79">
         <v>427</v>
       </c>
-      <c r="B428" s="5">
+      <c r="B428" s="79">
         <v>10344</v>
       </c>
-      <c r="F428" s="6">
-        <v>1</v>
-      </c>
-      <c r="G428" s="6" t="s">
+      <c r="F428" s="79">
+        <v>1</v>
+      </c>
+      <c r="G428" s="79" t="s">
         <v>1438</v>
       </c>
-      <c r="J428" s="6" t="s">
+      <c r="J428" s="79" t="s">
         <v>1439</v>
       </c>
-      <c r="L428" s="6">
+      <c r="L428" s="79">
         <v>-31</v>
       </c>
-      <c r="M428" s="6">
-        <v>0</v>
-      </c>
-      <c r="N428" s="6">
-        <v>0</v>
-      </c>
-      <c r="O428" s="5" t="s">
+      <c r="M428" s="79">
+        <v>0</v>
+      </c>
+      <c r="N428" s="79">
+        <v>0</v>
+      </c>
+      <c r="O428" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="P428" s="6">
+      <c r="P428" s="79">
         <v>9800</v>
       </c>
-      <c r="Q428" s="6" t="s">
+      <c r="Q428" s="79" t="s">
         <v>1445</v>
       </c>
-      <c r="R428" s="48" t="s">
+      <c r="R428" s="80" t="s">
         <v>1451</v>
       </c>
-      <c r="W428" s="6" t="s">
+      <c r="W428" s="79" t="s">
         <v>594</v>
       </c>
-      <c r="X428" s="6">
+      <c r="X428" s="79">
         <v>9999999</v>
       </c>
-      <c r="Y428" s="19">
+      <c r="Y428" s="79">
         <v>1585609200</v>
       </c>
-      <c r="Z428" s="19">
+      <c r="Z428" s="79">
         <v>2552233600</v>
       </c>
-      <c r="AH428" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI428" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="429" spans="1:39">
-      <c r="A429" s="5">
+      <c r="AH428" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI428" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:39" s="79" customFormat="1">
+      <c r="A429" s="79">
         <v>428</v>
       </c>
-      <c r="B429" s="5">
+      <c r="B429" s="79">
         <v>10345</v>
       </c>
-      <c r="F429" s="6">
-        <v>1</v>
-      </c>
-      <c r="G429" s="6" t="s">
+      <c r="F429" s="79">
+        <v>1</v>
+      </c>
+      <c r="G429" s="79" t="s">
         <v>1440</v>
       </c>
-      <c r="J429" s="6" t="s">
+      <c r="J429" s="79" t="s">
         <v>1441</v>
       </c>
-      <c r="L429" s="6">
+      <c r="L429" s="79">
         <v>-31</v>
       </c>
-      <c r="M429" s="6">
-        <v>0</v>
-      </c>
-      <c r="N429" s="6">
-        <v>0</v>
-      </c>
-      <c r="O429" s="5" t="s">
+      <c r="M429" s="79">
+        <v>0</v>
+      </c>
+      <c r="N429" s="79">
+        <v>0</v>
+      </c>
+      <c r="O429" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="P429" s="6">
+      <c r="P429" s="79">
         <v>4800</v>
       </c>
-      <c r="Q429" s="6" t="s">
+      <c r="Q429" s="79" t="s">
         <v>1446</v>
       </c>
-      <c r="R429" s="48" t="s">
+      <c r="R429" s="80" t="s">
         <v>1451</v>
       </c>
-      <c r="W429" s="6" t="s">
+      <c r="W429" s="79" t="s">
         <v>594</v>
       </c>
-      <c r="X429" s="6">
+      <c r="X429" s="79">
         <v>9999999</v>
       </c>
-      <c r="Y429" s="19">
+      <c r="Y429" s="79">
         <v>1585609200</v>
       </c>
-      <c r="Z429" s="19">
+      <c r="Z429" s="79">
         <v>2552233600</v>
       </c>
-      <c r="AH429" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI429" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="430" spans="1:39" s="43" customFormat="1">
-      <c r="A430" s="5">
+      <c r="AH429" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI429" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:39" s="79" customFormat="1">
+      <c r="A430" s="79">
         <v>429</v>
       </c>
-      <c r="B430" s="43">
+      <c r="B430" s="79">
         <v>10346</v>
       </c>
-      <c r="F430" s="43">
-        <v>1</v>
-      </c>
-      <c r="G430" s="43" t="s">
+      <c r="F430" s="79">
+        <v>1</v>
+      </c>
+      <c r="G430" s="79" t="s">
         <v>1729</v>
       </c>
-      <c r="I430" s="43" t="s">
+      <c r="I430" s="79" t="s">
         <v>1452</v>
       </c>
-      <c r="J430" s="43" t="s">
+      <c r="J430" s="79" t="s">
         <v>1725</v>
       </c>
-      <c r="L430" s="43">
+      <c r="L430" s="79">
         <v>-28</v>
       </c>
-      <c r="M430" s="43">
-        <v>0</v>
-      </c>
-      <c r="N430" s="43">
-        <v>0</v>
-      </c>
-      <c r="O430" s="43" t="s">
+      <c r="M430" s="79">
+        <v>0</v>
+      </c>
+      <c r="N430" s="79">
+        <v>0</v>
+      </c>
+      <c r="O430" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="P430" s="43">
+      <c r="P430" s="79">
         <v>100</v>
       </c>
-      <c r="Q430" s="43" t="s">
+      <c r="Q430" s="79" t="s">
         <v>1453</v>
       </c>
-      <c r="R430" s="47" t="s">
+      <c r="R430" s="80" t="s">
         <v>1454</v>
       </c>
-      <c r="W430" s="43" t="s">
+      <c r="W430" s="79" t="s">
         <v>1455</v>
       </c>
-      <c r="X430" s="43">
+      <c r="X430" s="79">
         <v>9999999</v>
       </c>
-      <c r="Y430" s="43">
+      <c r="Y430" s="79">
         <v>1581377400</v>
       </c>
-      <c r="Z430" s="43">
+      <c r="Z430" s="79">
         <v>2552233600</v>
       </c>
-      <c r="AA430" s="43">
+      <c r="AA430" s="79">
         <v>14</v>
       </c>
-      <c r="AH430" s="43">
-        <v>1</v>
-      </c>
-      <c r="AI430" s="43">
-        <v>1</v>
-      </c>
-      <c r="AL430" s="43">
-        <v>1</v>
-      </c>
-      <c r="AM430" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="431" spans="1:39" s="43" customFormat="1">
-      <c r="A431" s="5">
+      <c r="AH430" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI430" s="79">
+        <v>1</v>
+      </c>
+      <c r="AL430" s="79">
+        <v>1</v>
+      </c>
+      <c r="AM430" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:39" s="79" customFormat="1">
+      <c r="A431" s="79">
         <v>430</v>
       </c>
-      <c r="B431" s="43">
+      <c r="B431" s="79">
         <v>10347</v>
       </c>
-      <c r="F431" s="43">
-        <v>1</v>
-      </c>
-      <c r="G431" s="43" t="s">
+      <c r="F431" s="79">
+        <v>1</v>
+      </c>
+      <c r="G431" s="79" t="s">
         <v>1456</v>
       </c>
-      <c r="I431" s="43" t="s">
+      <c r="I431" s="79" t="s">
         <v>1457</v>
       </c>
-      <c r="J431" s="43" t="s">
+      <c r="J431" s="79" t="s">
         <v>1726</v>
       </c>
-      <c r="L431" s="43">
+      <c r="L431" s="79">
         <v>-28</v>
       </c>
-      <c r="M431" s="43">
-        <v>0</v>
-      </c>
-      <c r="N431" s="43">
-        <v>0</v>
-      </c>
-      <c r="O431" s="43" t="s">
+      <c r="M431" s="79">
+        <v>0</v>
+      </c>
+      <c r="N431" s="79">
+        <v>0</v>
+      </c>
+      <c r="O431" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="P431" s="43">
+      <c r="P431" s="79">
         <v>300</v>
       </c>
-      <c r="Q431" s="43" t="s">
+      <c r="Q431" s="79" t="s">
         <v>1453</v>
       </c>
-      <c r="R431" s="47" t="s">
+      <c r="R431" s="80" t="s">
         <v>1458</v>
       </c>
-      <c r="W431" s="43" t="s">
+      <c r="W431" s="79" t="s">
         <v>548</v>
       </c>
-      <c r="X431" s="43">
+      <c r="X431" s="79">
         <v>9999999</v>
       </c>
-      <c r="Y431" s="43">
+      <c r="Y431" s="79">
         <v>1581377400</v>
       </c>
-      <c r="Z431" s="43">
+      <c r="Z431" s="79">
         <v>2552233600</v>
       </c>
-      <c r="AA431" s="43">
+      <c r="AA431" s="79">
         <v>14</v>
       </c>
-      <c r="AH431" s="43">
-        <v>1</v>
-      </c>
-      <c r="AI431" s="43">
-        <v>1</v>
-      </c>
-      <c r="AL431" s="43">
-        <v>1</v>
-      </c>
-      <c r="AM431" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="432" spans="1:39" s="43" customFormat="1">
-      <c r="A432" s="5">
+      <c r="AH431" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI431" s="79">
+        <v>1</v>
+      </c>
+      <c r="AL431" s="79">
+        <v>1</v>
+      </c>
+      <c r="AM431" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:39" s="79" customFormat="1">
+      <c r="A432" s="79">
         <v>431</v>
       </c>
-      <c r="B432" s="43">
+      <c r="B432" s="79">
         <v>10348</v>
       </c>
-      <c r="F432" s="43">
-        <v>1</v>
-      </c>
-      <c r="G432" s="43" t="s">
+      <c r="F432" s="79">
+        <v>1</v>
+      </c>
+      <c r="G432" s="79" t="s">
         <v>1456</v>
       </c>
-      <c r="I432" s="43" t="s">
+      <c r="I432" s="79" t="s">
         <v>1459</v>
       </c>
-      <c r="J432" s="43" t="s">
+      <c r="J432" s="79" t="s">
         <v>1727</v>
       </c>
-      <c r="L432" s="43">
+      <c r="L432" s="79">
         <v>-28</v>
       </c>
-      <c r="M432" s="43">
-        <v>0</v>
-      </c>
-      <c r="N432" s="43">
-        <v>0</v>
-      </c>
-      <c r="O432" s="43" t="s">
+      <c r="M432" s="79">
+        <v>0</v>
+      </c>
+      <c r="N432" s="79">
+        <v>0</v>
+      </c>
+      <c r="O432" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="P432" s="43">
+      <c r="P432" s="79">
         <v>600</v>
       </c>
-      <c r="Q432" s="43" t="s">
+      <c r="Q432" s="79" t="s">
         <v>1453</v>
       </c>
-      <c r="R432" s="47" t="s">
+      <c r="R432" s="80" t="s">
         <v>1460</v>
       </c>
-      <c r="W432" s="43" t="s">
+      <c r="W432" s="79" t="s">
         <v>548</v>
       </c>
-      <c r="X432" s="43">
+      <c r="X432" s="79">
         <v>9999999</v>
       </c>
-      <c r="Y432" s="43">
+      <c r="Y432" s="79">
         <v>1581377400</v>
       </c>
-      <c r="Z432" s="43">
+      <c r="Z432" s="79">
         <v>2552233600</v>
       </c>
-      <c r="AA432" s="43">
+      <c r="AA432" s="79">
         <v>14</v>
       </c>
-      <c r="AH432" s="43">
-        <v>1</v>
-      </c>
-      <c r="AI432" s="43">
-        <v>1</v>
-      </c>
-      <c r="AL432" s="43">
-        <v>1</v>
-      </c>
-      <c r="AM432" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="433" spans="1:39" s="43" customFormat="1">
-      <c r="A433" s="5">
+      <c r="AH432" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI432" s="79">
+        <v>1</v>
+      </c>
+      <c r="AL432" s="79">
+        <v>1</v>
+      </c>
+      <c r="AM432" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:39" s="79" customFormat="1">
+      <c r="A433" s="79">
         <v>432</v>
       </c>
-      <c r="B433" s="43">
+      <c r="B433" s="79">
         <v>10349</v>
       </c>
-      <c r="F433" s="43">
-        <v>1</v>
-      </c>
-      <c r="G433" s="43" t="s">
+      <c r="F433" s="79">
+        <v>1</v>
+      </c>
+      <c r="G433" s="79" t="s">
         <v>1456</v>
       </c>
-      <c r="I433" s="43" t="s">
+      <c r="I433" s="79" t="s">
         <v>1461</v>
       </c>
-      <c r="J433" s="43" t="s">
+      <c r="J433" s="79" t="s">
         <v>1728</v>
       </c>
-      <c r="L433" s="43">
+      <c r="L433" s="79">
         <v>-28</v>
       </c>
-      <c r="M433" s="43">
-        <v>0</v>
-      </c>
-      <c r="N433" s="43">
-        <v>0</v>
-      </c>
-      <c r="O433" s="43" t="s">
+      <c r="M433" s="79">
+        <v>0</v>
+      </c>
+      <c r="N433" s="79">
+        <v>0</v>
+      </c>
+      <c r="O433" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="P433" s="43">
+      <c r="P433" s="79">
         <v>600</v>
       </c>
-      <c r="Q433" s="43" t="s">
+      <c r="Q433" s="79" t="s">
         <v>1573</v>
       </c>
-      <c r="R433" s="47" t="s">
+      <c r="R433" s="80" t="s">
         <v>1462</v>
       </c>
-      <c r="W433" s="43" t="s">
+      <c r="W433" s="79" t="s">
         <v>548</v>
       </c>
-      <c r="X433" s="43">
+      <c r="X433" s="79">
         <v>9999999</v>
       </c>
-      <c r="Y433" s="43">
+      <c r="Y433" s="79">
         <v>1581377400</v>
       </c>
-      <c r="Z433" s="43">
+      <c r="Z433" s="79">
         <v>2552233600</v>
       </c>
-      <c r="AA433" s="43">
+      <c r="AA433" s="79">
         <v>14</v>
       </c>
-      <c r="AH433" s="43">
-        <v>1</v>
-      </c>
-      <c r="AI433" s="43">
-        <v>1</v>
-      </c>
-      <c r="AL433" s="43">
-        <v>1</v>
-      </c>
-      <c r="AM433" s="43">
+      <c r="AH433" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI433" s="79">
+        <v>1</v>
+      </c>
+      <c r="AL433" s="79">
+        <v>1</v>
+      </c>
+      <c r="AM433" s="79">
         <v>1</v>
       </c>
     </row>
@@ -38845,7 +38857,7 @@
         <v>10350</v>
       </c>
       <c r="F434" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G434" s="5" t="s">
         <v>1463</v>
@@ -38910,7 +38922,7 @@
         <v>10351</v>
       </c>
       <c r="F435" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G435" s="5" t="s">
         <v>1465</v>
@@ -38975,7 +38987,7 @@
         <v>10352</v>
       </c>
       <c r="F436" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G436" s="5" t="s">
         <v>1464</v>
@@ -39040,7 +39052,7 @@
         <v>10353</v>
       </c>
       <c r="F437" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G437" s="5" t="s">
         <v>1466</v>
@@ -39105,7 +39117,7 @@
         <v>10354</v>
       </c>
       <c r="F438" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G438" s="5" t="s">
         <v>1467</v>
@@ -39170,7 +39182,7 @@
         <v>10355</v>
       </c>
       <c r="F439" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G439" s="5" t="s">
         <v>1468</v>
@@ -39235,7 +39247,7 @@
         <v>10356</v>
       </c>
       <c r="F440" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G440" s="5" t="s">
         <v>1469</v>
@@ -39300,7 +39312,7 @@
         <v>10357</v>
       </c>
       <c r="F441" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G441" s="5" t="s">
         <v>1500</v>
@@ -39362,7 +39374,7 @@
         <v>10358</v>
       </c>
       <c r="F442" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G442" s="5" t="s">
         <v>1501</v>
@@ -39424,7 +39436,7 @@
         <v>10359</v>
       </c>
       <c r="F443" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G443" s="5" t="s">
         <v>1502</v>
@@ -39486,7 +39498,7 @@
         <v>10360</v>
       </c>
       <c r="F444" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G444" s="5" t="s">
         <v>1503</v>
@@ -39548,7 +39560,7 @@
         <v>10361</v>
       </c>
       <c r="F445" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G445" s="5" t="s">
         <v>1504</v>
@@ -39610,7 +39622,7 @@
         <v>10362</v>
       </c>
       <c r="F446" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G446" s="5" t="s">
         <v>1505</v>
@@ -39664,2190 +39676,2190 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:39" s="5" customFormat="1">
-      <c r="A447" s="5">
+    <row r="447" spans="1:39" s="79" customFormat="1">
+      <c r="A447" s="79">
         <v>446</v>
       </c>
-      <c r="B447" s="5">
+      <c r="B447" s="79">
         <v>10363</v>
       </c>
-      <c r="F447" s="5">
-        <v>1</v>
-      </c>
-      <c r="G447" s="5" t="s">
+      <c r="F447" s="79">
+        <v>1</v>
+      </c>
+      <c r="G447" s="79" t="s">
         <v>1537</v>
       </c>
-      <c r="I447" s="5" t="s">
+      <c r="I447" s="79" t="s">
         <v>1570</v>
       </c>
-      <c r="J447" s="5" t="s">
+      <c r="J447" s="79" t="s">
         <v>1615</v>
       </c>
-      <c r="L447" s="5">
+      <c r="L447" s="79">
         <v>-31</v>
       </c>
-      <c r="M447" s="5">
-        <v>0</v>
-      </c>
-      <c r="N447" s="5">
-        <v>0</v>
-      </c>
-      <c r="O447" s="5" t="s">
+      <c r="M447" s="79">
+        <v>0</v>
+      </c>
+      <c r="N447" s="79">
+        <v>0</v>
+      </c>
+      <c r="O447" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="P447" s="5">
+      <c r="P447" s="79">
         <v>800</v>
       </c>
-      <c r="Q447" s="5" t="s">
+      <c r="Q447" s="79" t="s">
         <v>1574</v>
       </c>
-      <c r="R447" s="10" t="s">
+      <c r="R447" s="80" t="s">
         <v>1616</v>
       </c>
-      <c r="W447" s="5" t="s">
+      <c r="W447" s="79" t="s">
         <v>592</v>
       </c>
-      <c r="X447" s="5">
+      <c r="X447" s="79">
         <v>9999999</v>
       </c>
-      <c r="Y447" s="5">
+      <c r="Y447" s="79">
         <v>1605571200</v>
       </c>
-      <c r="Z447" s="5">
+      <c r="Z447" s="79">
         <v>2552233600</v>
       </c>
-      <c r="AA447" s="5">
+      <c r="AA447" s="79">
         <v>52</v>
       </c>
-      <c r="AH447" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI447" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL447" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM447" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="448" spans="1:39" s="5" customFormat="1">
-      <c r="A448" s="5">
+      <c r="AH447" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI447" s="79">
+        <v>1</v>
+      </c>
+      <c r="AL447" s="79">
+        <v>1</v>
+      </c>
+      <c r="AM447" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:39" s="79" customFormat="1">
+      <c r="A448" s="79">
         <v>447</v>
       </c>
-      <c r="B448" s="5">
+      <c r="B448" s="79">
         <v>10364</v>
       </c>
-      <c r="F448" s="5">
-        <v>1</v>
-      </c>
-      <c r="G448" s="5" t="s">
+      <c r="F448" s="79">
+        <v>1</v>
+      </c>
+      <c r="G448" s="79" t="s">
         <v>1538</v>
       </c>
-      <c r="I448" s="5" t="s">
+      <c r="I448" s="79" t="s">
         <v>1571</v>
       </c>
-      <c r="J448" s="5" t="s">
+      <c r="J448" s="79" t="s">
         <v>1595</v>
       </c>
-      <c r="L448" s="5">
+      <c r="L448" s="79">
         <v>-31</v>
       </c>
-      <c r="M448" s="5">
-        <v>0</v>
-      </c>
-      <c r="N448" s="5">
-        <v>0</v>
-      </c>
-      <c r="O448" s="5" t="s">
+      <c r="M448" s="79">
+        <v>0</v>
+      </c>
+      <c r="N448" s="79">
+        <v>0</v>
+      </c>
+      <c r="O448" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="P448" s="5">
+      <c r="P448" s="79">
         <v>800</v>
       </c>
-      <c r="Q448" s="5" t="s">
+      <c r="Q448" s="79" t="s">
         <v>1574</v>
       </c>
-      <c r="R448" s="10" t="s">
+      <c r="R448" s="80" t="s">
         <v>1617</v>
       </c>
-      <c r="W448" s="5" t="s">
+      <c r="W448" s="79" t="s">
         <v>592</v>
       </c>
-      <c r="X448" s="5">
+      <c r="X448" s="79">
         <v>9999999</v>
       </c>
-      <c r="Y448" s="5">
+      <c r="Y448" s="79">
         <v>1605571200</v>
       </c>
-      <c r="Z448" s="5">
+      <c r="Z448" s="79">
         <v>2552233600</v>
       </c>
-      <c r="AH448" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI448" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL448" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM448" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="449" spans="1:39" s="5" customFormat="1">
-      <c r="A449" s="5">
+      <c r="AH448" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI448" s="79">
+        <v>1</v>
+      </c>
+      <c r="AL448" s="79">
+        <v>1</v>
+      </c>
+      <c r="AM448" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:39" s="79" customFormat="1">
+      <c r="A449" s="79">
         <v>448</v>
       </c>
-      <c r="B449" s="5">
+      <c r="B449" s="79">
         <v>10365</v>
       </c>
-      <c r="F449" s="5">
-        <v>1</v>
-      </c>
-      <c r="G449" s="5" t="s">
+      <c r="F449" s="79">
+        <v>1</v>
+      </c>
+      <c r="G449" s="79" t="s">
         <v>1539</v>
       </c>
-      <c r="I449" s="5" t="s">
+      <c r="I449" s="79" t="s">
         <v>1572</v>
       </c>
-      <c r="J449" s="5" t="s">
+      <c r="J449" s="79" t="s">
         <v>1596</v>
       </c>
-      <c r="L449" s="5">
+      <c r="L449" s="79">
         <v>-31</v>
       </c>
-      <c r="M449" s="5">
-        <v>0</v>
-      </c>
-      <c r="N449" s="5">
-        <v>0</v>
-      </c>
-      <c r="O449" s="5" t="s">
+      <c r="M449" s="79">
+        <v>0</v>
+      </c>
+      <c r="N449" s="79">
+        <v>0</v>
+      </c>
+      <c r="O449" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="P449" s="5">
+      <c r="P449" s="79">
         <v>800</v>
       </c>
-      <c r="Q449" s="5" t="s">
+      <c r="Q449" s="79" t="s">
         <v>1574</v>
       </c>
-      <c r="R449" s="10" t="s">
+      <c r="R449" s="80" t="s">
         <v>1618</v>
       </c>
-      <c r="W449" s="5" t="s">
+      <c r="W449" s="79" t="s">
         <v>548</v>
       </c>
-      <c r="X449" s="5">
+      <c r="X449" s="79">
         <v>9999999</v>
       </c>
-      <c r="Y449" s="5">
+      <c r="Y449" s="79">
         <v>1605571200</v>
       </c>
-      <c r="Z449" s="5">
+      <c r="Z449" s="79">
         <v>2552233600</v>
       </c>
-      <c r="AA449" s="5">
+      <c r="AA449" s="79">
         <v>53</v>
       </c>
-      <c r="AH449" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI449" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL449" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM449" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="450" spans="1:39" s="5" customFormat="1">
-      <c r="A450" s="5">
+      <c r="AH449" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI449" s="79">
+        <v>1</v>
+      </c>
+      <c r="AL449" s="79">
+        <v>1</v>
+      </c>
+      <c r="AM449" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:39" s="79" customFormat="1">
+      <c r="A450" s="79">
         <v>449</v>
       </c>
-      <c r="B450" s="5">
+      <c r="B450" s="79">
         <v>10366</v>
       </c>
-      <c r="F450" s="5">
-        <v>1</v>
-      </c>
-      <c r="G450" s="5" t="s">
+      <c r="F450" s="79">
+        <v>1</v>
+      </c>
+      <c r="G450" s="79" t="s">
         <v>1540</v>
       </c>
-      <c r="I450" s="5" t="s">
+      <c r="I450" s="79" t="s">
         <v>1552</v>
       </c>
-      <c r="J450" s="5" t="s">
+      <c r="J450" s="79" t="s">
         <v>1597</v>
       </c>
-      <c r="L450" s="5">
+      <c r="L450" s="79">
         <v>-31</v>
       </c>
-      <c r="M450" s="5">
-        <v>0</v>
-      </c>
-      <c r="N450" s="5">
-        <v>0</v>
-      </c>
-      <c r="O450" s="5" t="s">
+      <c r="M450" s="79">
+        <v>0</v>
+      </c>
+      <c r="N450" s="79">
+        <v>0</v>
+      </c>
+      <c r="O450" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="P450" s="5">
+      <c r="P450" s="79">
         <v>3800</v>
       </c>
-      <c r="Q450" s="5" t="s">
+      <c r="Q450" s="79" t="s">
         <v>1574</v>
       </c>
-      <c r="R450" s="10" t="s">
+      <c r="R450" s="80" t="s">
         <v>1619</v>
       </c>
-      <c r="W450" s="5" t="s">
+      <c r="W450" s="79" t="s">
         <v>548</v>
       </c>
-      <c r="X450" s="5">
+      <c r="X450" s="79">
         <v>9999999</v>
       </c>
-      <c r="Y450" s="5">
+      <c r="Y450" s="79">
         <v>1605571200</v>
       </c>
-      <c r="Z450" s="5">
+      <c r="Z450" s="79">
         <v>2552233600</v>
       </c>
-      <c r="AA450" s="5">
+      <c r="AA450" s="79">
         <v>54</v>
       </c>
-      <c r="AH450" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI450" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL450" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM450" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="451" spans="1:39" s="5" customFormat="1">
-      <c r="A451" s="5">
+      <c r="AH450" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI450" s="79">
+        <v>1</v>
+      </c>
+      <c r="AL450" s="79">
+        <v>1</v>
+      </c>
+      <c r="AM450" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:39" s="79" customFormat="1">
+      <c r="A451" s="79">
         <v>450</v>
       </c>
-      <c r="B451" s="5">
+      <c r="B451" s="79">
         <v>10367</v>
       </c>
-      <c r="F451" s="5">
-        <v>1</v>
-      </c>
-      <c r="G451" s="5" t="s">
+      <c r="F451" s="79">
+        <v>1</v>
+      </c>
+      <c r="G451" s="79" t="s">
         <v>1541</v>
       </c>
-      <c r="I451" s="5" t="s">
+      <c r="I451" s="79" t="s">
         <v>1553</v>
       </c>
-      <c r="J451" s="5" t="s">
+      <c r="J451" s="79" t="s">
         <v>1598</v>
       </c>
-      <c r="L451" s="5">
+      <c r="L451" s="79">
         <v>-31</v>
       </c>
-      <c r="M451" s="5">
-        <v>0</v>
-      </c>
-      <c r="N451" s="5">
-        <v>0</v>
-      </c>
-      <c r="O451" s="5" t="s">
+      <c r="M451" s="79">
+        <v>0</v>
+      </c>
+      <c r="N451" s="79">
+        <v>0</v>
+      </c>
+      <c r="O451" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="P451" s="5">
+      <c r="P451" s="79">
         <v>3800</v>
       </c>
-      <c r="Q451" s="5" t="s">
+      <c r="Q451" s="79" t="s">
         <v>1574</v>
       </c>
-      <c r="R451" s="10" t="s">
+      <c r="R451" s="80" t="s">
         <v>1620</v>
       </c>
-      <c r="W451" s="5" t="s">
+      <c r="W451" s="79" t="s">
         <v>548</v>
       </c>
-      <c r="X451" s="5">
+      <c r="X451" s="79">
         <v>9999999</v>
       </c>
-      <c r="Y451" s="5">
+      <c r="Y451" s="79">
         <v>1605571200</v>
       </c>
-      <c r="Z451" s="5">
+      <c r="Z451" s="79">
         <v>2552233600</v>
       </c>
-      <c r="AH451" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI451" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL451" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM451" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="452" spans="1:39" s="5" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A452" s="5">
+      <c r="AH451" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI451" s="79">
+        <v>1</v>
+      </c>
+      <c r="AL451" s="79">
+        <v>1</v>
+      </c>
+      <c r="AM451" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:39" s="79" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A452" s="79">
         <v>451</v>
       </c>
-      <c r="B452" s="5">
+      <c r="B452" s="79">
         <v>10368</v>
       </c>
-      <c r="F452" s="5">
-        <v>1</v>
-      </c>
-      <c r="G452" s="5" t="s">
+      <c r="F452" s="79">
+        <v>1</v>
+      </c>
+      <c r="G452" s="79" t="s">
         <v>1542</v>
       </c>
-      <c r="I452" s="5" t="s">
+      <c r="I452" s="79" t="s">
         <v>1554</v>
       </c>
-      <c r="J452" s="5" t="s">
+      <c r="J452" s="79" t="s">
         <v>1599</v>
       </c>
-      <c r="L452" s="5">
+      <c r="L452" s="79">
         <v>-31</v>
       </c>
-      <c r="M452" s="5">
-        <v>0</v>
-      </c>
-      <c r="N452" s="5">
-        <v>0</v>
-      </c>
-      <c r="O452" s="5" t="s">
+      <c r="M452" s="79">
+        <v>0</v>
+      </c>
+      <c r="N452" s="79">
+        <v>0</v>
+      </c>
+      <c r="O452" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="P452" s="5">
+      <c r="P452" s="79">
         <v>3800</v>
       </c>
-      <c r="Q452" s="5" t="s">
+      <c r="Q452" s="79" t="s">
         <v>1574</v>
       </c>
-      <c r="R452" s="10" t="s">
+      <c r="R452" s="80" t="s">
         <v>1621</v>
       </c>
-      <c r="W452" s="5" t="s">
+      <c r="W452" s="79" t="s">
         <v>548</v>
       </c>
-      <c r="X452" s="5">
+      <c r="X452" s="79">
         <v>9999999</v>
       </c>
-      <c r="Y452" s="5">
+      <c r="Y452" s="79">
         <v>1605571200</v>
       </c>
-      <c r="Z452" s="5">
+      <c r="Z452" s="79">
         <v>2552233600</v>
       </c>
-      <c r="AA452" s="5">
+      <c r="AA452" s="79">
         <v>55</v>
       </c>
-      <c r="AH452" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI452" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL452" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM452" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="453" spans="1:39" s="5" customFormat="1">
-      <c r="A453" s="5">
+      <c r="AH452" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI452" s="79">
+        <v>1</v>
+      </c>
+      <c r="AL452" s="79">
+        <v>1</v>
+      </c>
+      <c r="AM452" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:39" s="79" customFormat="1">
+      <c r="A453" s="79">
         <v>452</v>
       </c>
-      <c r="B453" s="5">
+      <c r="B453" s="79">
         <v>10369</v>
       </c>
-      <c r="F453" s="5">
-        <v>1</v>
-      </c>
-      <c r="G453" s="5" t="s">
+      <c r="F453" s="79">
+        <v>1</v>
+      </c>
+      <c r="G453" s="79" t="s">
         <v>1530</v>
       </c>
-      <c r="I453" s="5" t="s">
+      <c r="I453" s="79" t="s">
         <v>1555</v>
       </c>
-      <c r="J453" s="5" t="s">
+      <c r="J453" s="79" t="s">
         <v>1600</v>
       </c>
-      <c r="L453" s="5">
+      <c r="L453" s="79">
         <v>-31</v>
       </c>
-      <c r="M453" s="5">
-        <v>0</v>
-      </c>
-      <c r="N453" s="5">
-        <v>0</v>
-      </c>
-      <c r="O453" s="5" t="s">
+      <c r="M453" s="79">
+        <v>0</v>
+      </c>
+      <c r="N453" s="79">
+        <v>0</v>
+      </c>
+      <c r="O453" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="P453" s="5">
+      <c r="P453" s="79">
         <v>9800</v>
       </c>
-      <c r="Q453" s="5" t="s">
+      <c r="Q453" s="79" t="s">
         <v>1574</v>
       </c>
-      <c r="R453" s="10" t="s">
+      <c r="R453" s="80" t="s">
         <v>1622</v>
       </c>
-      <c r="W453" s="5" t="s">
+      <c r="W453" s="79" t="s">
         <v>548</v>
       </c>
-      <c r="X453" s="5">
+      <c r="X453" s="79">
         <v>9999999</v>
       </c>
-      <c r="Y453" s="5">
+      <c r="Y453" s="79">
         <v>1605571200</v>
       </c>
-      <c r="Z453" s="5">
+      <c r="Z453" s="79">
         <v>2552233600</v>
       </c>
-      <c r="AA453" s="5">
+      <c r="AA453" s="79">
         <v>56</v>
       </c>
-      <c r="AH453" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI453" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL453" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM453" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="454" spans="1:39" s="5" customFormat="1">
-      <c r="A454" s="5">
+      <c r="AH453" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI453" s="79">
+        <v>1</v>
+      </c>
+      <c r="AL453" s="79">
+        <v>1</v>
+      </c>
+      <c r="AM453" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:39" s="79" customFormat="1">
+      <c r="A454" s="79">
         <v>453</v>
       </c>
-      <c r="B454" s="5">
+      <c r="B454" s="79">
         <v>10370</v>
       </c>
-      <c r="F454" s="5">
-        <v>1</v>
-      </c>
-      <c r="G454" s="5" t="s">
+      <c r="F454" s="79">
+        <v>1</v>
+      </c>
+      <c r="G454" s="79" t="s">
         <v>1531</v>
       </c>
-      <c r="I454" s="5" t="s">
+      <c r="I454" s="79" t="s">
         <v>1556</v>
       </c>
-      <c r="J454" s="5" t="s">
+      <c r="J454" s="79" t="s">
         <v>1601</v>
       </c>
-      <c r="L454" s="5">
+      <c r="L454" s="79">
         <v>-31</v>
       </c>
-      <c r="M454" s="5">
-        <v>0</v>
-      </c>
-      <c r="N454" s="5">
-        <v>0</v>
-      </c>
-      <c r="O454" s="5" t="s">
+      <c r="M454" s="79">
+        <v>0</v>
+      </c>
+      <c r="N454" s="79">
+        <v>0</v>
+      </c>
+      <c r="O454" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="P454" s="5">
+      <c r="P454" s="79">
         <v>9800</v>
       </c>
-      <c r="Q454" s="5" t="s">
+      <c r="Q454" s="79" t="s">
         <v>1574</v>
       </c>
-      <c r="R454" s="10" t="s">
+      <c r="R454" s="80" t="s">
         <v>1623</v>
       </c>
-      <c r="W454" s="5" t="s">
+      <c r="W454" s="79" t="s">
         <v>548</v>
       </c>
-      <c r="X454" s="5">
+      <c r="X454" s="79">
         <v>9999999</v>
       </c>
-      <c r="Y454" s="5">
+      <c r="Y454" s="79">
         <v>1605571200</v>
       </c>
-      <c r="Z454" s="5">
+      <c r="Z454" s="79">
         <v>2552233600</v>
       </c>
-      <c r="AH454" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI454" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL454" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM454" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="455" spans="1:39" s="5" customFormat="1">
-      <c r="A455" s="5">
+      <c r="AH454" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI454" s="79">
+        <v>1</v>
+      </c>
+      <c r="AL454" s="79">
+        <v>1</v>
+      </c>
+      <c r="AM454" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:39" s="79" customFormat="1">
+      <c r="A455" s="79">
         <v>454</v>
       </c>
-      <c r="B455" s="5">
+      <c r="B455" s="79">
         <v>10371</v>
       </c>
-      <c r="F455" s="5">
-        <v>1</v>
-      </c>
-      <c r="G455" s="5" t="s">
+      <c r="F455" s="79">
+        <v>1</v>
+      </c>
+      <c r="G455" s="79" t="s">
         <v>1532</v>
       </c>
-      <c r="I455" s="5" t="s">
+      <c r="I455" s="79" t="s">
         <v>1557</v>
       </c>
-      <c r="J455" s="5" t="s">
+      <c r="J455" s="79" t="s">
         <v>1602</v>
       </c>
-      <c r="L455" s="5">
+      <c r="L455" s="79">
         <v>-31</v>
       </c>
-      <c r="M455" s="5">
-        <v>0</v>
-      </c>
-      <c r="N455" s="5">
-        <v>0</v>
-      </c>
-      <c r="O455" s="5" t="s">
+      <c r="M455" s="79">
+        <v>0</v>
+      </c>
+      <c r="N455" s="79">
+        <v>0</v>
+      </c>
+      <c r="O455" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="P455" s="5">
+      <c r="P455" s="79">
         <v>9800</v>
       </c>
-      <c r="Q455" s="5" t="s">
+      <c r="Q455" s="79" t="s">
         <v>1574</v>
       </c>
-      <c r="R455" s="10" t="s">
+      <c r="R455" s="80" t="s">
         <v>1704</v>
       </c>
-      <c r="W455" s="5" t="s">
+      <c r="W455" s="79" t="s">
         <v>548</v>
       </c>
-      <c r="X455" s="5">
+      <c r="X455" s="79">
         <v>9999999</v>
       </c>
-      <c r="Y455" s="5">
+      <c r="Y455" s="79">
         <v>1605571200</v>
       </c>
-      <c r="Z455" s="5">
+      <c r="Z455" s="79">
         <v>2552233600</v>
       </c>
-      <c r="AA455" s="5">
+      <c r="AA455" s="79">
         <v>57</v>
       </c>
-      <c r="AH455" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI455" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL455" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM455" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="456" spans="1:39" s="5" customFormat="1">
-      <c r="A456" s="5">
+      <c r="AH455" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI455" s="79">
+        <v>1</v>
+      </c>
+      <c r="AL455" s="79">
+        <v>1</v>
+      </c>
+      <c r="AM455" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:39" s="79" customFormat="1">
+      <c r="A456" s="79">
         <v>455</v>
       </c>
-      <c r="B456" s="5">
+      <c r="B456" s="79">
         <v>10372</v>
       </c>
-      <c r="F456" s="5">
-        <v>1</v>
-      </c>
-      <c r="G456" s="5" t="s">
+      <c r="F456" s="79">
+        <v>1</v>
+      </c>
+      <c r="G456" s="79" t="s">
         <v>1533</v>
       </c>
-      <c r="I456" s="5" t="s">
+      <c r="I456" s="79" t="s">
         <v>1558</v>
       </c>
-      <c r="J456" s="5" t="s">
+      <c r="J456" s="79" t="s">
         <v>1603</v>
       </c>
-      <c r="L456" s="5">
+      <c r="L456" s="79">
         <v>-31</v>
       </c>
-      <c r="M456" s="5">
-        <v>0</v>
-      </c>
-      <c r="N456" s="5">
-        <v>0</v>
-      </c>
-      <c r="O456" s="5" t="s">
+      <c r="M456" s="79">
+        <v>0</v>
+      </c>
+      <c r="N456" s="79">
+        <v>0</v>
+      </c>
+      <c r="O456" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="P456" s="5">
+      <c r="P456" s="79">
         <v>19800</v>
       </c>
-      <c r="Q456" s="5" t="s">
+      <c r="Q456" s="79" t="s">
         <v>1574</v>
       </c>
-      <c r="R456" s="10" t="s">
+      <c r="R456" s="80" t="s">
         <v>1624</v>
       </c>
-      <c r="W456" s="5" t="s">
+      <c r="W456" s="79" t="s">
         <v>548</v>
       </c>
-      <c r="X456" s="5">
+      <c r="X456" s="79">
         <v>9999999</v>
       </c>
-      <c r="Y456" s="5">
+      <c r="Y456" s="79">
         <v>1605571200</v>
       </c>
-      <c r="Z456" s="5">
+      <c r="Z456" s="79">
         <v>2552233600</v>
       </c>
-      <c r="AA456" s="5">
+      <c r="AA456" s="79">
         <v>58</v>
       </c>
-      <c r="AH456" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI456" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL456" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM456" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="457" spans="1:39" s="5" customFormat="1">
-      <c r="A457" s="5">
+      <c r="AH456" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI456" s="79">
+        <v>1</v>
+      </c>
+      <c r="AL456" s="79">
+        <v>1</v>
+      </c>
+      <c r="AM456" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:39" s="79" customFormat="1">
+      <c r="A457" s="79">
         <v>456</v>
       </c>
-      <c r="B457" s="5">
+      <c r="B457" s="79">
         <v>10373</v>
       </c>
-      <c r="F457" s="5">
-        <v>1</v>
-      </c>
-      <c r="G457" s="5" t="s">
+      <c r="F457" s="79">
+        <v>1</v>
+      </c>
+      <c r="G457" s="79" t="s">
         <v>1534</v>
       </c>
-      <c r="I457" s="5" t="s">
+      <c r="I457" s="79" t="s">
         <v>1559</v>
       </c>
-      <c r="J457" s="5" t="s">
+      <c r="J457" s="79" t="s">
         <v>1604</v>
       </c>
-      <c r="L457" s="5">
+      <c r="L457" s="79">
         <v>-31</v>
       </c>
-      <c r="M457" s="5">
-        <v>0</v>
-      </c>
-      <c r="N457" s="5">
-        <v>0</v>
-      </c>
-      <c r="O457" s="5" t="s">
+      <c r="M457" s="79">
+        <v>0</v>
+      </c>
+      <c r="N457" s="79">
+        <v>0</v>
+      </c>
+      <c r="O457" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="P457" s="5">
+      <c r="P457" s="79">
         <v>19800</v>
       </c>
-      <c r="Q457" s="5" t="s">
+      <c r="Q457" s="79" t="s">
         <v>1574</v>
       </c>
-      <c r="R457" s="10" t="s">
+      <c r="R457" s="80" t="s">
         <v>1625</v>
       </c>
-      <c r="W457" s="5" t="s">
+      <c r="W457" s="79" t="s">
         <v>548</v>
       </c>
-      <c r="X457" s="5">
+      <c r="X457" s="79">
         <v>9999999</v>
       </c>
-      <c r="Y457" s="5">
+      <c r="Y457" s="79">
         <v>1605571200</v>
       </c>
-      <c r="Z457" s="5">
+      <c r="Z457" s="79">
         <v>2552233600</v>
       </c>
-      <c r="AH457" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI457" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL457" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM457" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="458" spans="1:39" s="5" customFormat="1">
-      <c r="A458" s="5">
+      <c r="AH457" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI457" s="79">
+        <v>1</v>
+      </c>
+      <c r="AL457" s="79">
+        <v>1</v>
+      </c>
+      <c r="AM457" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:39" s="79" customFormat="1">
+      <c r="A458" s="79">
         <v>457</v>
       </c>
-      <c r="B458" s="5">
+      <c r="B458" s="79">
         <v>10374</v>
       </c>
-      <c r="F458" s="5">
-        <v>1</v>
-      </c>
-      <c r="G458" s="5" t="s">
+      <c r="F458" s="79">
+        <v>1</v>
+      </c>
+      <c r="G458" s="79" t="s">
         <v>1535</v>
       </c>
-      <c r="I458" s="5" t="s">
+      <c r="I458" s="79" t="s">
         <v>1560</v>
       </c>
-      <c r="J458" s="5" t="s">
+      <c r="J458" s="79" t="s">
         <v>1605</v>
       </c>
-      <c r="L458" s="5">
+      <c r="L458" s="79">
         <v>-31</v>
       </c>
-      <c r="M458" s="5">
-        <v>0</v>
-      </c>
-      <c r="N458" s="5">
-        <v>0</v>
-      </c>
-      <c r="O458" s="5" t="s">
+      <c r="M458" s="79">
+        <v>0</v>
+      </c>
+      <c r="N458" s="79">
+        <v>0</v>
+      </c>
+      <c r="O458" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="P458" s="5">
+      <c r="P458" s="79">
         <v>19800</v>
       </c>
-      <c r="Q458" s="5" t="s">
+      <c r="Q458" s="79" t="s">
         <v>1574</v>
       </c>
-      <c r="R458" s="10" t="s">
+      <c r="R458" s="80" t="s">
         <v>1626</v>
       </c>
-      <c r="W458" s="5" t="s">
+      <c r="W458" s="79" t="s">
         <v>548</v>
       </c>
-      <c r="X458" s="5">
+      <c r="X458" s="79">
         <v>9999999</v>
       </c>
-      <c r="Y458" s="5">
+      <c r="Y458" s="79">
         <v>1605571200</v>
       </c>
-      <c r="Z458" s="5">
+      <c r="Z458" s="79">
         <v>2552233600</v>
       </c>
-      <c r="AA458" s="5">
+      <c r="AA458" s="79">
         <v>59</v>
       </c>
-      <c r="AH458" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI458" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL458" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM458" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="459" spans="1:39" s="5" customFormat="1">
-      <c r="A459" s="5">
+      <c r="AH458" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI458" s="79">
+        <v>1</v>
+      </c>
+      <c r="AL458" s="79">
+        <v>1</v>
+      </c>
+      <c r="AM458" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:39" s="79" customFormat="1">
+      <c r="A459" s="79">
         <v>458</v>
       </c>
-      <c r="B459" s="5">
+      <c r="B459" s="79">
         <v>10375</v>
       </c>
-      <c r="F459" s="5">
-        <v>1</v>
-      </c>
-      <c r="G459" s="5" t="s">
+      <c r="F459" s="79">
+        <v>1</v>
+      </c>
+      <c r="G459" s="79" t="s">
         <v>1543</v>
       </c>
-      <c r="I459" s="5" t="s">
+      <c r="I459" s="79" t="s">
         <v>1561</v>
       </c>
-      <c r="J459" s="5" t="s">
+      <c r="J459" s="79" t="s">
         <v>1606</v>
       </c>
-      <c r="L459" s="5">
+      <c r="L459" s="79">
         <v>-31</v>
       </c>
-      <c r="M459" s="5">
-        <v>0</v>
-      </c>
-      <c r="N459" s="5">
-        <v>0</v>
-      </c>
-      <c r="O459" s="5" t="s">
+      <c r="M459" s="79">
+        <v>0</v>
+      </c>
+      <c r="N459" s="79">
+        <v>0</v>
+      </c>
+      <c r="O459" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="P459" s="5">
+      <c r="P459" s="79">
         <v>49800</v>
       </c>
-      <c r="Q459" s="5" t="s">
+      <c r="Q459" s="79" t="s">
         <v>1574</v>
       </c>
-      <c r="R459" s="10" t="s">
+      <c r="R459" s="80" t="s">
         <v>1627</v>
       </c>
-      <c r="W459" s="5" t="s">
+      <c r="W459" s="79" t="s">
         <v>548</v>
       </c>
-      <c r="X459" s="5">
+      <c r="X459" s="79">
         <v>9999999</v>
       </c>
-      <c r="Y459" s="5">
+      <c r="Y459" s="79">
         <v>1605571200</v>
       </c>
-      <c r="Z459" s="5">
+      <c r="Z459" s="79">
         <v>2552233600</v>
       </c>
-      <c r="AA459" s="5">
+      <c r="AA459" s="79">
         <v>60</v>
       </c>
-      <c r="AH459" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI459" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL459" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM459" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="460" spans="1:39" s="5" customFormat="1">
-      <c r="A460" s="5">
+      <c r="AH459" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI459" s="79">
+        <v>1</v>
+      </c>
+      <c r="AL459" s="79">
+        <v>1</v>
+      </c>
+      <c r="AM459" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:39" s="79" customFormat="1">
+      <c r="A460" s="79">
         <v>459</v>
       </c>
-      <c r="B460" s="5">
+      <c r="B460" s="79">
         <v>10376</v>
       </c>
-      <c r="F460" s="5">
-        <v>1</v>
-      </c>
-      <c r="G460" s="5" t="s">
+      <c r="F460" s="79">
+        <v>1</v>
+      </c>
+      <c r="G460" s="79" t="s">
         <v>1544</v>
       </c>
-      <c r="I460" s="5" t="s">
+      <c r="I460" s="79" t="s">
         <v>1562</v>
       </c>
-      <c r="J460" s="5" t="s">
+      <c r="J460" s="79" t="s">
         <v>1607</v>
       </c>
-      <c r="L460" s="5">
+      <c r="L460" s="79">
         <v>-31</v>
       </c>
-      <c r="M460" s="5">
-        <v>0</v>
-      </c>
-      <c r="N460" s="5">
-        <v>0</v>
-      </c>
-      <c r="O460" s="5" t="s">
+      <c r="M460" s="79">
+        <v>0</v>
+      </c>
+      <c r="N460" s="79">
+        <v>0</v>
+      </c>
+      <c r="O460" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="P460" s="5">
+      <c r="P460" s="79">
         <v>49800</v>
       </c>
-      <c r="Q460" s="5" t="s">
+      <c r="Q460" s="79" t="s">
         <v>1574</v>
       </c>
-      <c r="R460" s="10" t="s">
+      <c r="R460" s="80" t="s">
         <v>1628</v>
       </c>
-      <c r="W460" s="5" t="s">
+      <c r="W460" s="79" t="s">
         <v>548</v>
       </c>
-      <c r="X460" s="5">
+      <c r="X460" s="79">
         <v>9999999</v>
       </c>
-      <c r="Y460" s="5">
+      <c r="Y460" s="79">
         <v>1605571200</v>
       </c>
-      <c r="Z460" s="5">
+      <c r="Z460" s="79">
         <v>2552233600</v>
       </c>
-      <c r="AH460" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI460" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL460" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM460" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="461" spans="1:39" s="5" customFormat="1">
-      <c r="A461" s="5">
+      <c r="AH460" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI460" s="79">
+        <v>1</v>
+      </c>
+      <c r="AL460" s="79">
+        <v>1</v>
+      </c>
+      <c r="AM460" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:39" s="79" customFormat="1">
+      <c r="A461" s="79">
         <v>460</v>
       </c>
-      <c r="B461" s="5">
+      <c r="B461" s="79">
         <v>10377</v>
       </c>
-      <c r="F461" s="5">
-        <v>1</v>
-      </c>
-      <c r="G461" s="5" t="s">
+      <c r="F461" s="79">
+        <v>1</v>
+      </c>
+      <c r="G461" s="79" t="s">
         <v>1545</v>
       </c>
-      <c r="I461" s="5" t="s">
+      <c r="I461" s="79" t="s">
         <v>1563</v>
       </c>
-      <c r="J461" s="5" t="s">
+      <c r="J461" s="79" t="s">
         <v>1608</v>
       </c>
-      <c r="L461" s="5">
+      <c r="L461" s="79">
         <v>-31</v>
       </c>
-      <c r="M461" s="5">
-        <v>0</v>
-      </c>
-      <c r="N461" s="5">
-        <v>0</v>
-      </c>
-      <c r="O461" s="5" t="s">
+      <c r="M461" s="79">
+        <v>0</v>
+      </c>
+      <c r="N461" s="79">
+        <v>0</v>
+      </c>
+      <c r="O461" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="P461" s="5">
+      <c r="P461" s="79">
         <v>49800</v>
       </c>
-      <c r="Q461" s="5" t="s">
+      <c r="Q461" s="79" t="s">
         <v>1574</v>
       </c>
-      <c r="R461" s="10" t="s">
+      <c r="R461" s="80" t="s">
         <v>1629</v>
       </c>
-      <c r="W461" s="5" t="s">
+      <c r="W461" s="79" t="s">
         <v>548</v>
       </c>
-      <c r="X461" s="5">
+      <c r="X461" s="79">
         <v>9999999</v>
       </c>
-      <c r="Y461" s="5">
+      <c r="Y461" s="79">
         <v>1605571200</v>
       </c>
-      <c r="Z461" s="5">
+      <c r="Z461" s="79">
         <v>2552233600</v>
       </c>
-      <c r="AA461" s="5">
+      <c r="AA461" s="79">
         <v>61</v>
       </c>
-      <c r="AH461" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI461" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL461" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM461" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="462" spans="1:39" s="5" customFormat="1">
-      <c r="A462" s="5">
+      <c r="AH461" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI461" s="79">
+        <v>1</v>
+      </c>
+      <c r="AL461" s="79">
+        <v>1</v>
+      </c>
+      <c r="AM461" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:39" s="79" customFormat="1">
+      <c r="A462" s="79">
         <v>461</v>
       </c>
-      <c r="B462" s="5">
+      <c r="B462" s="79">
         <v>10378</v>
       </c>
-      <c r="F462" s="5">
-        <v>1</v>
-      </c>
-      <c r="G462" s="5" t="s">
+      <c r="F462" s="79">
+        <v>1</v>
+      </c>
+      <c r="G462" s="79" t="s">
         <v>1546</v>
       </c>
-      <c r="I462" s="5" t="s">
+      <c r="I462" s="79" t="s">
         <v>1564</v>
       </c>
-      <c r="J462" s="5" t="s">
+      <c r="J462" s="79" t="s">
         <v>1609</v>
       </c>
-      <c r="L462" s="5">
+      <c r="L462" s="79">
         <v>-31</v>
       </c>
-      <c r="M462" s="5">
-        <v>0</v>
-      </c>
-      <c r="N462" s="5">
-        <v>0</v>
-      </c>
-      <c r="O462" s="5" t="s">
+      <c r="M462" s="79">
+        <v>0</v>
+      </c>
+      <c r="N462" s="79">
+        <v>0</v>
+      </c>
+      <c r="O462" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="P462" s="5">
+      <c r="P462" s="79">
         <v>99800</v>
       </c>
-      <c r="Q462" s="5" t="s">
+      <c r="Q462" s="79" t="s">
         <v>1574</v>
       </c>
-      <c r="R462" s="10" t="s">
+      <c r="R462" s="80" t="s">
         <v>1630</v>
       </c>
-      <c r="W462" s="5" t="s">
+      <c r="W462" s="79" t="s">
         <v>548</v>
       </c>
-      <c r="X462" s="5">
+      <c r="X462" s="79">
         <v>9999999</v>
       </c>
-      <c r="Y462" s="5">
+      <c r="Y462" s="79">
         <v>1605571200</v>
       </c>
-      <c r="Z462" s="5">
+      <c r="Z462" s="79">
         <v>2552233600</v>
       </c>
-      <c r="AA462" s="5">
+      <c r="AA462" s="79">
         <v>62</v>
       </c>
-      <c r="AH462" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI462" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL462" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM462" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="463" spans="1:39" s="5" customFormat="1">
-      <c r="A463" s="5">
+      <c r="AH462" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI462" s="79">
+        <v>1</v>
+      </c>
+      <c r="AL462" s="79">
+        <v>1</v>
+      </c>
+      <c r="AM462" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:39" s="79" customFormat="1">
+      <c r="A463" s="79">
         <v>462</v>
       </c>
-      <c r="B463" s="5">
+      <c r="B463" s="79">
         <v>10379</v>
       </c>
-      <c r="F463" s="5">
-        <v>1</v>
-      </c>
-      <c r="G463" s="5" t="s">
+      <c r="F463" s="79">
+        <v>1</v>
+      </c>
+      <c r="G463" s="79" t="s">
         <v>1547</v>
       </c>
-      <c r="I463" s="5" t="s">
+      <c r="I463" s="79" t="s">
         <v>1565</v>
       </c>
-      <c r="J463" s="5" t="s">
+      <c r="J463" s="79" t="s">
         <v>1610</v>
       </c>
-      <c r="L463" s="5">
+      <c r="L463" s="79">
         <v>-31</v>
       </c>
-      <c r="M463" s="5">
-        <v>0</v>
-      </c>
-      <c r="N463" s="5">
-        <v>0</v>
-      </c>
-      <c r="O463" s="5" t="s">
+      <c r="M463" s="79">
+        <v>0</v>
+      </c>
+      <c r="N463" s="79">
+        <v>0</v>
+      </c>
+      <c r="O463" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="P463" s="5">
+      <c r="P463" s="79">
         <v>99800</v>
       </c>
-      <c r="Q463" s="5" t="s">
+      <c r="Q463" s="79" t="s">
         <v>1574</v>
       </c>
-      <c r="R463" s="10" t="s">
+      <c r="R463" s="80" t="s">
         <v>1631</v>
       </c>
-      <c r="W463" s="5" t="s">
+      <c r="W463" s="79" t="s">
         <v>1679</v>
       </c>
-      <c r="X463" s="5">
+      <c r="X463" s="79">
         <v>9999999</v>
       </c>
-      <c r="Y463" s="5">
+      <c r="Y463" s="79">
         <v>1605571200</v>
       </c>
-      <c r="Z463" s="5">
+      <c r="Z463" s="79">
         <v>2552233600</v>
       </c>
-      <c r="AH463" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI463" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL463" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM463" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="464" spans="1:39" s="5" customFormat="1">
-      <c r="A464" s="5">
+      <c r="AH463" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI463" s="79">
+        <v>1</v>
+      </c>
+      <c r="AL463" s="79">
+        <v>1</v>
+      </c>
+      <c r="AM463" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:39" s="79" customFormat="1">
+      <c r="A464" s="79">
         <v>463</v>
       </c>
-      <c r="B464" s="5">
+      <c r="B464" s="79">
         <v>10380</v>
       </c>
-      <c r="F464" s="5">
-        <v>1</v>
-      </c>
-      <c r="G464" s="5" t="s">
+      <c r="F464" s="79">
+        <v>1</v>
+      </c>
+      <c r="G464" s="79" t="s">
         <v>1548</v>
       </c>
-      <c r="I464" s="5" t="s">
+      <c r="I464" s="79" t="s">
         <v>1566</v>
       </c>
-      <c r="J464" s="5" t="s">
+      <c r="J464" s="79" t="s">
         <v>1611</v>
       </c>
-      <c r="L464" s="5">
+      <c r="L464" s="79">
         <v>-31</v>
       </c>
-      <c r="M464" s="5">
-        <v>0</v>
-      </c>
-      <c r="N464" s="5">
-        <v>0</v>
-      </c>
-      <c r="O464" s="5" t="s">
+      <c r="M464" s="79">
+        <v>0</v>
+      </c>
+      <c r="N464" s="79">
+        <v>0</v>
+      </c>
+      <c r="O464" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="P464" s="5">
+      <c r="P464" s="79">
         <v>99800</v>
       </c>
-      <c r="Q464" s="5" t="s">
+      <c r="Q464" s="79" t="s">
         <v>1574</v>
       </c>
-      <c r="R464" s="10" t="s">
+      <c r="R464" s="80" t="s">
         <v>1632</v>
       </c>
-      <c r="W464" s="5" t="s">
+      <c r="W464" s="79" t="s">
         <v>548</v>
       </c>
-      <c r="X464" s="5">
+      <c r="X464" s="79">
         <v>9999999</v>
       </c>
-      <c r="Y464" s="5">
+      <c r="Y464" s="79">
         <v>1605571200</v>
       </c>
-      <c r="Z464" s="5">
+      <c r="Z464" s="79">
         <v>2552233600</v>
       </c>
-      <c r="AA464" s="5">
+      <c r="AA464" s="79">
         <v>63</v>
       </c>
-      <c r="AH464" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI464" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL464" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM464" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="465" spans="1:39" s="5" customFormat="1">
-      <c r="A465" s="5">
+      <c r="AH464" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI464" s="79">
+        <v>1</v>
+      </c>
+      <c r="AL464" s="79">
+        <v>1</v>
+      </c>
+      <c r="AM464" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:39" s="79" customFormat="1">
+      <c r="A465" s="79">
         <v>464</v>
       </c>
-      <c r="B465" s="5">
+      <c r="B465" s="79">
         <v>10381</v>
       </c>
-      <c r="F465" s="5">
-        <v>1</v>
-      </c>
-      <c r="G465" s="5" t="s">
+      <c r="F465" s="79">
+        <v>1</v>
+      </c>
+      <c r="G465" s="79" t="s">
         <v>1549</v>
       </c>
-      <c r="I465" s="5" t="s">
+      <c r="I465" s="79" t="s">
         <v>1567</v>
       </c>
-      <c r="J465" s="5" t="s">
+      <c r="J465" s="79" t="s">
         <v>1612</v>
       </c>
-      <c r="L465" s="5">
+      <c r="L465" s="79">
         <v>-31</v>
       </c>
-      <c r="M465" s="5">
-        <v>0</v>
-      </c>
-      <c r="N465" s="5">
-        <v>0</v>
-      </c>
-      <c r="O465" s="5" t="s">
+      <c r="M465" s="79">
+        <v>0</v>
+      </c>
+      <c r="N465" s="79">
+        <v>0</v>
+      </c>
+      <c r="O465" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="P465" s="5">
+      <c r="P465" s="79">
         <v>249800</v>
       </c>
-      <c r="Q465" s="5" t="s">
+      <c r="Q465" s="79" t="s">
         <v>1574</v>
       </c>
-      <c r="R465" s="10" t="s">
+      <c r="R465" s="80" t="s">
         <v>1633</v>
       </c>
-      <c r="W465" s="5" t="s">
+      <c r="W465" s="79" t="s">
         <v>548</v>
       </c>
-      <c r="X465" s="5">
+      <c r="X465" s="79">
         <v>9999999</v>
       </c>
-      <c r="Y465" s="5">
+      <c r="Y465" s="79">
         <v>1605571200</v>
       </c>
-      <c r="Z465" s="5">
+      <c r="Z465" s="79">
         <v>2552233600</v>
       </c>
-      <c r="AA465" s="5">
+      <c r="AA465" s="79">
         <v>64</v>
       </c>
-      <c r="AH465" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI465" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL465" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM465" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="466" spans="1:39" s="5" customFormat="1">
-      <c r="A466" s="5">
+      <c r="AH465" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI465" s="79">
+        <v>1</v>
+      </c>
+      <c r="AL465" s="79">
+        <v>1</v>
+      </c>
+      <c r="AM465" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:39" s="79" customFormat="1">
+      <c r="A466" s="79">
         <v>465</v>
       </c>
-      <c r="B466" s="5">
+      <c r="B466" s="79">
         <v>10382</v>
       </c>
-      <c r="F466" s="5">
-        <v>1</v>
-      </c>
-      <c r="G466" s="5" t="s">
+      <c r="F466" s="79">
+        <v>1</v>
+      </c>
+      <c r="G466" s="79" t="s">
         <v>1550</v>
       </c>
-      <c r="I466" s="5" t="s">
+      <c r="I466" s="79" t="s">
         <v>1568</v>
       </c>
-      <c r="J466" s="5" t="s">
+      <c r="J466" s="79" t="s">
         <v>1613</v>
       </c>
-      <c r="L466" s="5">
+      <c r="L466" s="79">
         <v>-31</v>
       </c>
-      <c r="M466" s="5">
-        <v>0</v>
-      </c>
-      <c r="N466" s="5">
-        <v>0</v>
-      </c>
-      <c r="O466" s="5" t="s">
+      <c r="M466" s="79">
+        <v>0</v>
+      </c>
+      <c r="N466" s="79">
+        <v>0</v>
+      </c>
+      <c r="O466" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="P466" s="5">
+      <c r="P466" s="79">
         <v>249800</v>
       </c>
-      <c r="Q466" s="5" t="s">
+      <c r="Q466" s="79" t="s">
         <v>1574</v>
       </c>
-      <c r="R466" s="10" t="s">
+      <c r="R466" s="80" t="s">
         <v>1634</v>
       </c>
-      <c r="W466" s="5" t="s">
+      <c r="W466" s="79" t="s">
         <v>548</v>
       </c>
-      <c r="X466" s="5">
+      <c r="X466" s="79">
         <v>9999999</v>
       </c>
-      <c r="Y466" s="5">
+      <c r="Y466" s="79">
         <v>1605571200</v>
       </c>
-      <c r="Z466" s="5">
+      <c r="Z466" s="79">
         <v>2552233600</v>
       </c>
-      <c r="AH466" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI466" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL466" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM466" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="467" spans="1:39" s="5" customFormat="1">
-      <c r="A467" s="5">
+      <c r="AH466" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI466" s="79">
+        <v>1</v>
+      </c>
+      <c r="AL466" s="79">
+        <v>1</v>
+      </c>
+      <c r="AM466" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:39" s="79" customFormat="1">
+      <c r="A467" s="79">
         <v>466</v>
       </c>
-      <c r="B467" s="5">
+      <c r="B467" s="79">
         <v>10383</v>
       </c>
-      <c r="F467" s="5">
-        <v>1</v>
-      </c>
-      <c r="G467" s="5" t="s">
+      <c r="F467" s="79">
+        <v>1</v>
+      </c>
+      <c r="G467" s="79" t="s">
         <v>1551</v>
       </c>
-      <c r="I467" s="5" t="s">
+      <c r="I467" s="79" t="s">
         <v>1569</v>
       </c>
-      <c r="J467" s="5" t="s">
+      <c r="J467" s="79" t="s">
         <v>1614</v>
       </c>
-      <c r="L467" s="5">
+      <c r="L467" s="79">
         <v>-31</v>
       </c>
-      <c r="M467" s="5">
-        <v>0</v>
-      </c>
-      <c r="N467" s="5">
-        <v>0</v>
-      </c>
-      <c r="O467" s="5" t="s">
+      <c r="M467" s="79">
+        <v>0</v>
+      </c>
+      <c r="N467" s="79">
+        <v>0</v>
+      </c>
+      <c r="O467" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="P467" s="5">
+      <c r="P467" s="79">
         <v>249800</v>
       </c>
-      <c r="Q467" s="5" t="s">
+      <c r="Q467" s="79" t="s">
         <v>1592</v>
       </c>
-      <c r="R467" s="10" t="s">
+      <c r="R467" s="80" t="s">
         <v>1635</v>
       </c>
-      <c r="W467" s="5" t="s">
+      <c r="W467" s="79" t="s">
         <v>548</v>
       </c>
-      <c r="X467" s="5">
+      <c r="X467" s="79">
         <v>9999999</v>
       </c>
-      <c r="Y467" s="5">
+      <c r="Y467" s="79">
         <v>1605571200</v>
       </c>
-      <c r="Z467" s="5">
+      <c r="Z467" s="79">
         <v>2552233600</v>
       </c>
-      <c r="AA467" s="5">
+      <c r="AA467" s="79">
         <v>65</v>
       </c>
-      <c r="AH467" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI467" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL467" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM467" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="468" spans="1:39" s="5" customFormat="1">
-      <c r="A468" s="5">
+      <c r="AH467" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI467" s="79">
+        <v>1</v>
+      </c>
+      <c r="AL467" s="79">
+        <v>1</v>
+      </c>
+      <c r="AM467" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:39" s="79" customFormat="1">
+      <c r="A468" s="79">
         <v>467</v>
       </c>
-      <c r="B468" s="5">
+      <c r="B468" s="79">
         <v>10384</v>
       </c>
-      <c r="F468" s="5">
-        <v>1</v>
-      </c>
-      <c r="G468" s="5" t="s">
+      <c r="F468" s="79">
+        <v>1</v>
+      </c>
+      <c r="G468" s="79" t="s">
         <v>1575</v>
       </c>
-      <c r="I468" s="5" t="s">
+      <c r="I468" s="79" t="s">
         <v>1583</v>
       </c>
-      <c r="J468" s="5" t="s">
+      <c r="J468" s="79" t="s">
         <v>1585</v>
       </c>
-      <c r="L468" s="5">
+      <c r="L468" s="79">
         <v>-31</v>
       </c>
-      <c r="M468" s="5">
-        <v>0</v>
-      </c>
-      <c r="N468" s="5">
-        <v>0</v>
-      </c>
-      <c r="O468" s="5" t="s">
+      <c r="M468" s="79">
+        <v>0</v>
+      </c>
+      <c r="N468" s="79">
+        <v>0</v>
+      </c>
+      <c r="O468" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="P468" s="5">
+      <c r="P468" s="79">
         <v>600</v>
       </c>
-      <c r="Q468" s="5" t="s">
+      <c r="Q468" s="79" t="s">
         <v>1593</v>
       </c>
-      <c r="R468" s="10" t="s">
+      <c r="R468" s="80" t="s">
         <v>1636</v>
       </c>
-      <c r="W468" s="5" t="s">
+      <c r="W468" s="79" t="s">
         <v>1656</v>
       </c>
-      <c r="X468" s="5">
+      <c r="X468" s="79">
         <v>9999999</v>
       </c>
-      <c r="Y468" s="5">
+      <c r="Y468" s="79">
         <v>1605571200</v>
       </c>
-      <c r="Z468" s="5">
+      <c r="Z468" s="79">
         <v>2552233600</v>
       </c>
-      <c r="AH468" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI468" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL468" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM468" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="469" spans="1:39" s="5" customFormat="1">
-      <c r="A469" s="5">
+      <c r="AH468" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI468" s="79">
+        <v>1</v>
+      </c>
+      <c r="AL468" s="79">
+        <v>1</v>
+      </c>
+      <c r="AM468" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:39" s="79" customFormat="1">
+      <c r="A469" s="79">
         <v>468</v>
       </c>
-      <c r="B469" s="5">
+      <c r="B469" s="79">
         <v>10385</v>
       </c>
-      <c r="F469" s="5">
-        <v>1</v>
-      </c>
-      <c r="G469" s="5" t="s">
+      <c r="F469" s="79">
+        <v>1</v>
+      </c>
+      <c r="G469" s="79" t="s">
         <v>1576</v>
       </c>
-      <c r="I469" s="5" t="s">
+      <c r="I469" s="79" t="s">
         <v>1583</v>
       </c>
-      <c r="J469" s="5" t="s">
+      <c r="J469" s="79" t="s">
         <v>1586</v>
       </c>
-      <c r="L469" s="5">
+      <c r="L469" s="79">
         <v>-31</v>
       </c>
-      <c r="M469" s="5">
-        <v>0</v>
-      </c>
-      <c r="N469" s="5">
-        <v>0</v>
-      </c>
-      <c r="O469" s="5" t="s">
+      <c r="M469" s="79">
+        <v>0</v>
+      </c>
+      <c r="N469" s="79">
+        <v>0</v>
+      </c>
+      <c r="O469" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="P469" s="5">
+      <c r="P469" s="79">
         <v>3000</v>
       </c>
-      <c r="Q469" s="5" t="s">
+      <c r="Q469" s="79" t="s">
         <v>1593</v>
       </c>
-      <c r="R469" s="10" t="s">
+      <c r="R469" s="80" t="s">
         <v>1637</v>
       </c>
-      <c r="W469" s="5" t="s">
+      <c r="W469" s="79" t="s">
         <v>1656</v>
       </c>
-      <c r="X469" s="5">
+      <c r="X469" s="79">
         <v>9999999</v>
       </c>
-      <c r="Y469" s="5">
+      <c r="Y469" s="79">
         <v>1605571200</v>
       </c>
-      <c r="Z469" s="5">
+      <c r="Z469" s="79">
         <v>2552233600</v>
       </c>
-      <c r="AH469" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI469" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL469" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM469" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="470" spans="1:39" s="5" customFormat="1">
-      <c r="A470" s="5">
+      <c r="AH469" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI469" s="79">
+        <v>1</v>
+      </c>
+      <c r="AL469" s="79">
+        <v>1</v>
+      </c>
+      <c r="AM469" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:39" s="79" customFormat="1">
+      <c r="A470" s="79">
         <v>469</v>
       </c>
-      <c r="B470" s="5">
+      <c r="B470" s="79">
         <v>10386</v>
       </c>
-      <c r="F470" s="5">
-        <v>1</v>
-      </c>
-      <c r="G470" s="5" t="s">
+      <c r="F470" s="79">
+        <v>1</v>
+      </c>
+      <c r="G470" s="79" t="s">
         <v>1577</v>
       </c>
-      <c r="I470" s="5" t="s">
+      <c r="I470" s="79" t="s">
         <v>1583</v>
       </c>
-      <c r="J470" s="5" t="s">
+      <c r="J470" s="79" t="s">
         <v>1587</v>
       </c>
-      <c r="L470" s="5">
+      <c r="L470" s="79">
         <v>-31</v>
       </c>
-      <c r="M470" s="5">
-        <v>0</v>
-      </c>
-      <c r="N470" s="5">
-        <v>0</v>
-      </c>
-      <c r="O470" s="5" t="s">
+      <c r="M470" s="79">
+        <v>0</v>
+      </c>
+      <c r="N470" s="79">
+        <v>0</v>
+      </c>
+      <c r="O470" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="P470" s="5">
+      <c r="P470" s="79">
         <v>6800</v>
       </c>
-      <c r="Q470" s="5" t="s">
+      <c r="Q470" s="79" t="s">
         <v>1593</v>
       </c>
-      <c r="R470" s="10" t="s">
+      <c r="R470" s="80" t="s">
         <v>839</v>
       </c>
-      <c r="W470" s="5" t="s">
+      <c r="W470" s="79" t="s">
         <v>1656</v>
       </c>
-      <c r="X470" s="5">
+      <c r="X470" s="79">
         <v>9999999</v>
       </c>
-      <c r="Y470" s="5">
+      <c r="Y470" s="79">
         <v>1605571200</v>
       </c>
-      <c r="Z470" s="5">
+      <c r="Z470" s="79">
         <v>2552233600</v>
       </c>
-      <c r="AH470" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI470" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL470" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM470" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="471" spans="1:39" s="5" customFormat="1">
-      <c r="A471" s="5">
+      <c r="AH470" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI470" s="79">
+        <v>1</v>
+      </c>
+      <c r="AL470" s="79">
+        <v>1</v>
+      </c>
+      <c r="AM470" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:39" s="79" customFormat="1">
+      <c r="A471" s="79">
         <v>470</v>
       </c>
-      <c r="B471" s="5">
+      <c r="B471" s="79">
         <v>10387</v>
       </c>
-      <c r="F471" s="5">
-        <v>1</v>
-      </c>
-      <c r="G471" s="5" t="s">
+      <c r="F471" s="79">
+        <v>1</v>
+      </c>
+      <c r="G471" s="79" t="s">
         <v>1578</v>
       </c>
-      <c r="I471" s="5" t="s">
+      <c r="I471" s="79" t="s">
         <v>1583</v>
       </c>
-      <c r="J471" s="5" t="s">
+      <c r="J471" s="79" t="s">
         <v>1588</v>
       </c>
-      <c r="L471" s="5">
+      <c r="L471" s="79">
         <v>-31</v>
       </c>
-      <c r="M471" s="5">
-        <v>0</v>
-      </c>
-      <c r="N471" s="5">
-        <v>0</v>
-      </c>
-      <c r="O471" s="5" t="s">
+      <c r="M471" s="79">
+        <v>0</v>
+      </c>
+      <c r="N471" s="79">
+        <v>0</v>
+      </c>
+      <c r="O471" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="P471" s="5">
+      <c r="P471" s="79">
         <v>9800</v>
       </c>
-      <c r="Q471" s="5" t="s">
+      <c r="Q471" s="79" t="s">
         <v>1593</v>
       </c>
-      <c r="R471" s="10" t="s">
+      <c r="R471" s="80" t="s">
         <v>1638</v>
       </c>
-      <c r="W471" s="5" t="s">
+      <c r="W471" s="79" t="s">
         <v>1655</v>
       </c>
-      <c r="X471" s="5">
+      <c r="X471" s="79">
         <v>9999999</v>
       </c>
-      <c r="Y471" s="5">
+      <c r="Y471" s="79">
         <v>1605571200</v>
       </c>
-      <c r="Z471" s="5">
+      <c r="Z471" s="79">
         <v>2552233600</v>
       </c>
-      <c r="AH471" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI471" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL471" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM471" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="472" spans="1:39" s="5" customFormat="1">
-      <c r="A472" s="5">
+      <c r="AH471" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI471" s="79">
+        <v>1</v>
+      </c>
+      <c r="AL471" s="79">
+        <v>1</v>
+      </c>
+      <c r="AM471" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:39" s="79" customFormat="1">
+      <c r="A472" s="79">
         <v>471</v>
       </c>
-      <c r="B472" s="5">
+      <c r="B472" s="79">
         <v>10388</v>
       </c>
-      <c r="F472" s="5">
-        <v>1</v>
-      </c>
-      <c r="G472" s="5" t="s">
+      <c r="F472" s="79">
+        <v>1</v>
+      </c>
+      <c r="G472" s="79" t="s">
         <v>1579</v>
       </c>
-      <c r="I472" s="5" t="s">
+      <c r="I472" s="79" t="s">
         <v>1583</v>
       </c>
-      <c r="J472" s="5" t="s">
+      <c r="J472" s="79" t="s">
         <v>1589</v>
       </c>
-      <c r="L472" s="5">
+      <c r="L472" s="79">
         <v>-31</v>
       </c>
-      <c r="M472" s="5">
-        <v>0</v>
-      </c>
-      <c r="N472" s="5">
-        <v>0</v>
-      </c>
-      <c r="O472" s="5" t="s">
+      <c r="M472" s="79">
+        <v>0</v>
+      </c>
+      <c r="N472" s="79">
+        <v>0</v>
+      </c>
+      <c r="O472" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="P472" s="5">
+      <c r="P472" s="79">
         <v>19800</v>
       </c>
-      <c r="Q472" s="5" t="s">
+      <c r="Q472" s="79" t="s">
         <v>1593</v>
       </c>
-      <c r="R472" s="10" t="s">
+      <c r="R472" s="80" t="s">
         <v>840</v>
       </c>
-      <c r="W472" s="5" t="s">
+      <c r="W472" s="79" t="s">
         <v>1655</v>
       </c>
-      <c r="X472" s="5">
+      <c r="X472" s="79">
         <v>9999999</v>
       </c>
-      <c r="Y472" s="5">
+      <c r="Y472" s="79">
         <v>1605571200</v>
       </c>
-      <c r="Z472" s="5">
+      <c r="Z472" s="79">
         <v>2552233600</v>
       </c>
-      <c r="AH472" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI472" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL472" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM472" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="473" spans="1:39" s="5" customFormat="1">
-      <c r="A473" s="5">
+      <c r="AH472" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI472" s="79">
+        <v>1</v>
+      </c>
+      <c r="AL472" s="79">
+        <v>1</v>
+      </c>
+      <c r="AM472" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:39" s="79" customFormat="1">
+      <c r="A473" s="79">
         <v>472</v>
       </c>
-      <c r="B473" s="5">
+      <c r="B473" s="79">
         <v>10389</v>
       </c>
-      <c r="F473" s="5">
-        <v>1</v>
-      </c>
-      <c r="G473" s="5" t="s">
+      <c r="F473" s="79">
+        <v>1</v>
+      </c>
+      <c r="G473" s="79" t="s">
         <v>1580</v>
       </c>
-      <c r="I473" s="5" t="s">
+      <c r="I473" s="79" t="s">
         <v>1583</v>
       </c>
-      <c r="J473" s="5" t="s">
+      <c r="J473" s="79" t="s">
         <v>1590</v>
       </c>
-      <c r="L473" s="5">
+      <c r="L473" s="79">
         <v>-31</v>
       </c>
-      <c r="M473" s="5">
-        <v>0</v>
-      </c>
-      <c r="N473" s="5">
-        <v>0</v>
-      </c>
-      <c r="O473" s="5" t="s">
+      <c r="M473" s="79">
+        <v>0</v>
+      </c>
+      <c r="N473" s="79">
+        <v>0</v>
+      </c>
+      <c r="O473" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="P473" s="5">
+      <c r="P473" s="79">
         <v>49800</v>
       </c>
-      <c r="Q473" s="5" t="s">
+      <c r="Q473" s="79" t="s">
         <v>1593</v>
       </c>
-      <c r="R473" s="10" t="s">
+      <c r="R473" s="80" t="s">
         <v>1639</v>
       </c>
-      <c r="W473" s="5" t="s">
+      <c r="W473" s="79" t="s">
         <v>1655</v>
       </c>
-      <c r="X473" s="5">
+      <c r="X473" s="79">
         <v>9999999</v>
       </c>
-      <c r="Y473" s="5">
+      <c r="Y473" s="79">
         <v>1605571200</v>
       </c>
-      <c r="Z473" s="5">
+      <c r="Z473" s="79">
         <v>2552233600</v>
       </c>
-      <c r="AH473" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI473" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL473" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM473" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="474" spans="1:39" s="5" customFormat="1">
-      <c r="A474" s="5">
+      <c r="AH473" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI473" s="79">
+        <v>1</v>
+      </c>
+      <c r="AL473" s="79">
+        <v>1</v>
+      </c>
+      <c r="AM473" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:39" s="79" customFormat="1">
+      <c r="A474" s="79">
         <v>473</v>
       </c>
-      <c r="B474" s="5">
+      <c r="B474" s="79">
         <v>10390</v>
       </c>
-      <c r="F474" s="5">
-        <v>1</v>
-      </c>
-      <c r="G474" s="5" t="s">
+      <c r="F474" s="79">
+        <v>1</v>
+      </c>
+      <c r="G474" s="79" t="s">
         <v>1581</v>
       </c>
-      <c r="I474" s="5" t="s">
+      <c r="I474" s="79" t="s">
         <v>1584</v>
       </c>
-      <c r="J474" s="5" t="s">
+      <c r="J474" s="79" t="s">
         <v>1591</v>
       </c>
-      <c r="L474" s="5">
+      <c r="L474" s="79">
         <v>-31</v>
       </c>
-      <c r="M474" s="5">
-        <v>0</v>
-      </c>
-      <c r="N474" s="5">
-        <v>0</v>
-      </c>
-      <c r="O474" s="5" t="s">
+      <c r="M474" s="79">
+        <v>0</v>
+      </c>
+      <c r="N474" s="79">
+        <v>0</v>
+      </c>
+      <c r="O474" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="P474" s="5">
+      <c r="P474" s="79">
         <v>99800</v>
       </c>
-      <c r="Q474" s="5" t="s">
+      <c r="Q474" s="79" t="s">
         <v>1593</v>
       </c>
-      <c r="R474" s="10" t="s">
+      <c r="R474" s="80" t="s">
         <v>1640</v>
       </c>
-      <c r="W474" s="5" t="s">
+      <c r="W474" s="79" t="s">
         <v>1655</v>
       </c>
-      <c r="X474" s="5">
+      <c r="X474" s="79">
         <v>9999999</v>
       </c>
-      <c r="Y474" s="5">
+      <c r="Y474" s="79">
         <v>1605571200</v>
       </c>
-      <c r="Z474" s="5">
+      <c r="Z474" s="79">
         <v>2552233600</v>
       </c>
-      <c r="AH474" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI474" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL474" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM474" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="475" spans="1:39" s="5" customFormat="1">
-      <c r="A475" s="5">
+      <c r="AH474" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI474" s="79">
+        <v>1</v>
+      </c>
+      <c r="AL474" s="79">
+        <v>1</v>
+      </c>
+      <c r="AM474" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:39" s="79" customFormat="1">
+      <c r="A475" s="79">
         <v>474</v>
       </c>
-      <c r="B475" s="5">
+      <c r="B475" s="79">
         <v>10391</v>
       </c>
-      <c r="F475" s="5">
-        <v>1</v>
-      </c>
-      <c r="G475" s="5" t="s">
+      <c r="F475" s="79">
+        <v>1</v>
+      </c>
+      <c r="G475" s="79" t="s">
         <v>1582</v>
       </c>
-      <c r="I475" s="5" t="s">
+      <c r="I475" s="79" t="s">
         <v>1584</v>
       </c>
-      <c r="J475" s="5" t="s">
+      <c r="J475" s="79" t="s">
         <v>1682</v>
       </c>
-      <c r="L475" s="5">
+      <c r="L475" s="79">
         <v>-31</v>
       </c>
-      <c r="M475" s="5">
-        <v>0</v>
-      </c>
-      <c r="N475" s="5">
-        <v>0</v>
-      </c>
-      <c r="O475" s="5" t="s">
+      <c r="M475" s="79">
+        <v>0</v>
+      </c>
+      <c r="N475" s="79">
+        <v>0</v>
+      </c>
+      <c r="O475" s="79" t="s">
         <v>1667</v>
       </c>
-      <c r="P475" s="5">
+      <c r="P475" s="79">
         <v>249800</v>
       </c>
-      <c r="Q475" s="5" t="s">
+      <c r="Q475" s="79" t="s">
         <v>1668</v>
       </c>
-      <c r="R475" s="10" t="s">
+      <c r="R475" s="80" t="s">
         <v>1683</v>
       </c>
-      <c r="W475" s="5" t="s">
+      <c r="W475" s="79" t="s">
         <v>1655</v>
       </c>
-      <c r="X475" s="5">
+      <c r="X475" s="79">
         <v>9999999</v>
       </c>
-      <c r="Y475" s="5">
+      <c r="Y475" s="79">
         <v>1605571200</v>
       </c>
-      <c r="Z475" s="5">
+      <c r="Z475" s="79">
         <v>2552233600</v>
       </c>
-      <c r="AH475" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI475" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL475" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM475" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="476" spans="1:39" s="5" customFormat="1">
-      <c r="A476" s="5">
+      <c r="AH475" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI475" s="79">
+        <v>1</v>
+      </c>
+      <c r="AL475" s="79">
+        <v>1</v>
+      </c>
+      <c r="AM475" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:39" s="79" customFormat="1">
+      <c r="A476" s="79">
         <v>475</v>
       </c>
-      <c r="B476" s="5">
+      <c r="B476" s="79">
         <v>10392</v>
       </c>
-      <c r="F476" s="5">
-        <v>1</v>
-      </c>
-      <c r="G476" s="5" t="s">
+      <c r="F476" s="79">
+        <v>1</v>
+      </c>
+      <c r="G476" s="79" t="s">
         <v>1660</v>
       </c>
-      <c r="I476" s="5" t="s">
+      <c r="I476" s="79" t="s">
         <v>1661</v>
       </c>
-      <c r="J476" s="5" t="s">
+      <c r="J476" s="79" t="s">
         <v>1665</v>
       </c>
-      <c r="L476" s="5">
+      <c r="L476" s="79">
         <v>-31</v>
       </c>
-      <c r="M476" s="5">
-        <v>0</v>
-      </c>
-      <c r="N476" s="5">
-        <v>0</v>
-      </c>
-      <c r="O476" s="5" t="s">
+      <c r="M476" s="79">
+        <v>0</v>
+      </c>
+      <c r="N476" s="79">
+        <v>0</v>
+      </c>
+      <c r="O476" s="79" t="s">
         <v>1667</v>
       </c>
-      <c r="P476" s="5">
+      <c r="P476" s="79">
         <v>49800</v>
       </c>
-      <c r="Q476" s="5" t="s">
+      <c r="Q476" s="79" t="s">
         <v>1670</v>
       </c>
-      <c r="R476" s="10" t="s">
+      <c r="R476" s="80" t="s">
         <v>1674</v>
       </c>
-      <c r="W476" s="5" t="s">
+      <c r="W476" s="79" t="s">
         <v>1678</v>
       </c>
-      <c r="X476" s="5">
+      <c r="X476" s="79">
         <v>9999999</v>
       </c>
-      <c r="Y476" s="5">
+      <c r="Y476" s="79">
         <v>1606176000</v>
       </c>
-      <c r="Z476" s="5">
+      <c r="Z476" s="79">
         <v>1606751999</v>
       </c>
-      <c r="AH476" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI476" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL476" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM476" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="477" spans="1:39" s="5" customFormat="1">
-      <c r="A477" s="5">
+      <c r="AH476" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI476" s="79">
+        <v>1</v>
+      </c>
+      <c r="AL476" s="79">
+        <v>1</v>
+      </c>
+      <c r="AM476" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:39" s="79" customFormat="1">
+      <c r="A477" s="79">
         <v>476</v>
       </c>
-      <c r="B477" s="5">
+      <c r="B477" s="79">
         <v>10393</v>
       </c>
-      <c r="F477" s="5">
-        <v>1</v>
-      </c>
-      <c r="G477" s="5" t="s">
+      <c r="F477" s="79">
+        <v>1</v>
+      </c>
+      <c r="G477" s="79" t="s">
         <v>1660</v>
       </c>
-      <c r="I477" s="5" t="s">
+      <c r="I477" s="79" t="s">
         <v>1662</v>
       </c>
-      <c r="J477" s="5" t="s">
+      <c r="J477" s="79" t="s">
         <v>1666</v>
       </c>
-      <c r="L477" s="5">
+      <c r="L477" s="79">
         <v>-31</v>
       </c>
-      <c r="M477" s="5">
-        <v>0</v>
-      </c>
-      <c r="N477" s="5">
-        <v>0</v>
-      </c>
-      <c r="O477" s="5" t="s">
+      <c r="M477" s="79">
+        <v>0</v>
+      </c>
+      <c r="N477" s="79">
+        <v>0</v>
+      </c>
+      <c r="O477" s="79" t="s">
         <v>1667</v>
       </c>
-      <c r="P477" s="5">
+      <c r="P477" s="79">
         <v>19800</v>
       </c>
-      <c r="Q477" s="5" t="s">
+      <c r="Q477" s="79" t="s">
         <v>1670</v>
       </c>
-      <c r="R477" s="10" t="s">
+      <c r="R477" s="80" t="s">
         <v>1675</v>
       </c>
-      <c r="W477" s="5" t="s">
+      <c r="W477" s="79" t="s">
         <v>1678</v>
       </c>
-      <c r="X477" s="5">
+      <c r="X477" s="79">
         <v>9999999</v>
       </c>
-      <c r="Y477" s="5">
+      <c r="Y477" s="79">
         <v>1606176000</v>
       </c>
-      <c r="Z477" s="5">
+      <c r="Z477" s="79">
         <v>1606751999</v>
       </c>
-      <c r="AH477" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI477" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL477" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM477" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="478" spans="1:39" s="5" customFormat="1">
-      <c r="A478" s="5">
+      <c r="AH477" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI477" s="79">
+        <v>1</v>
+      </c>
+      <c r="AL477" s="79">
+        <v>1</v>
+      </c>
+      <c r="AM477" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:39" s="79" customFormat="1">
+      <c r="A478" s="79">
         <v>477</v>
       </c>
-      <c r="B478" s="5">
+      <c r="B478" s="79">
         <v>10394</v>
       </c>
-      <c r="F478" s="5">
-        <v>1</v>
-      </c>
-      <c r="G478" s="5" t="s">
+      <c r="F478" s="79">
+        <v>1</v>
+      </c>
+      <c r="G478" s="79" t="s">
         <v>1660</v>
       </c>
-      <c r="I478" s="5" t="s">
+      <c r="I478" s="79" t="s">
         <v>1663</v>
       </c>
-      <c r="J478" s="5" t="s">
+      <c r="J478" s="79" t="s">
         <v>1672</v>
       </c>
-      <c r="L478" s="5">
+      <c r="L478" s="79">
         <v>-31</v>
       </c>
-      <c r="M478" s="5">
-        <v>0</v>
-      </c>
-      <c r="N478" s="5">
-        <v>0</v>
-      </c>
-      <c r="O478" s="5" t="s">
+      <c r="M478" s="79">
+        <v>0</v>
+      </c>
+      <c r="N478" s="79">
+        <v>0</v>
+      </c>
+      <c r="O478" s="79" t="s">
         <v>1667</v>
       </c>
-      <c r="P478" s="5">
+      <c r="P478" s="79">
         <v>9800</v>
       </c>
-      <c r="Q478" s="5" t="s">
+      <c r="Q478" s="79" t="s">
         <v>1671</v>
       </c>
-      <c r="R478" s="10" t="s">
+      <c r="R478" s="80" t="s">
         <v>1676</v>
       </c>
-      <c r="W478" s="5" t="s">
+      <c r="W478" s="79" t="s">
         <v>548</v>
       </c>
-      <c r="X478" s="5">
+      <c r="X478" s="79">
         <v>9999999</v>
       </c>
-      <c r="Y478" s="5">
+      <c r="Y478" s="79">
         <v>1606176000</v>
       </c>
-      <c r="Z478" s="5">
+      <c r="Z478" s="79">
         <v>1606751999</v>
       </c>
-      <c r="AH478" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI478" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL478" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM478" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="479" spans="1:39" s="5" customFormat="1">
-      <c r="A479" s="5">
+      <c r="AH478" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI478" s="79">
+        <v>1</v>
+      </c>
+      <c r="AL478" s="79">
+        <v>1</v>
+      </c>
+      <c r="AM478" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:39" s="79" customFormat="1">
+      <c r="A479" s="79">
         <v>478</v>
       </c>
-      <c r="B479" s="5">
+      <c r="B479" s="79">
         <v>10395</v>
       </c>
-      <c r="F479" s="5">
-        <v>1</v>
-      </c>
-      <c r="G479" s="5" t="s">
+      <c r="F479" s="79">
+        <v>1</v>
+      </c>
+      <c r="G479" s="79" t="s">
         <v>1660</v>
       </c>
-      <c r="I479" s="5" t="s">
+      <c r="I479" s="79" t="s">
         <v>1664</v>
       </c>
-      <c r="J479" s="5" t="s">
+      <c r="J479" s="79" t="s">
         <v>1673</v>
       </c>
-      <c r="L479" s="5">
+      <c r="L479" s="79">
         <v>-31</v>
       </c>
-      <c r="M479" s="5">
-        <v>0</v>
-      </c>
-      <c r="N479" s="5">
-        <v>0</v>
-      </c>
-      <c r="O479" s="5" t="s">
+      <c r="M479" s="79">
+        <v>0</v>
+      </c>
+      <c r="N479" s="79">
+        <v>0</v>
+      </c>
+      <c r="O479" s="79" t="s">
         <v>494</v>
       </c>
-      <c r="P479" s="5">
+      <c r="P479" s="79">
         <v>4800</v>
       </c>
-      <c r="Q479" s="5" t="s">
+      <c r="Q479" s="79" t="s">
         <v>1680</v>
       </c>
-      <c r="R479" s="10" t="s">
+      <c r="R479" s="80" t="s">
         <v>1677</v>
       </c>
-      <c r="W479" s="5" t="s">
+      <c r="W479" s="79" t="s">
         <v>1681</v>
       </c>
-      <c r="X479" s="5">
+      <c r="X479" s="79">
         <v>9999999</v>
       </c>
-      <c r="Y479" s="5">
+      <c r="Y479" s="79">
         <v>1606176000</v>
       </c>
-      <c r="Z479" s="5">
+      <c r="Z479" s="79">
         <v>1606751999</v>
       </c>
-      <c r="AH479" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI479" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL479" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM479" s="5">
+      <c r="AH479" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI479" s="79">
+        <v>1</v>
+      </c>
+      <c r="AL479" s="79">
+        <v>1</v>
+      </c>
+      <c r="AM479" s="79">
         <v>1</v>
       </c>
     </row>
@@ -41859,7 +41871,7 @@
         <v>10396</v>
       </c>
       <c r="F480" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G480" s="5" t="s">
         <v>1709</v>
@@ -41921,7 +41933,7 @@
         <v>10397</v>
       </c>
       <c r="F481" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G481" s="5" t="s">
         <v>363</v>
@@ -41983,7 +41995,7 @@
         <v>10398</v>
       </c>
       <c r="F482" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G482" s="5" t="s">
         <v>362</v>
@@ -42045,7 +42057,7 @@
         <v>10399</v>
       </c>
       <c r="F483" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G483" s="5" t="s">
         <v>361</v>
@@ -42107,7 +42119,7 @@
         <v>10400</v>
       </c>
       <c r="F484" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G484" s="5" t="s">
         <v>1710</v>
@@ -42169,7 +42181,7 @@
         <v>10401</v>
       </c>
       <c r="F485" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G485" s="5" t="s">
         <v>1711</v>
@@ -42231,7 +42243,7 @@
         <v>10402</v>
       </c>
       <c r="F486" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G486" s="5" t="s">
         <v>1375</v>
@@ -42296,7 +42308,7 @@
         <v>10403</v>
       </c>
       <c r="F487" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G487" s="5" t="s">
         <v>1373</v>
@@ -42361,7 +42373,7 @@
         <v>10404</v>
       </c>
       <c r="F488" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G488" s="5" t="s">
         <v>1372</v>
@@ -42426,7 +42438,7 @@
         <v>10405</v>
       </c>
       <c r="F489" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G489" s="5" t="s">
         <v>1370</v>
@@ -42491,7 +42503,7 @@
         <v>10406</v>
       </c>
       <c r="F490" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G490" s="5" t="s">
         <v>1367</v>
@@ -42556,7 +42568,7 @@
         <v>10407</v>
       </c>
       <c r="F491" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G491" s="5" t="s">
         <v>1465</v>
@@ -42621,7 +42633,7 @@
         <v>10408</v>
       </c>
       <c r="F492" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G492" s="5" t="s">
         <v>1362</v>
@@ -42678,263 +42690,263 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:39" s="5" customFormat="1">
-      <c r="A493" s="5">
+    <row r="493" spans="1:39" s="79" customFormat="1">
+      <c r="A493" s="79">
         <v>492</v>
       </c>
-      <c r="B493" s="5">
+      <c r="B493" s="79">
         <v>10409</v>
       </c>
-      <c r="F493" s="5">
-        <v>1</v>
-      </c>
-      <c r="G493" s="5" t="s">
+      <c r="F493" s="79">
+        <v>1</v>
+      </c>
+      <c r="G493" s="79" t="s">
         <v>1811</v>
       </c>
-      <c r="I493" s="5" t="s">
+      <c r="I493" s="79" t="s">
         <v>1813</v>
       </c>
-      <c r="J493" s="5" t="s">
+      <c r="J493" s="79" t="s">
         <v>1815</v>
       </c>
-      <c r="L493" s="5">
+      <c r="L493" s="79">
         <v>-31</v>
       </c>
-      <c r="M493" s="5">
-        <v>0</v>
-      </c>
-      <c r="N493" s="5">
-        <v>0</v>
-      </c>
-      <c r="O493" s="5" t="s">
+      <c r="M493" s="79">
+        <v>0</v>
+      </c>
+      <c r="N493" s="79">
+        <v>0</v>
+      </c>
+      <c r="O493" s="79" t="s">
         <v>494</v>
       </c>
-      <c r="P493" s="5">
+      <c r="P493" s="79">
         <v>49800</v>
       </c>
-      <c r="Q493" s="5" t="s">
+      <c r="Q493" s="79" t="s">
         <v>1816</v>
       </c>
-      <c r="R493" s="10" t="s">
+      <c r="R493" s="80" t="s">
         <v>1817</v>
       </c>
-      <c r="W493" s="5" t="s">
+      <c r="W493" s="79" t="s">
         <v>545</v>
       </c>
-      <c r="X493" s="5">
+      <c r="X493" s="79">
         <v>200</v>
       </c>
-      <c r="Y493" s="5">
+      <c r="Y493" s="79">
         <v>1609200000</v>
       </c>
-      <c r="Z493" s="5">
+      <c r="Z493" s="79">
         <v>1609775999</v>
       </c>
-      <c r="AH493" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI493" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL493" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM493" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="494" spans="1:39" s="5" customFormat="1">
-      <c r="A494" s="5">
+      <c r="AH493" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI493" s="79">
+        <v>1</v>
+      </c>
+      <c r="AL493" s="79">
+        <v>1</v>
+      </c>
+      <c r="AM493" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:39" s="79" customFormat="1">
+      <c r="A494" s="79">
         <v>493</v>
       </c>
-      <c r="B494" s="5">
+      <c r="B494" s="79">
         <v>10410</v>
       </c>
-      <c r="F494" s="5">
-        <v>1</v>
-      </c>
-      <c r="G494" s="5" t="s">
+      <c r="F494" s="79">
+        <v>1</v>
+      </c>
+      <c r="G494" s="79" t="s">
         <v>1812</v>
       </c>
-      <c r="I494" s="5" t="s">
+      <c r="I494" s="79" t="s">
         <v>1814</v>
       </c>
-      <c r="J494" s="5" t="s">
+      <c r="J494" s="79" t="s">
         <v>1815</v>
       </c>
-      <c r="L494" s="5">
+      <c r="L494" s="79">
         <v>-31</v>
       </c>
-      <c r="M494" s="5">
-        <v>0</v>
-      </c>
-      <c r="N494" s="5">
-        <v>0</v>
-      </c>
-      <c r="O494" s="5" t="s">
+      <c r="M494" s="79">
+        <v>0</v>
+      </c>
+      <c r="N494" s="79">
+        <v>0</v>
+      </c>
+      <c r="O494" s="79" t="s">
         <v>494</v>
       </c>
-      <c r="P494" s="5">
+      <c r="P494" s="79">
         <v>99800</v>
       </c>
-      <c r="Q494" s="5" t="s">
+      <c r="Q494" s="79" t="s">
         <v>1816</v>
       </c>
-      <c r="R494" s="10" t="s">
+      <c r="R494" s="80" t="s">
         <v>1818</v>
       </c>
-      <c r="W494" s="5" t="s">
+      <c r="W494" s="79" t="s">
         <v>545</v>
       </c>
-      <c r="X494" s="5">
+      <c r="X494" s="79">
         <v>9999999</v>
       </c>
-      <c r="Y494" s="5">
+      <c r="Y494" s="79">
         <v>1609200000</v>
       </c>
-      <c r="Z494" s="5">
+      <c r="Z494" s="79">
         <v>1609775999</v>
       </c>
-      <c r="AH494" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI494" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL494" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM494" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="495" spans="1:39" s="5" customFormat="1">
-      <c r="A495" s="5">
+      <c r="AH494" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI494" s="79">
+        <v>1</v>
+      </c>
+      <c r="AL494" s="79">
+        <v>1</v>
+      </c>
+      <c r="AM494" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:39" s="79" customFormat="1">
+      <c r="A495" s="79">
         <v>494</v>
       </c>
-      <c r="B495" s="5">
+      <c r="B495" s="79">
         <v>10411</v>
       </c>
-      <c r="F495" s="5">
-        <v>1</v>
-      </c>
-      <c r="G495" s="5" t="s">
+      <c r="F495" s="79">
+        <v>1</v>
+      </c>
+      <c r="G495" s="79" t="s">
         <v>1826</v>
       </c>
-      <c r="J495" s="5" t="s">
+      <c r="J495" s="79" t="s">
         <v>1827</v>
       </c>
-      <c r="L495" s="5">
+      <c r="L495" s="79">
         <v>-31</v>
       </c>
-      <c r="M495" s="5">
-        <v>0</v>
-      </c>
-      <c r="N495" s="5">
-        <v>0</v>
-      </c>
-      <c r="O495" s="5" t="s">
+      <c r="M495" s="79">
+        <v>0</v>
+      </c>
+      <c r="N495" s="79">
+        <v>0</v>
+      </c>
+      <c r="O495" s="79" t="s">
         <v>494</v>
       </c>
-      <c r="P495" s="5">
+      <c r="P495" s="79">
         <v>79800</v>
       </c>
-      <c r="Q495" s="5" t="s">
+      <c r="Q495" s="79" t="s">
         <v>1684</v>
       </c>
-      <c r="R495" s="10" t="s">
+      <c r="R495" s="80" t="s">
         <v>1828</v>
       </c>
-      <c r="W495" s="5" t="s">
+      <c r="W495" s="79" t="s">
         <v>594</v>
       </c>
-      <c r="X495" s="5">
+      <c r="X495" s="79">
         <v>99999999</v>
       </c>
-      <c r="Y495" s="5">
+      <c r="Y495" s="79">
         <v>1592263800</v>
       </c>
-      <c r="Z495" s="5">
+      <c r="Z495" s="79">
         <v>2552233600</v>
       </c>
-      <c r="AA495" s="5">
+      <c r="AA495" s="79">
         <v>14</v>
       </c>
-      <c r="AH495" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI495" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL495" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM495" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="496" spans="1:39" s="5" customFormat="1">
-      <c r="A496" s="5">
+      <c r="AH495" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI495" s="79">
+        <v>1</v>
+      </c>
+      <c r="AL495" s="79">
+        <v>1</v>
+      </c>
+      <c r="AM495" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:39" s="79" customFormat="1">
+      <c r="A496" s="79">
         <v>495</v>
       </c>
-      <c r="B496" s="5">
+      <c r="B496" s="79">
         <v>10412</v>
       </c>
-      <c r="F496" s="5">
-        <v>1</v>
-      </c>
-      <c r="G496" s="5" t="s">
+      <c r="F496" s="79">
+        <v>1</v>
+      </c>
+      <c r="G496" s="79" t="s">
         <v>1829</v>
       </c>
-      <c r="J496" s="5" t="s">
+      <c r="J496" s="79" t="s">
         <v>1830</v>
       </c>
-      <c r="L496" s="5">
+      <c r="L496" s="79">
         <v>-31</v>
       </c>
-      <c r="M496" s="5">
-        <v>0</v>
-      </c>
-      <c r="N496" s="5">
-        <v>0</v>
-      </c>
-      <c r="O496" s="5" t="s">
+      <c r="M496" s="79">
+        <v>0</v>
+      </c>
+      <c r="N496" s="79">
+        <v>0</v>
+      </c>
+      <c r="O496" s="79" t="s">
         <v>494</v>
       </c>
-      <c r="P496" s="5">
+      <c r="P496" s="79">
         <v>89800</v>
       </c>
-      <c r="Q496" s="5" t="s">
+      <c r="Q496" s="79" t="s">
         <v>1684</v>
       </c>
-      <c r="R496" s="10" t="s">
+      <c r="R496" s="80" t="s">
         <v>1831</v>
       </c>
-      <c r="W496" s="5" t="s">
+      <c r="W496" s="79" t="s">
         <v>594</v>
       </c>
-      <c r="X496" s="5">
+      <c r="X496" s="79">
         <v>99999999</v>
       </c>
-      <c r="Y496" s="5">
+      <c r="Y496" s="79">
         <v>1592263800</v>
       </c>
-      <c r="Z496" s="5">
+      <c r="Z496" s="79">
         <v>2552233600</v>
       </c>
-      <c r="AA496" s="5">
+      <c r="AA496" s="79">
         <v>14</v>
       </c>
-      <c r="AH496" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI496" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL496" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM496" s="5">
+      <c r="AH496" s="79">
+        <v>1</v>
+      </c>
+      <c r="AI496" s="79">
+        <v>1</v>
+      </c>
+      <c r="AL496" s="79">
+        <v>1</v>
+      </c>
+      <c r="AM496" s="79">
         <v>1</v>
       </c>
     </row>
@@ -42946,7 +42958,7 @@
         <v>10413</v>
       </c>
       <c r="F497" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G497" s="5" t="s">
         <v>1833</v>
@@ -43014,7 +43026,7 @@
         <v>10414</v>
       </c>
       <c r="F498" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G498" s="5" t="s">
         <v>1833</v>
@@ -43082,7 +43094,7 @@
         <v>10415</v>
       </c>
       <c r="F499" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G499" s="5" t="s">
         <v>1833</v>
@@ -43150,7 +43162,7 @@
         <v>10416</v>
       </c>
       <c r="F500" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G500" s="5" t="s">
         <v>1833</v>
@@ -43218,7 +43230,7 @@
         <v>10417</v>
       </c>
       <c r="F501" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G501" s="5" t="s">
         <v>1833</v>
@@ -43286,7 +43298,7 @@
         <v>10418</v>
       </c>
       <c r="F502" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G502" s="5" t="s">
         <v>1833</v>
@@ -43354,7 +43366,7 @@
         <v>10419</v>
       </c>
       <c r="F503" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G503" s="5" t="s">
         <v>1833</v>
@@ -43422,7 +43434,7 @@
         <v>10420</v>
       </c>
       <c r="F504" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G504" s="5" t="s">
         <v>1833</v>
@@ -43490,7 +43502,7 @@
         <v>10421</v>
       </c>
       <c r="F505" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G505" s="5" t="s">
         <v>1833</v>
@@ -43558,7 +43570,7 @@
         <v>10422</v>
       </c>
       <c r="F506" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G506" s="5" t="s">
         <v>1833</v>
@@ -43626,7 +43638,7 @@
         <v>10423</v>
       </c>
       <c r="F507" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G507" s="5" t="s">
         <v>1833</v>
@@ -43694,7 +43706,7 @@
         <v>10424</v>
       </c>
       <c r="F508" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G508" s="5" t="s">
         <v>1833</v>
@@ -43942,7 +43954,7 @@
         <v>10428</v>
       </c>
       <c r="F512" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G512" s="5" t="s">
         <v>1894</v>
@@ -44010,7 +44022,7 @@
         <v>10429</v>
       </c>
       <c r="F513" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G513" s="5" t="s">
         <v>1894</v>
@@ -44078,7 +44090,7 @@
         <v>10430</v>
       </c>
       <c r="F514" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G514" s="5" t="s">
         <v>1876</v>
@@ -44146,7 +44158,7 @@
         <v>10431</v>
       </c>
       <c r="F515" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G515" s="5" t="s">
         <v>1876</v>
@@ -44214,7 +44226,7 @@
         <v>10432</v>
       </c>
       <c r="F516" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G516" s="5" t="s">
         <v>1894</v>
@@ -44282,7 +44294,7 @@
         <v>10433</v>
       </c>
       <c r="F517" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G517" s="5" t="s">
         <v>1876</v>
@@ -44350,7 +44362,7 @@
         <v>10434</v>
       </c>
       <c r="F518" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G518" s="5" t="s">
         <v>1894</v>
@@ -44418,7 +44430,7 @@
         <v>10435</v>
       </c>
       <c r="F519" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G519" s="5" t="s">
         <v>1876</v>
@@ -45368,7 +45380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>

--- a/config_1.19/shoping_config.xlsx
+++ b/config_1.19/shoping_config.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4344" uniqueCount="1963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4344" uniqueCount="1967">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7940,19 +7940,459 @@
     <t>"60万","抽奖券*1","双倍奖励*1",</t>
   </si>
   <si>
-    <t>49800000,50,15,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>19800000,30,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,20,5,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4800000,10,3,</t>
+    <t>{type="permission_class",class_value = "actp_no_cjj_gej_exchange" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "actp_cjj_gej_exchange" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐庆典-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2020万","抽奖券*30","太阳*10",</t>
+  </si>
+  <si>
+    <t>"200万","抽奖券*4","水滴*2",</t>
+  </si>
+  <si>
+    <t>"60万","抽奖券*1","水滴*1",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_3d_fish_doubled",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_2",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_1",</t>
+  </si>
+  <si>
+    <t>"5180万","抽奖券*50","太阳*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"990万","抽奖券*20","太阳*2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"483万","抽奖券*3","水滴*6",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{650000,710000,100,},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运金币6元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运金币18元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运金币48元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运金币98元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"随机获得180万-500万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"随机获得480万-1500万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"随机获得980万-3000万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1850000,1950000,100,},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{5000000,5200000,100,},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{10000000,10800000,100,},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,5000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,15000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,30000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包-欢乐捕鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"488万金币","双倍奖励卡*2","稀有宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"996万金币","双倍奖励卡*4","史诗宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_3d_fish_doubled",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_csbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_ssbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>50200000,10,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100000,6,5,</t>
+  </si>
+  <si>
+    <t>9960000,4,3,</t>
+  </si>
+  <si>
+    <t>4880000,2,3,</t>
+  </si>
+  <si>
+    <t>86400,1,6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hqjnh_ssbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9960000,8,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hqjnh_046_nor_hllb" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hqjnh_046_cjj_hllb" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包-欢乐捕鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5020万金币","双倍奖励卡*10","传说宝箱*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2010万金币","双倍奖励卡*6","传说宝箱*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_xybox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5000万金币","太阳*10","传说宝箱*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_2","prop_hqjnh_csbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000000,4,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2000万金币","太阳*6","传说宝箱*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000,2,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"996万金币","水滴*4","史诗宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"488万金币","水滴*2","稀有宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hqjnh_xybox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4880000,4,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>周卡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万金币","首次救济金为6万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","obj_week_card",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy_asset_attribute|针对不可叠加道具的属性</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{valid_time=604800},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>604800,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭字礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜字礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>发字礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>财字礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新玩家、免费、小额</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1-v7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v8-v12</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","2万小游戏币","恭字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","5万小游戏币","恭字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万金币","3.8万小游戏币","喜字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","5万小游戏币","发字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","10万小游戏币","财字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","10万小游戏币","喜字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","20万小游戏币","发字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","40万小游戏币","财字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","10万小游戏币","恭字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","20万小游戏币","喜字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","40万小游戏币","发字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","80万小游戏币","财字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_csbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_gong",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_xi",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_fa",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_cai",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000,20000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,38000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,50000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,100000,1,</t>
+  </si>
+  <si>
+    <t>4800000,100000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,400000,1,</t>
+  </si>
+  <si>
+    <t>19800000,400000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,800000,1,</t>
+  </si>
+  <si>
+    <t>9800000,200000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,50000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,100000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,200000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,3,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>99999999</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_free_001" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_v1v7_001" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_v8v12_001" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>51800000,50,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200000,30,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9900000,20,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4830000,10,3,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -7964,455 +8404,29 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>{type="permission_class",class_value = "actp_no_cjj_gej_exchange" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "actp_cjj_gej_exchange" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐庆典-冲金鸡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2020万","抽奖券*30","太阳*10",</t>
-  </si>
-  <si>
-    <t>"200万","抽奖券*4","水滴*2",</t>
-  </si>
-  <si>
-    <t>"60万","抽奖券*1","水滴*1",</t>
-  </si>
-  <si>
-    <t>49800000,50,20,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,20,2,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4800000,10,6,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_qdlb_cjq","prop_3d_fish_doubled",</t>
-  </si>
-  <si>
-    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_2",</t>
-  </si>
-  <si>
-    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_1",</t>
-  </si>
-  <si>
-    <t>"5180万","抽奖券*50","太阳*20",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"990万","抽奖券*20","太阳*2",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"483万","抽奖券*3","水滴*6",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{650000,710000,100,},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运金币6元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运金币18元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运金币48元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运金币98元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"随机获得180万-500万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"随机获得480万-1500万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"随机获得980万-3000万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{1850000,1950000,100,},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{5000000,5200000,100,},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{10000000,10800000,100,},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1800000,5000000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4800000,15000000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,30000000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐礼包-欢乐捕鱼</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"488万金币","双倍奖励卡*2","稀有宝箱*3",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"996万金币","双倍奖励卡*4","史诗宝箱*3",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_qdlb_cjq","prop_3d_fish_doubled",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_csbox",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_ssbox",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>50200000,10,15,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>20100000,6,5,</t>
-  </si>
-  <si>
-    <t>9960000,4,3,</t>
-  </si>
-  <si>
-    <t>4880000,2,3,</t>
-  </si>
-  <si>
-    <t>86400,1,6</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_2",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_guess_apple_bet_1","prop_hqjnh_ssbox",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9960000,8,3,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "hqjnh_046_nor_hllb" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "hqjnh_046_cjj_hllb" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐礼包-欢乐捕鱼</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"5020万金币","双倍奖励卡*10","传说宝箱*15",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2010万金币","双倍奖励卡*6","传说宝箱*5",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_xybox",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐礼包-冲金鸡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"5000万金币","太阳*10","传说宝箱*15",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_guess_apple_bet_2","prop_hqjnh_csbox",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000000,4,15,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2000万金币","太阳*6","传说宝箱*5",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000000,2,5,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"996万金币","水滴*4","史诗宝箱*3",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"488万金币","水滴*2","稀有宝箱*3",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_guess_apple_bet_1","prop_hqjnh_xybox",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4880000,4,3,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>周卡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐礼包-冲金鸡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲金鸡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"100万金币","首次救济金为6万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","obj_week_card",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000000,1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>buy_asset_attribute|针对不可叠加道具的属性</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{valid_time=604800},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>604800,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭字礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>喜字礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>发字礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财字礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>新玩家、免费、小额</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>v1-v7</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>v8-v12</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"60万金币","2万小游戏币","恭字符*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"180万金币","5万小游戏币","恭字符*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"100万金币","3.8万小游戏币","喜字符*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"180万金币","5万小游戏币","发字符*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"480万金币","10万小游戏币","财字符*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"480万金币","10万小游戏币","喜字符*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万金币","20万小游戏币","发字符*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1980万金币","40万小游戏币","财字符*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"480万金币","10万小游戏币","恭字符*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万金币","20万小游戏币","喜字符*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1980万金币","40万小游戏币","发字符*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4980万金币","80万小游戏币","财字符*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_csbox",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_gong",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_xi",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_fa",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_cai",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>60000,20000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000000,38000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1800000,50000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4800000,100000,1,</t>
-  </si>
-  <si>
-    <t>4800000,100000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>19800000,400000,1,</t>
-  </si>
-  <si>
-    <t>19800000,400000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>49800000,800000,1,</t>
-  </si>
-  <si>
-    <t>9800000,200000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1800000,50000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4800000,100000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,200000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,3,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>99999999</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "fclb_free_001" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "fclb_v1v7_001" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "fclb_v8v12_001" }</t>
+    <t>51800000,50,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9900000,20,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4830000,10,6,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,4,2,</t>
+  </si>
+  <si>
+    <t>600000,1,1,</t>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -11303,10 +11317,10 @@
   <dimension ref="A1:AN532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H506" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="U479" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G535" sqref="G535"/>
+      <selection pane="bottomRight" activeCell="W497" sqref="W497:W508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -11405,7 +11419,7 @@
         <v>18</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>1918</v>
+        <v>1909</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>532</v>
@@ -15100,7 +15114,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>1863</v>
+        <v>1854</v>
       </c>
       <c r="J66" s="5" t="s">
         <v>1024</v>
@@ -15137,7 +15151,7 @@
         <v>87</v>
       </c>
       <c r="AC66" s="5" t="s">
-        <v>1862</v>
+        <v>1853</v>
       </c>
       <c r="AD66" s="10" t="s">
         <v>718</v>
@@ -42335,7 +42349,7 @@
         <v>4800</v>
       </c>
       <c r="Q487" s="5" t="s">
-        <v>1941</v>
+        <v>1932</v>
       </c>
       <c r="R487" s="10" t="s">
         <v>1385</v>
@@ -42985,13 +42999,13 @@
         <v>49800</v>
       </c>
       <c r="Q497" s="5" t="s">
-        <v>1856</v>
-      </c>
-      <c r="R497" s="10" t="s">
-        <v>1841</v>
-      </c>
-      <c r="W497" s="5" t="s">
-        <v>545</v>
+        <v>1847</v>
+      </c>
+      <c r="R497" s="58" t="s">
+        <v>1954</v>
+      </c>
+      <c r="W497" s="57" t="s">
+        <v>1965</v>
       </c>
       <c r="X497" s="5">
         <v>99999999</v>
@@ -43053,13 +43067,13 @@
         <v>19800</v>
       </c>
       <c r="Q498" s="5" t="s">
-        <v>1856</v>
-      </c>
-      <c r="R498" s="10" t="s">
-        <v>1842</v>
-      </c>
-      <c r="W498" s="5" t="s">
-        <v>545</v>
+        <v>1847</v>
+      </c>
+      <c r="R498" s="58" t="s">
+        <v>1955</v>
+      </c>
+      <c r="W498" s="57" t="s">
+        <v>1965</v>
       </c>
       <c r="X498" s="5">
         <v>99999999</v>
@@ -43121,13 +43135,13 @@
         <v>9800</v>
       </c>
       <c r="Q499" s="5" t="s">
-        <v>1881</v>
-      </c>
-      <c r="R499" s="10" t="s">
-        <v>1843</v>
-      </c>
-      <c r="W499" s="5" t="s">
-        <v>545</v>
+        <v>1872</v>
+      </c>
+      <c r="R499" s="58" t="s">
+        <v>1956</v>
+      </c>
+      <c r="W499" s="57" t="s">
+        <v>1965</v>
       </c>
       <c r="X499" s="5">
         <v>99999999</v>
@@ -43189,13 +43203,13 @@
         <v>4800</v>
       </c>
       <c r="Q500" s="5" t="s">
-        <v>1856</v>
-      </c>
-      <c r="R500" s="10" t="s">
-        <v>1844</v>
-      </c>
-      <c r="W500" s="5" t="s">
-        <v>545</v>
+        <v>1847</v>
+      </c>
+      <c r="R500" s="58" t="s">
+        <v>1957</v>
+      </c>
+      <c r="W500" s="57" t="s">
+        <v>1966</v>
       </c>
       <c r="X500" s="5">
         <v>99999999</v>
@@ -43257,13 +43271,13 @@
         <v>2000</v>
       </c>
       <c r="Q501" s="5" t="s">
-        <v>1856</v>
-      </c>
-      <c r="R501" s="10" t="s">
-        <v>1845</v>
-      </c>
-      <c r="W501" s="5" t="s">
-        <v>545</v>
+        <v>1847</v>
+      </c>
+      <c r="R501" s="58" t="s">
+        <v>1958</v>
+      </c>
+      <c r="W501" s="57" t="s">
+        <v>1966</v>
       </c>
       <c r="X501" s="5">
         <v>99999999</v>
@@ -43325,13 +43339,13 @@
         <v>600</v>
       </c>
       <c r="Q502" s="5" t="s">
-        <v>1856</v>
-      </c>
-      <c r="R502" s="10" t="s">
-        <v>1846</v>
-      </c>
-      <c r="W502" s="5" t="s">
-        <v>545</v>
+        <v>1847</v>
+      </c>
+      <c r="R502" s="58" t="s">
+        <v>1959</v>
+      </c>
+      <c r="W502" s="57" t="s">
+        <v>1966</v>
       </c>
       <c r="X502" s="5">
         <v>99999999</v>
@@ -43372,10 +43386,10 @@
         <v>1833</v>
       </c>
       <c r="I503" s="5" t="s">
-        <v>1849</v>
+        <v>1843</v>
       </c>
       <c r="J503" s="5" t="s">
-        <v>1859</v>
+        <v>1850</v>
       </c>
       <c r="L503" s="5">
         <v>-31</v>
@@ -43393,13 +43407,13 @@
         <v>49800</v>
       </c>
       <c r="Q503" s="5" t="s">
-        <v>1857</v>
-      </c>
-      <c r="R503" s="10" t="s">
-        <v>1853</v>
-      </c>
-      <c r="W503" s="5" t="s">
-        <v>545</v>
+        <v>1848</v>
+      </c>
+      <c r="R503" s="56" t="s">
+        <v>1960</v>
+      </c>
+      <c r="W503" s="57" t="s">
+        <v>1965</v>
       </c>
       <c r="X503" s="5">
         <v>99999999</v>
@@ -43440,10 +43454,10 @@
         <v>1833</v>
       </c>
       <c r="I504" s="5" t="s">
-        <v>1849</v>
+        <v>1843</v>
       </c>
       <c r="J504" s="5" t="s">
-        <v>1850</v>
+        <v>1844</v>
       </c>
       <c r="L504" s="5">
         <v>-31</v>
@@ -43461,13 +43475,13 @@
         <v>19800</v>
       </c>
       <c r="Q504" s="5" t="s">
-        <v>1857</v>
-      </c>
-      <c r="R504" s="10" t="s">
-        <v>1842</v>
-      </c>
-      <c r="W504" s="5" t="s">
-        <v>545</v>
+        <v>1848</v>
+      </c>
+      <c r="R504" s="56" t="s">
+        <v>1955</v>
+      </c>
+      <c r="W504" s="57" t="s">
+        <v>1966</v>
       </c>
       <c r="X504" s="5">
         <v>99999999</v>
@@ -43508,10 +43522,10 @@
         <v>1833</v>
       </c>
       <c r="I505" s="5" t="s">
-        <v>1849</v>
+        <v>1843</v>
       </c>
       <c r="J505" s="5" t="s">
-        <v>1860</v>
+        <v>1851</v>
       </c>
       <c r="L505" s="5">
         <v>-31</v>
@@ -43529,13 +43543,13 @@
         <v>9800</v>
       </c>
       <c r="Q505" s="5" t="s">
-        <v>1889</v>
-      </c>
-      <c r="R505" s="10" t="s">
-        <v>1854</v>
-      </c>
-      <c r="W505" s="5" t="s">
-        <v>545</v>
+        <v>1880</v>
+      </c>
+      <c r="R505" s="56" t="s">
+        <v>1961</v>
+      </c>
+      <c r="W505" s="57" t="s">
+        <v>1965</v>
       </c>
       <c r="X505" s="5">
         <v>99999999</v>
@@ -43576,10 +43590,10 @@
         <v>1833</v>
       </c>
       <c r="I506" s="5" t="s">
-        <v>1849</v>
+        <v>1843</v>
       </c>
       <c r="J506" s="5" t="s">
-        <v>1861</v>
+        <v>1852</v>
       </c>
       <c r="L506" s="5">
         <v>-31</v>
@@ -43597,13 +43611,13 @@
         <v>4800</v>
       </c>
       <c r="Q506" s="5" t="s">
-        <v>1858</v>
-      </c>
-      <c r="R506" s="10" t="s">
-        <v>1855</v>
-      </c>
-      <c r="W506" s="5" t="s">
-        <v>545</v>
+        <v>1849</v>
+      </c>
+      <c r="R506" s="56" t="s">
+        <v>1962</v>
+      </c>
+      <c r="W506" s="57" t="s">
+        <v>1966</v>
       </c>
       <c r="X506" s="5">
         <v>99999999</v>
@@ -43644,10 +43658,10 @@
         <v>1833</v>
       </c>
       <c r="I507" s="5" t="s">
-        <v>1849</v>
+        <v>1843</v>
       </c>
       <c r="J507" s="5" t="s">
-        <v>1851</v>
+        <v>1845</v>
       </c>
       <c r="L507" s="5">
         <v>-31</v>
@@ -43665,13 +43679,13 @@
         <v>2000</v>
       </c>
       <c r="Q507" s="5" t="s">
-        <v>1858</v>
-      </c>
-      <c r="R507" s="10" t="s">
-        <v>1845</v>
-      </c>
-      <c r="W507" s="5" t="s">
-        <v>545</v>
+        <v>1849</v>
+      </c>
+      <c r="R507" s="56" t="s">
+        <v>1963</v>
+      </c>
+      <c r="W507" s="57" t="s">
+        <v>1966</v>
       </c>
       <c r="X507" s="5">
         <v>99999999</v>
@@ -43712,10 +43726,10 @@
         <v>1833</v>
       </c>
       <c r="I508" s="5" t="s">
-        <v>1849</v>
+        <v>1843</v>
       </c>
       <c r="J508" s="5" t="s">
-        <v>1852</v>
+        <v>1846</v>
       </c>
       <c r="L508" s="5">
         <v>-31</v>
@@ -43733,13 +43747,13 @@
         <v>600</v>
       </c>
       <c r="Q508" s="5" t="s">
-        <v>1858</v>
-      </c>
-      <c r="R508" s="10" t="s">
-        <v>1846</v>
-      </c>
-      <c r="W508" s="5" t="s">
-        <v>545</v>
+        <v>1849</v>
+      </c>
+      <c r="R508" s="56" t="s">
+        <v>1964</v>
+      </c>
+      <c r="W508" s="57" t="s">
+        <v>1965</v>
       </c>
       <c r="X508" s="5">
         <v>99999999</v>
@@ -43777,10 +43791,10 @@
         <v>1</v>
       </c>
       <c r="G509" s="5" t="s">
-        <v>1864</v>
+        <v>1855</v>
       </c>
       <c r="J509" s="5" t="s">
-        <v>1867</v>
+        <v>1858</v>
       </c>
       <c r="L509" s="5">
         <v>-4</v>
@@ -43802,7 +43816,7 @@
         <v>546</v>
       </c>
       <c r="X509" s="14" t="s">
-        <v>1959</v>
+        <v>1950</v>
       </c>
       <c r="Y509" s="7">
         <v>0</v>
@@ -43814,10 +43828,10 @@
         <v>87</v>
       </c>
       <c r="AC509" s="5" t="s">
-        <v>1870</v>
+        <v>1861</v>
       </c>
       <c r="AD509" s="10" t="s">
-        <v>1873</v>
+        <v>1864</v>
       </c>
       <c r="AH509" s="5">
         <v>1</v>
@@ -43837,10 +43851,10 @@
         <v>1</v>
       </c>
       <c r="G510" s="5" t="s">
-        <v>1865</v>
+        <v>1856</v>
       </c>
       <c r="J510" s="5" t="s">
-        <v>1868</v>
+        <v>1859</v>
       </c>
       <c r="L510" s="5">
         <v>-4</v>
@@ -43874,10 +43888,10 @@
         <v>87</v>
       </c>
       <c r="AC510" s="5" t="s">
-        <v>1871</v>
+        <v>1862</v>
       </c>
       <c r="AD510" s="10" t="s">
-        <v>1874</v>
+        <v>1865</v>
       </c>
       <c r="AH510" s="5">
         <v>1</v>
@@ -43897,10 +43911,10 @@
         <v>1</v>
       </c>
       <c r="G511" s="5" t="s">
-        <v>1866</v>
+        <v>1857</v>
       </c>
       <c r="J511" s="5" t="s">
-        <v>1869</v>
+        <v>1860</v>
       </c>
       <c r="L511" s="5">
         <v>-4</v>
@@ -43919,7 +43933,7 @@
       </c>
       <c r="R511" s="10"/>
       <c r="W511" s="5" t="s">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="X511" s="14" t="s">
         <v>117</v>
@@ -43934,10 +43948,10 @@
         <v>87</v>
       </c>
       <c r="AC511" s="5" t="s">
-        <v>1872</v>
+        <v>1863</v>
       </c>
       <c r="AD511" s="10" t="s">
-        <v>1875</v>
+        <v>1866</v>
       </c>
       <c r="AH511" s="5">
         <v>1</v>
@@ -43957,13 +43971,13 @@
         <v>0</v>
       </c>
       <c r="G512" s="5" t="s">
-        <v>1894</v>
+        <v>1885</v>
       </c>
       <c r="I512" s="5" t="s">
-        <v>1895</v>
+        <v>1886</v>
       </c>
       <c r="J512" s="5" t="s">
-        <v>1896</v>
+        <v>1887</v>
       </c>
       <c r="L512" s="5">
         <v>-33</v>
@@ -43975,19 +43989,19 @@
         <v>0</v>
       </c>
       <c r="O512" s="5" t="s">
-        <v>1880</v>
+        <v>1871</v>
       </c>
       <c r="P512" s="5">
         <v>49800</v>
       </c>
       <c r="Q512" s="5" t="s">
-        <v>1940</v>
+        <v>1931</v>
       </c>
       <c r="R512" s="10" t="s">
-        <v>1884</v>
+        <v>1875</v>
       </c>
       <c r="W512" s="5" t="s">
-        <v>1897</v>
+        <v>1888</v>
       </c>
       <c r="X512" s="5">
         <v>99999999</v>
@@ -44025,13 +44039,13 @@
         <v>0</v>
       </c>
       <c r="G513" s="5" t="s">
-        <v>1894</v>
+        <v>1885</v>
       </c>
       <c r="I513" s="5" t="s">
-        <v>1895</v>
+        <v>1886</v>
       </c>
       <c r="J513" s="5" t="s">
-        <v>1898</v>
+        <v>1889</v>
       </c>
       <c r="L513" s="5">
         <v>-33</v>
@@ -44043,19 +44057,19 @@
         <v>0</v>
       </c>
       <c r="O513" s="5" t="s">
-        <v>1880</v>
+        <v>1871</v>
       </c>
       <c r="P513" s="5">
         <v>19800</v>
       </c>
       <c r="Q513" s="5" t="s">
-        <v>1882</v>
+        <v>1873</v>
       </c>
       <c r="R513" s="10" t="s">
-        <v>1885</v>
+        <v>1876</v>
       </c>
       <c r="W513" s="5" t="s">
-        <v>1899</v>
+        <v>1890</v>
       </c>
       <c r="X513" s="5">
         <v>99999999</v>
@@ -44093,13 +44107,13 @@
         <v>0</v>
       </c>
       <c r="G514" s="5" t="s">
-        <v>1876</v>
+        <v>1867</v>
       </c>
       <c r="I514" s="5" t="s">
-        <v>1877</v>
+        <v>1868</v>
       </c>
       <c r="J514" s="5" t="s">
-        <v>1879</v>
+        <v>1870</v>
       </c>
       <c r="L514" s="5">
         <v>-33</v>
@@ -44111,19 +44125,19 @@
         <v>0</v>
       </c>
       <c r="O514" s="5" t="s">
-        <v>1880</v>
+        <v>1871</v>
       </c>
       <c r="P514" s="5">
         <v>9800</v>
       </c>
       <c r="Q514" s="5" t="s">
-        <v>1883</v>
+        <v>1874</v>
       </c>
       <c r="R514" s="10" t="s">
-        <v>1886</v>
+        <v>1877</v>
       </c>
       <c r="W514" s="5" t="s">
-        <v>1897</v>
+        <v>1888</v>
       </c>
       <c r="X514" s="5">
         <v>99999999</v>
@@ -44161,13 +44175,13 @@
         <v>0</v>
       </c>
       <c r="G515" s="5" t="s">
-        <v>1876</v>
+        <v>1867</v>
       </c>
       <c r="I515" s="5" t="s">
-        <v>1877</v>
+        <v>1868</v>
       </c>
       <c r="J515" s="5" t="s">
-        <v>1878</v>
+        <v>1869</v>
       </c>
       <c r="L515" s="5">
         <v>-33</v>
@@ -44179,19 +44193,19 @@
         <v>0</v>
       </c>
       <c r="O515" s="5" t="s">
-        <v>1880</v>
+        <v>1871</v>
       </c>
       <c r="P515" s="5">
         <v>4800</v>
       </c>
       <c r="Q515" s="5" t="s">
-        <v>1900</v>
+        <v>1891</v>
       </c>
       <c r="R515" s="10" t="s">
-        <v>1887</v>
+        <v>1878</v>
       </c>
       <c r="W515" s="5" t="s">
-        <v>1897</v>
+        <v>1888</v>
       </c>
       <c r="X515" s="5">
         <v>99999999</v>
@@ -44229,13 +44243,13 @@
         <v>0</v>
       </c>
       <c r="G516" s="5" t="s">
-        <v>1894</v>
+        <v>1885</v>
       </c>
       <c r="I516" s="5" t="s">
-        <v>1901</v>
+        <v>1892</v>
       </c>
       <c r="J516" s="5" t="s">
-        <v>1902</v>
+        <v>1893</v>
       </c>
       <c r="L516" s="5">
         <v>-33</v>
@@ -44247,19 +44261,19 @@
         <v>0</v>
       </c>
       <c r="O516" s="5" t="s">
-        <v>1903</v>
+        <v>1894</v>
       </c>
       <c r="P516" s="5">
         <v>49800</v>
       </c>
       <c r="Q516" s="5" t="s">
-        <v>1904</v>
+        <v>1895</v>
       </c>
       <c r="R516" s="10" t="s">
-        <v>1905</v>
+        <v>1896</v>
       </c>
       <c r="W516" s="5" t="s">
-        <v>1897</v>
+        <v>1888</v>
       </c>
       <c r="X516" s="5">
         <v>99999999</v>
@@ -44297,13 +44311,13 @@
         <v>0</v>
       </c>
       <c r="G517" s="5" t="s">
-        <v>1876</v>
+        <v>1867</v>
       </c>
       <c r="I517" s="5" t="s">
-        <v>1901</v>
+        <v>1892</v>
       </c>
       <c r="J517" s="5" t="s">
-        <v>1906</v>
+        <v>1897</v>
       </c>
       <c r="L517" s="5">
         <v>-33</v>
@@ -44315,19 +44329,19 @@
         <v>0</v>
       </c>
       <c r="O517" s="5" t="s">
-        <v>1903</v>
+        <v>1894</v>
       </c>
       <c r="P517" s="5">
         <v>19800</v>
       </c>
       <c r="Q517" s="5" t="s">
-        <v>1904</v>
+        <v>1895</v>
       </c>
       <c r="R517" s="10" t="s">
-        <v>1907</v>
+        <v>1898</v>
       </c>
       <c r="W517" s="5" t="s">
-        <v>1897</v>
+        <v>1888</v>
       </c>
       <c r="X517" s="5">
         <v>99999999</v>
@@ -44365,13 +44379,13 @@
         <v>0</v>
       </c>
       <c r="G518" s="5" t="s">
-        <v>1894</v>
+        <v>1885</v>
       </c>
       <c r="I518" s="5" t="s">
-        <v>1901</v>
+        <v>1892</v>
       </c>
       <c r="J518" s="5" t="s">
-        <v>1908</v>
+        <v>1899</v>
       </c>
       <c r="L518" s="5">
         <v>-33</v>
@@ -44383,19 +44397,19 @@
         <v>0</v>
       </c>
       <c r="O518" s="5" t="s">
-        <v>1880</v>
+        <v>1871</v>
       </c>
       <c r="P518" s="5">
         <v>9800</v>
       </c>
       <c r="Q518" s="5" t="s">
-        <v>1890</v>
+        <v>1881</v>
       </c>
       <c r="R518" s="10" t="s">
-        <v>1891</v>
+        <v>1882</v>
       </c>
       <c r="W518" s="5" t="s">
-        <v>1897</v>
+        <v>1888</v>
       </c>
       <c r="X518" s="5">
         <v>99999999</v>
@@ -44433,13 +44447,13 @@
         <v>0</v>
       </c>
       <c r="G519" s="5" t="s">
-        <v>1876</v>
+        <v>1867</v>
       </c>
       <c r="I519" s="5" t="s">
-        <v>1913</v>
+        <v>1904</v>
       </c>
       <c r="J519" s="5" t="s">
-        <v>1909</v>
+        <v>1900</v>
       </c>
       <c r="L519" s="5">
         <v>-33</v>
@@ -44451,16 +44465,16 @@
         <v>0</v>
       </c>
       <c r="O519" s="5" t="s">
-        <v>1880</v>
+        <v>1871</v>
       </c>
       <c r="P519" s="5">
         <v>4800</v>
       </c>
       <c r="Q519" s="5" t="s">
-        <v>1910</v>
+        <v>1901</v>
       </c>
       <c r="R519" s="10" t="s">
-        <v>1911</v>
+        <v>1902</v>
       </c>
       <c r="W519" s="5" t="s">
         <v>1179</v>
@@ -44501,13 +44515,13 @@
         <v>1</v>
       </c>
       <c r="G520" s="5" t="s">
-        <v>1912</v>
+        <v>1903</v>
       </c>
       <c r="I520" s="5" t="s">
-        <v>1914</v>
+        <v>1905</v>
       </c>
       <c r="J520" s="5" t="s">
-        <v>1915</v>
+        <v>1906</v>
       </c>
       <c r="L520" s="5">
         <v>-23</v>
@@ -44525,16 +44539,16 @@
         <v>1000</v>
       </c>
       <c r="Q520" s="5" t="s">
-        <v>1916</v>
+        <v>1907</v>
       </c>
       <c r="R520" s="10" t="s">
-        <v>1917</v>
+        <v>1908</v>
       </c>
       <c r="S520" s="5" t="s">
-        <v>1919</v>
+        <v>1910</v>
       </c>
       <c r="W520" s="5" t="s">
-        <v>1920</v>
+        <v>1911</v>
       </c>
       <c r="X520" s="5">
         <v>99999999</v>
@@ -44563,13 +44577,13 @@
         <v>1</v>
       </c>
       <c r="G521" s="75" t="s">
-        <v>1921</v>
+        <v>1912</v>
       </c>
       <c r="I521" s="75" t="s">
-        <v>1925</v>
+        <v>1916</v>
       </c>
       <c r="J521" s="75" t="s">
-        <v>1928</v>
+        <v>1919</v>
       </c>
       <c r="L521" s="75">
         <v>-33</v>
@@ -44587,13 +44601,13 @@
         <v>600</v>
       </c>
       <c r="Q521" s="75" t="s">
-        <v>1942</v>
+        <v>1933</v>
       </c>
       <c r="R521" s="76" t="s">
-        <v>1946</v>
+        <v>1937</v>
       </c>
       <c r="W521" s="75" t="s">
-        <v>1958</v>
+        <v>1949</v>
       </c>
       <c r="X521" s="75">
         <v>99999999</v>
@@ -44631,13 +44645,13 @@
         <v>1</v>
       </c>
       <c r="G522" s="75" t="s">
-        <v>1922</v>
+        <v>1913</v>
       </c>
       <c r="I522" s="75" t="s">
-        <v>1925</v>
+        <v>1916</v>
       </c>
       <c r="J522" s="75" t="s">
-        <v>1930</v>
+        <v>1921</v>
       </c>
       <c r="L522" s="75">
         <v>-33</v>
@@ -44655,10 +44669,10 @@
         <v>1000</v>
       </c>
       <c r="Q522" s="75" t="s">
-        <v>1943</v>
+        <v>1934</v>
       </c>
       <c r="R522" s="76" t="s">
-        <v>1947</v>
+        <v>1938</v>
       </c>
       <c r="W522" s="75" t="s">
         <v>1200</v>
@@ -44699,13 +44713,13 @@
         <v>1</v>
       </c>
       <c r="G523" s="75" t="s">
-        <v>1923</v>
+        <v>1914</v>
       </c>
       <c r="I523" s="75" t="s">
-        <v>1925</v>
+        <v>1916</v>
       </c>
       <c r="J523" s="75" t="s">
-        <v>1931</v>
+        <v>1922</v>
       </c>
       <c r="L523" s="75">
         <v>-33</v>
@@ -44723,10 +44737,10 @@
         <v>1800</v>
       </c>
       <c r="Q523" s="75" t="s">
-        <v>1944</v>
+        <v>1935</v>
       </c>
       <c r="R523" s="76" t="s">
-        <v>1948</v>
+        <v>1939</v>
       </c>
       <c r="W523" s="75" t="s">
         <v>1200</v>
@@ -44767,13 +44781,13 @@
         <v>1</v>
       </c>
       <c r="G524" s="75" t="s">
-        <v>1924</v>
+        <v>1915</v>
       </c>
       <c r="I524" s="75" t="s">
-        <v>1925</v>
+        <v>1916</v>
       </c>
       <c r="J524" s="75" t="s">
-        <v>1932</v>
+        <v>1923</v>
       </c>
       <c r="L524" s="75">
         <v>-33</v>
@@ -44791,10 +44805,10 @@
         <v>4800</v>
       </c>
       <c r="Q524" s="75" t="s">
-        <v>1945</v>
+        <v>1936</v>
       </c>
       <c r="R524" s="76" t="s">
-        <v>1949</v>
+        <v>1940</v>
       </c>
       <c r="W524" s="75" t="s">
         <v>1200</v>
@@ -44835,13 +44849,13 @@
         <v>1</v>
       </c>
       <c r="G525" s="70" t="s">
-        <v>1921</v>
+        <v>1912</v>
       </c>
       <c r="I525" s="70" t="s">
-        <v>1926</v>
+        <v>1917</v>
       </c>
       <c r="J525" s="70" t="s">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="L525" s="70">
         <v>-33</v>
@@ -44859,10 +44873,10 @@
         <v>1800</v>
       </c>
       <c r="Q525" s="70" t="s">
-        <v>1942</v>
+        <v>1933</v>
       </c>
       <c r="R525" s="71" t="s">
-        <v>1955</v>
+        <v>1946</v>
       </c>
       <c r="W525" s="70" t="s">
         <v>1200</v>
@@ -44903,13 +44917,13 @@
         <v>1</v>
       </c>
       <c r="G526" s="70" t="s">
-        <v>1922</v>
+        <v>1913</v>
       </c>
       <c r="I526" s="70" t="s">
-        <v>1926</v>
+        <v>1917</v>
       </c>
       <c r="J526" s="70" t="s">
-        <v>1933</v>
+        <v>1924</v>
       </c>
       <c r="L526" s="70">
         <v>-33</v>
@@ -44927,10 +44941,10 @@
         <v>4800</v>
       </c>
       <c r="Q526" s="70" t="s">
-        <v>1943</v>
+        <v>1934</v>
       </c>
       <c r="R526" s="71" t="s">
-        <v>1956</v>
+        <v>1947</v>
       </c>
       <c r="W526" s="70" t="s">
         <v>1200</v>
@@ -44971,13 +44985,13 @@
         <v>1</v>
       </c>
       <c r="G527" s="70" t="s">
-        <v>1923</v>
+        <v>1914</v>
       </c>
       <c r="I527" s="70" t="s">
-        <v>1926</v>
+        <v>1917</v>
       </c>
       <c r="J527" s="70" t="s">
-        <v>1934</v>
+        <v>1925</v>
       </c>
       <c r="L527" s="70">
         <v>-33</v>
@@ -44995,10 +45009,10 @@
         <v>9800</v>
       </c>
       <c r="Q527" s="70" t="s">
-        <v>1944</v>
+        <v>1935</v>
       </c>
       <c r="R527" s="71" t="s">
-        <v>1957</v>
+        <v>1948</v>
       </c>
       <c r="W527" s="70" t="s">
         <v>1200</v>
@@ -45039,13 +45053,13 @@
         <v>1</v>
       </c>
       <c r="G528" s="70" t="s">
-        <v>1924</v>
+        <v>1915</v>
       </c>
       <c r="I528" s="70" t="s">
+        <v>1917</v>
+      </c>
+      <c r="J528" s="70" t="s">
         <v>1926</v>
-      </c>
-      <c r="J528" s="70" t="s">
-        <v>1935</v>
       </c>
       <c r="L528" s="70">
         <v>-33</v>
@@ -45063,10 +45077,10 @@
         <v>19800</v>
       </c>
       <c r="Q528" s="70" t="s">
-        <v>1945</v>
+        <v>1936</v>
       </c>
       <c r="R528" s="71" t="s">
-        <v>1952</v>
+        <v>1943</v>
       </c>
       <c r="W528" s="70" t="s">
         <v>1200</v>
@@ -45107,13 +45121,13 @@
         <v>1</v>
       </c>
       <c r="G529" s="75" t="s">
-        <v>1921</v>
+        <v>1912</v>
       </c>
       <c r="I529" s="75" t="s">
+        <v>1918</v>
+      </c>
+      <c r="J529" s="75" t="s">
         <v>1927</v>
-      </c>
-      <c r="J529" s="75" t="s">
-        <v>1936</v>
       </c>
       <c r="L529" s="75">
         <v>-33</v>
@@ -45131,10 +45145,10 @@
         <v>4800</v>
       </c>
       <c r="Q529" s="75" t="s">
-        <v>1942</v>
+        <v>1933</v>
       </c>
       <c r="R529" s="76" t="s">
-        <v>1950</v>
+        <v>1941</v>
       </c>
       <c r="W529" s="75" t="s">
         <v>1200</v>
@@ -45175,13 +45189,13 @@
         <v>1</v>
       </c>
       <c r="G530" s="75" t="s">
-        <v>1922</v>
+        <v>1913</v>
       </c>
       <c r="I530" s="75" t="s">
-        <v>1927</v>
+        <v>1918</v>
       </c>
       <c r="J530" s="75" t="s">
-        <v>1937</v>
+        <v>1928</v>
       </c>
       <c r="L530" s="75">
         <v>-33</v>
@@ -45199,10 +45213,10 @@
         <v>9800</v>
       </c>
       <c r="Q530" s="75" t="s">
-        <v>1943</v>
+        <v>1934</v>
       </c>
       <c r="R530" s="76" t="s">
-        <v>1954</v>
+        <v>1945</v>
       </c>
       <c r="W530" s="75" t="s">
         <v>1200</v>
@@ -45243,13 +45257,13 @@
         <v>1</v>
       </c>
       <c r="G531" s="75" t="s">
-        <v>1923</v>
+        <v>1914</v>
       </c>
       <c r="I531" s="75" t="s">
-        <v>1927</v>
+        <v>1918</v>
       </c>
       <c r="J531" s="75" t="s">
-        <v>1938</v>
+        <v>1929</v>
       </c>
       <c r="L531" s="75">
         <v>-33</v>
@@ -45267,10 +45281,10 @@
         <v>19800</v>
       </c>
       <c r="Q531" s="75" t="s">
-        <v>1944</v>
+        <v>1935</v>
       </c>
       <c r="R531" s="76" t="s">
-        <v>1951</v>
+        <v>1942</v>
       </c>
       <c r="W531" s="75" t="s">
         <v>1200</v>
@@ -45311,13 +45325,13 @@
         <v>1</v>
       </c>
       <c r="G532" s="75" t="s">
-        <v>1924</v>
+        <v>1915</v>
       </c>
       <c r="I532" s="75" t="s">
-        <v>1927</v>
+        <v>1918</v>
       </c>
       <c r="J532" s="75" t="s">
-        <v>1939</v>
+        <v>1930</v>
       </c>
       <c r="L532" s="75">
         <v>-33</v>
@@ -45335,10 +45349,10 @@
         <v>49800</v>
       </c>
       <c r="Q532" s="75" t="s">
-        <v>1945</v>
+        <v>1936</v>
       </c>
       <c r="R532" s="76" t="s">
-        <v>1953</v>
+        <v>1944</v>
       </c>
       <c r="W532" s="75" t="s">
         <v>1200</v>
@@ -46338,7 +46352,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>1847</v>
+        <v>1841</v>
       </c>
       <c r="C67" s="12">
         <v>1</v>
@@ -46352,7 +46366,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>1848</v>
+        <v>1842</v>
       </c>
       <c r="C68" s="12">
         <v>1</v>
@@ -46366,7 +46380,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>1892</v>
+        <v>1883</v>
       </c>
       <c r="C69" s="12">
         <v>1</v>
@@ -46380,7 +46394,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>1893</v>
+        <v>1884</v>
       </c>
       <c r="C70" s="12">
         <v>1</v>
@@ -46394,7 +46408,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="78" t="s">
-        <v>1960</v>
+        <v>1951</v>
       </c>
       <c r="C71" s="77">
         <v>1</v>
@@ -46408,7 +46422,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="78" t="s">
-        <v>1961</v>
+        <v>1952</v>
       </c>
       <c r="C72" s="77">
         <v>1</v>
@@ -46422,7 +46436,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="78" t="s">
-        <v>1962</v>
+        <v>1953</v>
       </c>
       <c r="C73" s="77">
         <v>1</v>
